--- a/dumps/Stocks/Syngene International Ltd.xlsx
+++ b/dumps/Stocks/Syngene International Ltd.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -474,6 +475,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +783,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1041"/>
+  <dimension ref="A1:AP1042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1130,43 +1132,47 @@
       <c r="AP4" s="66" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="98" t="n">
-        <v>46057</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="99" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>471.15</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>4744.94</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>28.72</v>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>449.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2264.94</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="98" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1179,13 +1185,13 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>505.2</v>
+        <v>471.15</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>508.8</v>
+        <v>4744.94</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1193,10 +1199,10 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.51</v>
+        <v>4.72</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3.09</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="7">
@@ -1214,13 +1220,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>505.2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4579.07</v>
+        <v>508.8</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1228,15 +1234,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>4.55</v>
+        <v>0.51</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>27.72</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="98" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1249,13 +1255,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>600.85</v>
+        <v>505.2</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3025.53</v>
+        <v>4579.07</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1263,15 +1269,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.01</v>
+        <v>4.55</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>18.27</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="98" t="n">
-        <v>46034</v>
+        <v>46044</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1287,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>626.75</v>
+        <v>600.85</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3155.95</v>
+        <v>3025.53</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1298,19 +1304,19 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>19.06</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="98" t="n">
-        <v>46015</v>
+        <v>46034</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1322,10 +1328,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>656.3</v>
+        <v>626.75</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3304.76</v>
+        <v>3155.95</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1333,15 +1339,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>20</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="98" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1357,10 +1363,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>659.35</v>
+        <v>656.3</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3320.14</v>
+        <v>3304.76</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1368,15 +1374,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>45993</v>
+        <v>46014</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1389,13 +1395,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>638.9</v>
+        <v>659.35</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>643.4299999999999</v>
+        <v>3320.14</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1403,10 +1409,10 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.64</v>
+        <v>3.29</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>3.89</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="13">
@@ -1424,13 +1430,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>638.95</v>
+        <v>638.9</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2573.92</v>
+        <v>643.4299999999999</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1438,15 +1444,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>2.57</v>
+        <v>0.64</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>15.55</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="98" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1459,13 +1465,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>646.8</v>
+        <v>638.95</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3256.92</v>
+        <v>2573.92</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1473,19 +1479,19 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.22</v>
+        <v>2.57</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>19.7</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1497,10 +1503,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>638.5</v>
+        <v>646.8</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3215.11</v>
+        <v>3256.92</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1508,15 +1514,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.19</v>
+        <v>3.22</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>19.42</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="98" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1532,10 +1538,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>634.35</v>
+        <v>638.5</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3194.23</v>
+        <v>3215.11</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1543,15 +1549,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.15</v>
+        <v>3.19</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>19.33</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1564,13 +1570,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>656.5</v>
+        <v>634.35</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4628.06</v>
+        <v>3194.23</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1578,10 +1584,10 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>4.62</v>
+        <v>3.15</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>27.94</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="18">
@@ -1599,13 +1605,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>656.5</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1322.29</v>
+        <v>4628.06</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1613,10 +1619,10 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1.31</v>
+        <v>4.62</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>7.98</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="19">
@@ -1634,13 +1640,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>656.5</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>661.16</v>
+        <v>1322.29</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1648,15 +1654,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.66</v>
+        <v>1.31</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>4</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="98" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1669,13 +1675,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>669.9</v>
+        <v>656.5</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2023.94</v>
+        <v>661.16</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1683,10 +1689,10 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>12.24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1704,13 +1710,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>669.9</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>674.64</v>
+        <v>2023.94</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1718,10 +1724,10 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>4.07</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="22">
@@ -1761,11 +1767,11 @@
     </row>
     <row r="23">
       <c r="A23" s="98" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1774,13 +1780,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>616.05</v>
+        <v>669.9</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3102.12</v>
+        <v>674.64</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1788,19 +1794,19 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>3.08</v>
+        <v>0.67</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>18.79</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="98" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1812,10 +1818,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>656</v>
+        <v>616.05</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3303.23</v>
+        <v>3102.12</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1823,15 +1829,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>19.96</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="98" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1847,10 +1853,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3313.29</v>
+        <v>3303.23</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1858,15 +1864,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>20.01</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1879,13 +1885,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>661.6</v>
+        <v>658</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>666.29</v>
+        <v>3313.29</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1893,10 +1899,10 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.66</v>
+        <v>3.28</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>4.03</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="27">
@@ -1914,13 +1920,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>661.5</v>
+        <v>661.6</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1998.58</v>
+        <v>666.29</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1928,10 +1934,10 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.99</v>
+        <v>0.66</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>12.09</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="28">
@@ -1949,13 +1955,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>661.6</v>
+        <v>661.5</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>666.29</v>
+        <v>1998.58</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1963,19 +1969,19 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.66</v>
+        <v>1.99</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>4.03</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
@@ -1984,13 +1990,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>661.9</v>
+        <v>661.6</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3332.98</v>
+        <v>666.29</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -1998,19 +2004,19 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>3.31</v>
+        <v>0.66</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>20.17</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="98" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
@@ -2022,10 +2028,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>652.7</v>
+        <v>661.9</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3286.6</v>
+        <v>3332.98</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2033,15 +2039,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>19.85</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="98" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2054,13 +2060,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>644</v>
+        <v>652.7</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>6485.66</v>
+        <v>3286.6</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2068,15 +2074,15 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>6.43</v>
+        <v>3.25</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>39.23</v>
+        <v>19.85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="98" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -2092,10 +2098,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>6405.08</v>
+        <v>6485.66</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2103,148 +2109,85 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>6.37</v>
+        <v>6.43</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>38.71</v>
+        <v>39.23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="98" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>636</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>6405.08</v>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="98" t="n">
         <v>45897</v>
       </c>
-      <c r="B33" s="0" t="inlineStr">
+      <c r="B34" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C33" s="0" t="inlineStr">
+      <c r="C34" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D34" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E34" s="0" t="n">
         <v>641.2</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F34" s="0" t="n">
         <v>3228.8</v>
       </c>
-      <c r="G33" s="0" t="inlineStr">
+      <c r="G34" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>3.21</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I34" s="0" t="n">
         <v>19.59</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B34" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C34" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D34" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E34" s="41" t="n">
-        <v>648.5700000000001</v>
-      </c>
-      <c r="F34" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G34" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H34" s="40" t="n"/>
-      <c r="I34" s="40" t="n"/>
-      <c r="J34" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K34" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N34" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O34" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S34" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W34" s="47" t="n"/>
-      <c r="X34" s="47" t="n"/>
-      <c r="Y34" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z34" s="47" t="n"/>
-      <c r="AA34" s="47" t="n"/>
-      <c r="AB34" s="48" t="n"/>
-      <c r="AC34" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD34" s="49" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
@@ -2260,10 +2203,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>640.51</v>
+        <v>648.5700000000001</v>
       </c>
       <c r="F35" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G35" s="39" t="inlineStr">
@@ -2278,71 +2221,71 @@
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD35" s="49" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45897</v>
+        <v>45947</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
@@ -2355,95 +2298,92 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>645.76</v>
-      </c>
-      <c r="F36" s="41" t="n">
-        <v>3228.8</v>
+        <v>640.51</v>
+      </c>
+      <c r="F36" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H36" s="40" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="I36" s="40" t="n">
-        <v>19.59</v>
-      </c>
+      <c r="H36" s="40" t="n"/>
+      <c r="I36" s="40" t="n"/>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45855</v>
+        <v>45897</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
@@ -2459,10 +2399,10 @@
         <v>5</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>680</v>
+        <v>645.76</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>3399.98</v>
+        <v>3228.8</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
@@ -2470,85 +2410,85 @@
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>20.6</v>
+        <v>19.59</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45835</v>
+        <v>45855</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C38" s="39" t="inlineStr">
@@ -2557,189 +2497,189 @@
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>1.25</v>
+        <v>680</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>12.5</v>
+        <v>3399.98</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="50" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B39" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C39" s="51" t="inlineStr">
+      <c r="A39" s="38" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B39" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C39" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D39" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="F39" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="G39" s="51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H39" s="52" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I39" s="52" t="n">
-        <v>4.14</v>
+      <c r="D39" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" s="41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F39" s="41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G39" s="39" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+        </is>
+      </c>
+      <c r="H39" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="40" t="n">
+        <v>0</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
@@ -2759,13 +2699,13 @@
         </is>
       </c>
       <c r="D40" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="53" t="n">
         <v>683.97</v>
       </c>
       <c r="F40" s="53" t="n">
-        <v>1367.94</v>
+        <v>683.97</v>
       </c>
       <c r="G40" s="51" t="inlineStr">
         <is>
@@ -2773,81 +2713,81 @@
         </is>
       </c>
       <c r="H40" s="52" t="n">
-        <v>1.37</v>
+        <v>0.68</v>
       </c>
       <c r="I40" s="52" t="n">
-        <v>8.27</v>
+        <v>4.14</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="50" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B41" s="51" t="inlineStr">
         <is>
@@ -2860,13 +2800,13 @@
         </is>
       </c>
       <c r="D41" s="52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" s="53" t="n">
-        <v>664.02</v>
+        <v>683.97</v>
       </c>
       <c r="F41" s="53" t="n">
-        <v>3320.12</v>
+        <v>1367.94</v>
       </c>
       <c r="G41" s="51" t="inlineStr">
         <is>
@@ -2874,81 +2814,81 @@
         </is>
       </c>
       <c r="H41" s="52" t="n">
-        <v>3.29</v>
+        <v>1.37</v>
       </c>
       <c r="I41" s="52" t="n">
-        <v>20.08</v>
+        <v>8.27</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="50" t="n">
-        <v>45694</v>
+        <v>45716</v>
       </c>
       <c r="B42" s="51" t="inlineStr">
         <is>
@@ -2961,13 +2901,13 @@
         </is>
       </c>
       <c r="D42" s="52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E42" s="53" t="n">
-        <v>751.83</v>
+        <v>664.02</v>
       </c>
       <c r="F42" s="53" t="n">
-        <v>1503.66</v>
+        <v>3320.12</v>
       </c>
       <c r="G42" s="51" t="inlineStr">
         <is>
@@ -2975,81 +2915,81 @@
         </is>
       </c>
       <c r="H42" s="52" t="n">
-        <v>1.49</v>
+        <v>3.29</v>
       </c>
       <c r="I42" s="52" t="n">
-        <v>9.07</v>
+        <v>20.08</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD42" s="49" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="50" t="n">
-        <v>44084</v>
+        <v>45694</v>
       </c>
       <c r="B43" s="51" t="inlineStr">
         <is>
@@ -3058,17 +2998,17 @@
       </c>
       <c r="C43" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D43" s="52" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E43" s="53" t="n">
-        <v>481.64</v>
+        <v>751.83</v>
       </c>
       <c r="F43" s="53" t="n">
-        <v>24081.77</v>
+        <v>1503.66</v>
       </c>
       <c r="G43" s="51" t="inlineStr">
         <is>
@@ -3076,81 +3016,81 @@
         </is>
       </c>
       <c r="H43" s="52" t="n">
-        <v>22.15</v>
+        <v>1.49</v>
       </c>
       <c r="I43" s="52" t="n">
-        <v>146.08</v>
+        <v>9.07</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W43" s="47" t="n"/>
       <c r="X43" s="47" t="n"/>
       <c r="Y43" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z43" s="47" t="n"/>
       <c r="AA43" s="47" t="n"/>
       <c r="AB43" s="48" t="n"/>
       <c r="AC43" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD43" s="49" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="50" t="n">
-        <v>44075</v>
+        <v>44084</v>
       </c>
       <c r="B44" s="51" t="inlineStr">
         <is>
@@ -3163,13 +3103,13 @@
         </is>
       </c>
       <c r="D44" s="52" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E44" s="53" t="n">
-        <v>476.52</v>
+        <v>481.64</v>
       </c>
       <c r="F44" s="53" t="n">
-        <v>28591.3</v>
+        <v>24081.77</v>
       </c>
       <c r="G44" s="51" t="inlineStr">
         <is>
@@ -3177,81 +3117,81 @@
         </is>
       </c>
       <c r="H44" s="52" t="n">
-        <v>29</v>
+        <v>22.15</v>
       </c>
       <c r="I44" s="52" t="n">
-        <v>170.7</v>
+        <v>146.08</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W44" s="47" t="n"/>
       <c r="X44" s="47" t="n"/>
       <c r="Y44" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z44" s="47" t="n"/>
       <c r="AA44" s="47" t="n"/>
       <c r="AB44" s="48" t="n"/>
       <c r="AC44" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD44" s="49" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="50" t="n">
-        <v>44060</v>
+        <v>44075</v>
       </c>
       <c r="B45" s="51" t="inlineStr">
         <is>
@@ -3264,13 +3204,13 @@
         </is>
       </c>
       <c r="D45" s="52" t="n">
-        <v>50</v>
-      </c>
-      <c r="E45" s="54" t="n">
-        <v>484.77</v>
+        <v>60</v>
+      </c>
+      <c r="E45" s="53" t="n">
+        <v>476.52</v>
       </c>
       <c r="F45" s="53" t="n">
-        <v>24238.46</v>
+        <v>28591.3</v>
       </c>
       <c r="G45" s="51" t="inlineStr">
         <is>
@@ -3278,81 +3218,81 @@
         </is>
       </c>
       <c r="H45" s="52" t="n">
-        <v>22.16</v>
+        <v>29</v>
       </c>
       <c r="I45" s="52" t="n">
-        <v>146.28</v>
+        <v>170.7</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W45" s="47" t="n"/>
       <c r="X45" s="47" t="n"/>
       <c r="Y45" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z45" s="47" t="n"/>
       <c r="AA45" s="47" t="n"/>
       <c r="AB45" s="48" t="n"/>
       <c r="AC45" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD45" s="49" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="50" t="n">
-        <v>44055</v>
+        <v>44060</v>
       </c>
       <c r="B46" s="51" t="inlineStr">
         <is>
@@ -3368,10 +3308,10 @@
         <v>50</v>
       </c>
       <c r="E46" s="54" t="n">
-        <v>489.63</v>
+        <v>484.77</v>
       </c>
       <c r="F46" s="53" t="n">
-        <v>24481.54</v>
+        <v>24238.46</v>
       </c>
       <c r="G46" s="51" t="inlineStr">
         <is>
@@ -3379,81 +3319,81 @@
         </is>
       </c>
       <c r="H46" s="52" t="n">
-        <v>24.74</v>
+        <v>22.16</v>
       </c>
       <c r="I46" s="52" t="n">
-        <v>148.72</v>
+        <v>146.28</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W46" s="47" t="n"/>
       <c r="X46" s="47" t="n"/>
       <c r="Y46" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z46" s="47" t="n"/>
       <c r="AA46" s="47" t="n"/>
       <c r="AB46" s="48" t="n"/>
       <c r="AC46" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD46" s="49" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B47" s="51" t="inlineStr">
         <is>
@@ -3469,10 +3409,10 @@
         <v>50</v>
       </c>
       <c r="E47" s="54" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="F47" s="53" t="n">
-        <v>23504.1</v>
+        <v>24481.54</v>
       </c>
       <c r="G47" s="51" t="inlineStr">
         <is>
@@ -3480,81 +3420,81 @@
         </is>
       </c>
       <c r="H47" s="52" t="n">
-        <v>23.54</v>
+        <v>24.74</v>
       </c>
       <c r="I47" s="52" t="n">
-        <v>142.36</v>
+        <v>148.72</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W47" s="47" t="n"/>
       <c r="X47" s="47" t="n"/>
       <c r="Y47" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z47" s="47" t="n"/>
       <c r="AA47" s="47" t="n"/>
       <c r="AB47" s="48" t="n"/>
       <c r="AC47" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD47" s="49" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B48" s="51" t="inlineStr">
         <is>
@@ -3570,10 +3510,10 @@
         <v>50</v>
       </c>
       <c r="E48" s="54" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="F48" s="53" t="n">
-        <v>23367.41</v>
+        <v>23504.1</v>
       </c>
       <c r="G48" s="51" t="inlineStr">
         <is>
@@ -3581,81 +3521,81 @@
         </is>
       </c>
       <c r="H48" s="52" t="n">
-        <v>23.55</v>
+        <v>23.54</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>141.54</v>
+        <v>142.36</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W48" s="47" t="n"/>
       <c r="X48" s="47" t="n"/>
       <c r="Y48" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z48" s="47" t="n"/>
       <c r="AA48" s="47" t="n"/>
       <c r="AB48" s="48" t="n"/>
       <c r="AC48" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD48" s="49" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="B49" s="51" t="inlineStr">
         <is>
@@ -3667,14 +3607,14 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="D49" s="55" t="n">
+      <c r="D49" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E49" s="54" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="F49" s="53" t="n">
-        <v>23201.97</v>
+        <v>23367.41</v>
       </c>
       <c r="G49" s="51" t="inlineStr">
         <is>
@@ -3682,81 +3622,81 @@
         </is>
       </c>
       <c r="H49" s="52" t="n">
-        <v>23.34</v>
+        <v>23.55</v>
       </c>
       <c r="I49" s="52" t="n">
-        <v>139.69</v>
+        <v>141.54</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W49" s="47" t="n"/>
       <c r="X49" s="47" t="n"/>
       <c r="Y49" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z49" s="47" t="n"/>
       <c r="AA49" s="47" t="n"/>
       <c r="AB49" s="48" t="n"/>
       <c r="AC49" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD49" s="49" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="B50" s="51" t="inlineStr">
         <is>
@@ -3772,10 +3712,10 @@
         <v>50</v>
       </c>
       <c r="E50" s="54" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="F50" s="53" t="n">
-        <v>23785.87</v>
+        <v>23201.97</v>
       </c>
       <c r="G50" s="51" t="inlineStr">
         <is>
@@ -3783,81 +3723,81 @@
         </is>
       </c>
       <c r="H50" s="52" t="n">
-        <v>24.24</v>
+        <v>23.34</v>
       </c>
       <c r="I50" s="52" t="n">
-        <v>142.39</v>
+        <v>139.69</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W50" s="47" t="n"/>
       <c r="X50" s="47" t="n"/>
       <c r="Y50" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z50" s="47" t="n"/>
       <c r="AA50" s="47" t="n"/>
       <c r="AB50" s="48" t="n"/>
       <c r="AC50" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD50" s="49" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B51" s="51" t="inlineStr">
         <is>
@@ -3873,10 +3813,10 @@
         <v>50</v>
       </c>
       <c r="E51" s="54" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="F51" s="53" t="n">
-        <v>23587.4</v>
+        <v>23785.87</v>
       </c>
       <c r="G51" s="51" t="inlineStr">
         <is>
@@ -3884,81 +3824,81 @@
         </is>
       </c>
       <c r="H51" s="52" t="n">
-        <v>24</v>
+        <v>24.24</v>
       </c>
       <c r="I51" s="52" t="n">
-        <v>141.1</v>
+        <v>142.39</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W51" s="47" t="n"/>
       <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z51" s="47" t="n"/>
       <c r="AA51" s="47" t="n"/>
       <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD51" s="49" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B52" s="51" t="inlineStr">
         <is>
@@ -3974,10 +3914,10 @@
         <v>50</v>
       </c>
       <c r="E52" s="54" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="F52" s="53" t="n">
-        <v>23224.05</v>
+        <v>23587.4</v>
       </c>
       <c r="G52" s="51" t="inlineStr">
         <is>
@@ -3985,81 +3925,81 @@
         </is>
       </c>
       <c r="H52" s="52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I52" s="52" t="n">
-        <v>138.9</v>
+        <v>141.1</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W52" s="47" t="n"/>
       <c r="X52" s="47" t="n"/>
       <c r="Y52" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z52" s="47" t="n"/>
       <c r="AA52" s="47" t="n"/>
       <c r="AB52" s="48" t="n"/>
       <c r="AC52" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD52" s="49" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B53" s="51" t="inlineStr">
         <is>
@@ -4075,10 +4015,10 @@
         <v>50</v>
       </c>
       <c r="E53" s="54" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="F53" s="53" t="n">
-        <v>22369.41</v>
+        <v>23224.05</v>
       </c>
       <c r="G53" s="51" t="inlineStr">
         <is>
@@ -4086,81 +4026,81 @@
         </is>
       </c>
       <c r="H53" s="52" t="n">
-        <v>22.73</v>
+        <v>23</v>
       </c>
       <c r="I53" s="52" t="n">
-        <v>135.36</v>
+        <v>138.9</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W53" s="47" t="n"/>
       <c r="X53" s="47" t="n"/>
       <c r="Y53" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z53" s="47" t="n"/>
       <c r="AA53" s="47" t="n"/>
       <c r="AB53" s="48" t="n"/>
       <c r="AC53" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD53" s="49" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="B54" s="51" t="inlineStr">
         <is>
@@ -4176,10 +4116,10 @@
         <v>50</v>
       </c>
       <c r="E54" s="54" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="F54" s="53" t="n">
-        <v>21896.98</v>
+        <v>22369.41</v>
       </c>
       <c r="G54" s="51" t="inlineStr">
         <is>
@@ -4187,81 +4127,81 @@
         </is>
       </c>
       <c r="H54" s="52" t="n">
-        <v>21.87</v>
+        <v>22.73</v>
       </c>
       <c r="I54" s="52" t="n">
-        <v>131.15</v>
+        <v>135.36</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W54" s="47" t="n"/>
       <c r="X54" s="47" t="n"/>
       <c r="Y54" s="46">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z54" s="47" t="n"/>
       <c r="AA54" s="47" t="n"/>
       <c r="AB54" s="48" t="n"/>
       <c r="AC54" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD54" s="49" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="50" t="n">
-        <v>43881</v>
+        <v>44025</v>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
@@ -4270,17 +4210,17 @@
       </c>
       <c r="C55" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D55" s="52" t="n">
-        <v>10</v>
-      </c>
-      <c r="E55" s="53" t="n">
-        <v>310.47</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D55" s="55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" s="54" t="n">
+        <v>437.94</v>
       </c>
       <c r="F55" s="53" t="n">
-        <v>3104.69</v>
+        <v>21896.98</v>
       </c>
       <c r="G55" s="51" t="inlineStr">
         <is>
@@ -4288,97 +4228,81 @@
         </is>
       </c>
       <c r="H55" s="52" t="n">
-        <v>3.12</v>
+        <v>21.87</v>
       </c>
       <c r="I55" s="52" t="n">
-        <v>18.57</v>
+        <v>131.15</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K55" s="47" t="n"/>
-      <c r="L55" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="M55" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
-        <v/>
-      </c>
-      <c r="N55" s="57">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
-        <v/>
-      </c>
-      <c r="O55" s="56" t="n"/>
-      <c r="P55" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="Q55" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
-        <v/>
-      </c>
-      <c r="R55" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="S55" s="56" t="n"/>
-      <c r="T55" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
-        <v/>
-      </c>
-      <c r="U55" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
-        <v/>
-      </c>
-      <c r="V55" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W55" s="53" t="n">
-        <v>476.52</v>
-      </c>
-      <c r="X55" s="50" t="n">
-        <v>44075</v>
-      </c>
+      <c r="K55" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L55" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M55" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N55" s="45">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O55" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P55" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q55" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R55" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S55" s="46">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T55" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U55" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V55" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W55" s="47" t="n"/>
+      <c r="X55" s="47" t="n"/>
       <c r="Y55" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z55" s="58">
-        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
-        <v/>
-      </c>
-      <c r="AA55" s="58">
-        <f>((E26*D26)+Z26)</f>
-        <v/>
-      </c>
-      <c r="AB55" s="59">
-        <f>D26</f>
-        <v/>
-      </c>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z55" s="47" t="n"/>
+      <c r="AA55" s="47" t="n"/>
+      <c r="AB55" s="48" t="n"/>
       <c r="AC55" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD55" s="49" t="n"/>
-      <c r="AE55" s="60" t="n"/>
-      <c r="AF55" s="60" t="n"/>
-      <c r="AG55" s="60" t="n"/>
-      <c r="AH55" s="60" t="n"/>
-      <c r="AI55" s="60" t="n"/>
-      <c r="AJ55" s="60" t="n"/>
-      <c r="AK55" s="60" t="n"/>
-      <c r="AL55" s="60" t="n"/>
-      <c r="AM55" s="60" t="n"/>
-      <c r="AN55" s="60" t="n"/>
-      <c r="AO55" s="60" t="n"/>
-      <c r="AP55" s="60" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="50" t="n">
-        <v>43865</v>
+        <v>43881</v>
       </c>
       <c r="B56" s="51" t="inlineStr">
         <is>
@@ -4394,10 +4318,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="53" t="n">
-        <v>315.21</v>
+        <v>310.47</v>
       </c>
       <c r="F56" s="53" t="n">
-        <v>3152.1</v>
+        <v>3104.69</v>
       </c>
       <c r="G56" s="51" t="inlineStr">
         <is>
@@ -4405,10 +4329,10 @@
         </is>
       </c>
       <c r="H56" s="52" t="n">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="I56" s="52" t="n">
-        <v>18.91</v>
+        <v>18.57</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
@@ -4416,41 +4340,41 @@
       </c>
       <c r="K56" s="47" t="n"/>
       <c r="L56" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M56" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N56" s="57">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O56" s="56" t="n"/>
       <c r="P56" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R56" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S56" s="56" t="n"/>
       <c r="T56" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U56" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V56" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W56" s="53" t="n">
@@ -4460,23 +4384,23 @@
         <v>44075</v>
       </c>
       <c r="Y56" s="46">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z56" s="58">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
         <v/>
       </c>
       <c r="AA56" s="58">
-        <f>((E27*D27)+Z27)</f>
+        <f>((E26*D26)+Z26)</f>
         <v/>
       </c>
       <c r="AB56" s="59">
-        <f>D27</f>
+        <f>D26</f>
         <v/>
       </c>
       <c r="AC56" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD56" s="49" t="n"/>
@@ -4495,7 +4419,7 @@
     </row>
     <row r="57">
       <c r="A57" s="50" t="n">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B57" s="51" t="inlineStr">
         <is>
@@ -4511,10 +4435,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="53" t="n">
-        <v>318.07</v>
+        <v>315.21</v>
       </c>
       <c r="F57" s="53" t="n">
-        <v>3180.66</v>
+        <v>3152.1</v>
       </c>
       <c r="G57" s="51" t="inlineStr">
         <is>
@@ -4522,10 +4446,10 @@
         </is>
       </c>
       <c r="H57" s="52" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="I57" s="52" t="n">
-        <v>19</v>
+        <v>18.91</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
@@ -4533,41 +4457,41 @@
       </c>
       <c r="K57" s="47" t="n"/>
       <c r="L57" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M57" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N57" s="57">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O57" s="56" t="n"/>
       <c r="P57" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R57" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S57" s="56" t="n"/>
       <c r="T57" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U57" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V57" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W57" s="53" t="n">
@@ -4577,23 +4501,23 @@
         <v>44075</v>
       </c>
       <c r="Y57" s="46">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z57" s="58">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA57" s="58">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB57" s="59">
-        <f>D28</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC57" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD57" s="49" t="n"/>
@@ -4612,7 +4536,7 @@
     </row>
     <row r="58">
       <c r="A58" s="50" t="n">
-        <v>43860</v>
+        <v>43864</v>
       </c>
       <c r="B58" s="51" t="inlineStr">
         <is>
@@ -4628,10 +4552,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="53" t="n">
-        <v>314.54</v>
+        <v>318.07</v>
       </c>
       <c r="F58" s="53" t="n">
-        <v>3145.39</v>
+        <v>3180.66</v>
       </c>
       <c r="G58" s="51" t="inlineStr">
         <is>
@@ -4639,10 +4563,10 @@
         </is>
       </c>
       <c r="H58" s="52" t="n">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="I58" s="52" t="n">
-        <v>18.81</v>
+        <v>19</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
@@ -4650,67 +4574,67 @@
       </c>
       <c r="K58" s="47" t="n"/>
       <c r="L58" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M58" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N58" s="57">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O58" s="56" t="n"/>
       <c r="P58" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R58" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S58" s="56" t="n"/>
       <c r="T58" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U58" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V58" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W58" s="53" t="n">
-        <v>489.63</v>
+        <v>476.52</v>
       </c>
       <c r="X58" s="50" t="n">
-        <v>44055</v>
+        <v>44075</v>
       </c>
       <c r="Y58" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z58" s="58">
-        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
         <v/>
       </c>
       <c r="AA58" s="58">
-        <f>((E29*D29)+Z29)</f>
+        <f>((E28*D28)+Z28)</f>
         <v/>
       </c>
       <c r="AB58" s="59">
-        <f>D29</f>
+        <f>D28</f>
         <v/>
       </c>
       <c r="AC58" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD58" s="49" t="n"/>
@@ -4729,7 +4653,7 @@
     </row>
     <row r="59">
       <c r="A59" s="50" t="n">
-        <v>43846</v>
+        <v>43860</v>
       </c>
       <c r="B59" s="51" t="inlineStr">
         <is>
@@ -4745,10 +4669,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="53" t="n">
-        <v>312.23</v>
+        <v>314.54</v>
       </c>
       <c r="F59" s="53" t="n">
-        <v>3122.32</v>
+        <v>3145.39</v>
       </c>
       <c r="G59" s="51" t="inlineStr">
         <is>
@@ -4756,10 +4680,10 @@
         </is>
       </c>
       <c r="H59" s="52" t="n">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="I59" s="52" t="n">
-        <v>18.66</v>
+        <v>18.81</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4767,67 +4691,67 @@
       </c>
       <c r="K59" s="47" t="n"/>
       <c r="L59" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M59" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N59" s="57">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O59" s="56" t="n"/>
       <c r="P59" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R59" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S59" s="56" t="n"/>
       <c r="T59" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U59" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V59" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W59" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X59" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y59" s="46">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z59" s="58">
-        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
+        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
         <v/>
       </c>
       <c r="AA59" s="58">
-        <f>((E30*D30)+Z30)</f>
+        <f>((E29*D29)+Z29)</f>
         <v/>
       </c>
       <c r="AB59" s="59">
-        <f>D30</f>
+        <f>D29</f>
         <v/>
       </c>
       <c r="AC59" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD59" s="49" t="n"/>
@@ -4846,7 +4770,7 @@
     </row>
     <row r="60">
       <c r="A60" s="50" t="n">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="B60" s="51" t="inlineStr">
         <is>
@@ -4859,13 +4783,13 @@
         </is>
       </c>
       <c r="D60" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E60" s="53" t="n">
-        <v>311.98</v>
+        <v>312.23</v>
       </c>
       <c r="F60" s="53" t="n">
-        <v>6239.57</v>
+        <v>3122.32</v>
       </c>
       <c r="G60" s="51" t="inlineStr">
         <is>
@@ -4873,10 +4797,10 @@
         </is>
       </c>
       <c r="H60" s="52" t="n">
-        <v>6.22</v>
+        <v>3.16</v>
       </c>
       <c r="I60" s="52" t="n">
-        <v>37.35</v>
+        <v>18.66</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -4884,67 +4808,67 @@
       </c>
       <c r="K60" s="47" t="n"/>
       <c r="L60" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M60" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N60" s="57">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O60" s="56" t="n"/>
       <c r="P60" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R60" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S60" s="56" t="n"/>
       <c r="T60" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U60" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V60" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W60" s="53" t="n">
-        <v>489.63</v>
+        <v>470.08</v>
       </c>
       <c r="X60" s="50" t="n">
-        <v>44055</v>
+        <v>44050</v>
       </c>
       <c r="Y60" s="46">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z60" s="58">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
         <v/>
       </c>
       <c r="AA60" s="58">
-        <f>((E31*D31)+Z31)</f>
+        <f>((E30*D30)+Z30)</f>
         <v/>
       </c>
       <c r="AB60" s="59">
-        <f>D31</f>
+        <f>D30</f>
         <v/>
       </c>
       <c r="AC60" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD60" s="49" t="n"/>
@@ -4963,7 +4887,7 @@
     </row>
     <row r="61">
       <c r="A61" s="50" t="n">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="B61" s="51" t="inlineStr">
         <is>
@@ -4979,10 +4903,10 @@
         <v>20</v>
       </c>
       <c r="E61" s="53" t="n">
-        <v>313.54</v>
+        <v>311.98</v>
       </c>
       <c r="F61" s="53" t="n">
-        <v>6270.73</v>
+        <v>6239.57</v>
       </c>
       <c r="G61" s="51" t="inlineStr">
         <is>
@@ -4990,10 +4914,10 @@
         </is>
       </c>
       <c r="H61" s="52" t="n">
-        <v>6.19</v>
+        <v>6.22</v>
       </c>
       <c r="I61" s="52" t="n">
-        <v>37.54</v>
+        <v>37.35</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -5001,41 +4925,41 @@
       </c>
       <c r="K61" s="47" t="n"/>
       <c r="L61" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M61" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N61" s="57">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O61" s="56" t="n"/>
       <c r="P61" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R61" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S61" s="56" t="n"/>
       <c r="T61" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U61" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V61" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W61" s="53" t="n">
@@ -5045,23 +4969,23 @@
         <v>44055</v>
       </c>
       <c r="Y61" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z61" s="58">
-        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
         <v/>
       </c>
       <c r="AA61" s="58">
-        <f>((E32*D32)+Z32)</f>
+        <f>((E31*D31)+Z31)</f>
         <v/>
       </c>
       <c r="AB61" s="59">
-        <f>D32</f>
+        <f>D31</f>
         <v/>
       </c>
       <c r="AC61" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD61" s="49" t="n"/>
@@ -5080,7 +5004,7 @@
     </row>
     <row r="62">
       <c r="A62" s="50" t="n">
-        <v>43838</v>
+        <v>43844</v>
       </c>
       <c r="B62" s="51" t="inlineStr">
         <is>
@@ -5093,13 +5017,13 @@
         </is>
       </c>
       <c r="D62" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E62" s="53" t="n">
-        <v>312.31</v>
+        <v>313.54</v>
       </c>
       <c r="F62" s="53" t="n">
-        <v>3123.14</v>
+        <v>6270.73</v>
       </c>
       <c r="G62" s="51" t="inlineStr">
         <is>
@@ -5107,10 +5031,10 @@
         </is>
       </c>
       <c r="H62" s="52" t="n">
-        <v>2.51</v>
+        <v>6.19</v>
       </c>
       <c r="I62" s="52" t="n">
-        <v>18.63</v>
+        <v>37.54</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -5118,67 +5042,67 @@
       </c>
       <c r="K62" s="47" t="n"/>
       <c r="L62" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M62" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N62" s="57">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O62" s="56" t="n"/>
       <c r="P62" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R62" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S62" s="56" t="n"/>
       <c r="T62" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
         <v/>
       </c>
       <c r="U62" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V62" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W62" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X62" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y62" s="46">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z62" s="58">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
         <v/>
       </c>
       <c r="AA62" s="58">
-        <f>((E33*D33)+Z33)</f>
+        <f>((E32*D32)+Z32)</f>
         <v/>
       </c>
       <c r="AB62" s="59">
-        <f>D33</f>
+        <f>D32</f>
         <v/>
       </c>
       <c r="AC62" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD62" s="49" t="n"/>
@@ -5197,7 +5121,7 @@
     </row>
     <row r="63">
       <c r="A63" s="50" t="n">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="B63" s="51" t="inlineStr">
         <is>
@@ -5210,13 +5134,13 @@
         </is>
       </c>
       <c r="D63" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E63" s="53" t="n">
-        <v>310.55</v>
+        <v>312.31</v>
       </c>
       <c r="F63" s="53" t="n">
-        <v>6210.95</v>
+        <v>3123.14</v>
       </c>
       <c r="G63" s="51" t="inlineStr">
         <is>
@@ -5224,10 +5148,10 @@
         </is>
       </c>
       <c r="H63" s="52" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="I63" s="52" t="n">
-        <v>37</v>
+        <v>18.63</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
@@ -5235,41 +5159,41 @@
       </c>
       <c r="K63" s="47" t="n"/>
       <c r="L63" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M63" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N63" s="57">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O63" s="56" t="n"/>
       <c r="P63" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R63" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S63" s="56" t="n"/>
       <c r="T63" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
         <v/>
       </c>
       <c r="U63" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V63" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W63" s="53" t="n">
@@ -5279,23 +5203,23 @@
         <v>44050</v>
       </c>
       <c r="Y63" s="46">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z63" s="58">
-        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
         <v/>
       </c>
       <c r="AA63" s="58">
-        <f>((E34*D34)+Z34)</f>
+        <f>((E33*D33)+Z33)</f>
         <v/>
       </c>
       <c r="AB63" s="59">
-        <f>D34</f>
+        <f>D33</f>
         <v/>
       </c>
       <c r="AC63" s="44">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD63" s="49" t="n"/>
@@ -5314,7 +5238,7 @@
     </row>
     <row r="64">
       <c r="A64" s="50" t="n">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="B64" s="51" t="inlineStr">
         <is>
@@ -5327,13 +5251,13 @@
         </is>
       </c>
       <c r="D64" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E64" s="53" t="n">
-        <v>322.16</v>
+        <v>310.55</v>
       </c>
       <c r="F64" s="53" t="n">
-        <v>3221.56</v>
+        <v>6210.95</v>
       </c>
       <c r="G64" s="51" t="inlineStr">
         <is>
@@ -5341,10 +5265,10 @@
         </is>
       </c>
       <c r="H64" s="52" t="n">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="I64" s="52" t="n">
-        <v>19.41</v>
+        <v>37</v>
       </c>
       <c r="J64" s="42">
         <f>Index!$C$2</f>
@@ -5352,41 +5276,41 @@
       </c>
       <c r="K64" s="47" t="n"/>
       <c r="L64" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M64" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N64" s="57">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O64" s="56" t="n"/>
       <c r="P64" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R64" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S64" s="56" t="n"/>
       <c r="T64" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
         <v/>
       </c>
       <c r="U64" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V64" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W64" s="53" t="n">
@@ -5396,23 +5320,23 @@
         <v>44050</v>
       </c>
       <c r="Y64" s="46">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z64" s="58">
-        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
+        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
         <v/>
       </c>
       <c r="AA64" s="58">
-        <f>((E35*D35)+Z35)</f>
+        <f>((E34*D34)+Z34)</f>
         <v/>
       </c>
       <c r="AB64" s="59">
-        <f>D35</f>
+        <f>D34</f>
         <v/>
       </c>
       <c r="AC64" s="44">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD64" s="49" t="n"/>
@@ -5431,7 +5355,7 @@
     </row>
     <row r="65">
       <c r="A65" s="50" t="n">
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B65" s="51" t="inlineStr">
         <is>
@@ -5447,10 +5371,10 @@
         <v>10</v>
       </c>
       <c r="E65" s="53" t="n">
-        <v>323.7</v>
+        <v>322.16</v>
       </c>
       <c r="F65" s="53" t="n">
-        <v>3237.01</v>
+        <v>3221.56</v>
       </c>
       <c r="G65" s="51" t="inlineStr">
         <is>
@@ -5458,10 +5382,10 @@
         </is>
       </c>
       <c r="H65" s="52" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="I65" s="52" t="n">
-        <v>19.34</v>
+        <v>19.41</v>
       </c>
       <c r="J65" s="42">
         <f>Index!$C$2</f>
@@ -5469,67 +5393,67 @@
       </c>
       <c r="K65" s="47" t="n"/>
       <c r="L65" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M65" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N65" s="57">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O65" s="56" t="n"/>
       <c r="P65" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R65" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S65" s="56" t="n"/>
       <c r="T65" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
         <v/>
       </c>
       <c r="U65" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V65" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W65" s="53" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="X65" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="Y65" s="46">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z65" s="58">
-        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
+        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
         <v/>
       </c>
       <c r="AA65" s="58">
-        <f>((E36*D36)+Z36)</f>
+        <f>((E35*D35)+Z35)</f>
         <v/>
       </c>
       <c r="AB65" s="59">
-        <f>D36</f>
+        <f>D35</f>
         <v/>
       </c>
       <c r="AC65" s="44">
-        <f>if(B36="DIV", F36,"")</f>
+        <f>if(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD65" s="49" t="n"/>
@@ -5548,7 +5472,7 @@
     </row>
     <row r="66">
       <c r="A66" s="50" t="n">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B66" s="51" t="inlineStr">
         <is>
@@ -5564,10 +5488,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="53" t="n">
-        <v>324.56</v>
+        <v>323.7</v>
       </c>
       <c r="F66" s="53" t="n">
-        <v>3245.58</v>
+        <v>3237.01</v>
       </c>
       <c r="G66" s="51" t="inlineStr">
         <is>
@@ -5575,7 +5499,7 @@
         </is>
       </c>
       <c r="H66" s="52" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="I66" s="52" t="n">
         <v>19.34</v>
@@ -5586,41 +5510,41 @@
       </c>
       <c r="K66" s="47" t="n"/>
       <c r="L66" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M66" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N66" s="57">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O66" s="56" t="n"/>
       <c r="P66" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R66" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S66" s="56" t="n"/>
       <c r="T66" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
         <v/>
       </c>
       <c r="U66" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V66" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W66" s="53" t="n">
@@ -5630,23 +5554,23 @@
         <v>44049</v>
       </c>
       <c r="Y66" s="46">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z66" s="58">
-        <f>(1-Index!$F$2*2)*((W37*D37)-(E37*D37))</f>
+        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
         <v/>
       </c>
       <c r="AA66" s="58">
-        <f>((E37*D37)+Z37)</f>
+        <f>((E36*D36)+Z36)</f>
         <v/>
       </c>
       <c r="AB66" s="59">
-        <f>D37</f>
+        <f>D36</f>
         <v/>
       </c>
       <c r="AC66" s="44">
-        <f>if(B37="DIV", F37,"")</f>
+        <f>if(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD66" s="49" t="n"/>
@@ -5665,7 +5589,7 @@
     </row>
     <row r="67">
       <c r="A67" s="50" t="n">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B67" s="51" t="inlineStr">
         <is>
@@ -5681,10 +5605,10 @@
         <v>10</v>
       </c>
       <c r="E67" s="53" t="n">
-        <v>325.67</v>
+        <v>324.56</v>
       </c>
       <c r="F67" s="53" t="n">
-        <v>3256.74</v>
+        <v>3245.58</v>
       </c>
       <c r="G67" s="51" t="inlineStr">
         <is>
@@ -5692,10 +5616,10 @@
         </is>
       </c>
       <c r="H67" s="52" t="n">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="I67" s="52" t="n">
-        <v>19.51</v>
+        <v>19.34</v>
       </c>
       <c r="J67" s="42">
         <f>Index!$C$2</f>
@@ -5703,41 +5627,41 @@
       </c>
       <c r="K67" s="47" t="n"/>
       <c r="L67" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M67" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N67" s="57">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O67" s="56" t="n"/>
       <c r="P67" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R67" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S67" s="56" t="n"/>
       <c r="T67" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
         <v/>
       </c>
       <c r="U67" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V67" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W67" s="53" t="n">
@@ -5747,23 +5671,23 @@
         <v>44049</v>
       </c>
       <c r="Y67" s="46">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z67" s="58">
-        <f>(1-Index!$F$2*2)*((W38*D38)-(E38*D38))</f>
+        <f>(1-Index!$F$2*2)*((W37*D37)-(E37*D37))</f>
         <v/>
       </c>
       <c r="AA67" s="58">
-        <f>((E38*D38)+Z38)</f>
+        <f>((E37*D37)+Z37)</f>
         <v/>
       </c>
       <c r="AB67" s="59">
-        <f>D38</f>
+        <f>D37</f>
         <v/>
       </c>
       <c r="AC67" s="44">
-        <f>if(B38="DIV", F38,"")</f>
+        <f>if(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD67" s="49" t="n"/>
@@ -5782,7 +5706,7 @@
     </row>
     <row r="68">
       <c r="A68" s="50" t="n">
-        <v>43823</v>
+        <v>43830</v>
       </c>
       <c r="B68" s="51" t="inlineStr">
         <is>
@@ -5798,10 +5722,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="53" t="n">
-        <v>307.15</v>
+        <v>325.67</v>
       </c>
       <c r="F68" s="53" t="n">
-        <v>3071.47</v>
+        <v>3256.74</v>
       </c>
       <c r="G68" s="51" t="inlineStr">
         <is>
@@ -5809,10 +5733,10 @@
         </is>
       </c>
       <c r="H68" s="52" t="n">
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="I68" s="52" t="n">
-        <v>18.41</v>
+        <v>19.51</v>
       </c>
       <c r="J68" s="42">
         <f>Index!$C$2</f>
@@ -5820,41 +5744,41 @@
       </c>
       <c r="K68" s="47" t="n"/>
       <c r="L68" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M68" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N68" s="57">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O68" s="56" t="n"/>
       <c r="P68" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R68" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S68" s="56" t="n"/>
       <c r="T68" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
         <v/>
       </c>
       <c r="U68" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V68" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W68" s="53" t="n">
@@ -5864,23 +5788,23 @@
         <v>44049</v>
       </c>
       <c r="Y68" s="46">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z68" s="58">
-        <f>(1-Index!$F$2*2)*((W39*D39)-(E39*D39))</f>
+        <f>(1-Index!$F$2*2)*((W38*D38)-(E38*D38))</f>
         <v/>
       </c>
       <c r="AA68" s="58">
-        <f>((E39*D39)+Z39)</f>
+        <f>((E38*D38)+Z38)</f>
         <v/>
       </c>
       <c r="AB68" s="59">
-        <f>D39</f>
+        <f>D38</f>
         <v/>
       </c>
       <c r="AC68" s="44">
-        <f>if(B39="DIV", F39,"")</f>
+        <f>if(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD68" s="49" t="n"/>
@@ -5899,7 +5823,7 @@
     </row>
     <row r="69">
       <c r="A69" s="50" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="B69" s="51" t="inlineStr">
         <is>
@@ -5915,10 +5839,10 @@
         <v>10</v>
       </c>
       <c r="E69" s="53" t="n">
-        <v>312.13</v>
+        <v>307.15</v>
       </c>
       <c r="F69" s="53" t="n">
-        <v>3121.27</v>
+        <v>3071.47</v>
       </c>
       <c r="G69" s="51" t="inlineStr">
         <is>
@@ -5926,49 +5850,52 @@
         </is>
       </c>
       <c r="H69" s="52" t="n">
-        <v>3.12</v>
+        <v>3.06</v>
       </c>
       <c r="I69" s="52" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="J69" s="61" t="n"/>
-      <c r="K69" s="56" t="n"/>
+        <v>18.41</v>
+      </c>
+      <c r="J69" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K69" s="47" t="n"/>
       <c r="L69" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M69" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N69" s="57">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O69" s="56" t="n"/>
       <c r="P69" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R69" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S69" s="56" t="n"/>
       <c r="T69" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
         <v/>
       </c>
       <c r="U69" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V69" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W69" s="53" t="n">
@@ -5978,23 +5905,23 @@
         <v>44049</v>
       </c>
       <c r="Y69" s="46">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z69" s="58">
-        <f>(1-Index!$F$2*2)*((W40*D40)-(E40*D40))</f>
+        <f>(1-Index!$F$2*2)*((W39*D39)-(E39*D39))</f>
         <v/>
       </c>
       <c r="AA69" s="58">
-        <f>((E40*D40)+Z40)</f>
+        <f>((E39*D39)+Z39)</f>
         <v/>
       </c>
       <c r="AB69" s="59">
-        <f>D40</f>
+        <f>D39</f>
         <v/>
       </c>
       <c r="AC69" s="44">
-        <f>if(B40="DIV", F40,"")</f>
+        <f>if(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD69" s="49" t="n"/>
@@ -6013,7 +5940,7 @@
     </row>
     <row r="70">
       <c r="A70" s="50" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="B70" s="51" t="inlineStr">
         <is>
@@ -6029,10 +5956,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="53" t="n">
-        <v>312.18</v>
+        <v>312.13</v>
       </c>
       <c r="F70" s="53" t="n">
-        <v>3121.82</v>
+        <v>3121.27</v>
       </c>
       <c r="G70" s="51" t="inlineStr">
         <is>
@@ -6040,75 +5967,75 @@
         </is>
       </c>
       <c r="H70" s="52" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="I70" s="52" t="n">
-        <v>18.69</v>
+        <v>18.65</v>
       </c>
       <c r="J70" s="61" t="n"/>
       <c r="K70" s="56" t="n"/>
       <c r="L70" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M70" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N70" s="57">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O70" s="56" t="n"/>
       <c r="P70" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R70" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S70" s="56" t="n"/>
       <c r="T70" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
         <v/>
       </c>
       <c r="U70" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V70" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W70" s="53" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="X70" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="Y70" s="46">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z70" s="58">
-        <f>(1-Index!$F$2*2)*((W41*D41)-(E41*D41))</f>
+        <f>(1-Index!$F$2*2)*((W40*D40)-(E40*D40))</f>
         <v/>
       </c>
       <c r="AA70" s="58">
-        <f>((E41*D41)+Z41)</f>
+        <f>((E40*D40)+Z40)</f>
         <v/>
       </c>
       <c r="AB70" s="59">
-        <f>D41</f>
+        <f>D40</f>
         <v/>
       </c>
       <c r="AC70" s="44">
-        <f>if(B41="DIV", F41,"")</f>
+        <f>if(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD70" s="49" t="n"/>
@@ -6127,7 +6054,7 @@
     </row>
     <row r="71">
       <c r="A71" s="50" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="B71" s="51" t="inlineStr">
         <is>
@@ -6140,13 +6067,13 @@
         </is>
       </c>
       <c r="D71" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E71" s="53" t="n">
-        <v>307.22</v>
+        <v>312.18</v>
       </c>
       <c r="F71" s="53" t="n">
-        <v>6144.32</v>
+        <v>3121.82</v>
       </c>
       <c r="G71" s="51" t="inlineStr">
         <is>
@@ -6154,52 +6081,49 @@
         </is>
       </c>
       <c r="H71" s="52" t="n">
-        <v>4.52</v>
+        <v>3.13</v>
       </c>
       <c r="I71" s="52" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="J71" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K71" s="47" t="n"/>
+        <v>18.69</v>
+      </c>
+      <c r="J71" s="61" t="n"/>
+      <c r="K71" s="56" t="n"/>
       <c r="L71" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M71" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N71" s="57">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O71" s="56" t="n"/>
       <c r="P71" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R71" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S71" s="56" t="n"/>
       <c r="T71" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
         <v/>
       </c>
       <c r="U71" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V71" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W71" s="53" t="n">
@@ -6209,30 +6133,26 @@
         <v>44048</v>
       </c>
       <c r="Y71" s="46">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z71" s="58">
-        <f>(1-Index!$F$2*2)*((W42*D42)-(E42*D42))</f>
+        <f>(1-Index!$F$2*2)*((W41*D41)-(E41*D41))</f>
         <v/>
       </c>
       <c r="AA71" s="58">
-        <f>((E42*D42)+Z42)</f>
+        <f>((E41*D41)+Z41)</f>
         <v/>
       </c>
       <c r="AB71" s="59">
-        <f>D42</f>
+        <f>D41</f>
         <v/>
       </c>
       <c r="AC71" s="44">
-        <f>if(B42="DIV", F42,"")</f>
-        <v/>
-      </c>
-      <c r="AD71" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B41="DIV", F41,"")</f>
+        <v/>
+      </c>
+      <c r="AD71" s="49" t="n"/>
       <c r="AE71" s="60" t="n"/>
       <c r="AF71" s="60" t="n"/>
       <c r="AG71" s="60" t="n"/>
@@ -6248,7 +6168,7 @@
     </row>
     <row r="72">
       <c r="A72" s="50" t="n">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="B72" s="51" t="inlineStr">
         <is>
@@ -6264,10 +6184,10 @@
         <v>20</v>
       </c>
       <c r="E72" s="53" t="n">
-        <v>302.14</v>
+        <v>307.22</v>
       </c>
       <c r="F72" s="53" t="n">
-        <v>6042.87</v>
+        <v>6144.32</v>
       </c>
       <c r="G72" s="51" t="inlineStr">
         <is>
@@ -6275,10 +6195,10 @@
         </is>
       </c>
       <c r="H72" s="52" t="n">
-        <v>5.78</v>
+        <v>4.52</v>
       </c>
       <c r="I72" s="52" t="n">
-        <v>36.09</v>
+        <v>36.8</v>
       </c>
       <c r="J72" s="42">
         <f>Index!$C$2</f>
@@ -6286,41 +6206,41 @@
       </c>
       <c r="K72" s="47" t="n"/>
       <c r="L72" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M72" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N72" s="57">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O72" s="56" t="n"/>
       <c r="P72" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R72" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S72" s="56" t="n"/>
       <c r="T72" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
         <v/>
       </c>
       <c r="U72" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V72" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W72" s="53" t="n">
@@ -6330,23 +6250,23 @@
         <v>44048</v>
       </c>
       <c r="Y72" s="46">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z72" s="58">
-        <f>(1-Index!$F$2*2)*((W43*D43)-(E43*D43))</f>
+        <f>(1-Index!$F$2*2)*((W42*D42)-(E42*D42))</f>
         <v/>
       </c>
       <c r="AA72" s="58">
-        <f>((E43*D43)+Z43)</f>
+        <f>((E42*D42)+Z42)</f>
         <v/>
       </c>
       <c r="AB72" s="59">
-        <f>D43</f>
+        <f>D42</f>
         <v/>
       </c>
       <c r="AC72" s="44">
-        <f>if(B43="DIV", F43,"")</f>
+        <f>if(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD72" s="62" t="inlineStr">
@@ -6369,7 +6289,7 @@
     </row>
     <row r="73">
       <c r="A73" s="50" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="B73" s="51" t="inlineStr">
         <is>
@@ -6382,13 +6302,13 @@
         </is>
       </c>
       <c r="D73" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E73" s="53" t="n">
-        <v>295.51</v>
+        <v>302.14</v>
       </c>
       <c r="F73" s="53" t="n">
-        <v>8865.290000000001</v>
+        <v>6042.87</v>
       </c>
       <c r="G73" s="51" t="inlineStr">
         <is>
@@ -6396,10 +6316,10 @@
         </is>
       </c>
       <c r="H73" s="52" t="n">
-        <v>8.859999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="I73" s="52" t="n">
-        <v>52.93</v>
+        <v>36.09</v>
       </c>
       <c r="J73" s="42">
         <f>Index!$C$2</f>
@@ -6407,67 +6327,67 @@
       </c>
       <c r="K73" s="47" t="n"/>
       <c r="L73" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M73" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N73" s="57">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O73" s="56" t="n"/>
       <c r="P73" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R73" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S73" s="56" t="n"/>
       <c r="T73" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
         <v/>
       </c>
       <c r="U73" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V73" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W73" s="53" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="X73" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="Y73" s="46">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z73" s="58">
-        <f>(1-Index!$F$2*2)*((W44*D44)-(E44*D44))</f>
+        <f>(1-Index!$F$2*2)*((W43*D43)-(E43*D43))</f>
         <v/>
       </c>
       <c r="AA73" s="58">
-        <f>((E44*D44)+Z44)</f>
+        <f>((E43*D43)+Z43)</f>
         <v/>
       </c>
       <c r="AB73" s="59">
-        <f>D44</f>
+        <f>D43</f>
         <v/>
       </c>
       <c r="AC73" s="44">
-        <f>if(B44="DIV", F44,"")</f>
+        <f>if(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD73" s="62" t="inlineStr">
@@ -6490,7 +6410,7 @@
     </row>
     <row r="74">
       <c r="A74" s="50" t="n">
-        <v>43812</v>
+        <v>43816</v>
       </c>
       <c r="B74" s="51" t="inlineStr">
         <is>
@@ -6503,13 +6423,13 @@
         </is>
       </c>
       <c r="D74" s="52" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E74" s="53" t="n">
-        <v>304.64</v>
+        <v>295.51</v>
       </c>
       <c r="F74" s="53" t="n">
-        <v>6092.9</v>
+        <v>8865.290000000001</v>
       </c>
       <c r="G74" s="51" t="inlineStr">
         <is>
@@ -6517,10 +6437,10 @@
         </is>
       </c>
       <c r="H74" s="52" t="n">
-        <v>4.6</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="I74" s="52" t="n">
-        <v>36.3</v>
+        <v>52.93</v>
       </c>
       <c r="J74" s="42">
         <f>Index!$C$2</f>
@@ -6528,41 +6448,41 @@
       </c>
       <c r="K74" s="47" t="n"/>
       <c r="L74" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M74" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N74" s="57">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O74" s="56" t="n"/>
       <c r="P74" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R74" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S74" s="56" t="n"/>
       <c r="T74" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
         <v/>
       </c>
       <c r="U74" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V74" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W74" s="53" t="n">
@@ -6572,23 +6492,23 @@
         <v>44042</v>
       </c>
       <c r="Y74" s="46">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z74" s="58">
-        <f>(1-Index!$F$2*2)*((W45*D45)-(E45*D45))</f>
+        <f>(1-Index!$F$2*2)*((W44*D44)-(E44*D44))</f>
         <v/>
       </c>
       <c r="AA74" s="58">
-        <f>((E45*D45)+Z45)</f>
+        <f>((E44*D44)+Z44)</f>
         <v/>
       </c>
       <c r="AB74" s="59">
-        <f>D45</f>
+        <f>D44</f>
         <v/>
       </c>
       <c r="AC74" s="44">
-        <f>if(B45="DIV", F45,"")</f>
+        <f>if(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD74" s="62" t="inlineStr">
@@ -6611,7 +6531,7 @@
     </row>
     <row r="75">
       <c r="A75" s="50" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="B75" s="51" t="inlineStr">
         <is>
@@ -6624,13 +6544,13 @@
         </is>
       </c>
       <c r="D75" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E75" s="53" t="n">
-        <v>303.24</v>
+        <v>304.64</v>
       </c>
       <c r="F75" s="53" t="n">
-        <v>9097.1</v>
+        <v>6092.9</v>
       </c>
       <c r="G75" s="51" t="inlineStr">
         <is>
@@ -6638,10 +6558,10 @@
         </is>
       </c>
       <c r="H75" s="52" t="n">
-        <v>6.59</v>
+        <v>4.6</v>
       </c>
       <c r="I75" s="52" t="n">
-        <v>54.51</v>
+        <v>36.3</v>
       </c>
       <c r="J75" s="42">
         <f>Index!$C$2</f>
@@ -6649,67 +6569,67 @@
       </c>
       <c r="K75" s="47" t="n"/>
       <c r="L75" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M75" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N75" s="57">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O75" s="56" t="n"/>
       <c r="P75" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R75" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S75" s="56" t="n"/>
       <c r="T75" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
         <v/>
       </c>
       <c r="U75" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V75" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W75" s="53" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="X75" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="Y75" s="46">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z75" s="58">
-        <f>(1-Index!$F$2*2)*((W46*D46)-(E46*D46))</f>
+        <f>(1-Index!$F$2*2)*((W45*D45)-(E45*D45))</f>
         <v/>
       </c>
       <c r="AA75" s="58">
-        <f>((E46*D46)+Z46)</f>
+        <f>((E45*D45)+Z45)</f>
         <v/>
       </c>
       <c r="AB75" s="59">
-        <f>D46</f>
+        <f>D45</f>
         <v/>
       </c>
       <c r="AC75" s="44">
-        <f>if(B46="DIV", F46,"")</f>
+        <f>if(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD75" s="62" t="inlineStr">
@@ -6732,7 +6652,7 @@
     </row>
     <row r="76">
       <c r="A76" s="50" t="n">
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="B76" s="51" t="inlineStr">
         <is>
@@ -6745,13 +6665,13 @@
         </is>
       </c>
       <c r="D76" s="52" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E76" s="53" t="n">
-        <v>310.97</v>
+        <v>303.24</v>
       </c>
       <c r="F76" s="53" t="n">
-        <v>3109.74</v>
+        <v>9097.1</v>
       </c>
       <c r="G76" s="51" t="inlineStr">
         <is>
@@ -6759,10 +6679,10 @@
         </is>
       </c>
       <c r="H76" s="52" t="n">
-        <v>2.73</v>
+        <v>6.59</v>
       </c>
       <c r="I76" s="52" t="n">
-        <v>18.51</v>
+        <v>54.51</v>
       </c>
       <c r="J76" s="42">
         <f>Index!$C$2</f>
@@ -6770,67 +6690,67 @@
       </c>
       <c r="K76" s="47" t="n"/>
       <c r="L76" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M76" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N76" s="57">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O76" s="56" t="n"/>
       <c r="P76" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R76" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S76" s="56" t="n"/>
       <c r="T76" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
         <v/>
       </c>
       <c r="U76" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V76" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W76" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X76" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y76" s="46">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z76" s="58">
-        <f>(1-Index!$F$2*2)*((W47*D47)-(E47*D47))</f>
+        <f>(1-Index!$F$2*2)*((W46*D46)-(E46*D46))</f>
         <v/>
       </c>
       <c r="AA76" s="58">
-        <f>((E47*D47)+Z47)</f>
+        <f>((E46*D46)+Z46)</f>
         <v/>
       </c>
       <c r="AB76" s="59">
-        <f>D47</f>
+        <f>D46</f>
         <v/>
       </c>
       <c r="AC76" s="44">
-        <f>if(B47="DIV", F47,"")</f>
+        <f>if(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD76" s="62" t="inlineStr">
@@ -6853,7 +6773,7 @@
     </row>
     <row r="77">
       <c r="A77" s="50" t="n">
-        <v>43801</v>
+        <v>43803</v>
       </c>
       <c r="B77" s="51" t="inlineStr">
         <is>
@@ -6866,13 +6786,13 @@
         </is>
       </c>
       <c r="D77" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E77" s="53" t="n">
-        <v>319.62</v>
+        <v>310.97</v>
       </c>
       <c r="F77" s="53" t="n">
-        <v>6392.34</v>
+        <v>3109.74</v>
       </c>
       <c r="G77" s="51" t="inlineStr">
         <is>
@@ -6880,10 +6800,10 @@
         </is>
       </c>
       <c r="H77" s="52" t="n">
-        <v>3.86</v>
+        <v>2.73</v>
       </c>
       <c r="I77" s="52" t="n">
-        <v>38.48</v>
+        <v>18.51</v>
       </c>
       <c r="J77" s="42">
         <f>Index!$C$2</f>
@@ -6891,67 +6811,67 @@
       </c>
       <c r="K77" s="47" t="n"/>
       <c r="L77" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M77" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N77" s="57">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O77" s="56" t="n"/>
       <c r="P77" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R77" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S77" s="56" t="n"/>
       <c r="T77" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
         <v/>
       </c>
       <c r="U77" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V77" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W77" s="53" t="n">
-        <v>471.75</v>
+        <v>464.48</v>
       </c>
       <c r="X77" s="50" t="n">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="Y77" s="46">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z77" s="58">
-        <f>(1-Index!$F$2*2)*((W48*D48)-(E48*D48))</f>
+        <f>(1-Index!$F$2*2)*((W47*D47)-(E47*D47))</f>
         <v/>
       </c>
       <c r="AA77" s="58">
-        <f>((E48*D48)+Z48)</f>
+        <f>((E47*D47)+Z47)</f>
         <v/>
       </c>
       <c r="AB77" s="59">
-        <f>D48</f>
+        <f>D47</f>
         <v/>
       </c>
       <c r="AC77" s="44">
-        <f>if(B48="DIV", F48,"")</f>
+        <f>if(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD77" s="62" t="inlineStr">
@@ -6974,7 +6894,7 @@
     </row>
     <row r="78">
       <c r="A78" s="50" t="n">
-        <v>43798</v>
+        <v>43801</v>
       </c>
       <c r="B78" s="51" t="inlineStr">
         <is>
@@ -6990,10 +6910,10 @@
         <v>20</v>
       </c>
       <c r="E78" s="53" t="n">
-        <v>321.79</v>
+        <v>319.62</v>
       </c>
       <c r="F78" s="53" t="n">
-        <v>6435.75</v>
+        <v>6392.34</v>
       </c>
       <c r="G78" s="51" t="inlineStr">
         <is>
@@ -7001,10 +6921,10 @@
         </is>
       </c>
       <c r="H78" s="52" t="n">
-        <v>4.11</v>
+        <v>3.86</v>
       </c>
       <c r="I78" s="52" t="n">
-        <v>38.64</v>
+        <v>38.48</v>
       </c>
       <c r="J78" s="42">
         <f>Index!$C$2</f>
@@ -7012,67 +6932,67 @@
       </c>
       <c r="K78" s="47" t="n"/>
       <c r="L78" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M78" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N78" s="57">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O78" s="56" t="n"/>
       <c r="P78" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R78" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S78" s="56" t="n"/>
       <c r="T78" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
         <v/>
       </c>
       <c r="U78" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V78" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W78" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X78" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y78" s="46">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z78" s="58">
-        <f>(1-Index!$F$2*2)*((W49*D49)-(E49*D49))</f>
+        <f>(1-Index!$F$2*2)*((W48*D48)-(E48*D48))</f>
         <v/>
       </c>
       <c r="AA78" s="58">
-        <f>((E49*D49)+Z49)</f>
+        <f>((E48*D48)+Z48)</f>
         <v/>
       </c>
       <c r="AB78" s="59">
-        <f>D49</f>
+        <f>D48</f>
         <v/>
       </c>
       <c r="AC78" s="44">
-        <f>if(B49="DIV", F49,"")</f>
+        <f>if(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD78" s="62" t="inlineStr">
@@ -7095,7 +7015,7 @@
     </row>
     <row r="79">
       <c r="A79" s="50" t="n">
-        <v>43796</v>
+        <v>43798</v>
       </c>
       <c r="B79" s="51" t="inlineStr">
         <is>
@@ -7108,13 +7028,13 @@
         </is>
       </c>
       <c r="D79" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E79" s="53" t="n">
-        <v>316.81</v>
+        <v>321.79</v>
       </c>
       <c r="F79" s="53" t="n">
-        <v>3168.11</v>
+        <v>6435.75</v>
       </c>
       <c r="G79" s="51" t="inlineStr">
         <is>
@@ -7122,10 +7042,10 @@
         </is>
       </c>
       <c r="H79" s="52" t="n">
-        <v>1.77</v>
+        <v>4.11</v>
       </c>
       <c r="I79" s="52" t="n">
-        <v>18.84</v>
+        <v>38.64</v>
       </c>
       <c r="J79" s="42">
         <f>Index!$C$2</f>
@@ -7133,41 +7053,41 @@
       </c>
       <c r="K79" s="47" t="n"/>
       <c r="L79" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M79" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N79" s="57">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O79" s="56" t="n"/>
       <c r="P79" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R79" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S79" s="56" t="n"/>
       <c r="T79" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
         <v/>
       </c>
       <c r="U79" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V79" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W79" s="53" t="n">
@@ -7177,23 +7097,23 @@
         <v>44039</v>
       </c>
       <c r="Y79" s="46">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z79" s="58">
-        <f>(1-Index!$F$2*2)*((W50*D50)-(E50*D50))</f>
+        <f>(1-Index!$F$2*2)*((W49*D49)-(E49*D49))</f>
         <v/>
       </c>
       <c r="AA79" s="58">
-        <f>((E50*D50)+Z50)</f>
+        <f>((E49*D49)+Z49)</f>
         <v/>
       </c>
       <c r="AB79" s="59">
-        <f>D50</f>
+        <f>D49</f>
         <v/>
       </c>
       <c r="AC79" s="44">
-        <f>if(B50="DIV", F50,"")</f>
+        <f>if(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD79" s="62" t="inlineStr">
@@ -7216,11 +7136,11 @@
     </row>
     <row r="80">
       <c r="A80" s="50" t="n">
-        <v>43782</v>
+        <v>43796</v>
       </c>
       <c r="B80" s="51" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C80" s="51" t="inlineStr">
@@ -7232,10 +7152,10 @@
         <v>10</v>
       </c>
       <c r="E80" s="53" t="n">
-        <v>333.25</v>
+        <v>316.81</v>
       </c>
       <c r="F80" s="53" t="n">
-        <v>3332.5</v>
+        <v>3168.11</v>
       </c>
       <c r="G80" s="51" t="inlineStr">
         <is>
@@ -7243,10 +7163,10 @@
         </is>
       </c>
       <c r="H80" s="52" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="I80" s="52" t="n">
-        <v>20.14</v>
+        <v>18.84</v>
       </c>
       <c r="J80" s="42">
         <f>Index!$C$2</f>
@@ -7254,41 +7174,41 @@
       </c>
       <c r="K80" s="47" t="n"/>
       <c r="L80" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M80" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N80" s="57">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O80" s="56" t="n"/>
       <c r="P80" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R80" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S80" s="56" t="n"/>
       <c r="T80" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
         <v/>
       </c>
       <c r="U80" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V80" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W80" s="53" t="n">
@@ -7298,23 +7218,23 @@
         <v>44039</v>
       </c>
       <c r="Y80" s="46">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z80" s="58">
-        <f>(1-Index!$F$2*2)*((W51*D51)-(E51*D51))</f>
+        <f>(1-Index!$F$2*2)*((W50*D50)-(E50*D50))</f>
         <v/>
       </c>
       <c r="AA80" s="58">
-        <f>((E51*D51)+Z51)</f>
+        <f>((E50*D50)+Z50)</f>
         <v/>
       </c>
       <c r="AB80" s="59">
-        <f>D51</f>
+        <f>D50</f>
         <v/>
       </c>
       <c r="AC80" s="44">
-        <f>if(B51="DIV", F51,"")</f>
+        <f>if(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD80" s="62" t="inlineStr">
@@ -7337,11 +7257,11 @@
     </row>
     <row r="81">
       <c r="A81" s="50" t="n">
-        <v>43707</v>
+        <v>43782</v>
       </c>
       <c r="B81" s="51" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C81" s="51" t="inlineStr">
@@ -7350,13 +7270,13 @@
         </is>
       </c>
       <c r="D81" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E81" s="53" t="n">
-        <v>305.59</v>
+        <v>333.25</v>
       </c>
       <c r="F81" s="53" t="n">
-        <v>6111.8</v>
+        <v>3332.5</v>
       </c>
       <c r="G81" s="51" t="inlineStr">
         <is>
@@ -7364,10 +7284,10 @@
         </is>
       </c>
       <c r="H81" s="52" t="n">
-        <v>6.01</v>
+        <v>1.86</v>
       </c>
       <c r="I81" s="52" t="n">
-        <v>36.79</v>
+        <v>20.14</v>
       </c>
       <c r="J81" s="42">
         <f>Index!$C$2</f>
@@ -7375,67 +7295,67 @@
       </c>
       <c r="K81" s="47" t="n"/>
       <c r="L81" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M81" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N81" s="57">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O81" s="56" t="n"/>
       <c r="P81" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R81" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S81" s="56" t="n"/>
       <c r="T81" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
         <v/>
       </c>
       <c r="U81" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V81" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W81" s="53" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="X81" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="Y81" s="46">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z81" s="58">
-        <f>(1-Index!$F$2*2)*((W52*D52)-(E52*D52))</f>
+        <f>(1-Index!$F$2*2)*((W51*D51)-(E51*D51))</f>
         <v/>
       </c>
       <c r="AA81" s="58">
-        <f>((E52*D52)+Z52)</f>
+        <f>((E51*D51)+Z51)</f>
         <v/>
       </c>
       <c r="AB81" s="59">
-        <f>D52</f>
+        <f>D51</f>
         <v/>
       </c>
       <c r="AC81" s="44">
-        <f>if(B52="DIV", F52,"")</f>
+        <f>if(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD81" s="62" t="inlineStr">
@@ -7443,10 +7363,22 @@
           <t>SBI Securities</t>
         </is>
       </c>
+      <c r="AE81" s="60" t="n"/>
+      <c r="AF81" s="60" t="n"/>
+      <c r="AG81" s="60" t="n"/>
+      <c r="AH81" s="60" t="n"/>
+      <c r="AI81" s="60" t="n"/>
+      <c r="AJ81" s="60" t="n"/>
+      <c r="AK81" s="60" t="n"/>
+      <c r="AL81" s="60" t="n"/>
+      <c r="AM81" s="60" t="n"/>
+      <c r="AN81" s="60" t="n"/>
+      <c r="AO81" s="60" t="n"/>
+      <c r="AP81" s="60" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="50" t="n">
-        <v>43697</v>
+        <v>43707</v>
       </c>
       <c r="B82" s="51" t="inlineStr">
         <is>
@@ -7459,13 +7391,13 @@
         </is>
       </c>
       <c r="D82" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E82" s="53" t="n">
-        <v>303.43</v>
+        <v>305.59</v>
       </c>
       <c r="F82" s="53" t="n">
-        <v>3034.27</v>
+        <v>6111.8</v>
       </c>
       <c r="G82" s="51" t="inlineStr">
         <is>
@@ -7473,10 +7405,10 @@
         </is>
       </c>
       <c r="H82" s="52" t="n">
-        <v>2.86</v>
+        <v>6.01</v>
       </c>
       <c r="I82" s="52" t="n">
-        <v>18.41</v>
+        <v>36.79</v>
       </c>
       <c r="J82" s="42">
         <f>Index!$C$2</f>
@@ -7484,41 +7416,41 @@
       </c>
       <c r="K82" s="47" t="n"/>
       <c r="L82" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M82" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N82" s="57">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O82" s="56" t="n"/>
       <c r="P82" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R82" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S82" s="56" t="n"/>
       <c r="T82" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
         <v/>
       </c>
       <c r="U82" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V82" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W82" s="53" t="n">
@@ -7528,23 +7460,23 @@
         <v>44036</v>
       </c>
       <c r="Y82" s="46">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z82" s="58">
-        <f>(1-Index!$F$2*2)*((W53*D53)-(E53*D53))</f>
+        <f>(1-Index!$F$2*2)*((W52*D52)-(E52*D52))</f>
         <v/>
       </c>
       <c r="AA82" s="58">
-        <f>((E53*D53)+Z53)</f>
+        <f>((E52*D52)+Z52)</f>
         <v/>
       </c>
       <c r="AB82" s="59">
-        <f>D53</f>
+        <f>D52</f>
         <v/>
       </c>
       <c r="AC82" s="44">
-        <f>if(B53="DIV", F53,"")</f>
+        <f>if(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD82" s="62" t="inlineStr">
@@ -7555,7 +7487,7 @@
     </row>
     <row r="83">
       <c r="A83" s="50" t="n">
-        <v>43685</v>
+        <v>43697</v>
       </c>
       <c r="B83" s="51" t="inlineStr">
         <is>
@@ -7571,10 +7503,10 @@
         <v>10</v>
       </c>
       <c r="E83" s="53" t="n">
-        <v>309.25</v>
+        <v>303.43</v>
       </c>
       <c r="F83" s="53" t="n">
-        <v>3092.54</v>
+        <v>3034.27</v>
       </c>
       <c r="G83" s="51" t="inlineStr">
         <is>
@@ -7582,10 +7514,10 @@
         </is>
       </c>
       <c r="H83" s="52" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="I83" s="52" t="n">
-        <v>18.58</v>
+        <v>18.41</v>
       </c>
       <c r="J83" s="42">
         <f>Index!$C$2</f>
@@ -7593,41 +7525,41 @@
       </c>
       <c r="K83" s="47" t="n"/>
       <c r="L83" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M83" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N83" s="57">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O83" s="56" t="n"/>
       <c r="P83" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R83" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S83" s="56" t="n"/>
       <c r="T83" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
         <v/>
       </c>
       <c r="U83" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V83" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W83" s="53" t="n">
@@ -7637,23 +7569,23 @@
         <v>44036</v>
       </c>
       <c r="Y83" s="46">
-        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
         <v/>
       </c>
       <c r="Z83" s="58">
-        <f>(1-Index!$F$2*2)*((W54*D54)-(E54*D54))</f>
+        <f>(1-Index!$F$2*2)*((W53*D53)-(E53*D53))</f>
         <v/>
       </c>
       <c r="AA83" s="58">
-        <f>((E54*D54)+Z54)</f>
+        <f>((E53*D53)+Z53)</f>
         <v/>
       </c>
       <c r="AB83" s="59">
-        <f>D54</f>
+        <f>D53</f>
         <v/>
       </c>
       <c r="AC83" s="44">
-        <f>if(B54="DIV", F54,"")</f>
+        <f>if(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD83" s="62" t="inlineStr">
@@ -7664,7 +7596,7 @@
     </row>
     <row r="84">
       <c r="A84" s="50" t="n">
-        <v>43682</v>
+        <v>43685</v>
       </c>
       <c r="B84" s="51" t="inlineStr">
         <is>
@@ -7680,10 +7612,10 @@
         <v>10</v>
       </c>
       <c r="E84" s="53" t="n">
-        <v>301.86</v>
+        <v>309.25</v>
       </c>
       <c r="F84" s="53" t="n">
-        <v>3018.58</v>
+        <v>3092.54</v>
       </c>
       <c r="G84" s="51" t="inlineStr">
         <is>
@@ -7691,10 +7623,10 @@
         </is>
       </c>
       <c r="H84" s="52" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="I84" s="52" t="n">
-        <v>18.09</v>
+        <v>18.58</v>
       </c>
       <c r="J84" s="42">
         <f>Index!$C$2</f>
@@ -7702,41 +7634,41 @@
       </c>
       <c r="K84" s="47" t="n"/>
       <c r="L84" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M84" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N84" s="57">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O84" s="56" t="n"/>
       <c r="P84" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R84" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S84" s="56" t="n"/>
       <c r="T84" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
         <v/>
       </c>
       <c r="U84" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V84" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W84" s="53" t="n">
@@ -7746,23 +7678,23 @@
         <v>44036</v>
       </c>
       <c r="Y84" s="46">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
         <v/>
       </c>
       <c r="Z84" s="58">
-        <f>(1-Index!$F$2*2)*((W55*D55)-(E55*D55))</f>
+        <f>(1-Index!$F$2*2)*((W54*D54)-(E54*D54))</f>
         <v/>
       </c>
       <c r="AA84" s="58">
-        <f>((E55*D55)+Z55)</f>
+        <f>((E54*D54)+Z54)</f>
         <v/>
       </c>
       <c r="AB84" s="59">
-        <f>D55</f>
+        <f>D54</f>
         <v/>
       </c>
       <c r="AC84" s="44">
-        <f>if(B55="DIV", F55,"")</f>
+        <f>if(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD84" s="62" t="inlineStr">
@@ -7773,7 +7705,7 @@
     </row>
     <row r="85">
       <c r="A85" s="50" t="n">
-        <v>43678</v>
+        <v>43682</v>
       </c>
       <c r="B85" s="51" t="inlineStr">
         <is>
@@ -7786,13 +7718,13 @@
         </is>
       </c>
       <c r="D85" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E85" s="53" t="n">
-        <v>300.3</v>
+        <v>301.86</v>
       </c>
       <c r="F85" s="53" t="n">
-        <v>6005.97</v>
+        <v>3018.58</v>
       </c>
       <c r="G85" s="51" t="inlineStr">
         <is>
@@ -7800,10 +7732,10 @@
         </is>
       </c>
       <c r="H85" s="52" t="n">
-        <v>6.02</v>
+        <v>2.99</v>
       </c>
       <c r="I85" s="52" t="n">
-        <v>35.95</v>
+        <v>18.09</v>
       </c>
       <c r="J85" s="42">
         <f>Index!$C$2</f>
@@ -7811,67 +7743,67 @@
       </c>
       <c r="K85" s="47" t="n"/>
       <c r="L85" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="M85" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
         <v/>
       </c>
       <c r="N85" s="57">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
         <v/>
       </c>
       <c r="O85" s="56" t="n"/>
       <c r="P85" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
         <v/>
       </c>
       <c r="R85" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="S85" s="56" t="n"/>
       <c r="T85" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
         <v/>
       </c>
       <c r="U85" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
         <v/>
       </c>
       <c r="V85" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="W85" s="53" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="X85" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="Y85" s="46">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/sum(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
         <v/>
       </c>
       <c r="Z85" s="58">
-        <f>(1-Index!$F$2*2)*((W56*D56)-(E56*D56))</f>
+        <f>(1-Index!$F$2*2)*((W55*D55)-(E55*D55))</f>
         <v/>
       </c>
       <c r="AA85" s="58">
-        <f>((E56*D56)+Z56)</f>
+        <f>((E55*D55)+Z55)</f>
         <v/>
       </c>
       <c r="AB85" s="59">
-        <f>D56</f>
+        <f>D55</f>
         <v/>
       </c>
       <c r="AC85" s="44">
-        <f>if(B56="DIV", F56,"")</f>
+        <f>if(B55="DIV", F55,"")</f>
         <v/>
       </c>
       <c r="AD85" s="62" t="inlineStr">
@@ -7882,7 +7814,7 @@
     </row>
     <row r="86">
       <c r="A86" s="50" t="n">
-        <v>43670</v>
+        <v>43678</v>
       </c>
       <c r="B86" s="51" t="inlineStr">
         <is>
@@ -7895,13 +7827,13 @@
         </is>
       </c>
       <c r="D86" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E86" s="53" t="n">
-        <v>317.82</v>
+        <v>300.3</v>
       </c>
       <c r="F86" s="53" t="n">
-        <v>3178.2</v>
+        <v>6005.97</v>
       </c>
       <c r="G86" s="51" t="inlineStr">
         <is>
@@ -7909,10 +7841,10 @@
         </is>
       </c>
       <c r="H86" s="52" t="n">
-        <v>3.13</v>
+        <v>6.02</v>
       </c>
       <c r="I86" s="52" t="n">
-        <v>19.07</v>
+        <v>35.95</v>
       </c>
       <c r="J86" s="42">
         <f>Index!$C$2</f>
@@ -7920,41 +7852,41 @@
       </c>
       <c r="K86" s="47" t="n"/>
       <c r="L86" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M86" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N86" s="57">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O86" s="56" t="n"/>
       <c r="P86" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R86" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S86" s="56" t="n"/>
       <c r="T86" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U86" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V86" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W86" s="53" t="n">
@@ -7964,23 +7896,23 @@
         <v>44025</v>
       </c>
       <c r="Y86" s="46">
-        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/sum(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/sum(F56:I56), "")</f>
         <v/>
       </c>
       <c r="Z86" s="58">
-        <f>(1-Index!$F$2*2)*((W57*D57)-(E57*D57))</f>
+        <f>(1-Index!$F$2*2)*((W56*D56)-(E56*D56))</f>
         <v/>
       </c>
       <c r="AA86" s="58">
-        <f>((E57*D57)+Z57)</f>
+        <f>((E56*D56)+Z56)</f>
         <v/>
       </c>
       <c r="AB86" s="59">
-        <f>D57</f>
+        <f>D56</f>
         <v/>
       </c>
       <c r="AC86" s="44">
-        <f>if(B57="DIV", F57,"")</f>
+        <f>if(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD86" s="62" t="inlineStr">
@@ -7991,7 +7923,7 @@
     </row>
     <row r="87">
       <c r="A87" s="50" t="n">
-        <v>43668</v>
+        <v>43670</v>
       </c>
       <c r="B87" s="51" t="inlineStr">
         <is>
@@ -8007,10 +7939,10 @@
         <v>10</v>
       </c>
       <c r="E87" s="53" t="n">
-        <v>318.1</v>
+        <v>317.82</v>
       </c>
       <c r="F87" s="53" t="n">
-        <v>3180.98</v>
+        <v>3178.2</v>
       </c>
       <c r="G87" s="51" t="inlineStr">
         <is>
@@ -8018,10 +7950,10 @@
         </is>
       </c>
       <c r="H87" s="52" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="I87" s="52" t="n">
-        <v>19.11</v>
+        <v>19.07</v>
       </c>
       <c r="J87" s="42">
         <f>Index!$C$2</f>
@@ -8029,41 +7961,41 @@
       </c>
       <c r="K87" s="47" t="n"/>
       <c r="L87" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M87" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N87" s="57">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O87" s="56" t="n"/>
       <c r="P87" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R87" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S87" s="56" t="n"/>
       <c r="T87" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
         <v/>
       </c>
       <c r="U87" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V87" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="W87" s="53" t="n">
@@ -8073,23 +8005,23 @@
         <v>44025</v>
       </c>
       <c r="Y87" s="46">
-        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/sum(F57:I57), "")</f>
         <v/>
       </c>
       <c r="Z87" s="58">
-        <f>(1-Index!$F$2*2)*((W58*D58)-(E58*D58))</f>
+        <f>(1-Index!$F$2*2)*((W57*D57)-(E57*D57))</f>
         <v/>
       </c>
       <c r="AA87" s="58">
-        <f>((E58*D58)+Z58)</f>
+        <f>((E57*D57)+Z57)</f>
         <v/>
       </c>
       <c r="AB87" s="59">
-        <f>D58</f>
+        <f>D57</f>
         <v/>
       </c>
       <c r="AC87" s="44">
-        <f>if(B58="DIV", F58,"")</f>
+        <f>if(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD87" s="62" t="inlineStr">
@@ -8100,7 +8032,7 @@
     </row>
     <row r="88">
       <c r="A88" s="50" t="n">
-        <v>43665</v>
+        <v>43668</v>
       </c>
       <c r="B88" s="51" t="inlineStr">
         <is>
@@ -8116,10 +8048,10 @@
         <v>10</v>
       </c>
       <c r="E88" s="53" t="n">
-        <v>324.56</v>
+        <v>318.1</v>
       </c>
       <c r="F88" s="53" t="n">
-        <v>3245.64</v>
+        <v>3180.98</v>
       </c>
       <c r="G88" s="51" t="inlineStr">
         <is>
@@ -8127,10 +8059,10 @@
         </is>
       </c>
       <c r="H88" s="52" t="n">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
       <c r="I88" s="52" t="n">
-        <v>19.42</v>
+        <v>19.11</v>
       </c>
       <c r="J88" s="42">
         <f>Index!$C$2</f>
@@ -8138,41 +8070,41 @@
       </c>
       <c r="K88" s="47" t="n"/>
       <c r="L88" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M88" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N88" s="57">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O88" s="56" t="n"/>
       <c r="P88" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R88" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S88" s="56" t="n"/>
       <c r="T88" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
         <v/>
       </c>
       <c r="U88" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V88" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="W88" s="53" t="n">
@@ -8182,46 +8114,139 @@
         <v>44025</v>
       </c>
       <c r="Y88" s="46">
+        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
+        <v/>
+      </c>
+      <c r="Z88" s="58">
+        <f>(1-Index!$F$2*2)*((W58*D58)-(E58*D58))</f>
+        <v/>
+      </c>
+      <c r="AA88" s="58">
+        <f>((E58*D58)+Z58)</f>
+        <v/>
+      </c>
+      <c r="AB88" s="59">
+        <f>D58</f>
+        <v/>
+      </c>
+      <c r="AC88" s="44">
+        <f>if(B58="DIV", F58,"")</f>
+        <v/>
+      </c>
+      <c r="AD88" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="50" t="n">
+        <v>43665</v>
+      </c>
+      <c r="B89" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C89" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D89" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E89" s="53" t="n">
+        <v>324.56</v>
+      </c>
+      <c r="F89" s="53" t="n">
+        <v>3245.64</v>
+      </c>
+      <c r="G89" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H89" s="52" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I89" s="52" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="J89" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K89" s="47" t="n"/>
+      <c r="L89" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="M89" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <v/>
+      </c>
+      <c r="N89" s="57">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <v/>
+      </c>
+      <c r="O89" s="56" t="n"/>
+      <c r="P89" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="Q89" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <v/>
+      </c>
+      <c r="R89" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="S89" s="56" t="n"/>
+      <c r="T89" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <v/>
+      </c>
+      <c r="U89" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <v/>
+      </c>
+      <c r="V89" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="W89" s="53" t="n">
+        <v>437.94</v>
+      </c>
+      <c r="X89" s="50" t="n">
+        <v>44025</v>
+      </c>
+      <c r="Y89" s="46">
         <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/sum(F59:I59), "")</f>
         <v/>
       </c>
-      <c r="Z88" s="58">
+      <c r="Z89" s="58">
         <f>(1-Index!$F$2*2)*((W59*D59)-(E59*D59))</f>
         <v/>
       </c>
-      <c r="AA88" s="58">
+      <c r="AA89" s="58">
         <f>((E59*D59)+Z59)</f>
         <v/>
       </c>
-      <c r="AB88" s="59">
+      <c r="AB89" s="59">
         <f>D59</f>
         <v/>
       </c>
-      <c r="AC88" s="44">
+      <c r="AC89" s="44">
         <f>if(B59="DIV", F59,"")</f>
         <v/>
       </c>
-      <c r="AD88" s="62" t="inlineStr">
+      <c r="AD89" s="62" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
       </c>
-    </row>
-    <row r="89">
-      <c r="E89" s="63" t="n"/>
-      <c r="F89" s="63" t="n"/>
-      <c r="G89" s="64" t="n"/>
-      <c r="J89" s="63" t="n"/>
-      <c r="K89" s="63" t="n"/>
-      <c r="L89" s="63" t="n"/>
-      <c r="M89" s="66" t="n"/>
-      <c r="W89" s="63" t="n"/>
-      <c r="X89" s="63" t="n"/>
-      <c r="Y89" s="63" t="n"/>
-      <c r="Z89" s="63" t="n"/>
-      <c r="AA89" s="63" t="n"/>
-      <c r="AB89" s="63" t="n"/>
-      <c r="AC89" s="63" t="n"/>
     </row>
     <row r="90">
       <c r="E90" s="63" t="n"/>
@@ -23190,6 +23215,7 @@
       <c r="J1025" s="63" t="n"/>
       <c r="K1025" s="63" t="n"/>
       <c r="L1025" s="63" t="n"/>
+      <c r="M1025" s="66" t="n"/>
       <c r="W1025" s="63" t="n"/>
       <c r="X1025" s="63" t="n"/>
       <c r="Y1025" s="63" t="n"/>
@@ -23437,6 +23463,21 @@
       <c r="AA1041" s="63" t="n"/>
       <c r="AB1041" s="63" t="n"/>
       <c r="AC1041" s="63" t="n"/>
+    </row>
+    <row r="1042">
+      <c r="E1042" s="63" t="n"/>
+      <c r="F1042" s="63" t="n"/>
+      <c r="G1042" s="64" t="n"/>
+      <c r="J1042" s="63" t="n"/>
+      <c r="K1042" s="63" t="n"/>
+      <c r="L1042" s="63" t="n"/>
+      <c r="W1042" s="63" t="n"/>
+      <c r="X1042" s="63" t="n"/>
+      <c r="Y1042" s="63" t="n"/>
+      <c r="Z1042" s="63" t="n"/>
+      <c r="AA1042" s="63" t="n"/>
+      <c r="AB1042" s="63" t="n"/>
+      <c r="AC1042" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$89"/>

--- a/dumps/Stocks/Syngene International Ltd.xlsx
+++ b/dumps/Stocks/Syngene International Ltd.xlsx
@@ -783,7 +783,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1042"/>
+  <dimension ref="A1:AP1043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="5">
       <c r="A5" s="99" t="n">
-        <v>46062</v>
+        <v>45957</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1149,21 +1149,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>449.8</v>
+        <v>661.54</v>
       </c>
       <c r="F5" t="n">
-        <v>2264.94</v>
+        <v>3324.25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2.25</v>
+          <t>CN#252607382790</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>13.69</v>
+        <v>16.55</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1171,8 +1168,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="98" t="n">
-        <v>46057</v>
+      <c r="A6" s="99" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1185,29 +1182,33 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>471.15</v>
+        <v>449.8</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4744.94</v>
+        <v>2264.94</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>4.72</v>
+        <v>2.25</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>28.72</v>
+        <v>13.69</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="98" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1220,13 +1221,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>505.2</v>
+        <v>471.15</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>508.8</v>
+        <v>4744.94</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1234,10 +1235,10 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.51</v>
+        <v>4.72</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3.09</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="8">
@@ -1255,13 +1256,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>505.2</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4579.07</v>
+        <v>508.8</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1269,15 +1270,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>4.55</v>
+        <v>0.51</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>27.72</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="98" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1290,13 +1291,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>600.85</v>
+        <v>505.2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3025.53</v>
+        <v>4579.07</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1304,15 +1305,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.01</v>
+        <v>4.55</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>18.27</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="98" t="n">
-        <v>46034</v>
+        <v>46044</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1328,10 +1329,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>626.75</v>
+        <v>600.85</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3155.95</v>
+        <v>3025.53</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1339,19 +1340,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>19.06</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="98" t="n">
-        <v>46015</v>
+        <v>46034</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1363,10 +1364,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>656.3</v>
+        <v>626.75</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3304.76</v>
+        <v>3155.95</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1374,15 +1375,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>20</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1398,10 +1399,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>659.35</v>
+        <v>656.3</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3320.14</v>
+        <v>3304.76</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1409,15 +1410,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="98" t="n">
-        <v>45993</v>
+        <v>46014</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1430,13 +1431,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>638.9</v>
+        <v>659.35</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>643.4299999999999</v>
+        <v>3320.14</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1444,10 +1445,10 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.64</v>
+        <v>3.29</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>3.89</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="14">
@@ -1465,13 +1466,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>638.95</v>
+        <v>638.9</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2573.92</v>
+        <v>643.4299999999999</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1479,15 +1480,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>2.57</v>
+        <v>0.64</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>15.55</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1500,13 +1501,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>646.8</v>
+        <v>638.95</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3256.92</v>
+        <v>2573.92</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1514,19 +1515,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.22</v>
+        <v>2.57</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>19.7</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="98" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1538,10 +1539,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>638.5</v>
+        <v>646.8</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3215.11</v>
+        <v>3256.92</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1549,15 +1550,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.19</v>
+        <v>3.22</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>19.42</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1573,10 +1574,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>634.35</v>
+        <v>638.5</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3194.23</v>
+        <v>3215.11</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1584,15 +1585,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.15</v>
+        <v>3.19</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>19.33</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="98" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1605,13 +1606,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>656.5</v>
+        <v>634.35</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4628.06</v>
+        <v>3194.23</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1619,10 +1620,10 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>4.62</v>
+        <v>3.15</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>27.94</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="19">
@@ -1640,13 +1641,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>656.5</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1322.29</v>
+        <v>4628.06</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1654,10 +1655,10 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1.31</v>
+        <v>4.62</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>7.98</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="20">
@@ -1675,13 +1676,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>656.5</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>661.16</v>
+        <v>1322.29</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1689,15 +1690,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.66</v>
+        <v>1.31</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>4</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="98" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1710,13 +1711,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>669.9</v>
+        <v>656.5</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2023.94</v>
+        <v>661.16</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1724,10 +1725,10 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>12.24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1745,13 +1746,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>669.9</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>674.64</v>
+        <v>2023.94</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1759,10 +1760,10 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>4.07</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="23">
@@ -1802,11 +1803,11 @@
     </row>
     <row r="24">
       <c r="A24" s="98" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1815,13 +1816,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>616.05</v>
+        <v>669.9</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3102.12</v>
+        <v>674.64</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1829,19 +1830,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3.08</v>
+        <v>0.67</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>18.79</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="98" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1853,10 +1854,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>656</v>
+        <v>616.05</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3303.23</v>
+        <v>3102.12</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1864,15 +1865,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>19.96</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="98" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1888,10 +1889,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3313.29</v>
+        <v>3303.23</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1899,15 +1900,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>20.01</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1920,13 +1921,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>661.6</v>
+        <v>658</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>666.29</v>
+        <v>3313.29</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1934,10 +1935,10 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.66</v>
+        <v>3.28</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>4.03</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="28">
@@ -1955,13 +1956,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>661.5</v>
+        <v>661.6</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1998.58</v>
+        <v>666.29</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1969,10 +1970,10 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.99</v>
+        <v>0.66</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>12.09</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="29">
@@ -1990,13 +1991,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>661.6</v>
+        <v>661.5</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>666.29</v>
+        <v>1998.58</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2004,19 +2005,19 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.66</v>
+        <v>1.99</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>4.03</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
@@ -2025,13 +2026,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>661.9</v>
+        <v>661.6</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3332.98</v>
+        <v>666.29</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2039,19 +2040,19 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>3.31</v>
+        <v>0.66</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>20.17</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="98" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2063,10 +2064,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>652.7</v>
+        <v>661.9</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>3286.6</v>
+        <v>3332.98</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2074,15 +2075,15 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>19.85</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="98" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -2095,13 +2096,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>644</v>
+        <v>652.7</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>6485.66</v>
+        <v>3286.6</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2109,15 +2110,15 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>6.43</v>
+        <v>3.25</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>39.23</v>
+        <v>19.85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="98" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
@@ -2133,10 +2134,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>6405.08</v>
+        <v>6485.66</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2144,148 +2145,85 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>6.37</v>
+        <v>6.43</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>38.71</v>
+        <v>39.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="98" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>636</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>6405.08</v>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="98" t="n">
         <v>45897</v>
       </c>
-      <c r="B34" s="0" t="inlineStr">
+      <c r="B35" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C34" s="0" t="inlineStr">
+      <c r="C35" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D35" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E35" s="0" t="n">
         <v>641.2</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F35" s="0" t="n">
         <v>3228.8</v>
       </c>
-      <c r="G34" s="0" t="inlineStr">
+      <c r="G35" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H35" s="0" t="n">
         <v>3.21</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I35" s="0" t="n">
         <v>19.59</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B35" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C35" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D35" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E35" s="41" t="n">
-        <v>648.5700000000001</v>
-      </c>
-      <c r="F35" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G35" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H35" s="40" t="n"/>
-      <c r="I35" s="40" t="n"/>
-      <c r="J35" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K35" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N35" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O35" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S35" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W35" s="47" t="n"/>
-      <c r="X35" s="47" t="n"/>
-      <c r="Y35" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z35" s="47" t="n"/>
-      <c r="AA35" s="47" t="n"/>
-      <c r="AB35" s="48" t="n"/>
-      <c r="AC35" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD35" s="49" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
@@ -2301,10 +2239,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>640.51</v>
+        <v>648.5700000000001</v>
       </c>
       <c r="F36" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G36" s="39" t="inlineStr">
@@ -2319,71 +2257,71 @@
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45897</v>
+        <v>45947</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
@@ -2396,95 +2334,92 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>645.76</v>
-      </c>
-      <c r="F37" s="41" t="n">
-        <v>3228.8</v>
+        <v>640.51</v>
+      </c>
+      <c r="F37" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H37" s="40" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="I37" s="40" t="n">
-        <v>19.59</v>
-      </c>
+      <c r="H37" s="40" t="n"/>
+      <c r="I37" s="40" t="n"/>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45855</v>
+        <v>45897</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
@@ -2500,10 +2435,10 @@
         <v>5</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>680</v>
+        <v>645.76</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>3399.98</v>
+        <v>3228.8</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
@@ -2511,85 +2446,85 @@
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>20.6</v>
+        <v>19.59</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45835</v>
+        <v>45855</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C39" s="39" t="inlineStr">
@@ -2598,189 +2533,189 @@
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>1.25</v>
+        <v>680</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>12.5</v>
+        <v>3399.98</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="50" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B40" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C40" s="51" t="inlineStr">
+      <c r="A40" s="38" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B40" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C40" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D40" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="F40" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="G40" s="51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H40" s="52" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I40" s="52" t="n">
-        <v>4.14</v>
+      <c r="D40" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" s="41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F40" s="41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G40" s="39" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+        </is>
+      </c>
+      <c r="H40" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="40" t="n">
+        <v>0</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
@@ -2800,13 +2735,13 @@
         </is>
       </c>
       <c r="D41" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="53" t="n">
         <v>683.97</v>
       </c>
       <c r="F41" s="53" t="n">
-        <v>1367.94</v>
+        <v>683.97</v>
       </c>
       <c r="G41" s="51" t="inlineStr">
         <is>
@@ -2814,81 +2749,81 @@
         </is>
       </c>
       <c r="H41" s="52" t="n">
-        <v>1.37</v>
+        <v>0.68</v>
       </c>
       <c r="I41" s="52" t="n">
-        <v>8.27</v>
+        <v>4.14</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="50" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B42" s="51" t="inlineStr">
         <is>
@@ -2901,13 +2836,13 @@
         </is>
       </c>
       <c r="D42" s="52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E42" s="53" t="n">
-        <v>664.02</v>
+        <v>683.97</v>
       </c>
       <c r="F42" s="53" t="n">
-        <v>3320.12</v>
+        <v>1367.94</v>
       </c>
       <c r="G42" s="51" t="inlineStr">
         <is>
@@ -2915,81 +2850,81 @@
         </is>
       </c>
       <c r="H42" s="52" t="n">
-        <v>3.29</v>
+        <v>1.37</v>
       </c>
       <c r="I42" s="52" t="n">
-        <v>20.08</v>
+        <v>8.27</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD42" s="49" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="50" t="n">
-        <v>45694</v>
+        <v>45716</v>
       </c>
       <c r="B43" s="51" t="inlineStr">
         <is>
@@ -3002,13 +2937,13 @@
         </is>
       </c>
       <c r="D43" s="52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43" s="53" t="n">
-        <v>751.83</v>
+        <v>664.02</v>
       </c>
       <c r="F43" s="53" t="n">
-        <v>1503.66</v>
+        <v>3320.12</v>
       </c>
       <c r="G43" s="51" t="inlineStr">
         <is>
@@ -3016,81 +2951,81 @@
         </is>
       </c>
       <c r="H43" s="52" t="n">
-        <v>1.49</v>
+        <v>3.29</v>
       </c>
       <c r="I43" s="52" t="n">
-        <v>9.07</v>
+        <v>20.08</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W43" s="47" t="n"/>
       <c r="X43" s="47" t="n"/>
       <c r="Y43" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z43" s="47" t="n"/>
       <c r="AA43" s="47" t="n"/>
       <c r="AB43" s="48" t="n"/>
       <c r="AC43" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD43" s="49" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="50" t="n">
-        <v>44084</v>
+        <v>45694</v>
       </c>
       <c r="B44" s="51" t="inlineStr">
         <is>
@@ -3099,17 +3034,17 @@
       </c>
       <c r="C44" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D44" s="52" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E44" s="53" t="n">
-        <v>481.64</v>
+        <v>751.83</v>
       </c>
       <c r="F44" s="53" t="n">
-        <v>24081.77</v>
+        <v>1503.66</v>
       </c>
       <c r="G44" s="51" t="inlineStr">
         <is>
@@ -3117,81 +3052,81 @@
         </is>
       </c>
       <c r="H44" s="52" t="n">
-        <v>22.15</v>
+        <v>1.49</v>
       </c>
       <c r="I44" s="52" t="n">
-        <v>146.08</v>
+        <v>9.07</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W44" s="47" t="n"/>
       <c r="X44" s="47" t="n"/>
       <c r="Y44" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z44" s="47" t="n"/>
       <c r="AA44" s="47" t="n"/>
       <c r="AB44" s="48" t="n"/>
       <c r="AC44" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD44" s="49" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="50" t="n">
-        <v>44075</v>
+        <v>44084</v>
       </c>
       <c r="B45" s="51" t="inlineStr">
         <is>
@@ -3204,13 +3139,13 @@
         </is>
       </c>
       <c r="D45" s="52" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E45" s="53" t="n">
-        <v>476.52</v>
+        <v>481.64</v>
       </c>
       <c r="F45" s="53" t="n">
-        <v>28591.3</v>
+        <v>24081.77</v>
       </c>
       <c r="G45" s="51" t="inlineStr">
         <is>
@@ -3218,81 +3153,81 @@
         </is>
       </c>
       <c r="H45" s="52" t="n">
-        <v>29</v>
+        <v>22.15</v>
       </c>
       <c r="I45" s="52" t="n">
-        <v>170.7</v>
+        <v>146.08</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W45" s="47" t="n"/>
       <c r="X45" s="47" t="n"/>
       <c r="Y45" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z45" s="47" t="n"/>
       <c r="AA45" s="47" t="n"/>
       <c r="AB45" s="48" t="n"/>
       <c r="AC45" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD45" s="49" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="50" t="n">
-        <v>44060</v>
+        <v>44075</v>
       </c>
       <c r="B46" s="51" t="inlineStr">
         <is>
@@ -3305,13 +3240,13 @@
         </is>
       </c>
       <c r="D46" s="52" t="n">
-        <v>50</v>
-      </c>
-      <c r="E46" s="54" t="n">
-        <v>484.77</v>
+        <v>60</v>
+      </c>
+      <c r="E46" s="53" t="n">
+        <v>476.52</v>
       </c>
       <c r="F46" s="53" t="n">
-        <v>24238.46</v>
+        <v>28591.3</v>
       </c>
       <c r="G46" s="51" t="inlineStr">
         <is>
@@ -3319,81 +3254,81 @@
         </is>
       </c>
       <c r="H46" s="52" t="n">
-        <v>22.16</v>
+        <v>29</v>
       </c>
       <c r="I46" s="52" t="n">
-        <v>146.28</v>
+        <v>170.7</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W46" s="47" t="n"/>
       <c r="X46" s="47" t="n"/>
       <c r="Y46" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z46" s="47" t="n"/>
       <c r="AA46" s="47" t="n"/>
       <c r="AB46" s="48" t="n"/>
       <c r="AC46" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD46" s="49" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="50" t="n">
-        <v>44055</v>
+        <v>44060</v>
       </c>
       <c r="B47" s="51" t="inlineStr">
         <is>
@@ -3409,10 +3344,10 @@
         <v>50</v>
       </c>
       <c r="E47" s="54" t="n">
-        <v>489.63</v>
+        <v>484.77</v>
       </c>
       <c r="F47" s="53" t="n">
-        <v>24481.54</v>
+        <v>24238.46</v>
       </c>
       <c r="G47" s="51" t="inlineStr">
         <is>
@@ -3420,81 +3355,81 @@
         </is>
       </c>
       <c r="H47" s="52" t="n">
-        <v>24.74</v>
+        <v>22.16</v>
       </c>
       <c r="I47" s="52" t="n">
-        <v>148.72</v>
+        <v>146.28</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W47" s="47" t="n"/>
       <c r="X47" s="47" t="n"/>
       <c r="Y47" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z47" s="47" t="n"/>
       <c r="AA47" s="47" t="n"/>
       <c r="AB47" s="48" t="n"/>
       <c r="AC47" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD47" s="49" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B48" s="51" t="inlineStr">
         <is>
@@ -3510,10 +3445,10 @@
         <v>50</v>
       </c>
       <c r="E48" s="54" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="F48" s="53" t="n">
-        <v>23504.1</v>
+        <v>24481.54</v>
       </c>
       <c r="G48" s="51" t="inlineStr">
         <is>
@@ -3521,81 +3456,81 @@
         </is>
       </c>
       <c r="H48" s="52" t="n">
-        <v>23.54</v>
+        <v>24.74</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>142.36</v>
+        <v>148.72</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W48" s="47" t="n"/>
       <c r="X48" s="47" t="n"/>
       <c r="Y48" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z48" s="47" t="n"/>
       <c r="AA48" s="47" t="n"/>
       <c r="AB48" s="48" t="n"/>
       <c r="AC48" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD48" s="49" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B49" s="51" t="inlineStr">
         <is>
@@ -3611,10 +3546,10 @@
         <v>50</v>
       </c>
       <c r="E49" s="54" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="F49" s="53" t="n">
-        <v>23367.41</v>
+        <v>23504.1</v>
       </c>
       <c r="G49" s="51" t="inlineStr">
         <is>
@@ -3622,81 +3557,81 @@
         </is>
       </c>
       <c r="H49" s="52" t="n">
-        <v>23.55</v>
+        <v>23.54</v>
       </c>
       <c r="I49" s="52" t="n">
-        <v>141.54</v>
+        <v>142.36</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W49" s="47" t="n"/>
       <c r="X49" s="47" t="n"/>
       <c r="Y49" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z49" s="47" t="n"/>
       <c r="AA49" s="47" t="n"/>
       <c r="AB49" s="48" t="n"/>
       <c r="AC49" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD49" s="49" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="B50" s="51" t="inlineStr">
         <is>
@@ -3708,14 +3643,14 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="D50" s="55" t="n">
+      <c r="D50" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E50" s="54" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="F50" s="53" t="n">
-        <v>23201.97</v>
+        <v>23367.41</v>
       </c>
       <c r="G50" s="51" t="inlineStr">
         <is>
@@ -3723,81 +3658,81 @@
         </is>
       </c>
       <c r="H50" s="52" t="n">
-        <v>23.34</v>
+        <v>23.55</v>
       </c>
       <c r="I50" s="52" t="n">
-        <v>139.69</v>
+        <v>141.54</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W50" s="47" t="n"/>
       <c r="X50" s="47" t="n"/>
       <c r="Y50" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z50" s="47" t="n"/>
       <c r="AA50" s="47" t="n"/>
       <c r="AB50" s="48" t="n"/>
       <c r="AC50" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD50" s="49" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="B51" s="51" t="inlineStr">
         <is>
@@ -3813,10 +3748,10 @@
         <v>50</v>
       </c>
       <c r="E51" s="54" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="F51" s="53" t="n">
-        <v>23785.87</v>
+        <v>23201.97</v>
       </c>
       <c r="G51" s="51" t="inlineStr">
         <is>
@@ -3824,81 +3759,81 @@
         </is>
       </c>
       <c r="H51" s="52" t="n">
-        <v>24.24</v>
+        <v>23.34</v>
       </c>
       <c r="I51" s="52" t="n">
-        <v>142.39</v>
+        <v>139.69</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W51" s="47" t="n"/>
       <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z51" s="47" t="n"/>
       <c r="AA51" s="47" t="n"/>
       <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD51" s="49" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B52" s="51" t="inlineStr">
         <is>
@@ -3914,10 +3849,10 @@
         <v>50</v>
       </c>
       <c r="E52" s="54" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="F52" s="53" t="n">
-        <v>23587.4</v>
+        <v>23785.87</v>
       </c>
       <c r="G52" s="51" t="inlineStr">
         <is>
@@ -3925,81 +3860,81 @@
         </is>
       </c>
       <c r="H52" s="52" t="n">
-        <v>24</v>
+        <v>24.24</v>
       </c>
       <c r="I52" s="52" t="n">
-        <v>141.1</v>
+        <v>142.39</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W52" s="47" t="n"/>
       <c r="X52" s="47" t="n"/>
       <c r="Y52" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z52" s="47" t="n"/>
       <c r="AA52" s="47" t="n"/>
       <c r="AB52" s="48" t="n"/>
       <c r="AC52" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD52" s="49" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B53" s="51" t="inlineStr">
         <is>
@@ -4015,10 +3950,10 @@
         <v>50</v>
       </c>
       <c r="E53" s="54" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="F53" s="53" t="n">
-        <v>23224.05</v>
+        <v>23587.4</v>
       </c>
       <c r="G53" s="51" t="inlineStr">
         <is>
@@ -4026,81 +3961,81 @@
         </is>
       </c>
       <c r="H53" s="52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I53" s="52" t="n">
-        <v>138.9</v>
+        <v>141.1</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W53" s="47" t="n"/>
       <c r="X53" s="47" t="n"/>
       <c r="Y53" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z53" s="47" t="n"/>
       <c r="AA53" s="47" t="n"/>
       <c r="AB53" s="48" t="n"/>
       <c r="AC53" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD53" s="49" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B54" s="51" t="inlineStr">
         <is>
@@ -4116,10 +4051,10 @@
         <v>50</v>
       </c>
       <c r="E54" s="54" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="F54" s="53" t="n">
-        <v>22369.41</v>
+        <v>23224.05</v>
       </c>
       <c r="G54" s="51" t="inlineStr">
         <is>
@@ -4127,81 +4062,81 @@
         </is>
       </c>
       <c r="H54" s="52" t="n">
-        <v>22.73</v>
+        <v>23</v>
       </c>
       <c r="I54" s="52" t="n">
-        <v>135.36</v>
+        <v>138.9</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W54" s="47" t="n"/>
       <c r="X54" s="47" t="n"/>
       <c r="Y54" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z54" s="47" t="n"/>
       <c r="AA54" s="47" t="n"/>
       <c r="AB54" s="48" t="n"/>
       <c r="AC54" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD54" s="49" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
@@ -4217,10 +4152,10 @@
         <v>50</v>
       </c>
       <c r="E55" s="54" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="F55" s="53" t="n">
-        <v>21896.98</v>
+        <v>22369.41</v>
       </c>
       <c r="G55" s="51" t="inlineStr">
         <is>
@@ -4228,81 +4163,81 @@
         </is>
       </c>
       <c r="H55" s="52" t="n">
-        <v>21.87</v>
+        <v>22.73</v>
       </c>
       <c r="I55" s="52" t="n">
-        <v>131.15</v>
+        <v>135.36</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L55" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M55" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N55" s="45">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P55" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R55" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S55" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T55" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U55" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V55" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W55" s="47" t="n"/>
       <c r="X55" s="47" t="n"/>
       <c r="Y55" s="46">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z55" s="47" t="n"/>
       <c r="AA55" s="47" t="n"/>
       <c r="AB55" s="48" t="n"/>
       <c r="AC55" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD55" s="49" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="50" t="n">
-        <v>43881</v>
+        <v>44025</v>
       </c>
       <c r="B56" s="51" t="inlineStr">
         <is>
@@ -4311,17 +4246,17 @@
       </c>
       <c r="C56" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D56" s="52" t="n">
-        <v>10</v>
-      </c>
-      <c r="E56" s="53" t="n">
-        <v>310.47</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D56" s="55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" s="54" t="n">
+        <v>437.94</v>
       </c>
       <c r="F56" s="53" t="n">
-        <v>3104.69</v>
+        <v>21896.98</v>
       </c>
       <c r="G56" s="51" t="inlineStr">
         <is>
@@ -4329,97 +4264,81 @@
         </is>
       </c>
       <c r="H56" s="52" t="n">
-        <v>3.12</v>
+        <v>21.87</v>
       </c>
       <c r="I56" s="52" t="n">
-        <v>18.57</v>
+        <v>131.15</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K56" s="47" t="n"/>
-      <c r="L56" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="M56" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
-        <v/>
-      </c>
-      <c r="N56" s="57">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
-        <v/>
-      </c>
-      <c r="O56" s="56" t="n"/>
-      <c r="P56" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="Q56" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
-        <v/>
-      </c>
-      <c r="R56" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="S56" s="56" t="n"/>
-      <c r="T56" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
-        <v/>
-      </c>
-      <c r="U56" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
-        <v/>
-      </c>
-      <c r="V56" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W56" s="53" t="n">
-        <v>476.52</v>
-      </c>
-      <c r="X56" s="50" t="n">
-        <v>44075</v>
-      </c>
+      <c r="K56" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L56" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M56" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N56" s="45">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O56" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P56" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q56" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R56" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S56" s="46">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T56" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U56" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V56" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W56" s="47" t="n"/>
+      <c r="X56" s="47" t="n"/>
       <c r="Y56" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z56" s="58">
-        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
-        <v/>
-      </c>
-      <c r="AA56" s="58">
-        <f>((E26*D26)+Z26)</f>
-        <v/>
-      </c>
-      <c r="AB56" s="59">
-        <f>D26</f>
-        <v/>
-      </c>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z56" s="47" t="n"/>
+      <c r="AA56" s="47" t="n"/>
+      <c r="AB56" s="48" t="n"/>
       <c r="AC56" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD56" s="49" t="n"/>
-      <c r="AE56" s="60" t="n"/>
-      <c r="AF56" s="60" t="n"/>
-      <c r="AG56" s="60" t="n"/>
-      <c r="AH56" s="60" t="n"/>
-      <c r="AI56" s="60" t="n"/>
-      <c r="AJ56" s="60" t="n"/>
-      <c r="AK56" s="60" t="n"/>
-      <c r="AL56" s="60" t="n"/>
-      <c r="AM56" s="60" t="n"/>
-      <c r="AN56" s="60" t="n"/>
-      <c r="AO56" s="60" t="n"/>
-      <c r="AP56" s="60" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="50" t="n">
-        <v>43865</v>
+        <v>43881</v>
       </c>
       <c r="B57" s="51" t="inlineStr">
         <is>
@@ -4435,10 +4354,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="53" t="n">
-        <v>315.21</v>
+        <v>310.47</v>
       </c>
       <c r="F57" s="53" t="n">
-        <v>3152.1</v>
+        <v>3104.69</v>
       </c>
       <c r="G57" s="51" t="inlineStr">
         <is>
@@ -4446,10 +4365,10 @@
         </is>
       </c>
       <c r="H57" s="52" t="n">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="I57" s="52" t="n">
-        <v>18.91</v>
+        <v>18.57</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
@@ -4457,41 +4376,41 @@
       </c>
       <c r="K57" s="47" t="n"/>
       <c r="L57" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M57" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N57" s="57">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O57" s="56" t="n"/>
       <c r="P57" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R57" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S57" s="56" t="n"/>
       <c r="T57" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U57" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V57" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W57" s="53" t="n">
@@ -4501,23 +4420,23 @@
         <v>44075</v>
       </c>
       <c r="Y57" s="46">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z57" s="58">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
         <v/>
       </c>
       <c r="AA57" s="58">
-        <f>((E27*D27)+Z27)</f>
+        <f>((E26*D26)+Z26)</f>
         <v/>
       </c>
       <c r="AB57" s="59">
-        <f>D27</f>
+        <f>D26</f>
         <v/>
       </c>
       <c r="AC57" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD57" s="49" t="n"/>
@@ -4536,7 +4455,7 @@
     </row>
     <row r="58">
       <c r="A58" s="50" t="n">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B58" s="51" t="inlineStr">
         <is>
@@ -4552,10 +4471,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="53" t="n">
-        <v>318.07</v>
+        <v>315.21</v>
       </c>
       <c r="F58" s="53" t="n">
-        <v>3180.66</v>
+        <v>3152.1</v>
       </c>
       <c r="G58" s="51" t="inlineStr">
         <is>
@@ -4563,10 +4482,10 @@
         </is>
       </c>
       <c r="H58" s="52" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="I58" s="52" t="n">
-        <v>19</v>
+        <v>18.91</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
@@ -4574,41 +4493,41 @@
       </c>
       <c r="K58" s="47" t="n"/>
       <c r="L58" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M58" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N58" s="57">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O58" s="56" t="n"/>
       <c r="P58" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R58" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S58" s="56" t="n"/>
       <c r="T58" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U58" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V58" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W58" s="53" t="n">
@@ -4618,23 +4537,23 @@
         <v>44075</v>
       </c>
       <c r="Y58" s="46">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z58" s="58">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA58" s="58">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB58" s="59">
-        <f>D28</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC58" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD58" s="49" t="n"/>
@@ -4653,7 +4572,7 @@
     </row>
     <row r="59">
       <c r="A59" s="50" t="n">
-        <v>43860</v>
+        <v>43864</v>
       </c>
       <c r="B59" s="51" t="inlineStr">
         <is>
@@ -4669,10 +4588,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="53" t="n">
-        <v>314.54</v>
+        <v>318.07</v>
       </c>
       <c r="F59" s="53" t="n">
-        <v>3145.39</v>
+        <v>3180.66</v>
       </c>
       <c r="G59" s="51" t="inlineStr">
         <is>
@@ -4680,10 +4599,10 @@
         </is>
       </c>
       <c r="H59" s="52" t="n">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="I59" s="52" t="n">
-        <v>18.81</v>
+        <v>19</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4691,67 +4610,67 @@
       </c>
       <c r="K59" s="47" t="n"/>
       <c r="L59" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M59" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N59" s="57">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O59" s="56" t="n"/>
       <c r="P59" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R59" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S59" s="56" t="n"/>
       <c r="T59" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U59" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V59" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W59" s="53" t="n">
-        <v>489.63</v>
+        <v>476.52</v>
       </c>
       <c r="X59" s="50" t="n">
-        <v>44055</v>
+        <v>44075</v>
       </c>
       <c r="Y59" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z59" s="58">
-        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
         <v/>
       </c>
       <c r="AA59" s="58">
-        <f>((E29*D29)+Z29)</f>
+        <f>((E28*D28)+Z28)</f>
         <v/>
       </c>
       <c r="AB59" s="59">
-        <f>D29</f>
+        <f>D28</f>
         <v/>
       </c>
       <c r="AC59" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD59" s="49" t="n"/>
@@ -4770,7 +4689,7 @@
     </row>
     <row r="60">
       <c r="A60" s="50" t="n">
-        <v>43846</v>
+        <v>43860</v>
       </c>
       <c r="B60" s="51" t="inlineStr">
         <is>
@@ -4786,10 +4705,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="53" t="n">
-        <v>312.23</v>
+        <v>314.54</v>
       </c>
       <c r="F60" s="53" t="n">
-        <v>3122.32</v>
+        <v>3145.39</v>
       </c>
       <c r="G60" s="51" t="inlineStr">
         <is>
@@ -4797,10 +4716,10 @@
         </is>
       </c>
       <c r="H60" s="52" t="n">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="I60" s="52" t="n">
-        <v>18.66</v>
+        <v>18.81</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -4808,67 +4727,67 @@
       </c>
       <c r="K60" s="47" t="n"/>
       <c r="L60" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M60" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N60" s="57">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O60" s="56" t="n"/>
       <c r="P60" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R60" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S60" s="56" t="n"/>
       <c r="T60" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U60" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V60" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W60" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X60" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y60" s="46">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z60" s="58">
-        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
+        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
         <v/>
       </c>
       <c r="AA60" s="58">
-        <f>((E30*D30)+Z30)</f>
+        <f>((E29*D29)+Z29)</f>
         <v/>
       </c>
       <c r="AB60" s="59">
-        <f>D30</f>
+        <f>D29</f>
         <v/>
       </c>
       <c r="AC60" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD60" s="49" t="n"/>
@@ -4887,7 +4806,7 @@
     </row>
     <row r="61">
       <c r="A61" s="50" t="n">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="B61" s="51" t="inlineStr">
         <is>
@@ -4900,13 +4819,13 @@
         </is>
       </c>
       <c r="D61" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E61" s="53" t="n">
-        <v>311.98</v>
+        <v>312.23</v>
       </c>
       <c r="F61" s="53" t="n">
-        <v>6239.57</v>
+        <v>3122.32</v>
       </c>
       <c r="G61" s="51" t="inlineStr">
         <is>
@@ -4914,10 +4833,10 @@
         </is>
       </c>
       <c r="H61" s="52" t="n">
-        <v>6.22</v>
+        <v>3.16</v>
       </c>
       <c r="I61" s="52" t="n">
-        <v>37.35</v>
+        <v>18.66</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -4925,67 +4844,67 @@
       </c>
       <c r="K61" s="47" t="n"/>
       <c r="L61" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M61" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N61" s="57">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O61" s="56" t="n"/>
       <c r="P61" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R61" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S61" s="56" t="n"/>
       <c r="T61" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U61" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V61" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W61" s="53" t="n">
-        <v>489.63</v>
+        <v>470.08</v>
       </c>
       <c r="X61" s="50" t="n">
-        <v>44055</v>
+        <v>44050</v>
       </c>
       <c r="Y61" s="46">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z61" s="58">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
         <v/>
       </c>
       <c r="AA61" s="58">
-        <f>((E31*D31)+Z31)</f>
+        <f>((E30*D30)+Z30)</f>
         <v/>
       </c>
       <c r="AB61" s="59">
-        <f>D31</f>
+        <f>D30</f>
         <v/>
       </c>
       <c r="AC61" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD61" s="49" t="n"/>
@@ -5004,7 +4923,7 @@
     </row>
     <row r="62">
       <c r="A62" s="50" t="n">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="B62" s="51" t="inlineStr">
         <is>
@@ -5020,10 +4939,10 @@
         <v>20</v>
       </c>
       <c r="E62" s="53" t="n">
-        <v>313.54</v>
+        <v>311.98</v>
       </c>
       <c r="F62" s="53" t="n">
-        <v>6270.73</v>
+        <v>6239.57</v>
       </c>
       <c r="G62" s="51" t="inlineStr">
         <is>
@@ -5031,10 +4950,10 @@
         </is>
       </c>
       <c r="H62" s="52" t="n">
-        <v>6.19</v>
+        <v>6.22</v>
       </c>
       <c r="I62" s="52" t="n">
-        <v>37.54</v>
+        <v>37.35</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -5042,41 +4961,41 @@
       </c>
       <c r="K62" s="47" t="n"/>
       <c r="L62" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M62" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N62" s="57">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O62" s="56" t="n"/>
       <c r="P62" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R62" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S62" s="56" t="n"/>
       <c r="T62" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U62" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V62" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W62" s="53" t="n">
@@ -5086,23 +5005,23 @@
         <v>44055</v>
       </c>
       <c r="Y62" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z62" s="58">
-        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
         <v/>
       </c>
       <c r="AA62" s="58">
-        <f>((E32*D32)+Z32)</f>
+        <f>((E31*D31)+Z31)</f>
         <v/>
       </c>
       <c r="AB62" s="59">
-        <f>D32</f>
+        <f>D31</f>
         <v/>
       </c>
       <c r="AC62" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD62" s="49" t="n"/>
@@ -5121,7 +5040,7 @@
     </row>
     <row r="63">
       <c r="A63" s="50" t="n">
-        <v>43838</v>
+        <v>43844</v>
       </c>
       <c r="B63" s="51" t="inlineStr">
         <is>
@@ -5134,13 +5053,13 @@
         </is>
       </c>
       <c r="D63" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E63" s="53" t="n">
-        <v>312.31</v>
+        <v>313.54</v>
       </c>
       <c r="F63" s="53" t="n">
-        <v>3123.14</v>
+        <v>6270.73</v>
       </c>
       <c r="G63" s="51" t="inlineStr">
         <is>
@@ -5148,10 +5067,10 @@
         </is>
       </c>
       <c r="H63" s="52" t="n">
-        <v>2.51</v>
+        <v>6.19</v>
       </c>
       <c r="I63" s="52" t="n">
-        <v>18.63</v>
+        <v>37.54</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
@@ -5159,67 +5078,67 @@
       </c>
       <c r="K63" s="47" t="n"/>
       <c r="L63" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M63" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N63" s="57">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O63" s="56" t="n"/>
       <c r="P63" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R63" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S63" s="56" t="n"/>
       <c r="T63" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
         <v/>
       </c>
       <c r="U63" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V63" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W63" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X63" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y63" s="46">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z63" s="58">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
         <v/>
       </c>
       <c r="AA63" s="58">
-        <f>((E33*D33)+Z33)</f>
+        <f>((E32*D32)+Z32)</f>
         <v/>
       </c>
       <c r="AB63" s="59">
-        <f>D33</f>
+        <f>D32</f>
         <v/>
       </c>
       <c r="AC63" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD63" s="49" t="n"/>
@@ -5238,7 +5157,7 @@
     </row>
     <row r="64">
       <c r="A64" s="50" t="n">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="B64" s="51" t="inlineStr">
         <is>
@@ -5251,13 +5170,13 @@
         </is>
       </c>
       <c r="D64" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E64" s="53" t="n">
-        <v>310.55</v>
+        <v>312.31</v>
       </c>
       <c r="F64" s="53" t="n">
-        <v>6210.95</v>
+        <v>3123.14</v>
       </c>
       <c r="G64" s="51" t="inlineStr">
         <is>
@@ -5265,10 +5184,10 @@
         </is>
       </c>
       <c r="H64" s="52" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="I64" s="52" t="n">
-        <v>37</v>
+        <v>18.63</v>
       </c>
       <c r="J64" s="42">
         <f>Index!$C$2</f>
@@ -5276,41 +5195,41 @@
       </c>
       <c r="K64" s="47" t="n"/>
       <c r="L64" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M64" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N64" s="57">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O64" s="56" t="n"/>
       <c r="P64" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R64" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S64" s="56" t="n"/>
       <c r="T64" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
         <v/>
       </c>
       <c r="U64" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V64" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W64" s="53" t="n">
@@ -5320,23 +5239,23 @@
         <v>44050</v>
       </c>
       <c r="Y64" s="46">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z64" s="58">
-        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
         <v/>
       </c>
       <c r="AA64" s="58">
-        <f>((E34*D34)+Z34)</f>
+        <f>((E33*D33)+Z33)</f>
         <v/>
       </c>
       <c r="AB64" s="59">
-        <f>D34</f>
+        <f>D33</f>
         <v/>
       </c>
       <c r="AC64" s="44">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD64" s="49" t="n"/>
@@ -5355,7 +5274,7 @@
     </row>
     <row r="65">
       <c r="A65" s="50" t="n">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="B65" s="51" t="inlineStr">
         <is>
@@ -5368,13 +5287,13 @@
         </is>
       </c>
       <c r="D65" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E65" s="53" t="n">
-        <v>322.16</v>
+        <v>310.55</v>
       </c>
       <c r="F65" s="53" t="n">
-        <v>3221.56</v>
+        <v>6210.95</v>
       </c>
       <c r="G65" s="51" t="inlineStr">
         <is>
@@ -5382,10 +5301,10 @@
         </is>
       </c>
       <c r="H65" s="52" t="n">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="I65" s="52" t="n">
-        <v>19.41</v>
+        <v>37</v>
       </c>
       <c r="J65" s="42">
         <f>Index!$C$2</f>
@@ -5393,41 +5312,41 @@
       </c>
       <c r="K65" s="47" t="n"/>
       <c r="L65" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M65" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N65" s="57">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O65" s="56" t="n"/>
       <c r="P65" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R65" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S65" s="56" t="n"/>
       <c r="T65" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
         <v/>
       </c>
       <c r="U65" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V65" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W65" s="53" t="n">
@@ -5437,23 +5356,23 @@
         <v>44050</v>
       </c>
       <c r="Y65" s="46">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z65" s="58">
-        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
+        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
         <v/>
       </c>
       <c r="AA65" s="58">
-        <f>((E35*D35)+Z35)</f>
+        <f>((E34*D34)+Z34)</f>
         <v/>
       </c>
       <c r="AB65" s="59">
-        <f>D35</f>
+        <f>D34</f>
         <v/>
       </c>
       <c r="AC65" s="44">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD65" s="49" t="n"/>
@@ -5472,7 +5391,7 @@
     </row>
     <row r="66">
       <c r="A66" s="50" t="n">
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B66" s="51" t="inlineStr">
         <is>
@@ -5488,10 +5407,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="53" t="n">
-        <v>323.7</v>
+        <v>322.16</v>
       </c>
       <c r="F66" s="53" t="n">
-        <v>3237.01</v>
+        <v>3221.56</v>
       </c>
       <c r="G66" s="51" t="inlineStr">
         <is>
@@ -5499,10 +5418,10 @@
         </is>
       </c>
       <c r="H66" s="52" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="I66" s="52" t="n">
-        <v>19.34</v>
+        <v>19.41</v>
       </c>
       <c r="J66" s="42">
         <f>Index!$C$2</f>
@@ -5510,67 +5429,67 @@
       </c>
       <c r="K66" s="47" t="n"/>
       <c r="L66" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M66" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N66" s="57">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O66" s="56" t="n"/>
       <c r="P66" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R66" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S66" s="56" t="n"/>
       <c r="T66" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
         <v/>
       </c>
       <c r="U66" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V66" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W66" s="53" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="X66" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="Y66" s="46">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z66" s="58">
-        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
+        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
         <v/>
       </c>
       <c r="AA66" s="58">
-        <f>((E36*D36)+Z36)</f>
+        <f>((E35*D35)+Z35)</f>
         <v/>
       </c>
       <c r="AB66" s="59">
-        <f>D36</f>
+        <f>D35</f>
         <v/>
       </c>
       <c r="AC66" s="44">
-        <f>if(B36="DIV", F36,"")</f>
+        <f>if(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD66" s="49" t="n"/>
@@ -5589,7 +5508,7 @@
     </row>
     <row r="67">
       <c r="A67" s="50" t="n">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B67" s="51" t="inlineStr">
         <is>
@@ -5605,10 +5524,10 @@
         <v>10</v>
       </c>
       <c r="E67" s="53" t="n">
-        <v>324.56</v>
+        <v>323.7</v>
       </c>
       <c r="F67" s="53" t="n">
-        <v>3245.58</v>
+        <v>3237.01</v>
       </c>
       <c r="G67" s="51" t="inlineStr">
         <is>
@@ -5616,7 +5535,7 @@
         </is>
       </c>
       <c r="H67" s="52" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="I67" s="52" t="n">
         <v>19.34</v>
@@ -5627,41 +5546,41 @@
       </c>
       <c r="K67" s="47" t="n"/>
       <c r="L67" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M67" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N67" s="57">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O67" s="56" t="n"/>
       <c r="P67" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R67" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S67" s="56" t="n"/>
       <c r="T67" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
         <v/>
       </c>
       <c r="U67" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V67" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W67" s="53" t="n">
@@ -5671,23 +5590,23 @@
         <v>44049</v>
       </c>
       <c r="Y67" s="46">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z67" s="58">
-        <f>(1-Index!$F$2*2)*((W37*D37)-(E37*D37))</f>
+        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
         <v/>
       </c>
       <c r="AA67" s="58">
-        <f>((E37*D37)+Z37)</f>
+        <f>((E36*D36)+Z36)</f>
         <v/>
       </c>
       <c r="AB67" s="59">
-        <f>D37</f>
+        <f>D36</f>
         <v/>
       </c>
       <c r="AC67" s="44">
-        <f>if(B37="DIV", F37,"")</f>
+        <f>if(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD67" s="49" t="n"/>
@@ -5706,7 +5625,7 @@
     </row>
     <row r="68">
       <c r="A68" s="50" t="n">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B68" s="51" t="inlineStr">
         <is>
@@ -5722,10 +5641,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="53" t="n">
-        <v>325.67</v>
+        <v>324.56</v>
       </c>
       <c r="F68" s="53" t="n">
-        <v>3256.74</v>
+        <v>3245.58</v>
       </c>
       <c r="G68" s="51" t="inlineStr">
         <is>
@@ -5733,10 +5652,10 @@
         </is>
       </c>
       <c r="H68" s="52" t="n">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="I68" s="52" t="n">
-        <v>19.51</v>
+        <v>19.34</v>
       </c>
       <c r="J68" s="42">
         <f>Index!$C$2</f>
@@ -5744,41 +5663,41 @@
       </c>
       <c r="K68" s="47" t="n"/>
       <c r="L68" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M68" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N68" s="57">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O68" s="56" t="n"/>
       <c r="P68" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R68" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S68" s="56" t="n"/>
       <c r="T68" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
         <v/>
       </c>
       <c r="U68" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V68" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W68" s="53" t="n">
@@ -5788,23 +5707,23 @@
         <v>44049</v>
       </c>
       <c r="Y68" s="46">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z68" s="58">
-        <f>(1-Index!$F$2*2)*((W38*D38)-(E38*D38))</f>
+        <f>(1-Index!$F$2*2)*((W37*D37)-(E37*D37))</f>
         <v/>
       </c>
       <c r="AA68" s="58">
-        <f>((E38*D38)+Z38)</f>
+        <f>((E37*D37)+Z37)</f>
         <v/>
       </c>
       <c r="AB68" s="59">
-        <f>D38</f>
+        <f>D37</f>
         <v/>
       </c>
       <c r="AC68" s="44">
-        <f>if(B38="DIV", F38,"")</f>
+        <f>if(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD68" s="49" t="n"/>
@@ -5823,7 +5742,7 @@
     </row>
     <row r="69">
       <c r="A69" s="50" t="n">
-        <v>43823</v>
+        <v>43830</v>
       </c>
       <c r="B69" s="51" t="inlineStr">
         <is>
@@ -5839,10 +5758,10 @@
         <v>10</v>
       </c>
       <c r="E69" s="53" t="n">
-        <v>307.15</v>
+        <v>325.67</v>
       </c>
       <c r="F69" s="53" t="n">
-        <v>3071.47</v>
+        <v>3256.74</v>
       </c>
       <c r="G69" s="51" t="inlineStr">
         <is>
@@ -5850,10 +5769,10 @@
         </is>
       </c>
       <c r="H69" s="52" t="n">
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="I69" s="52" t="n">
-        <v>18.41</v>
+        <v>19.51</v>
       </c>
       <c r="J69" s="42">
         <f>Index!$C$2</f>
@@ -5861,41 +5780,41 @@
       </c>
       <c r="K69" s="47" t="n"/>
       <c r="L69" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M69" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N69" s="57">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O69" s="56" t="n"/>
       <c r="P69" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R69" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S69" s="56" t="n"/>
       <c r="T69" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
         <v/>
       </c>
       <c r="U69" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V69" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W69" s="53" t="n">
@@ -5905,23 +5824,23 @@
         <v>44049</v>
       </c>
       <c r="Y69" s="46">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z69" s="58">
-        <f>(1-Index!$F$2*2)*((W39*D39)-(E39*D39))</f>
+        <f>(1-Index!$F$2*2)*((W38*D38)-(E38*D38))</f>
         <v/>
       </c>
       <c r="AA69" s="58">
-        <f>((E39*D39)+Z39)</f>
+        <f>((E38*D38)+Z38)</f>
         <v/>
       </c>
       <c r="AB69" s="59">
-        <f>D39</f>
+        <f>D38</f>
         <v/>
       </c>
       <c r="AC69" s="44">
-        <f>if(B39="DIV", F39,"")</f>
+        <f>if(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD69" s="49" t="n"/>
@@ -5940,7 +5859,7 @@
     </row>
     <row r="70">
       <c r="A70" s="50" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="B70" s="51" t="inlineStr">
         <is>
@@ -5956,10 +5875,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="53" t="n">
-        <v>312.13</v>
+        <v>307.15</v>
       </c>
       <c r="F70" s="53" t="n">
-        <v>3121.27</v>
+        <v>3071.47</v>
       </c>
       <c r="G70" s="51" t="inlineStr">
         <is>
@@ -5967,49 +5886,52 @@
         </is>
       </c>
       <c r="H70" s="52" t="n">
-        <v>3.12</v>
+        <v>3.06</v>
       </c>
       <c r="I70" s="52" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="J70" s="61" t="n"/>
-      <c r="K70" s="56" t="n"/>
+        <v>18.41</v>
+      </c>
+      <c r="J70" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K70" s="47" t="n"/>
       <c r="L70" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M70" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N70" s="57">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O70" s="56" t="n"/>
       <c r="P70" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R70" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S70" s="56" t="n"/>
       <c r="T70" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
         <v/>
       </c>
       <c r="U70" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V70" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W70" s="53" t="n">
@@ -6019,23 +5941,23 @@
         <v>44049</v>
       </c>
       <c r="Y70" s="46">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z70" s="58">
-        <f>(1-Index!$F$2*2)*((W40*D40)-(E40*D40))</f>
+        <f>(1-Index!$F$2*2)*((W39*D39)-(E39*D39))</f>
         <v/>
       </c>
       <c r="AA70" s="58">
-        <f>((E40*D40)+Z40)</f>
+        <f>((E39*D39)+Z39)</f>
         <v/>
       </c>
       <c r="AB70" s="59">
-        <f>D40</f>
+        <f>D39</f>
         <v/>
       </c>
       <c r="AC70" s="44">
-        <f>if(B40="DIV", F40,"")</f>
+        <f>if(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD70" s="49" t="n"/>
@@ -6054,7 +5976,7 @@
     </row>
     <row r="71">
       <c r="A71" s="50" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="B71" s="51" t="inlineStr">
         <is>
@@ -6070,10 +5992,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="53" t="n">
-        <v>312.18</v>
+        <v>312.13</v>
       </c>
       <c r="F71" s="53" t="n">
-        <v>3121.82</v>
+        <v>3121.27</v>
       </c>
       <c r="G71" s="51" t="inlineStr">
         <is>
@@ -6081,75 +6003,75 @@
         </is>
       </c>
       <c r="H71" s="52" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="I71" s="52" t="n">
-        <v>18.69</v>
+        <v>18.65</v>
       </c>
       <c r="J71" s="61" t="n"/>
       <c r="K71" s="56" t="n"/>
       <c r="L71" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M71" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N71" s="57">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O71" s="56" t="n"/>
       <c r="P71" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R71" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S71" s="56" t="n"/>
       <c r="T71" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
         <v/>
       </c>
       <c r="U71" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V71" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W71" s="53" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="X71" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="Y71" s="46">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z71" s="58">
-        <f>(1-Index!$F$2*2)*((W41*D41)-(E41*D41))</f>
+        <f>(1-Index!$F$2*2)*((W40*D40)-(E40*D40))</f>
         <v/>
       </c>
       <c r="AA71" s="58">
-        <f>((E41*D41)+Z41)</f>
+        <f>((E40*D40)+Z40)</f>
         <v/>
       </c>
       <c r="AB71" s="59">
-        <f>D41</f>
+        <f>D40</f>
         <v/>
       </c>
       <c r="AC71" s="44">
-        <f>if(B41="DIV", F41,"")</f>
+        <f>if(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD71" s="49" t="n"/>
@@ -6168,7 +6090,7 @@
     </row>
     <row r="72">
       <c r="A72" s="50" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="B72" s="51" t="inlineStr">
         <is>
@@ -6181,13 +6103,13 @@
         </is>
       </c>
       <c r="D72" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E72" s="53" t="n">
-        <v>307.22</v>
+        <v>312.18</v>
       </c>
       <c r="F72" s="53" t="n">
-        <v>6144.32</v>
+        <v>3121.82</v>
       </c>
       <c r="G72" s="51" t="inlineStr">
         <is>
@@ -6195,52 +6117,49 @@
         </is>
       </c>
       <c r="H72" s="52" t="n">
-        <v>4.52</v>
+        <v>3.13</v>
       </c>
       <c r="I72" s="52" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="J72" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K72" s="47" t="n"/>
+        <v>18.69</v>
+      </c>
+      <c r="J72" s="61" t="n"/>
+      <c r="K72" s="56" t="n"/>
       <c r="L72" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M72" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N72" s="57">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O72" s="56" t="n"/>
       <c r="P72" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R72" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S72" s="56" t="n"/>
       <c r="T72" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
         <v/>
       </c>
       <c r="U72" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V72" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W72" s="53" t="n">
@@ -6250,30 +6169,26 @@
         <v>44048</v>
       </c>
       <c r="Y72" s="46">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z72" s="58">
-        <f>(1-Index!$F$2*2)*((W42*D42)-(E42*D42))</f>
+        <f>(1-Index!$F$2*2)*((W41*D41)-(E41*D41))</f>
         <v/>
       </c>
       <c r="AA72" s="58">
-        <f>((E42*D42)+Z42)</f>
+        <f>((E41*D41)+Z41)</f>
         <v/>
       </c>
       <c r="AB72" s="59">
-        <f>D42</f>
+        <f>D41</f>
         <v/>
       </c>
       <c r="AC72" s="44">
-        <f>if(B42="DIV", F42,"")</f>
-        <v/>
-      </c>
-      <c r="AD72" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B41="DIV", F41,"")</f>
+        <v/>
+      </c>
+      <c r="AD72" s="49" t="n"/>
       <c r="AE72" s="60" t="n"/>
       <c r="AF72" s="60" t="n"/>
       <c r="AG72" s="60" t="n"/>
@@ -6289,7 +6204,7 @@
     </row>
     <row r="73">
       <c r="A73" s="50" t="n">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="B73" s="51" t="inlineStr">
         <is>
@@ -6305,10 +6220,10 @@
         <v>20</v>
       </c>
       <c r="E73" s="53" t="n">
-        <v>302.14</v>
+        <v>307.22</v>
       </c>
       <c r="F73" s="53" t="n">
-        <v>6042.87</v>
+        <v>6144.32</v>
       </c>
       <c r="G73" s="51" t="inlineStr">
         <is>
@@ -6316,10 +6231,10 @@
         </is>
       </c>
       <c r="H73" s="52" t="n">
-        <v>5.78</v>
+        <v>4.52</v>
       </c>
       <c r="I73" s="52" t="n">
-        <v>36.09</v>
+        <v>36.8</v>
       </c>
       <c r="J73" s="42">
         <f>Index!$C$2</f>
@@ -6327,41 +6242,41 @@
       </c>
       <c r="K73" s="47" t="n"/>
       <c r="L73" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M73" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N73" s="57">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O73" s="56" t="n"/>
       <c r="P73" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R73" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S73" s="56" t="n"/>
       <c r="T73" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
         <v/>
       </c>
       <c r="U73" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V73" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W73" s="53" t="n">
@@ -6371,23 +6286,23 @@
         <v>44048</v>
       </c>
       <c r="Y73" s="46">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z73" s="58">
-        <f>(1-Index!$F$2*2)*((W43*D43)-(E43*D43))</f>
+        <f>(1-Index!$F$2*2)*((W42*D42)-(E42*D42))</f>
         <v/>
       </c>
       <c r="AA73" s="58">
-        <f>((E43*D43)+Z43)</f>
+        <f>((E42*D42)+Z42)</f>
         <v/>
       </c>
       <c r="AB73" s="59">
-        <f>D43</f>
+        <f>D42</f>
         <v/>
       </c>
       <c r="AC73" s="44">
-        <f>if(B43="DIV", F43,"")</f>
+        <f>if(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD73" s="62" t="inlineStr">
@@ -6410,7 +6325,7 @@
     </row>
     <row r="74">
       <c r="A74" s="50" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="B74" s="51" t="inlineStr">
         <is>
@@ -6423,13 +6338,13 @@
         </is>
       </c>
       <c r="D74" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E74" s="53" t="n">
-        <v>295.51</v>
+        <v>302.14</v>
       </c>
       <c r="F74" s="53" t="n">
-        <v>8865.290000000001</v>
+        <v>6042.87</v>
       </c>
       <c r="G74" s="51" t="inlineStr">
         <is>
@@ -6437,10 +6352,10 @@
         </is>
       </c>
       <c r="H74" s="52" t="n">
-        <v>8.859999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="I74" s="52" t="n">
-        <v>52.93</v>
+        <v>36.09</v>
       </c>
       <c r="J74" s="42">
         <f>Index!$C$2</f>
@@ -6448,67 +6363,67 @@
       </c>
       <c r="K74" s="47" t="n"/>
       <c r="L74" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M74" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N74" s="57">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O74" s="56" t="n"/>
       <c r="P74" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R74" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S74" s="56" t="n"/>
       <c r="T74" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
         <v/>
       </c>
       <c r="U74" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V74" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W74" s="53" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="X74" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="Y74" s="46">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z74" s="58">
-        <f>(1-Index!$F$2*2)*((W44*D44)-(E44*D44))</f>
+        <f>(1-Index!$F$2*2)*((W43*D43)-(E43*D43))</f>
         <v/>
       </c>
       <c r="AA74" s="58">
-        <f>((E44*D44)+Z44)</f>
+        <f>((E43*D43)+Z43)</f>
         <v/>
       </c>
       <c r="AB74" s="59">
-        <f>D44</f>
+        <f>D43</f>
         <v/>
       </c>
       <c r="AC74" s="44">
-        <f>if(B44="DIV", F44,"")</f>
+        <f>if(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD74" s="62" t="inlineStr">
@@ -6531,7 +6446,7 @@
     </row>
     <row r="75">
       <c r="A75" s="50" t="n">
-        <v>43812</v>
+        <v>43816</v>
       </c>
       <c r="B75" s="51" t="inlineStr">
         <is>
@@ -6544,13 +6459,13 @@
         </is>
       </c>
       <c r="D75" s="52" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E75" s="53" t="n">
-        <v>304.64</v>
+        <v>295.51</v>
       </c>
       <c r="F75" s="53" t="n">
-        <v>6092.9</v>
+        <v>8865.290000000001</v>
       </c>
       <c r="G75" s="51" t="inlineStr">
         <is>
@@ -6558,10 +6473,10 @@
         </is>
       </c>
       <c r="H75" s="52" t="n">
-        <v>4.6</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="I75" s="52" t="n">
-        <v>36.3</v>
+        <v>52.93</v>
       </c>
       <c r="J75" s="42">
         <f>Index!$C$2</f>
@@ -6569,41 +6484,41 @@
       </c>
       <c r="K75" s="47" t="n"/>
       <c r="L75" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M75" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N75" s="57">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O75" s="56" t="n"/>
       <c r="P75" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R75" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S75" s="56" t="n"/>
       <c r="T75" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
         <v/>
       </c>
       <c r="U75" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V75" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W75" s="53" t="n">
@@ -6613,23 +6528,23 @@
         <v>44042</v>
       </c>
       <c r="Y75" s="46">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z75" s="58">
-        <f>(1-Index!$F$2*2)*((W45*D45)-(E45*D45))</f>
+        <f>(1-Index!$F$2*2)*((W44*D44)-(E44*D44))</f>
         <v/>
       </c>
       <c r="AA75" s="58">
-        <f>((E45*D45)+Z45)</f>
+        <f>((E44*D44)+Z44)</f>
         <v/>
       </c>
       <c r="AB75" s="59">
-        <f>D45</f>
+        <f>D44</f>
         <v/>
       </c>
       <c r="AC75" s="44">
-        <f>if(B45="DIV", F45,"")</f>
+        <f>if(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD75" s="62" t="inlineStr">
@@ -6652,7 +6567,7 @@
     </row>
     <row r="76">
       <c r="A76" s="50" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="B76" s="51" t="inlineStr">
         <is>
@@ -6665,13 +6580,13 @@
         </is>
       </c>
       <c r="D76" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E76" s="53" t="n">
-        <v>303.24</v>
+        <v>304.64</v>
       </c>
       <c r="F76" s="53" t="n">
-        <v>9097.1</v>
+        <v>6092.9</v>
       </c>
       <c r="G76" s="51" t="inlineStr">
         <is>
@@ -6679,10 +6594,10 @@
         </is>
       </c>
       <c r="H76" s="52" t="n">
-        <v>6.59</v>
+        <v>4.6</v>
       </c>
       <c r="I76" s="52" t="n">
-        <v>54.51</v>
+        <v>36.3</v>
       </c>
       <c r="J76" s="42">
         <f>Index!$C$2</f>
@@ -6690,67 +6605,67 @@
       </c>
       <c r="K76" s="47" t="n"/>
       <c r="L76" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M76" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N76" s="57">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O76" s="56" t="n"/>
       <c r="P76" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R76" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S76" s="56" t="n"/>
       <c r="T76" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
         <v/>
       </c>
       <c r="U76" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V76" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W76" s="53" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="X76" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="Y76" s="46">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z76" s="58">
-        <f>(1-Index!$F$2*2)*((W46*D46)-(E46*D46))</f>
+        <f>(1-Index!$F$2*2)*((W45*D45)-(E45*D45))</f>
         <v/>
       </c>
       <c r="AA76" s="58">
-        <f>((E46*D46)+Z46)</f>
+        <f>((E45*D45)+Z45)</f>
         <v/>
       </c>
       <c r="AB76" s="59">
-        <f>D46</f>
+        <f>D45</f>
         <v/>
       </c>
       <c r="AC76" s="44">
-        <f>if(B46="DIV", F46,"")</f>
+        <f>if(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD76" s="62" t="inlineStr">
@@ -6773,7 +6688,7 @@
     </row>
     <row r="77">
       <c r="A77" s="50" t="n">
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="B77" s="51" t="inlineStr">
         <is>
@@ -6786,13 +6701,13 @@
         </is>
       </c>
       <c r="D77" s="52" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E77" s="53" t="n">
-        <v>310.97</v>
+        <v>303.24</v>
       </c>
       <c r="F77" s="53" t="n">
-        <v>3109.74</v>
+        <v>9097.1</v>
       </c>
       <c r="G77" s="51" t="inlineStr">
         <is>
@@ -6800,10 +6715,10 @@
         </is>
       </c>
       <c r="H77" s="52" t="n">
-        <v>2.73</v>
+        <v>6.59</v>
       </c>
       <c r="I77" s="52" t="n">
-        <v>18.51</v>
+        <v>54.51</v>
       </c>
       <c r="J77" s="42">
         <f>Index!$C$2</f>
@@ -6811,67 +6726,67 @@
       </c>
       <c r="K77" s="47" t="n"/>
       <c r="L77" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M77" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N77" s="57">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O77" s="56" t="n"/>
       <c r="P77" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R77" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S77" s="56" t="n"/>
       <c r="T77" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
         <v/>
       </c>
       <c r="U77" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V77" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W77" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X77" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y77" s="46">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z77" s="58">
-        <f>(1-Index!$F$2*2)*((W47*D47)-(E47*D47))</f>
+        <f>(1-Index!$F$2*2)*((W46*D46)-(E46*D46))</f>
         <v/>
       </c>
       <c r="AA77" s="58">
-        <f>((E47*D47)+Z47)</f>
+        <f>((E46*D46)+Z46)</f>
         <v/>
       </c>
       <c r="AB77" s="59">
-        <f>D47</f>
+        <f>D46</f>
         <v/>
       </c>
       <c r="AC77" s="44">
-        <f>if(B47="DIV", F47,"")</f>
+        <f>if(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD77" s="62" t="inlineStr">
@@ -6894,7 +6809,7 @@
     </row>
     <row r="78">
       <c r="A78" s="50" t="n">
-        <v>43801</v>
+        <v>43803</v>
       </c>
       <c r="B78" s="51" t="inlineStr">
         <is>
@@ -6907,13 +6822,13 @@
         </is>
       </c>
       <c r="D78" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E78" s="53" t="n">
-        <v>319.62</v>
+        <v>310.97</v>
       </c>
       <c r="F78" s="53" t="n">
-        <v>6392.34</v>
+        <v>3109.74</v>
       </c>
       <c r="G78" s="51" t="inlineStr">
         <is>
@@ -6921,10 +6836,10 @@
         </is>
       </c>
       <c r="H78" s="52" t="n">
-        <v>3.86</v>
+        <v>2.73</v>
       </c>
       <c r="I78" s="52" t="n">
-        <v>38.48</v>
+        <v>18.51</v>
       </c>
       <c r="J78" s="42">
         <f>Index!$C$2</f>
@@ -6932,67 +6847,67 @@
       </c>
       <c r="K78" s="47" t="n"/>
       <c r="L78" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M78" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N78" s="57">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O78" s="56" t="n"/>
       <c r="P78" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R78" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S78" s="56" t="n"/>
       <c r="T78" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
         <v/>
       </c>
       <c r="U78" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V78" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W78" s="53" t="n">
-        <v>471.75</v>
+        <v>464.48</v>
       </c>
       <c r="X78" s="50" t="n">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="Y78" s="46">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z78" s="58">
-        <f>(1-Index!$F$2*2)*((W48*D48)-(E48*D48))</f>
+        <f>(1-Index!$F$2*2)*((W47*D47)-(E47*D47))</f>
         <v/>
       </c>
       <c r="AA78" s="58">
-        <f>((E48*D48)+Z48)</f>
+        <f>((E47*D47)+Z47)</f>
         <v/>
       </c>
       <c r="AB78" s="59">
-        <f>D48</f>
+        <f>D47</f>
         <v/>
       </c>
       <c r="AC78" s="44">
-        <f>if(B48="DIV", F48,"")</f>
+        <f>if(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD78" s="62" t="inlineStr">
@@ -7015,7 +6930,7 @@
     </row>
     <row r="79">
       <c r="A79" s="50" t="n">
-        <v>43798</v>
+        <v>43801</v>
       </c>
       <c r="B79" s="51" t="inlineStr">
         <is>
@@ -7031,10 +6946,10 @@
         <v>20</v>
       </c>
       <c r="E79" s="53" t="n">
-        <v>321.79</v>
+        <v>319.62</v>
       </c>
       <c r="F79" s="53" t="n">
-        <v>6435.75</v>
+        <v>6392.34</v>
       </c>
       <c r="G79" s="51" t="inlineStr">
         <is>
@@ -7042,10 +6957,10 @@
         </is>
       </c>
       <c r="H79" s="52" t="n">
-        <v>4.11</v>
+        <v>3.86</v>
       </c>
       <c r="I79" s="52" t="n">
-        <v>38.64</v>
+        <v>38.48</v>
       </c>
       <c r="J79" s="42">
         <f>Index!$C$2</f>
@@ -7053,67 +6968,67 @@
       </c>
       <c r="K79" s="47" t="n"/>
       <c r="L79" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M79" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N79" s="57">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O79" s="56" t="n"/>
       <c r="P79" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R79" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S79" s="56" t="n"/>
       <c r="T79" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
         <v/>
       </c>
       <c r="U79" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V79" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W79" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X79" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y79" s="46">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z79" s="58">
-        <f>(1-Index!$F$2*2)*((W49*D49)-(E49*D49))</f>
+        <f>(1-Index!$F$2*2)*((W48*D48)-(E48*D48))</f>
         <v/>
       </c>
       <c r="AA79" s="58">
-        <f>((E49*D49)+Z49)</f>
+        <f>((E48*D48)+Z48)</f>
         <v/>
       </c>
       <c r="AB79" s="59">
-        <f>D49</f>
+        <f>D48</f>
         <v/>
       </c>
       <c r="AC79" s="44">
-        <f>if(B49="DIV", F49,"")</f>
+        <f>if(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD79" s="62" t="inlineStr">
@@ -7136,7 +7051,7 @@
     </row>
     <row r="80">
       <c r="A80" s="50" t="n">
-        <v>43796</v>
+        <v>43798</v>
       </c>
       <c r="B80" s="51" t="inlineStr">
         <is>
@@ -7149,13 +7064,13 @@
         </is>
       </c>
       <c r="D80" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E80" s="53" t="n">
-        <v>316.81</v>
+        <v>321.79</v>
       </c>
       <c r="F80" s="53" t="n">
-        <v>3168.11</v>
+        <v>6435.75</v>
       </c>
       <c r="G80" s="51" t="inlineStr">
         <is>
@@ -7163,10 +7078,10 @@
         </is>
       </c>
       <c r="H80" s="52" t="n">
-        <v>1.77</v>
+        <v>4.11</v>
       </c>
       <c r="I80" s="52" t="n">
-        <v>18.84</v>
+        <v>38.64</v>
       </c>
       <c r="J80" s="42">
         <f>Index!$C$2</f>
@@ -7174,41 +7089,41 @@
       </c>
       <c r="K80" s="47" t="n"/>
       <c r="L80" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M80" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N80" s="57">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O80" s="56" t="n"/>
       <c r="P80" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R80" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S80" s="56" t="n"/>
       <c r="T80" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
         <v/>
       </c>
       <c r="U80" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V80" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W80" s="53" t="n">
@@ -7218,23 +7133,23 @@
         <v>44039</v>
       </c>
       <c r="Y80" s="46">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z80" s="58">
-        <f>(1-Index!$F$2*2)*((W50*D50)-(E50*D50))</f>
+        <f>(1-Index!$F$2*2)*((W49*D49)-(E49*D49))</f>
         <v/>
       </c>
       <c r="AA80" s="58">
-        <f>((E50*D50)+Z50)</f>
+        <f>((E49*D49)+Z49)</f>
         <v/>
       </c>
       <c r="AB80" s="59">
-        <f>D50</f>
+        <f>D49</f>
         <v/>
       </c>
       <c r="AC80" s="44">
-        <f>if(B50="DIV", F50,"")</f>
+        <f>if(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD80" s="62" t="inlineStr">
@@ -7257,11 +7172,11 @@
     </row>
     <row r="81">
       <c r="A81" s="50" t="n">
-        <v>43782</v>
+        <v>43796</v>
       </c>
       <c r="B81" s="51" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C81" s="51" t="inlineStr">
@@ -7273,10 +7188,10 @@
         <v>10</v>
       </c>
       <c r="E81" s="53" t="n">
-        <v>333.25</v>
+        <v>316.81</v>
       </c>
       <c r="F81" s="53" t="n">
-        <v>3332.5</v>
+        <v>3168.11</v>
       </c>
       <c r="G81" s="51" t="inlineStr">
         <is>
@@ -7284,10 +7199,10 @@
         </is>
       </c>
       <c r="H81" s="52" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="I81" s="52" t="n">
-        <v>20.14</v>
+        <v>18.84</v>
       </c>
       <c r="J81" s="42">
         <f>Index!$C$2</f>
@@ -7295,41 +7210,41 @@
       </c>
       <c r="K81" s="47" t="n"/>
       <c r="L81" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M81" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N81" s="57">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O81" s="56" t="n"/>
       <c r="P81" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R81" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S81" s="56" t="n"/>
       <c r="T81" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
         <v/>
       </c>
       <c r="U81" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V81" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W81" s="53" t="n">
@@ -7339,23 +7254,23 @@
         <v>44039</v>
       </c>
       <c r="Y81" s="46">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z81" s="58">
-        <f>(1-Index!$F$2*2)*((W51*D51)-(E51*D51))</f>
+        <f>(1-Index!$F$2*2)*((W50*D50)-(E50*D50))</f>
         <v/>
       </c>
       <c r="AA81" s="58">
-        <f>((E51*D51)+Z51)</f>
+        <f>((E50*D50)+Z50)</f>
         <v/>
       </c>
       <c r="AB81" s="59">
-        <f>D51</f>
+        <f>D50</f>
         <v/>
       </c>
       <c r="AC81" s="44">
-        <f>if(B51="DIV", F51,"")</f>
+        <f>if(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD81" s="62" t="inlineStr">
@@ -7378,11 +7293,11 @@
     </row>
     <row r="82">
       <c r="A82" s="50" t="n">
-        <v>43707</v>
+        <v>43782</v>
       </c>
       <c r="B82" s="51" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C82" s="51" t="inlineStr">
@@ -7391,13 +7306,13 @@
         </is>
       </c>
       <c r="D82" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E82" s="53" t="n">
-        <v>305.59</v>
+        <v>333.25</v>
       </c>
       <c r="F82" s="53" t="n">
-        <v>6111.8</v>
+        <v>3332.5</v>
       </c>
       <c r="G82" s="51" t="inlineStr">
         <is>
@@ -7405,10 +7320,10 @@
         </is>
       </c>
       <c r="H82" s="52" t="n">
-        <v>6.01</v>
+        <v>1.86</v>
       </c>
       <c r="I82" s="52" t="n">
-        <v>36.79</v>
+        <v>20.14</v>
       </c>
       <c r="J82" s="42">
         <f>Index!$C$2</f>
@@ -7416,67 +7331,67 @@
       </c>
       <c r="K82" s="47" t="n"/>
       <c r="L82" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M82" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N82" s="57">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O82" s="56" t="n"/>
       <c r="P82" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R82" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S82" s="56" t="n"/>
       <c r="T82" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
         <v/>
       </c>
       <c r="U82" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V82" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W82" s="53" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="X82" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="Y82" s="46">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z82" s="58">
-        <f>(1-Index!$F$2*2)*((W52*D52)-(E52*D52))</f>
+        <f>(1-Index!$F$2*2)*((W51*D51)-(E51*D51))</f>
         <v/>
       </c>
       <c r="AA82" s="58">
-        <f>((E52*D52)+Z52)</f>
+        <f>((E51*D51)+Z51)</f>
         <v/>
       </c>
       <c r="AB82" s="59">
-        <f>D52</f>
+        <f>D51</f>
         <v/>
       </c>
       <c r="AC82" s="44">
-        <f>if(B52="DIV", F52,"")</f>
+        <f>if(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD82" s="62" t="inlineStr">
@@ -7484,10 +7399,22 @@
           <t>SBI Securities</t>
         </is>
       </c>
+      <c r="AE82" s="60" t="n"/>
+      <c r="AF82" s="60" t="n"/>
+      <c r="AG82" s="60" t="n"/>
+      <c r="AH82" s="60" t="n"/>
+      <c r="AI82" s="60" t="n"/>
+      <c r="AJ82" s="60" t="n"/>
+      <c r="AK82" s="60" t="n"/>
+      <c r="AL82" s="60" t="n"/>
+      <c r="AM82" s="60" t="n"/>
+      <c r="AN82" s="60" t="n"/>
+      <c r="AO82" s="60" t="n"/>
+      <c r="AP82" s="60" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="50" t="n">
-        <v>43697</v>
+        <v>43707</v>
       </c>
       <c r="B83" s="51" t="inlineStr">
         <is>
@@ -7500,13 +7427,13 @@
         </is>
       </c>
       <c r="D83" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E83" s="53" t="n">
-        <v>303.43</v>
+        <v>305.59</v>
       </c>
       <c r="F83" s="53" t="n">
-        <v>3034.27</v>
+        <v>6111.8</v>
       </c>
       <c r="G83" s="51" t="inlineStr">
         <is>
@@ -7514,10 +7441,10 @@
         </is>
       </c>
       <c r="H83" s="52" t="n">
-        <v>2.86</v>
+        <v>6.01</v>
       </c>
       <c r="I83" s="52" t="n">
-        <v>18.41</v>
+        <v>36.79</v>
       </c>
       <c r="J83" s="42">
         <f>Index!$C$2</f>
@@ -7525,41 +7452,41 @@
       </c>
       <c r="K83" s="47" t="n"/>
       <c r="L83" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M83" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N83" s="57">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O83" s="56" t="n"/>
       <c r="P83" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R83" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S83" s="56" t="n"/>
       <c r="T83" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
         <v/>
       </c>
       <c r="U83" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V83" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W83" s="53" t="n">
@@ -7569,23 +7496,23 @@
         <v>44036</v>
       </c>
       <c r="Y83" s="46">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z83" s="58">
-        <f>(1-Index!$F$2*2)*((W53*D53)-(E53*D53))</f>
+        <f>(1-Index!$F$2*2)*((W52*D52)-(E52*D52))</f>
         <v/>
       </c>
       <c r="AA83" s="58">
-        <f>((E53*D53)+Z53)</f>
+        <f>((E52*D52)+Z52)</f>
         <v/>
       </c>
       <c r="AB83" s="59">
-        <f>D53</f>
+        <f>D52</f>
         <v/>
       </c>
       <c r="AC83" s="44">
-        <f>if(B53="DIV", F53,"")</f>
+        <f>if(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD83" s="62" t="inlineStr">
@@ -7596,7 +7523,7 @@
     </row>
     <row r="84">
       <c r="A84" s="50" t="n">
-        <v>43685</v>
+        <v>43697</v>
       </c>
       <c r="B84" s="51" t="inlineStr">
         <is>
@@ -7612,10 +7539,10 @@
         <v>10</v>
       </c>
       <c r="E84" s="53" t="n">
-        <v>309.25</v>
+        <v>303.43</v>
       </c>
       <c r="F84" s="53" t="n">
-        <v>3092.54</v>
+        <v>3034.27</v>
       </c>
       <c r="G84" s="51" t="inlineStr">
         <is>
@@ -7623,10 +7550,10 @@
         </is>
       </c>
       <c r="H84" s="52" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="I84" s="52" t="n">
-        <v>18.58</v>
+        <v>18.41</v>
       </c>
       <c r="J84" s="42">
         <f>Index!$C$2</f>
@@ -7634,41 +7561,41 @@
       </c>
       <c r="K84" s="47" t="n"/>
       <c r="L84" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M84" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N84" s="57">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O84" s="56" t="n"/>
       <c r="P84" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R84" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S84" s="56" t="n"/>
       <c r="T84" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
         <v/>
       </c>
       <c r="U84" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V84" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W84" s="53" t="n">
@@ -7678,23 +7605,23 @@
         <v>44036</v>
       </c>
       <c r="Y84" s="46">
-        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
         <v/>
       </c>
       <c r="Z84" s="58">
-        <f>(1-Index!$F$2*2)*((W54*D54)-(E54*D54))</f>
+        <f>(1-Index!$F$2*2)*((W53*D53)-(E53*D53))</f>
         <v/>
       </c>
       <c r="AA84" s="58">
-        <f>((E54*D54)+Z54)</f>
+        <f>((E53*D53)+Z53)</f>
         <v/>
       </c>
       <c r="AB84" s="59">
-        <f>D54</f>
+        <f>D53</f>
         <v/>
       </c>
       <c r="AC84" s="44">
-        <f>if(B54="DIV", F54,"")</f>
+        <f>if(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD84" s="62" t="inlineStr">
@@ -7705,7 +7632,7 @@
     </row>
     <row r="85">
       <c r="A85" s="50" t="n">
-        <v>43682</v>
+        <v>43685</v>
       </c>
       <c r="B85" s="51" t="inlineStr">
         <is>
@@ -7721,10 +7648,10 @@
         <v>10</v>
       </c>
       <c r="E85" s="53" t="n">
-        <v>301.86</v>
+        <v>309.25</v>
       </c>
       <c r="F85" s="53" t="n">
-        <v>3018.58</v>
+        <v>3092.54</v>
       </c>
       <c r="G85" s="51" t="inlineStr">
         <is>
@@ -7732,10 +7659,10 @@
         </is>
       </c>
       <c r="H85" s="52" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="I85" s="52" t="n">
-        <v>18.09</v>
+        <v>18.58</v>
       </c>
       <c r="J85" s="42">
         <f>Index!$C$2</f>
@@ -7743,41 +7670,41 @@
       </c>
       <c r="K85" s="47" t="n"/>
       <c r="L85" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M85" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N85" s="57">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O85" s="56" t="n"/>
       <c r="P85" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R85" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S85" s="56" t="n"/>
       <c r="T85" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
         <v/>
       </c>
       <c r="U85" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V85" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W85" s="53" t="n">
@@ -7787,23 +7714,23 @@
         <v>44036</v>
       </c>
       <c r="Y85" s="46">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
         <v/>
       </c>
       <c r="Z85" s="58">
-        <f>(1-Index!$F$2*2)*((W55*D55)-(E55*D55))</f>
+        <f>(1-Index!$F$2*2)*((W54*D54)-(E54*D54))</f>
         <v/>
       </c>
       <c r="AA85" s="58">
-        <f>((E55*D55)+Z55)</f>
+        <f>((E54*D54)+Z54)</f>
         <v/>
       </c>
       <c r="AB85" s="59">
-        <f>D55</f>
+        <f>D54</f>
         <v/>
       </c>
       <c r="AC85" s="44">
-        <f>if(B55="DIV", F55,"")</f>
+        <f>if(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD85" s="62" t="inlineStr">
@@ -7814,7 +7741,7 @@
     </row>
     <row r="86">
       <c r="A86" s="50" t="n">
-        <v>43678</v>
+        <v>43682</v>
       </c>
       <c r="B86" s="51" t="inlineStr">
         <is>
@@ -7827,13 +7754,13 @@
         </is>
       </c>
       <c r="D86" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E86" s="53" t="n">
-        <v>300.3</v>
+        <v>301.86</v>
       </c>
       <c r="F86" s="53" t="n">
-        <v>6005.97</v>
+        <v>3018.58</v>
       </c>
       <c r="G86" s="51" t="inlineStr">
         <is>
@@ -7841,10 +7768,10 @@
         </is>
       </c>
       <c r="H86" s="52" t="n">
-        <v>6.02</v>
+        <v>2.99</v>
       </c>
       <c r="I86" s="52" t="n">
-        <v>35.95</v>
+        <v>18.09</v>
       </c>
       <c r="J86" s="42">
         <f>Index!$C$2</f>
@@ -7852,67 +7779,67 @@
       </c>
       <c r="K86" s="47" t="n"/>
       <c r="L86" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="M86" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
         <v/>
       </c>
       <c r="N86" s="57">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
         <v/>
       </c>
       <c r="O86" s="56" t="n"/>
       <c r="P86" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
         <v/>
       </c>
       <c r="R86" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="S86" s="56" t="n"/>
       <c r="T86" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
         <v/>
       </c>
       <c r="U86" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
         <v/>
       </c>
       <c r="V86" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="W86" s="53" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="X86" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="Y86" s="46">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/sum(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
         <v/>
       </c>
       <c r="Z86" s="58">
-        <f>(1-Index!$F$2*2)*((W56*D56)-(E56*D56))</f>
+        <f>(1-Index!$F$2*2)*((W55*D55)-(E55*D55))</f>
         <v/>
       </c>
       <c r="AA86" s="58">
-        <f>((E56*D56)+Z56)</f>
+        <f>((E55*D55)+Z55)</f>
         <v/>
       </c>
       <c r="AB86" s="59">
-        <f>D56</f>
+        <f>D55</f>
         <v/>
       </c>
       <c r="AC86" s="44">
-        <f>if(B56="DIV", F56,"")</f>
+        <f>if(B55="DIV", F55,"")</f>
         <v/>
       </c>
       <c r="AD86" s="62" t="inlineStr">
@@ -7923,7 +7850,7 @@
     </row>
     <row r="87">
       <c r="A87" s="50" t="n">
-        <v>43670</v>
+        <v>43678</v>
       </c>
       <c r="B87" s="51" t="inlineStr">
         <is>
@@ -7936,13 +7863,13 @@
         </is>
       </c>
       <c r="D87" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E87" s="53" t="n">
-        <v>317.82</v>
+        <v>300.3</v>
       </c>
       <c r="F87" s="53" t="n">
-        <v>3178.2</v>
+        <v>6005.97</v>
       </c>
       <c r="G87" s="51" t="inlineStr">
         <is>
@@ -7950,10 +7877,10 @@
         </is>
       </c>
       <c r="H87" s="52" t="n">
-        <v>3.13</v>
+        <v>6.02</v>
       </c>
       <c r="I87" s="52" t="n">
-        <v>19.07</v>
+        <v>35.95</v>
       </c>
       <c r="J87" s="42">
         <f>Index!$C$2</f>
@@ -7961,41 +7888,41 @@
       </c>
       <c r="K87" s="47" t="n"/>
       <c r="L87" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M87" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N87" s="57">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O87" s="56" t="n"/>
       <c r="P87" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R87" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S87" s="56" t="n"/>
       <c r="T87" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U87" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V87" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W87" s="53" t="n">
@@ -8005,23 +7932,23 @@
         <v>44025</v>
       </c>
       <c r="Y87" s="46">
-        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/sum(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/sum(F56:I56), "")</f>
         <v/>
       </c>
       <c r="Z87" s="58">
-        <f>(1-Index!$F$2*2)*((W57*D57)-(E57*D57))</f>
+        <f>(1-Index!$F$2*2)*((W56*D56)-(E56*D56))</f>
         <v/>
       </c>
       <c r="AA87" s="58">
-        <f>((E57*D57)+Z57)</f>
+        <f>((E56*D56)+Z56)</f>
         <v/>
       </c>
       <c r="AB87" s="59">
-        <f>D57</f>
+        <f>D56</f>
         <v/>
       </c>
       <c r="AC87" s="44">
-        <f>if(B57="DIV", F57,"")</f>
+        <f>if(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD87" s="62" t="inlineStr">
@@ -8032,7 +7959,7 @@
     </row>
     <row r="88">
       <c r="A88" s="50" t="n">
-        <v>43668</v>
+        <v>43670</v>
       </c>
       <c r="B88" s="51" t="inlineStr">
         <is>
@@ -8048,10 +7975,10 @@
         <v>10</v>
       </c>
       <c r="E88" s="53" t="n">
-        <v>318.1</v>
+        <v>317.82</v>
       </c>
       <c r="F88" s="53" t="n">
-        <v>3180.98</v>
+        <v>3178.2</v>
       </c>
       <c r="G88" s="51" t="inlineStr">
         <is>
@@ -8059,10 +7986,10 @@
         </is>
       </c>
       <c r="H88" s="52" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="I88" s="52" t="n">
-        <v>19.11</v>
+        <v>19.07</v>
       </c>
       <c r="J88" s="42">
         <f>Index!$C$2</f>
@@ -8070,41 +7997,41 @@
       </c>
       <c r="K88" s="47" t="n"/>
       <c r="L88" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M88" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N88" s="57">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O88" s="56" t="n"/>
       <c r="P88" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R88" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S88" s="56" t="n"/>
       <c r="T88" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
         <v/>
       </c>
       <c r="U88" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V88" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="W88" s="53" t="n">
@@ -8114,23 +8041,23 @@
         <v>44025</v>
       </c>
       <c r="Y88" s="46">
-        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/sum(F57:I57), "")</f>
         <v/>
       </c>
       <c r="Z88" s="58">
-        <f>(1-Index!$F$2*2)*((W58*D58)-(E58*D58))</f>
+        <f>(1-Index!$F$2*2)*((W57*D57)-(E57*D57))</f>
         <v/>
       </c>
       <c r="AA88" s="58">
-        <f>((E58*D58)+Z58)</f>
+        <f>((E57*D57)+Z57)</f>
         <v/>
       </c>
       <c r="AB88" s="59">
-        <f>D58</f>
+        <f>D57</f>
         <v/>
       </c>
       <c r="AC88" s="44">
-        <f>if(B58="DIV", F58,"")</f>
+        <f>if(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD88" s="62" t="inlineStr">
@@ -8141,7 +8068,7 @@
     </row>
     <row r="89">
       <c r="A89" s="50" t="n">
-        <v>43665</v>
+        <v>43668</v>
       </c>
       <c r="B89" s="51" t="inlineStr">
         <is>
@@ -8157,10 +8084,10 @@
         <v>10</v>
       </c>
       <c r="E89" s="53" t="n">
-        <v>324.56</v>
+        <v>318.1</v>
       </c>
       <c r="F89" s="53" t="n">
-        <v>3245.64</v>
+        <v>3180.98</v>
       </c>
       <c r="G89" s="51" t="inlineStr">
         <is>
@@ -8168,10 +8095,10 @@
         </is>
       </c>
       <c r="H89" s="52" t="n">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
       <c r="I89" s="52" t="n">
-        <v>19.42</v>
+        <v>19.11</v>
       </c>
       <c r="J89" s="42">
         <f>Index!$C$2</f>
@@ -8179,41 +8106,41 @@
       </c>
       <c r="K89" s="47" t="n"/>
       <c r="L89" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M89" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N89" s="57">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O89" s="56" t="n"/>
       <c r="P89" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R89" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S89" s="56" t="n"/>
       <c r="T89" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
         <v/>
       </c>
       <c r="U89" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V89" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="W89" s="53" t="n">
@@ -8223,46 +8150,139 @@
         <v>44025</v>
       </c>
       <c r="Y89" s="46">
+        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
+        <v/>
+      </c>
+      <c r="Z89" s="58">
+        <f>(1-Index!$F$2*2)*((W58*D58)-(E58*D58))</f>
+        <v/>
+      </c>
+      <c r="AA89" s="58">
+        <f>((E58*D58)+Z58)</f>
+        <v/>
+      </c>
+      <c r="AB89" s="59">
+        <f>D58</f>
+        <v/>
+      </c>
+      <c r="AC89" s="44">
+        <f>if(B58="DIV", F58,"")</f>
+        <v/>
+      </c>
+      <c r="AD89" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="50" t="n">
+        <v>43665</v>
+      </c>
+      <c r="B90" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C90" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D90" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" s="53" t="n">
+        <v>324.56</v>
+      </c>
+      <c r="F90" s="53" t="n">
+        <v>3245.64</v>
+      </c>
+      <c r="G90" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H90" s="52" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I90" s="52" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="J90" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K90" s="47" t="n"/>
+      <c r="L90" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="M90" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <v/>
+      </c>
+      <c r="N90" s="57">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <v/>
+      </c>
+      <c r="O90" s="56" t="n"/>
+      <c r="P90" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="Q90" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <v/>
+      </c>
+      <c r="R90" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="S90" s="56" t="n"/>
+      <c r="T90" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <v/>
+      </c>
+      <c r="U90" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <v/>
+      </c>
+      <c r="V90" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="W90" s="53" t="n">
+        <v>437.94</v>
+      </c>
+      <c r="X90" s="50" t="n">
+        <v>44025</v>
+      </c>
+      <c r="Y90" s="46">
         <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/sum(F59:I59), "")</f>
         <v/>
       </c>
-      <c r="Z89" s="58">
+      <c r="Z90" s="58">
         <f>(1-Index!$F$2*2)*((W59*D59)-(E59*D59))</f>
         <v/>
       </c>
-      <c r="AA89" s="58">
+      <c r="AA90" s="58">
         <f>((E59*D59)+Z59)</f>
         <v/>
       </c>
-      <c r="AB89" s="59">
+      <c r="AB90" s="59">
         <f>D59</f>
         <v/>
       </c>
-      <c r="AC89" s="44">
+      <c r="AC90" s="44">
         <f>if(B59="DIV", F59,"")</f>
         <v/>
       </c>
-      <c r="AD89" s="62" t="inlineStr">
+      <c r="AD90" s="62" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="E90" s="63" t="n"/>
-      <c r="F90" s="63" t="n"/>
-      <c r="G90" s="64" t="n"/>
-      <c r="J90" s="63" t="n"/>
-      <c r="K90" s="63" t="n"/>
-      <c r="L90" s="63" t="n"/>
-      <c r="M90" s="66" t="n"/>
-      <c r="W90" s="63" t="n"/>
-      <c r="X90" s="63" t="n"/>
-      <c r="Y90" s="63" t="n"/>
-      <c r="Z90" s="63" t="n"/>
-      <c r="AA90" s="63" t="n"/>
-      <c r="AB90" s="63" t="n"/>
-      <c r="AC90" s="63" t="n"/>
     </row>
     <row r="91">
       <c r="E91" s="63" t="n"/>
@@ -23231,6 +23251,7 @@
       <c r="J1026" s="63" t="n"/>
       <c r="K1026" s="63" t="n"/>
       <c r="L1026" s="63" t="n"/>
+      <c r="M1026" s="66" t="n"/>
       <c r="W1026" s="63" t="n"/>
       <c r="X1026" s="63" t="n"/>
       <c r="Y1026" s="63" t="n"/>
@@ -23478,6 +23499,21 @@
       <c r="AA1042" s="63" t="n"/>
       <c r="AB1042" s="63" t="n"/>
       <c r="AC1042" s="63" t="n"/>
+    </row>
+    <row r="1043">
+      <c r="E1043" s="63" t="n"/>
+      <c r="F1043" s="63" t="n"/>
+      <c r="G1043" s="64" t="n"/>
+      <c r="J1043" s="63" t="n"/>
+      <c r="K1043" s="63" t="n"/>
+      <c r="L1043" s="63" t="n"/>
+      <c r="W1043" s="63" t="n"/>
+      <c r="X1043" s="63" t="n"/>
+      <c r="Y1043" s="63" t="n"/>
+      <c r="Z1043" s="63" t="n"/>
+      <c r="AA1043" s="63" t="n"/>
+      <c r="AB1043" s="63" t="n"/>
+      <c r="AC1043" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$89"/>

--- a/dumps/Stocks/Syngene International Ltd.xlsx
+++ b/dumps/Stocks/Syngene International Ltd.xlsx
@@ -783,7 +783,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1043"/>
+  <dimension ref="A1:AP1044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="5">
       <c r="A5" s="99" t="n">
-        <v>45957</v>
+        <v>45974</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1149,18 +1149,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>661.54</v>
+        <v>669.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3324.25</v>
+        <v>3366.25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16.55</v>
+        <v>16.75</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="6">
       <c r="A6" s="99" t="n">
-        <v>46062</v>
+        <v>45957</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1185,21 +1185,18 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>449.8</v>
+        <v>661.54</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2264.94</v>
+        <v>3324.25</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>2.25</v>
+          <t>CN#252607382790</t>
+        </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>13.69</v>
+        <v>16.55</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1207,8 +1204,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="98" t="n">
-        <v>46057</v>
+      <c r="A7" s="99" t="n">
+        <v>46062</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1221,29 +1218,33 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>471.15</v>
+        <v>449.8</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4744.94</v>
+        <v>2264.94</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>4.72</v>
+        <v>2.25</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>28.72</v>
+        <v>13.69</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="98" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1256,13 +1257,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>505.2</v>
+        <v>471.15</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>508.8</v>
+        <v>4744.94</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1270,10 +1271,10 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.51</v>
+        <v>4.72</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3.09</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1292,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>505.2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4579.07</v>
+        <v>508.8</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1305,15 +1306,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>4.55</v>
+        <v>0.51</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>27.72</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="98" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1326,13 +1327,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>600.85</v>
+        <v>505.2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3025.53</v>
+        <v>4579.07</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1340,15 +1341,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.01</v>
+        <v>4.55</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>18.27</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="98" t="n">
-        <v>46034</v>
+        <v>46044</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1364,10 +1365,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>626.75</v>
+        <v>600.85</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3155.95</v>
+        <v>3025.53</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1375,19 +1376,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>19.06</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>46015</v>
+        <v>46034</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1399,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>656.3</v>
+        <v>626.75</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3304.76</v>
+        <v>3155.95</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1410,15 +1411,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>20</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="98" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1434,10 +1435,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>659.35</v>
+        <v>656.3</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3320.14</v>
+        <v>3304.76</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1445,15 +1446,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="98" t="n">
-        <v>45993</v>
+        <v>46014</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1466,13 +1467,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>638.9</v>
+        <v>659.35</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>643.4299999999999</v>
+        <v>3320.14</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1480,10 +1481,10 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.64</v>
+        <v>3.29</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>3.89</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="15">
@@ -1501,13 +1502,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>638.95</v>
+        <v>638.9</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2573.92</v>
+        <v>643.4299999999999</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1515,15 +1516,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.57</v>
+        <v>0.64</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>15.55</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="98" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1536,13 +1537,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>646.8</v>
+        <v>638.95</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3256.92</v>
+        <v>2573.92</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1550,19 +1551,19 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.22</v>
+        <v>2.57</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>19.7</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1574,10 +1575,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>638.5</v>
+        <v>646.8</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3215.11</v>
+        <v>3256.92</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1585,15 +1586,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.19</v>
+        <v>3.22</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>19.42</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="98" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1609,10 +1610,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>634.35</v>
+        <v>638.5</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3194.23</v>
+        <v>3215.11</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1620,15 +1621,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.15</v>
+        <v>3.19</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>19.33</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="98" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1641,13 +1642,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>656.5</v>
+        <v>634.35</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4628.06</v>
+        <v>3194.23</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1655,10 +1656,10 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>4.62</v>
+        <v>3.15</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>27.94</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="20">
@@ -1676,13 +1677,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>656.5</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1322.29</v>
+        <v>4628.06</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1690,10 +1691,10 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1.31</v>
+        <v>4.62</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>7.98</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="21">
@@ -1711,13 +1712,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>656.5</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>661.16</v>
+        <v>1322.29</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1725,15 +1726,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.66</v>
+        <v>1.31</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>4</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="98" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1746,13 +1747,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>669.9</v>
+        <v>656.5</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2023.94</v>
+        <v>661.16</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1760,10 +1761,10 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>12.24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1781,13 +1782,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>669.9</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>674.64</v>
+        <v>2023.94</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1795,10 +1796,10 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>4.07</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="24">
@@ -1838,11 +1839,11 @@
     </row>
     <row r="25">
       <c r="A25" s="98" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1851,13 +1852,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>616.05</v>
+        <v>669.9</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3102.12</v>
+        <v>674.64</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1865,19 +1866,19 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>3.08</v>
+        <v>0.67</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>18.79</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="98" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1889,10 +1890,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>656</v>
+        <v>616.05</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3303.23</v>
+        <v>3102.12</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1900,15 +1901,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>19.96</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="98" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1924,10 +1925,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3313.29</v>
+        <v>3303.23</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1935,15 +1936,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>20.01</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1956,13 +1957,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>661.6</v>
+        <v>658</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>666.29</v>
+        <v>3313.29</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1970,10 +1971,10 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.66</v>
+        <v>3.28</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>4.03</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="29">
@@ -1991,13 +1992,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>661.5</v>
+        <v>661.6</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1998.58</v>
+        <v>666.29</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2005,10 +2006,10 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.99</v>
+        <v>0.66</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>12.09</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="30">
@@ -2026,13 +2027,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>661.6</v>
+        <v>661.5</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>666.29</v>
+        <v>1998.58</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2040,19 +2041,19 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.66</v>
+        <v>1.99</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>4.03</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2061,13 +2062,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>661.9</v>
+        <v>661.6</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>3332.98</v>
+        <v>666.29</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2075,19 +2076,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>3.31</v>
+        <v>0.66</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>20.17</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="98" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2099,10 +2100,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>652.7</v>
+        <v>661.9</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>3286.6</v>
+        <v>3332.98</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2110,15 +2111,15 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>19.85</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="98" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
@@ -2131,13 +2132,13 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>644</v>
+        <v>652.7</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>6485.66</v>
+        <v>3286.6</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2145,15 +2146,15 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>6.43</v>
+        <v>3.25</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>39.23</v>
+        <v>19.85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="98" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -2169,10 +2170,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>6405.08</v>
+        <v>6485.66</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2180,148 +2181,85 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>6.37</v>
+        <v>6.43</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>38.71</v>
+        <v>39.23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="98" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>636</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>6405.08</v>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="98" t="n">
         <v>45897</v>
       </c>
-      <c r="B35" s="0" t="inlineStr">
+      <c r="B36" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C35" s="0" t="inlineStr">
+      <c r="C36" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E36" s="0" t="n">
         <v>641.2</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F36" s="0" t="n">
         <v>3228.8</v>
       </c>
-      <c r="G35" s="0" t="inlineStr">
+      <c r="G36" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H36" s="0" t="n">
         <v>3.21</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I36" s="0" t="n">
         <v>19.59</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B36" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C36" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D36" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E36" s="41" t="n">
-        <v>648.5700000000001</v>
-      </c>
-      <c r="F36" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G36" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H36" s="40" t="n"/>
-      <c r="I36" s="40" t="n"/>
-      <c r="J36" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K36" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L36" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M36" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N36" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O36" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P36" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q36" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R36" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S36" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T36" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U36" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V36" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W36" s="47" t="n"/>
-      <c r="X36" s="47" t="n"/>
-      <c r="Y36" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z36" s="47" t="n"/>
-      <c r="AA36" s="47" t="n"/>
-      <c r="AB36" s="48" t="n"/>
-      <c r="AC36" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
@@ -2337,10 +2275,10 @@
         <v>10</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>640.51</v>
+        <v>648.5700000000001</v>
       </c>
       <c r="F37" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G37" s="39" t="inlineStr">
@@ -2355,71 +2293,71 @@
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45897</v>
+        <v>45947</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
@@ -2432,95 +2370,92 @@
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>645.76</v>
-      </c>
-      <c r="F38" s="41" t="n">
-        <v>3228.8</v>
+        <v>640.51</v>
+      </c>
+      <c r="F38" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H38" s="40" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="I38" s="40" t="n">
-        <v>19.59</v>
-      </c>
+      <c r="H38" s="40" t="n"/>
+      <c r="I38" s="40" t="n"/>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45855</v>
+        <v>45897</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
@@ -2536,10 +2471,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>680</v>
+        <v>645.76</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>3399.98</v>
+        <v>3228.8</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
@@ -2547,85 +2482,85 @@
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>20.6</v>
+        <v>19.59</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45835</v>
+        <v>45855</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C40" s="39" t="inlineStr">
@@ -2634,189 +2569,189 @@
         </is>
       </c>
       <c r="D40" s="40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>1.25</v>
+        <v>680</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>12.5</v>
+        <v>3399.98</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="50" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B41" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C41" s="51" t="inlineStr">
+      <c r="A41" s="38" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B41" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C41" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D41" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="F41" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="G41" s="51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H41" s="52" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I41" s="52" t="n">
-        <v>4.14</v>
+      <c r="D41" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" s="41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F41" s="41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G41" s="39" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+        </is>
+      </c>
+      <c r="H41" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="40" t="n">
+        <v>0</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
@@ -2836,13 +2771,13 @@
         </is>
       </c>
       <c r="D42" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="53" t="n">
         <v>683.97</v>
       </c>
       <c r="F42" s="53" t="n">
-        <v>1367.94</v>
+        <v>683.97</v>
       </c>
       <c r="G42" s="51" t="inlineStr">
         <is>
@@ -2850,81 +2785,81 @@
         </is>
       </c>
       <c r="H42" s="52" t="n">
-        <v>1.37</v>
+        <v>0.68</v>
       </c>
       <c r="I42" s="52" t="n">
-        <v>8.27</v>
+        <v>4.14</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD42" s="49" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="50" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B43" s="51" t="inlineStr">
         <is>
@@ -2937,13 +2872,13 @@
         </is>
       </c>
       <c r="D43" s="52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E43" s="53" t="n">
-        <v>664.02</v>
+        <v>683.97</v>
       </c>
       <c r="F43" s="53" t="n">
-        <v>3320.12</v>
+        <v>1367.94</v>
       </c>
       <c r="G43" s="51" t="inlineStr">
         <is>
@@ -2951,81 +2886,81 @@
         </is>
       </c>
       <c r="H43" s="52" t="n">
-        <v>3.29</v>
+        <v>1.37</v>
       </c>
       <c r="I43" s="52" t="n">
-        <v>20.08</v>
+        <v>8.27</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W43" s="47" t="n"/>
       <c r="X43" s="47" t="n"/>
       <c r="Y43" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z43" s="47" t="n"/>
       <c r="AA43" s="47" t="n"/>
       <c r="AB43" s="48" t="n"/>
       <c r="AC43" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD43" s="49" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="50" t="n">
-        <v>45694</v>
+        <v>45716</v>
       </c>
       <c r="B44" s="51" t="inlineStr">
         <is>
@@ -3038,13 +2973,13 @@
         </is>
       </c>
       <c r="D44" s="52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E44" s="53" t="n">
-        <v>751.83</v>
+        <v>664.02</v>
       </c>
       <c r="F44" s="53" t="n">
-        <v>1503.66</v>
+        <v>3320.12</v>
       </c>
       <c r="G44" s="51" t="inlineStr">
         <is>
@@ -3052,81 +2987,81 @@
         </is>
       </c>
       <c r="H44" s="52" t="n">
-        <v>1.49</v>
+        <v>3.29</v>
       </c>
       <c r="I44" s="52" t="n">
-        <v>9.07</v>
+        <v>20.08</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W44" s="47" t="n"/>
       <c r="X44" s="47" t="n"/>
       <c r="Y44" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z44" s="47" t="n"/>
       <c r="AA44" s="47" t="n"/>
       <c r="AB44" s="48" t="n"/>
       <c r="AC44" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD44" s="49" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="50" t="n">
-        <v>44084</v>
+        <v>45694</v>
       </c>
       <c r="B45" s="51" t="inlineStr">
         <is>
@@ -3135,17 +3070,17 @@
       </c>
       <c r="C45" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D45" s="52" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E45" s="53" t="n">
-        <v>481.64</v>
+        <v>751.83</v>
       </c>
       <c r="F45" s="53" t="n">
-        <v>24081.77</v>
+        <v>1503.66</v>
       </c>
       <c r="G45" s="51" t="inlineStr">
         <is>
@@ -3153,81 +3088,81 @@
         </is>
       </c>
       <c r="H45" s="52" t="n">
-        <v>22.15</v>
+        <v>1.49</v>
       </c>
       <c r="I45" s="52" t="n">
-        <v>146.08</v>
+        <v>9.07</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W45" s="47" t="n"/>
       <c r="X45" s="47" t="n"/>
       <c r="Y45" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z45" s="47" t="n"/>
       <c r="AA45" s="47" t="n"/>
       <c r="AB45" s="48" t="n"/>
       <c r="AC45" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD45" s="49" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="50" t="n">
-        <v>44075</v>
+        <v>44084</v>
       </c>
       <c r="B46" s="51" t="inlineStr">
         <is>
@@ -3240,13 +3175,13 @@
         </is>
       </c>
       <c r="D46" s="52" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E46" s="53" t="n">
-        <v>476.52</v>
+        <v>481.64</v>
       </c>
       <c r="F46" s="53" t="n">
-        <v>28591.3</v>
+        <v>24081.77</v>
       </c>
       <c r="G46" s="51" t="inlineStr">
         <is>
@@ -3254,81 +3189,81 @@
         </is>
       </c>
       <c r="H46" s="52" t="n">
-        <v>29</v>
+        <v>22.15</v>
       </c>
       <c r="I46" s="52" t="n">
-        <v>170.7</v>
+        <v>146.08</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W46" s="47" t="n"/>
       <c r="X46" s="47" t="n"/>
       <c r="Y46" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z46" s="47" t="n"/>
       <c r="AA46" s="47" t="n"/>
       <c r="AB46" s="48" t="n"/>
       <c r="AC46" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD46" s="49" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="50" t="n">
-        <v>44060</v>
+        <v>44075</v>
       </c>
       <c r="B47" s="51" t="inlineStr">
         <is>
@@ -3341,13 +3276,13 @@
         </is>
       </c>
       <c r="D47" s="52" t="n">
-        <v>50</v>
-      </c>
-      <c r="E47" s="54" t="n">
-        <v>484.77</v>
+        <v>60</v>
+      </c>
+      <c r="E47" s="53" t="n">
+        <v>476.52</v>
       </c>
       <c r="F47" s="53" t="n">
-        <v>24238.46</v>
+        <v>28591.3</v>
       </c>
       <c r="G47" s="51" t="inlineStr">
         <is>
@@ -3355,81 +3290,81 @@
         </is>
       </c>
       <c r="H47" s="52" t="n">
-        <v>22.16</v>
+        <v>29</v>
       </c>
       <c r="I47" s="52" t="n">
-        <v>146.28</v>
+        <v>170.7</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W47" s="47" t="n"/>
       <c r="X47" s="47" t="n"/>
       <c r="Y47" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z47" s="47" t="n"/>
       <c r="AA47" s="47" t="n"/>
       <c r="AB47" s="48" t="n"/>
       <c r="AC47" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD47" s="49" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="50" t="n">
-        <v>44055</v>
+        <v>44060</v>
       </c>
       <c r="B48" s="51" t="inlineStr">
         <is>
@@ -3445,10 +3380,10 @@
         <v>50</v>
       </c>
       <c r="E48" s="54" t="n">
-        <v>489.63</v>
+        <v>484.77</v>
       </c>
       <c r="F48" s="53" t="n">
-        <v>24481.54</v>
+        <v>24238.46</v>
       </c>
       <c r="G48" s="51" t="inlineStr">
         <is>
@@ -3456,81 +3391,81 @@
         </is>
       </c>
       <c r="H48" s="52" t="n">
-        <v>24.74</v>
+        <v>22.16</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>148.72</v>
+        <v>146.28</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W48" s="47" t="n"/>
       <c r="X48" s="47" t="n"/>
       <c r="Y48" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z48" s="47" t="n"/>
       <c r="AA48" s="47" t="n"/>
       <c r="AB48" s="48" t="n"/>
       <c r="AC48" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD48" s="49" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B49" s="51" t="inlineStr">
         <is>
@@ -3546,10 +3481,10 @@
         <v>50</v>
       </c>
       <c r="E49" s="54" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="F49" s="53" t="n">
-        <v>23504.1</v>
+        <v>24481.54</v>
       </c>
       <c r="G49" s="51" t="inlineStr">
         <is>
@@ -3557,81 +3492,81 @@
         </is>
       </c>
       <c r="H49" s="52" t="n">
-        <v>23.54</v>
+        <v>24.74</v>
       </c>
       <c r="I49" s="52" t="n">
-        <v>142.36</v>
+        <v>148.72</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W49" s="47" t="n"/>
       <c r="X49" s="47" t="n"/>
       <c r="Y49" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z49" s="47" t="n"/>
       <c r="AA49" s="47" t="n"/>
       <c r="AB49" s="48" t="n"/>
       <c r="AC49" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD49" s="49" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B50" s="51" t="inlineStr">
         <is>
@@ -3647,10 +3582,10 @@
         <v>50</v>
       </c>
       <c r="E50" s="54" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="F50" s="53" t="n">
-        <v>23367.41</v>
+        <v>23504.1</v>
       </c>
       <c r="G50" s="51" t="inlineStr">
         <is>
@@ -3658,81 +3593,81 @@
         </is>
       </c>
       <c r="H50" s="52" t="n">
-        <v>23.55</v>
+        <v>23.54</v>
       </c>
       <c r="I50" s="52" t="n">
-        <v>141.54</v>
+        <v>142.36</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W50" s="47" t="n"/>
       <c r="X50" s="47" t="n"/>
       <c r="Y50" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z50" s="47" t="n"/>
       <c r="AA50" s="47" t="n"/>
       <c r="AB50" s="48" t="n"/>
       <c r="AC50" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD50" s="49" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="B51" s="51" t="inlineStr">
         <is>
@@ -3744,14 +3679,14 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="D51" s="55" t="n">
+      <c r="D51" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E51" s="54" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="F51" s="53" t="n">
-        <v>23201.97</v>
+        <v>23367.41</v>
       </c>
       <c r="G51" s="51" t="inlineStr">
         <is>
@@ -3759,81 +3694,81 @@
         </is>
       </c>
       <c r="H51" s="52" t="n">
-        <v>23.34</v>
+        <v>23.55</v>
       </c>
       <c r="I51" s="52" t="n">
-        <v>139.69</v>
+        <v>141.54</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W51" s="47" t="n"/>
       <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z51" s="47" t="n"/>
       <c r="AA51" s="47" t="n"/>
       <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD51" s="49" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="B52" s="51" t="inlineStr">
         <is>
@@ -3849,10 +3784,10 @@
         <v>50</v>
       </c>
       <c r="E52" s="54" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="F52" s="53" t="n">
-        <v>23785.87</v>
+        <v>23201.97</v>
       </c>
       <c r="G52" s="51" t="inlineStr">
         <is>
@@ -3860,81 +3795,81 @@
         </is>
       </c>
       <c r="H52" s="52" t="n">
-        <v>24.24</v>
+        <v>23.34</v>
       </c>
       <c r="I52" s="52" t="n">
-        <v>142.39</v>
+        <v>139.69</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W52" s="47" t="n"/>
       <c r="X52" s="47" t="n"/>
       <c r="Y52" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z52" s="47" t="n"/>
       <c r="AA52" s="47" t="n"/>
       <c r="AB52" s="48" t="n"/>
       <c r="AC52" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD52" s="49" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B53" s="51" t="inlineStr">
         <is>
@@ -3950,10 +3885,10 @@
         <v>50</v>
       </c>
       <c r="E53" s="54" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="F53" s="53" t="n">
-        <v>23587.4</v>
+        <v>23785.87</v>
       </c>
       <c r="G53" s="51" t="inlineStr">
         <is>
@@ -3961,81 +3896,81 @@
         </is>
       </c>
       <c r="H53" s="52" t="n">
-        <v>24</v>
+        <v>24.24</v>
       </c>
       <c r="I53" s="52" t="n">
-        <v>141.1</v>
+        <v>142.39</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W53" s="47" t="n"/>
       <c r="X53" s="47" t="n"/>
       <c r="Y53" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z53" s="47" t="n"/>
       <c r="AA53" s="47" t="n"/>
       <c r="AB53" s="48" t="n"/>
       <c r="AC53" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD53" s="49" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B54" s="51" t="inlineStr">
         <is>
@@ -4051,10 +3986,10 @@
         <v>50</v>
       </c>
       <c r="E54" s="54" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="F54" s="53" t="n">
-        <v>23224.05</v>
+        <v>23587.4</v>
       </c>
       <c r="G54" s="51" t="inlineStr">
         <is>
@@ -4062,81 +3997,81 @@
         </is>
       </c>
       <c r="H54" s="52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I54" s="52" t="n">
-        <v>138.9</v>
+        <v>141.1</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W54" s="47" t="n"/>
       <c r="X54" s="47" t="n"/>
       <c r="Y54" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z54" s="47" t="n"/>
       <c r="AA54" s="47" t="n"/>
       <c r="AB54" s="48" t="n"/>
       <c r="AC54" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD54" s="49" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
@@ -4152,10 +4087,10 @@
         <v>50</v>
       </c>
       <c r="E55" s="54" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="F55" s="53" t="n">
-        <v>22369.41</v>
+        <v>23224.05</v>
       </c>
       <c r="G55" s="51" t="inlineStr">
         <is>
@@ -4163,81 +4098,81 @@
         </is>
       </c>
       <c r="H55" s="52" t="n">
-        <v>22.73</v>
+        <v>23</v>
       </c>
       <c r="I55" s="52" t="n">
-        <v>135.36</v>
+        <v>138.9</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L55" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M55" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N55" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P55" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R55" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S55" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T55" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U55" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V55" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W55" s="47" t="n"/>
       <c r="X55" s="47" t="n"/>
       <c r="Y55" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z55" s="47" t="n"/>
       <c r="AA55" s="47" t="n"/>
       <c r="AB55" s="48" t="n"/>
       <c r="AC55" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD55" s="49" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="B56" s="51" t="inlineStr">
         <is>
@@ -4253,10 +4188,10 @@
         <v>50</v>
       </c>
       <c r="E56" s="54" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="F56" s="53" t="n">
-        <v>21896.98</v>
+        <v>22369.41</v>
       </c>
       <c r="G56" s="51" t="inlineStr">
         <is>
@@ -4264,81 +4199,81 @@
         </is>
       </c>
       <c r="H56" s="52" t="n">
-        <v>21.87</v>
+        <v>22.73</v>
       </c>
       <c r="I56" s="52" t="n">
-        <v>131.15</v>
+        <v>135.36</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L56" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M56" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N56" s="45">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O56" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P56" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R56" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S56" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T56" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U56" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V56" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W56" s="47" t="n"/>
       <c r="X56" s="47" t="n"/>
       <c r="Y56" s="46">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z56" s="47" t="n"/>
       <c r="AA56" s="47" t="n"/>
       <c r="AB56" s="48" t="n"/>
       <c r="AC56" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD56" s="49" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="50" t="n">
-        <v>43881</v>
+        <v>44025</v>
       </c>
       <c r="B57" s="51" t="inlineStr">
         <is>
@@ -4347,17 +4282,17 @@
       </c>
       <c r="C57" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D57" s="52" t="n">
-        <v>10</v>
-      </c>
-      <c r="E57" s="53" t="n">
-        <v>310.47</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D57" s="55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E57" s="54" t="n">
+        <v>437.94</v>
       </c>
       <c r="F57" s="53" t="n">
-        <v>3104.69</v>
+        <v>21896.98</v>
       </c>
       <c r="G57" s="51" t="inlineStr">
         <is>
@@ -4365,97 +4300,81 @@
         </is>
       </c>
       <c r="H57" s="52" t="n">
-        <v>3.12</v>
+        <v>21.87</v>
       </c>
       <c r="I57" s="52" t="n">
-        <v>18.57</v>
+        <v>131.15</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K57" s="47" t="n"/>
-      <c r="L57" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="M57" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
-        <v/>
-      </c>
-      <c r="N57" s="57">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
-        <v/>
-      </c>
-      <c r="O57" s="56" t="n"/>
-      <c r="P57" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="Q57" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
-        <v/>
-      </c>
-      <c r="R57" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="S57" s="56" t="n"/>
-      <c r="T57" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
-        <v/>
-      </c>
-      <c r="U57" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
-        <v/>
-      </c>
-      <c r="V57" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W57" s="53" t="n">
-        <v>476.52</v>
-      </c>
-      <c r="X57" s="50" t="n">
-        <v>44075</v>
-      </c>
+      <c r="K57" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L57" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M57" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N57" s="45">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O57" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P57" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q57" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R57" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S57" s="46">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T57" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U57" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V57" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W57" s="47" t="n"/>
+      <c r="X57" s="47" t="n"/>
       <c r="Y57" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z57" s="58">
-        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
-        <v/>
-      </c>
-      <c r="AA57" s="58">
-        <f>((E26*D26)+Z26)</f>
-        <v/>
-      </c>
-      <c r="AB57" s="59">
-        <f>D26</f>
-        <v/>
-      </c>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z57" s="47" t="n"/>
+      <c r="AA57" s="47" t="n"/>
+      <c r="AB57" s="48" t="n"/>
       <c r="AC57" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD57" s="49" t="n"/>
-      <c r="AE57" s="60" t="n"/>
-      <c r="AF57" s="60" t="n"/>
-      <c r="AG57" s="60" t="n"/>
-      <c r="AH57" s="60" t="n"/>
-      <c r="AI57" s="60" t="n"/>
-      <c r="AJ57" s="60" t="n"/>
-      <c r="AK57" s="60" t="n"/>
-      <c r="AL57" s="60" t="n"/>
-      <c r="AM57" s="60" t="n"/>
-      <c r="AN57" s="60" t="n"/>
-      <c r="AO57" s="60" t="n"/>
-      <c r="AP57" s="60" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="50" t="n">
-        <v>43865</v>
+        <v>43881</v>
       </c>
       <c r="B58" s="51" t="inlineStr">
         <is>
@@ -4471,10 +4390,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="53" t="n">
-        <v>315.21</v>
+        <v>310.47</v>
       </c>
       <c r="F58" s="53" t="n">
-        <v>3152.1</v>
+        <v>3104.69</v>
       </c>
       <c r="G58" s="51" t="inlineStr">
         <is>
@@ -4482,10 +4401,10 @@
         </is>
       </c>
       <c r="H58" s="52" t="n">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="I58" s="52" t="n">
-        <v>18.91</v>
+        <v>18.57</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
@@ -4493,41 +4412,41 @@
       </c>
       <c r="K58" s="47" t="n"/>
       <c r="L58" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M58" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N58" s="57">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O58" s="56" t="n"/>
       <c r="P58" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R58" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S58" s="56" t="n"/>
       <c r="T58" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U58" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V58" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W58" s="53" t="n">
@@ -4537,23 +4456,23 @@
         <v>44075</v>
       </c>
       <c r="Y58" s="46">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z58" s="58">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
         <v/>
       </c>
       <c r="AA58" s="58">
-        <f>((E27*D27)+Z27)</f>
+        <f>((E26*D26)+Z26)</f>
         <v/>
       </c>
       <c r="AB58" s="59">
-        <f>D27</f>
+        <f>D26</f>
         <v/>
       </c>
       <c r="AC58" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD58" s="49" t="n"/>
@@ -4572,7 +4491,7 @@
     </row>
     <row r="59">
       <c r="A59" s="50" t="n">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B59" s="51" t="inlineStr">
         <is>
@@ -4588,10 +4507,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="53" t="n">
-        <v>318.07</v>
+        <v>315.21</v>
       </c>
       <c r="F59" s="53" t="n">
-        <v>3180.66</v>
+        <v>3152.1</v>
       </c>
       <c r="G59" s="51" t="inlineStr">
         <is>
@@ -4599,10 +4518,10 @@
         </is>
       </c>
       <c r="H59" s="52" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="I59" s="52" t="n">
-        <v>19</v>
+        <v>18.91</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4610,41 +4529,41 @@
       </c>
       <c r="K59" s="47" t="n"/>
       <c r="L59" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M59" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N59" s="57">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O59" s="56" t="n"/>
       <c r="P59" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R59" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S59" s="56" t="n"/>
       <c r="T59" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U59" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V59" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W59" s="53" t="n">
@@ -4654,23 +4573,23 @@
         <v>44075</v>
       </c>
       <c r="Y59" s="46">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z59" s="58">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA59" s="58">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB59" s="59">
-        <f>D28</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC59" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD59" s="49" t="n"/>
@@ -4689,7 +4608,7 @@
     </row>
     <row r="60">
       <c r="A60" s="50" t="n">
-        <v>43860</v>
+        <v>43864</v>
       </c>
       <c r="B60" s="51" t="inlineStr">
         <is>
@@ -4705,10 +4624,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="53" t="n">
-        <v>314.54</v>
+        <v>318.07</v>
       </c>
       <c r="F60" s="53" t="n">
-        <v>3145.39</v>
+        <v>3180.66</v>
       </c>
       <c r="G60" s="51" t="inlineStr">
         <is>
@@ -4716,10 +4635,10 @@
         </is>
       </c>
       <c r="H60" s="52" t="n">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="I60" s="52" t="n">
-        <v>18.81</v>
+        <v>19</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -4727,67 +4646,67 @@
       </c>
       <c r="K60" s="47" t="n"/>
       <c r="L60" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M60" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N60" s="57">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O60" s="56" t="n"/>
       <c r="P60" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R60" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S60" s="56" t="n"/>
       <c r="T60" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U60" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V60" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W60" s="53" t="n">
-        <v>489.63</v>
+        <v>476.52</v>
       </c>
       <c r="X60" s="50" t="n">
-        <v>44055</v>
+        <v>44075</v>
       </c>
       <c r="Y60" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z60" s="58">
-        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
         <v/>
       </c>
       <c r="AA60" s="58">
-        <f>((E29*D29)+Z29)</f>
+        <f>((E28*D28)+Z28)</f>
         <v/>
       </c>
       <c r="AB60" s="59">
-        <f>D29</f>
+        <f>D28</f>
         <v/>
       </c>
       <c r="AC60" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD60" s="49" t="n"/>
@@ -4806,7 +4725,7 @@
     </row>
     <row r="61">
       <c r="A61" s="50" t="n">
-        <v>43846</v>
+        <v>43860</v>
       </c>
       <c r="B61" s="51" t="inlineStr">
         <is>
@@ -4822,10 +4741,10 @@
         <v>10</v>
       </c>
       <c r="E61" s="53" t="n">
-        <v>312.23</v>
+        <v>314.54</v>
       </c>
       <c r="F61" s="53" t="n">
-        <v>3122.32</v>
+        <v>3145.39</v>
       </c>
       <c r="G61" s="51" t="inlineStr">
         <is>
@@ -4833,10 +4752,10 @@
         </is>
       </c>
       <c r="H61" s="52" t="n">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="I61" s="52" t="n">
-        <v>18.66</v>
+        <v>18.81</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -4844,67 +4763,67 @@
       </c>
       <c r="K61" s="47" t="n"/>
       <c r="L61" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M61" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N61" s="57">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O61" s="56" t="n"/>
       <c r="P61" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R61" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S61" s="56" t="n"/>
       <c r="T61" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U61" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V61" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W61" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X61" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y61" s="46">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z61" s="58">
-        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
+        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
         <v/>
       </c>
       <c r="AA61" s="58">
-        <f>((E30*D30)+Z30)</f>
+        <f>((E29*D29)+Z29)</f>
         <v/>
       </c>
       <c r="AB61" s="59">
-        <f>D30</f>
+        <f>D29</f>
         <v/>
       </c>
       <c r="AC61" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD61" s="49" t="n"/>
@@ -4923,7 +4842,7 @@
     </row>
     <row r="62">
       <c r="A62" s="50" t="n">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="B62" s="51" t="inlineStr">
         <is>
@@ -4936,13 +4855,13 @@
         </is>
       </c>
       <c r="D62" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E62" s="53" t="n">
-        <v>311.98</v>
+        <v>312.23</v>
       </c>
       <c r="F62" s="53" t="n">
-        <v>6239.57</v>
+        <v>3122.32</v>
       </c>
       <c r="G62" s="51" t="inlineStr">
         <is>
@@ -4950,10 +4869,10 @@
         </is>
       </c>
       <c r="H62" s="52" t="n">
-        <v>6.22</v>
+        <v>3.16</v>
       </c>
       <c r="I62" s="52" t="n">
-        <v>37.35</v>
+        <v>18.66</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -4961,67 +4880,67 @@
       </c>
       <c r="K62" s="47" t="n"/>
       <c r="L62" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M62" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N62" s="57">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O62" s="56" t="n"/>
       <c r="P62" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R62" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S62" s="56" t="n"/>
       <c r="T62" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U62" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V62" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W62" s="53" t="n">
-        <v>489.63</v>
+        <v>470.08</v>
       </c>
       <c r="X62" s="50" t="n">
-        <v>44055</v>
+        <v>44050</v>
       </c>
       <c r="Y62" s="46">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z62" s="58">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
         <v/>
       </c>
       <c r="AA62" s="58">
-        <f>((E31*D31)+Z31)</f>
+        <f>((E30*D30)+Z30)</f>
         <v/>
       </c>
       <c r="AB62" s="59">
-        <f>D31</f>
+        <f>D30</f>
         <v/>
       </c>
       <c r="AC62" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD62" s="49" t="n"/>
@@ -5040,7 +4959,7 @@
     </row>
     <row r="63">
       <c r="A63" s="50" t="n">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="B63" s="51" t="inlineStr">
         <is>
@@ -5056,10 +4975,10 @@
         <v>20</v>
       </c>
       <c r="E63" s="53" t="n">
-        <v>313.54</v>
+        <v>311.98</v>
       </c>
       <c r="F63" s="53" t="n">
-        <v>6270.73</v>
+        <v>6239.57</v>
       </c>
       <c r="G63" s="51" t="inlineStr">
         <is>
@@ -5067,10 +4986,10 @@
         </is>
       </c>
       <c r="H63" s="52" t="n">
-        <v>6.19</v>
+        <v>6.22</v>
       </c>
       <c r="I63" s="52" t="n">
-        <v>37.54</v>
+        <v>37.35</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
@@ -5078,41 +4997,41 @@
       </c>
       <c r="K63" s="47" t="n"/>
       <c r="L63" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M63" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N63" s="57">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O63" s="56" t="n"/>
       <c r="P63" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R63" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S63" s="56" t="n"/>
       <c r="T63" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U63" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V63" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W63" s="53" t="n">
@@ -5122,23 +5041,23 @@
         <v>44055</v>
       </c>
       <c r="Y63" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z63" s="58">
-        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
         <v/>
       </c>
       <c r="AA63" s="58">
-        <f>((E32*D32)+Z32)</f>
+        <f>((E31*D31)+Z31)</f>
         <v/>
       </c>
       <c r="AB63" s="59">
-        <f>D32</f>
+        <f>D31</f>
         <v/>
       </c>
       <c r="AC63" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD63" s="49" t="n"/>
@@ -5157,7 +5076,7 @@
     </row>
     <row r="64">
       <c r="A64" s="50" t="n">
-        <v>43838</v>
+        <v>43844</v>
       </c>
       <c r="B64" s="51" t="inlineStr">
         <is>
@@ -5170,13 +5089,13 @@
         </is>
       </c>
       <c r="D64" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E64" s="53" t="n">
-        <v>312.31</v>
+        <v>313.54</v>
       </c>
       <c r="F64" s="53" t="n">
-        <v>3123.14</v>
+        <v>6270.73</v>
       </c>
       <c r="G64" s="51" t="inlineStr">
         <is>
@@ -5184,10 +5103,10 @@
         </is>
       </c>
       <c r="H64" s="52" t="n">
-        <v>2.51</v>
+        <v>6.19</v>
       </c>
       <c r="I64" s="52" t="n">
-        <v>18.63</v>
+        <v>37.54</v>
       </c>
       <c r="J64" s="42">
         <f>Index!$C$2</f>
@@ -5195,67 +5114,67 @@
       </c>
       <c r="K64" s="47" t="n"/>
       <c r="L64" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M64" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N64" s="57">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O64" s="56" t="n"/>
       <c r="P64" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R64" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S64" s="56" t="n"/>
       <c r="T64" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
         <v/>
       </c>
       <c r="U64" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V64" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W64" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X64" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y64" s="46">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z64" s="58">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
         <v/>
       </c>
       <c r="AA64" s="58">
-        <f>((E33*D33)+Z33)</f>
+        <f>((E32*D32)+Z32)</f>
         <v/>
       </c>
       <c r="AB64" s="59">
-        <f>D33</f>
+        <f>D32</f>
         <v/>
       </c>
       <c r="AC64" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD64" s="49" t="n"/>
@@ -5274,7 +5193,7 @@
     </row>
     <row r="65">
       <c r="A65" s="50" t="n">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="B65" s="51" t="inlineStr">
         <is>
@@ -5287,13 +5206,13 @@
         </is>
       </c>
       <c r="D65" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E65" s="53" t="n">
-        <v>310.55</v>
+        <v>312.31</v>
       </c>
       <c r="F65" s="53" t="n">
-        <v>6210.95</v>
+        <v>3123.14</v>
       </c>
       <c r="G65" s="51" t="inlineStr">
         <is>
@@ -5301,10 +5220,10 @@
         </is>
       </c>
       <c r="H65" s="52" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="I65" s="52" t="n">
-        <v>37</v>
+        <v>18.63</v>
       </c>
       <c r="J65" s="42">
         <f>Index!$C$2</f>
@@ -5312,41 +5231,41 @@
       </c>
       <c r="K65" s="47" t="n"/>
       <c r="L65" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M65" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N65" s="57">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O65" s="56" t="n"/>
       <c r="P65" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R65" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S65" s="56" t="n"/>
       <c r="T65" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
         <v/>
       </c>
       <c r="U65" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V65" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W65" s="53" t="n">
@@ -5356,23 +5275,23 @@
         <v>44050</v>
       </c>
       <c r="Y65" s="46">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z65" s="58">
-        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
         <v/>
       </c>
       <c r="AA65" s="58">
-        <f>((E34*D34)+Z34)</f>
+        <f>((E33*D33)+Z33)</f>
         <v/>
       </c>
       <c r="AB65" s="59">
-        <f>D34</f>
+        <f>D33</f>
         <v/>
       </c>
       <c r="AC65" s="44">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD65" s="49" t="n"/>
@@ -5391,7 +5310,7 @@
     </row>
     <row r="66">
       <c r="A66" s="50" t="n">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="B66" s="51" t="inlineStr">
         <is>
@@ -5404,13 +5323,13 @@
         </is>
       </c>
       <c r="D66" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E66" s="53" t="n">
-        <v>322.16</v>
+        <v>310.55</v>
       </c>
       <c r="F66" s="53" t="n">
-        <v>3221.56</v>
+        <v>6210.95</v>
       </c>
       <c r="G66" s="51" t="inlineStr">
         <is>
@@ -5418,10 +5337,10 @@
         </is>
       </c>
       <c r="H66" s="52" t="n">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="I66" s="52" t="n">
-        <v>19.41</v>
+        <v>37</v>
       </c>
       <c r="J66" s="42">
         <f>Index!$C$2</f>
@@ -5429,41 +5348,41 @@
       </c>
       <c r="K66" s="47" t="n"/>
       <c r="L66" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M66" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N66" s="57">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O66" s="56" t="n"/>
       <c r="P66" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R66" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S66" s="56" t="n"/>
       <c r="T66" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
         <v/>
       </c>
       <c r="U66" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V66" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W66" s="53" t="n">
@@ -5473,23 +5392,23 @@
         <v>44050</v>
       </c>
       <c r="Y66" s="46">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z66" s="58">
-        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
+        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
         <v/>
       </c>
       <c r="AA66" s="58">
-        <f>((E35*D35)+Z35)</f>
+        <f>((E34*D34)+Z34)</f>
         <v/>
       </c>
       <c r="AB66" s="59">
-        <f>D35</f>
+        <f>D34</f>
         <v/>
       </c>
       <c r="AC66" s="44">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD66" s="49" t="n"/>
@@ -5508,7 +5427,7 @@
     </row>
     <row r="67">
       <c r="A67" s="50" t="n">
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B67" s="51" t="inlineStr">
         <is>
@@ -5524,10 +5443,10 @@
         <v>10</v>
       </c>
       <c r="E67" s="53" t="n">
-        <v>323.7</v>
+        <v>322.16</v>
       </c>
       <c r="F67" s="53" t="n">
-        <v>3237.01</v>
+        <v>3221.56</v>
       </c>
       <c r="G67" s="51" t="inlineStr">
         <is>
@@ -5535,10 +5454,10 @@
         </is>
       </c>
       <c r="H67" s="52" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="I67" s="52" t="n">
-        <v>19.34</v>
+        <v>19.41</v>
       </c>
       <c r="J67" s="42">
         <f>Index!$C$2</f>
@@ -5546,67 +5465,67 @@
       </c>
       <c r="K67" s="47" t="n"/>
       <c r="L67" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M67" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N67" s="57">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O67" s="56" t="n"/>
       <c r="P67" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R67" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S67" s="56" t="n"/>
       <c r="T67" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
         <v/>
       </c>
       <c r="U67" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V67" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W67" s="53" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="X67" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="Y67" s="46">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z67" s="58">
-        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
+        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
         <v/>
       </c>
       <c r="AA67" s="58">
-        <f>((E36*D36)+Z36)</f>
+        <f>((E35*D35)+Z35)</f>
         <v/>
       </c>
       <c r="AB67" s="59">
-        <f>D36</f>
+        <f>D35</f>
         <v/>
       </c>
       <c r="AC67" s="44">
-        <f>if(B36="DIV", F36,"")</f>
+        <f>if(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD67" s="49" t="n"/>
@@ -5625,7 +5544,7 @@
     </row>
     <row r="68">
       <c r="A68" s="50" t="n">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B68" s="51" t="inlineStr">
         <is>
@@ -5641,10 +5560,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="53" t="n">
-        <v>324.56</v>
+        <v>323.7</v>
       </c>
       <c r="F68" s="53" t="n">
-        <v>3245.58</v>
+        <v>3237.01</v>
       </c>
       <c r="G68" s="51" t="inlineStr">
         <is>
@@ -5652,7 +5571,7 @@
         </is>
       </c>
       <c r="H68" s="52" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="I68" s="52" t="n">
         <v>19.34</v>
@@ -5663,41 +5582,41 @@
       </c>
       <c r="K68" s="47" t="n"/>
       <c r="L68" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M68" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N68" s="57">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O68" s="56" t="n"/>
       <c r="P68" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R68" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S68" s="56" t="n"/>
       <c r="T68" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
         <v/>
       </c>
       <c r="U68" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V68" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W68" s="53" t="n">
@@ -5707,23 +5626,23 @@
         <v>44049</v>
       </c>
       <c r="Y68" s="46">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z68" s="58">
-        <f>(1-Index!$F$2*2)*((W37*D37)-(E37*D37))</f>
+        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
         <v/>
       </c>
       <c r="AA68" s="58">
-        <f>((E37*D37)+Z37)</f>
+        <f>((E36*D36)+Z36)</f>
         <v/>
       </c>
       <c r="AB68" s="59">
-        <f>D37</f>
+        <f>D36</f>
         <v/>
       </c>
       <c r="AC68" s="44">
-        <f>if(B37="DIV", F37,"")</f>
+        <f>if(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD68" s="49" t="n"/>
@@ -5742,7 +5661,7 @@
     </row>
     <row r="69">
       <c r="A69" s="50" t="n">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B69" s="51" t="inlineStr">
         <is>
@@ -5758,10 +5677,10 @@
         <v>10</v>
       </c>
       <c r="E69" s="53" t="n">
-        <v>325.67</v>
+        <v>324.56</v>
       </c>
       <c r="F69" s="53" t="n">
-        <v>3256.74</v>
+        <v>3245.58</v>
       </c>
       <c r="G69" s="51" t="inlineStr">
         <is>
@@ -5769,10 +5688,10 @@
         </is>
       </c>
       <c r="H69" s="52" t="n">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="I69" s="52" t="n">
-        <v>19.51</v>
+        <v>19.34</v>
       </c>
       <c r="J69" s="42">
         <f>Index!$C$2</f>
@@ -5780,41 +5699,41 @@
       </c>
       <c r="K69" s="47" t="n"/>
       <c r="L69" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M69" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N69" s="57">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O69" s="56" t="n"/>
       <c r="P69" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R69" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S69" s="56" t="n"/>
       <c r="T69" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
         <v/>
       </c>
       <c r="U69" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V69" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W69" s="53" t="n">
@@ -5824,23 +5743,23 @@
         <v>44049</v>
       </c>
       <c r="Y69" s="46">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z69" s="58">
-        <f>(1-Index!$F$2*2)*((W38*D38)-(E38*D38))</f>
+        <f>(1-Index!$F$2*2)*((W37*D37)-(E37*D37))</f>
         <v/>
       </c>
       <c r="AA69" s="58">
-        <f>((E38*D38)+Z38)</f>
+        <f>((E37*D37)+Z37)</f>
         <v/>
       </c>
       <c r="AB69" s="59">
-        <f>D38</f>
+        <f>D37</f>
         <v/>
       </c>
       <c r="AC69" s="44">
-        <f>if(B38="DIV", F38,"")</f>
+        <f>if(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD69" s="49" t="n"/>
@@ -5859,7 +5778,7 @@
     </row>
     <row r="70">
       <c r="A70" s="50" t="n">
-        <v>43823</v>
+        <v>43830</v>
       </c>
       <c r="B70" s="51" t="inlineStr">
         <is>
@@ -5875,10 +5794,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="53" t="n">
-        <v>307.15</v>
+        <v>325.67</v>
       </c>
       <c r="F70" s="53" t="n">
-        <v>3071.47</v>
+        <v>3256.74</v>
       </c>
       <c r="G70" s="51" t="inlineStr">
         <is>
@@ -5886,10 +5805,10 @@
         </is>
       </c>
       <c r="H70" s="52" t="n">
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="I70" s="52" t="n">
-        <v>18.41</v>
+        <v>19.51</v>
       </c>
       <c r="J70" s="42">
         <f>Index!$C$2</f>
@@ -5897,41 +5816,41 @@
       </c>
       <c r="K70" s="47" t="n"/>
       <c r="L70" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M70" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N70" s="57">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O70" s="56" t="n"/>
       <c r="P70" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R70" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S70" s="56" t="n"/>
       <c r="T70" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
         <v/>
       </c>
       <c r="U70" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V70" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W70" s="53" t="n">
@@ -5941,23 +5860,23 @@
         <v>44049</v>
       </c>
       <c r="Y70" s="46">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z70" s="58">
-        <f>(1-Index!$F$2*2)*((W39*D39)-(E39*D39))</f>
+        <f>(1-Index!$F$2*2)*((W38*D38)-(E38*D38))</f>
         <v/>
       </c>
       <c r="AA70" s="58">
-        <f>((E39*D39)+Z39)</f>
+        <f>((E38*D38)+Z38)</f>
         <v/>
       </c>
       <c r="AB70" s="59">
-        <f>D39</f>
+        <f>D38</f>
         <v/>
       </c>
       <c r="AC70" s="44">
-        <f>if(B39="DIV", F39,"")</f>
+        <f>if(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD70" s="49" t="n"/>
@@ -5976,7 +5895,7 @@
     </row>
     <row r="71">
       <c r="A71" s="50" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="B71" s="51" t="inlineStr">
         <is>
@@ -5992,10 +5911,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="53" t="n">
-        <v>312.13</v>
+        <v>307.15</v>
       </c>
       <c r="F71" s="53" t="n">
-        <v>3121.27</v>
+        <v>3071.47</v>
       </c>
       <c r="G71" s="51" t="inlineStr">
         <is>
@@ -6003,49 +5922,52 @@
         </is>
       </c>
       <c r="H71" s="52" t="n">
-        <v>3.12</v>
+        <v>3.06</v>
       </c>
       <c r="I71" s="52" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="J71" s="61" t="n"/>
-      <c r="K71" s="56" t="n"/>
+        <v>18.41</v>
+      </c>
+      <c r="J71" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K71" s="47" t="n"/>
       <c r="L71" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M71" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N71" s="57">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O71" s="56" t="n"/>
       <c r="P71" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R71" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S71" s="56" t="n"/>
       <c r="T71" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
         <v/>
       </c>
       <c r="U71" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V71" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W71" s="53" t="n">
@@ -6055,23 +5977,23 @@
         <v>44049</v>
       </c>
       <c r="Y71" s="46">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z71" s="58">
-        <f>(1-Index!$F$2*2)*((W40*D40)-(E40*D40))</f>
+        <f>(1-Index!$F$2*2)*((W39*D39)-(E39*D39))</f>
         <v/>
       </c>
       <c r="AA71" s="58">
-        <f>((E40*D40)+Z40)</f>
+        <f>((E39*D39)+Z39)</f>
         <v/>
       </c>
       <c r="AB71" s="59">
-        <f>D40</f>
+        <f>D39</f>
         <v/>
       </c>
       <c r="AC71" s="44">
-        <f>if(B40="DIV", F40,"")</f>
+        <f>if(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD71" s="49" t="n"/>
@@ -6090,7 +6012,7 @@
     </row>
     <row r="72">
       <c r="A72" s="50" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="B72" s="51" t="inlineStr">
         <is>
@@ -6106,10 +6028,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="53" t="n">
-        <v>312.18</v>
+        <v>312.13</v>
       </c>
       <c r="F72" s="53" t="n">
-        <v>3121.82</v>
+        <v>3121.27</v>
       </c>
       <c r="G72" s="51" t="inlineStr">
         <is>
@@ -6117,75 +6039,75 @@
         </is>
       </c>
       <c r="H72" s="52" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="I72" s="52" t="n">
-        <v>18.69</v>
+        <v>18.65</v>
       </c>
       <c r="J72" s="61" t="n"/>
       <c r="K72" s="56" t="n"/>
       <c r="L72" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M72" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N72" s="57">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O72" s="56" t="n"/>
       <c r="P72" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R72" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S72" s="56" t="n"/>
       <c r="T72" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
         <v/>
       </c>
       <c r="U72" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V72" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W72" s="53" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="X72" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="Y72" s="46">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z72" s="58">
-        <f>(1-Index!$F$2*2)*((W41*D41)-(E41*D41))</f>
+        <f>(1-Index!$F$2*2)*((W40*D40)-(E40*D40))</f>
         <v/>
       </c>
       <c r="AA72" s="58">
-        <f>((E41*D41)+Z41)</f>
+        <f>((E40*D40)+Z40)</f>
         <v/>
       </c>
       <c r="AB72" s="59">
-        <f>D41</f>
+        <f>D40</f>
         <v/>
       </c>
       <c r="AC72" s="44">
-        <f>if(B41="DIV", F41,"")</f>
+        <f>if(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD72" s="49" t="n"/>
@@ -6204,7 +6126,7 @@
     </row>
     <row r="73">
       <c r="A73" s="50" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="B73" s="51" t="inlineStr">
         <is>
@@ -6217,13 +6139,13 @@
         </is>
       </c>
       <c r="D73" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E73" s="53" t="n">
-        <v>307.22</v>
+        <v>312.18</v>
       </c>
       <c r="F73" s="53" t="n">
-        <v>6144.32</v>
+        <v>3121.82</v>
       </c>
       <c r="G73" s="51" t="inlineStr">
         <is>
@@ -6231,52 +6153,49 @@
         </is>
       </c>
       <c r="H73" s="52" t="n">
-        <v>4.52</v>
+        <v>3.13</v>
       </c>
       <c r="I73" s="52" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="J73" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K73" s="47" t="n"/>
+        <v>18.69</v>
+      </c>
+      <c r="J73" s="61" t="n"/>
+      <c r="K73" s="56" t="n"/>
       <c r="L73" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M73" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N73" s="57">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O73" s="56" t="n"/>
       <c r="P73" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R73" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S73" s="56" t="n"/>
       <c r="T73" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
         <v/>
       </c>
       <c r="U73" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V73" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W73" s="53" t="n">
@@ -6286,30 +6205,26 @@
         <v>44048</v>
       </c>
       <c r="Y73" s="46">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z73" s="58">
-        <f>(1-Index!$F$2*2)*((W42*D42)-(E42*D42))</f>
+        <f>(1-Index!$F$2*2)*((W41*D41)-(E41*D41))</f>
         <v/>
       </c>
       <c r="AA73" s="58">
-        <f>((E42*D42)+Z42)</f>
+        <f>((E41*D41)+Z41)</f>
         <v/>
       </c>
       <c r="AB73" s="59">
-        <f>D42</f>
+        <f>D41</f>
         <v/>
       </c>
       <c r="AC73" s="44">
-        <f>if(B42="DIV", F42,"")</f>
-        <v/>
-      </c>
-      <c r="AD73" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B41="DIV", F41,"")</f>
+        <v/>
+      </c>
+      <c r="AD73" s="49" t="n"/>
       <c r="AE73" s="60" t="n"/>
       <c r="AF73" s="60" t="n"/>
       <c r="AG73" s="60" t="n"/>
@@ -6325,7 +6240,7 @@
     </row>
     <row r="74">
       <c r="A74" s="50" t="n">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="B74" s="51" t="inlineStr">
         <is>
@@ -6341,10 +6256,10 @@
         <v>20</v>
       </c>
       <c r="E74" s="53" t="n">
-        <v>302.14</v>
+        <v>307.22</v>
       </c>
       <c r="F74" s="53" t="n">
-        <v>6042.87</v>
+        <v>6144.32</v>
       </c>
       <c r="G74" s="51" t="inlineStr">
         <is>
@@ -6352,10 +6267,10 @@
         </is>
       </c>
       <c r="H74" s="52" t="n">
-        <v>5.78</v>
+        <v>4.52</v>
       </c>
       <c r="I74" s="52" t="n">
-        <v>36.09</v>
+        <v>36.8</v>
       </c>
       <c r="J74" s="42">
         <f>Index!$C$2</f>
@@ -6363,41 +6278,41 @@
       </c>
       <c r="K74" s="47" t="n"/>
       <c r="L74" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M74" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N74" s="57">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O74" s="56" t="n"/>
       <c r="P74" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R74" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S74" s="56" t="n"/>
       <c r="T74" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
         <v/>
       </c>
       <c r="U74" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V74" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W74" s="53" t="n">
@@ -6407,23 +6322,23 @@
         <v>44048</v>
       </c>
       <c r="Y74" s="46">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z74" s="58">
-        <f>(1-Index!$F$2*2)*((W43*D43)-(E43*D43))</f>
+        <f>(1-Index!$F$2*2)*((W42*D42)-(E42*D42))</f>
         <v/>
       </c>
       <c r="AA74" s="58">
-        <f>((E43*D43)+Z43)</f>
+        <f>((E42*D42)+Z42)</f>
         <v/>
       </c>
       <c r="AB74" s="59">
-        <f>D43</f>
+        <f>D42</f>
         <v/>
       </c>
       <c r="AC74" s="44">
-        <f>if(B43="DIV", F43,"")</f>
+        <f>if(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD74" s="62" t="inlineStr">
@@ -6446,7 +6361,7 @@
     </row>
     <row r="75">
       <c r="A75" s="50" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="B75" s="51" t="inlineStr">
         <is>
@@ -6459,13 +6374,13 @@
         </is>
       </c>
       <c r="D75" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E75" s="53" t="n">
-        <v>295.51</v>
+        <v>302.14</v>
       </c>
       <c r="F75" s="53" t="n">
-        <v>8865.290000000001</v>
+        <v>6042.87</v>
       </c>
       <c r="G75" s="51" t="inlineStr">
         <is>
@@ -6473,10 +6388,10 @@
         </is>
       </c>
       <c r="H75" s="52" t="n">
-        <v>8.859999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="I75" s="52" t="n">
-        <v>52.93</v>
+        <v>36.09</v>
       </c>
       <c r="J75" s="42">
         <f>Index!$C$2</f>
@@ -6484,67 +6399,67 @@
       </c>
       <c r="K75" s="47" t="n"/>
       <c r="L75" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M75" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N75" s="57">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O75" s="56" t="n"/>
       <c r="P75" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R75" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S75" s="56" t="n"/>
       <c r="T75" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
         <v/>
       </c>
       <c r="U75" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V75" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W75" s="53" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="X75" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="Y75" s="46">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z75" s="58">
-        <f>(1-Index!$F$2*2)*((W44*D44)-(E44*D44))</f>
+        <f>(1-Index!$F$2*2)*((W43*D43)-(E43*D43))</f>
         <v/>
       </c>
       <c r="AA75" s="58">
-        <f>((E44*D44)+Z44)</f>
+        <f>((E43*D43)+Z43)</f>
         <v/>
       </c>
       <c r="AB75" s="59">
-        <f>D44</f>
+        <f>D43</f>
         <v/>
       </c>
       <c r="AC75" s="44">
-        <f>if(B44="DIV", F44,"")</f>
+        <f>if(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD75" s="62" t="inlineStr">
@@ -6567,7 +6482,7 @@
     </row>
     <row r="76">
       <c r="A76" s="50" t="n">
-        <v>43812</v>
+        <v>43816</v>
       </c>
       <c r="B76" s="51" t="inlineStr">
         <is>
@@ -6580,13 +6495,13 @@
         </is>
       </c>
       <c r="D76" s="52" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E76" s="53" t="n">
-        <v>304.64</v>
+        <v>295.51</v>
       </c>
       <c r="F76" s="53" t="n">
-        <v>6092.9</v>
+        <v>8865.290000000001</v>
       </c>
       <c r="G76" s="51" t="inlineStr">
         <is>
@@ -6594,10 +6509,10 @@
         </is>
       </c>
       <c r="H76" s="52" t="n">
-        <v>4.6</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="I76" s="52" t="n">
-        <v>36.3</v>
+        <v>52.93</v>
       </c>
       <c r="J76" s="42">
         <f>Index!$C$2</f>
@@ -6605,41 +6520,41 @@
       </c>
       <c r="K76" s="47" t="n"/>
       <c r="L76" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M76" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N76" s="57">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O76" s="56" t="n"/>
       <c r="P76" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R76" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S76" s="56" t="n"/>
       <c r="T76" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
         <v/>
       </c>
       <c r="U76" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V76" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W76" s="53" t="n">
@@ -6649,23 +6564,23 @@
         <v>44042</v>
       </c>
       <c r="Y76" s="46">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z76" s="58">
-        <f>(1-Index!$F$2*2)*((W45*D45)-(E45*D45))</f>
+        <f>(1-Index!$F$2*2)*((W44*D44)-(E44*D44))</f>
         <v/>
       </c>
       <c r="AA76" s="58">
-        <f>((E45*D45)+Z45)</f>
+        <f>((E44*D44)+Z44)</f>
         <v/>
       </c>
       <c r="AB76" s="59">
-        <f>D45</f>
+        <f>D44</f>
         <v/>
       </c>
       <c r="AC76" s="44">
-        <f>if(B45="DIV", F45,"")</f>
+        <f>if(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD76" s="62" t="inlineStr">
@@ -6688,7 +6603,7 @@
     </row>
     <row r="77">
       <c r="A77" s="50" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="B77" s="51" t="inlineStr">
         <is>
@@ -6701,13 +6616,13 @@
         </is>
       </c>
       <c r="D77" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E77" s="53" t="n">
-        <v>303.24</v>
+        <v>304.64</v>
       </c>
       <c r="F77" s="53" t="n">
-        <v>9097.1</v>
+        <v>6092.9</v>
       </c>
       <c r="G77" s="51" t="inlineStr">
         <is>
@@ -6715,10 +6630,10 @@
         </is>
       </c>
       <c r="H77" s="52" t="n">
-        <v>6.59</v>
+        <v>4.6</v>
       </c>
       <c r="I77" s="52" t="n">
-        <v>54.51</v>
+        <v>36.3</v>
       </c>
       <c r="J77" s="42">
         <f>Index!$C$2</f>
@@ -6726,67 +6641,67 @@
       </c>
       <c r="K77" s="47" t="n"/>
       <c r="L77" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M77" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N77" s="57">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O77" s="56" t="n"/>
       <c r="P77" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R77" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S77" s="56" t="n"/>
       <c r="T77" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
         <v/>
       </c>
       <c r="U77" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V77" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W77" s="53" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="X77" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="Y77" s="46">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z77" s="58">
-        <f>(1-Index!$F$2*2)*((W46*D46)-(E46*D46))</f>
+        <f>(1-Index!$F$2*2)*((W45*D45)-(E45*D45))</f>
         <v/>
       </c>
       <c r="AA77" s="58">
-        <f>((E46*D46)+Z46)</f>
+        <f>((E45*D45)+Z45)</f>
         <v/>
       </c>
       <c r="AB77" s="59">
-        <f>D46</f>
+        <f>D45</f>
         <v/>
       </c>
       <c r="AC77" s="44">
-        <f>if(B46="DIV", F46,"")</f>
+        <f>if(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD77" s="62" t="inlineStr">
@@ -6809,7 +6724,7 @@
     </row>
     <row r="78">
       <c r="A78" s="50" t="n">
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="B78" s="51" t="inlineStr">
         <is>
@@ -6822,13 +6737,13 @@
         </is>
       </c>
       <c r="D78" s="52" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E78" s="53" t="n">
-        <v>310.97</v>
+        <v>303.24</v>
       </c>
       <c r="F78" s="53" t="n">
-        <v>3109.74</v>
+        <v>9097.1</v>
       </c>
       <c r="G78" s="51" t="inlineStr">
         <is>
@@ -6836,10 +6751,10 @@
         </is>
       </c>
       <c r="H78" s="52" t="n">
-        <v>2.73</v>
+        <v>6.59</v>
       </c>
       <c r="I78" s="52" t="n">
-        <v>18.51</v>
+        <v>54.51</v>
       </c>
       <c r="J78" s="42">
         <f>Index!$C$2</f>
@@ -6847,67 +6762,67 @@
       </c>
       <c r="K78" s="47" t="n"/>
       <c r="L78" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M78" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N78" s="57">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O78" s="56" t="n"/>
       <c r="P78" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R78" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S78" s="56" t="n"/>
       <c r="T78" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
         <v/>
       </c>
       <c r="U78" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V78" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W78" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X78" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y78" s="46">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z78" s="58">
-        <f>(1-Index!$F$2*2)*((W47*D47)-(E47*D47))</f>
+        <f>(1-Index!$F$2*2)*((W46*D46)-(E46*D46))</f>
         <v/>
       </c>
       <c r="AA78" s="58">
-        <f>((E47*D47)+Z47)</f>
+        <f>((E46*D46)+Z46)</f>
         <v/>
       </c>
       <c r="AB78" s="59">
-        <f>D47</f>
+        <f>D46</f>
         <v/>
       </c>
       <c r="AC78" s="44">
-        <f>if(B47="DIV", F47,"")</f>
+        <f>if(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD78" s="62" t="inlineStr">
@@ -6930,7 +6845,7 @@
     </row>
     <row r="79">
       <c r="A79" s="50" t="n">
-        <v>43801</v>
+        <v>43803</v>
       </c>
       <c r="B79" s="51" t="inlineStr">
         <is>
@@ -6943,13 +6858,13 @@
         </is>
       </c>
       <c r="D79" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E79" s="53" t="n">
-        <v>319.62</v>
+        <v>310.97</v>
       </c>
       <c r="F79" s="53" t="n">
-        <v>6392.34</v>
+        <v>3109.74</v>
       </c>
       <c r="G79" s="51" t="inlineStr">
         <is>
@@ -6957,10 +6872,10 @@
         </is>
       </c>
       <c r="H79" s="52" t="n">
-        <v>3.86</v>
+        <v>2.73</v>
       </c>
       <c r="I79" s="52" t="n">
-        <v>38.48</v>
+        <v>18.51</v>
       </c>
       <c r="J79" s="42">
         <f>Index!$C$2</f>
@@ -6968,67 +6883,67 @@
       </c>
       <c r="K79" s="47" t="n"/>
       <c r="L79" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M79" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N79" s="57">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O79" s="56" t="n"/>
       <c r="P79" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R79" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S79" s="56" t="n"/>
       <c r="T79" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
         <v/>
       </c>
       <c r="U79" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V79" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W79" s="53" t="n">
-        <v>471.75</v>
+        <v>464.48</v>
       </c>
       <c r="X79" s="50" t="n">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="Y79" s="46">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z79" s="58">
-        <f>(1-Index!$F$2*2)*((W48*D48)-(E48*D48))</f>
+        <f>(1-Index!$F$2*2)*((W47*D47)-(E47*D47))</f>
         <v/>
       </c>
       <c r="AA79" s="58">
-        <f>((E48*D48)+Z48)</f>
+        <f>((E47*D47)+Z47)</f>
         <v/>
       </c>
       <c r="AB79" s="59">
-        <f>D48</f>
+        <f>D47</f>
         <v/>
       </c>
       <c r="AC79" s="44">
-        <f>if(B48="DIV", F48,"")</f>
+        <f>if(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD79" s="62" t="inlineStr">
@@ -7051,7 +6966,7 @@
     </row>
     <row r="80">
       <c r="A80" s="50" t="n">
-        <v>43798</v>
+        <v>43801</v>
       </c>
       <c r="B80" s="51" t="inlineStr">
         <is>
@@ -7067,10 +6982,10 @@
         <v>20</v>
       </c>
       <c r="E80" s="53" t="n">
-        <v>321.79</v>
+        <v>319.62</v>
       </c>
       <c r="F80" s="53" t="n">
-        <v>6435.75</v>
+        <v>6392.34</v>
       </c>
       <c r="G80" s="51" t="inlineStr">
         <is>
@@ -7078,10 +6993,10 @@
         </is>
       </c>
       <c r="H80" s="52" t="n">
-        <v>4.11</v>
+        <v>3.86</v>
       </c>
       <c r="I80" s="52" t="n">
-        <v>38.64</v>
+        <v>38.48</v>
       </c>
       <c r="J80" s="42">
         <f>Index!$C$2</f>
@@ -7089,67 +7004,67 @@
       </c>
       <c r="K80" s="47" t="n"/>
       <c r="L80" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M80" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N80" s="57">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O80" s="56" t="n"/>
       <c r="P80" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R80" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S80" s="56" t="n"/>
       <c r="T80" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
         <v/>
       </c>
       <c r="U80" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V80" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W80" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X80" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y80" s="46">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z80" s="58">
-        <f>(1-Index!$F$2*2)*((W49*D49)-(E49*D49))</f>
+        <f>(1-Index!$F$2*2)*((W48*D48)-(E48*D48))</f>
         <v/>
       </c>
       <c r="AA80" s="58">
-        <f>((E49*D49)+Z49)</f>
+        <f>((E48*D48)+Z48)</f>
         <v/>
       </c>
       <c r="AB80" s="59">
-        <f>D49</f>
+        <f>D48</f>
         <v/>
       </c>
       <c r="AC80" s="44">
-        <f>if(B49="DIV", F49,"")</f>
+        <f>if(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD80" s="62" t="inlineStr">
@@ -7172,7 +7087,7 @@
     </row>
     <row r="81">
       <c r="A81" s="50" t="n">
-        <v>43796</v>
+        <v>43798</v>
       </c>
       <c r="B81" s="51" t="inlineStr">
         <is>
@@ -7185,13 +7100,13 @@
         </is>
       </c>
       <c r="D81" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E81" s="53" t="n">
-        <v>316.81</v>
+        <v>321.79</v>
       </c>
       <c r="F81" s="53" t="n">
-        <v>3168.11</v>
+        <v>6435.75</v>
       </c>
       <c r="G81" s="51" t="inlineStr">
         <is>
@@ -7199,10 +7114,10 @@
         </is>
       </c>
       <c r="H81" s="52" t="n">
-        <v>1.77</v>
+        <v>4.11</v>
       </c>
       <c r="I81" s="52" t="n">
-        <v>18.84</v>
+        <v>38.64</v>
       </c>
       <c r="J81" s="42">
         <f>Index!$C$2</f>
@@ -7210,41 +7125,41 @@
       </c>
       <c r="K81" s="47" t="n"/>
       <c r="L81" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M81" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N81" s="57">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O81" s="56" t="n"/>
       <c r="P81" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R81" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S81" s="56" t="n"/>
       <c r="T81" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
         <v/>
       </c>
       <c r="U81" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V81" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W81" s="53" t="n">
@@ -7254,23 +7169,23 @@
         <v>44039</v>
       </c>
       <c r="Y81" s="46">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z81" s="58">
-        <f>(1-Index!$F$2*2)*((W50*D50)-(E50*D50))</f>
+        <f>(1-Index!$F$2*2)*((W49*D49)-(E49*D49))</f>
         <v/>
       </c>
       <c r="AA81" s="58">
-        <f>((E50*D50)+Z50)</f>
+        <f>((E49*D49)+Z49)</f>
         <v/>
       </c>
       <c r="AB81" s="59">
-        <f>D50</f>
+        <f>D49</f>
         <v/>
       </c>
       <c r="AC81" s="44">
-        <f>if(B50="DIV", F50,"")</f>
+        <f>if(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD81" s="62" t="inlineStr">
@@ -7293,11 +7208,11 @@
     </row>
     <row r="82">
       <c r="A82" s="50" t="n">
-        <v>43782</v>
+        <v>43796</v>
       </c>
       <c r="B82" s="51" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C82" s="51" t="inlineStr">
@@ -7309,10 +7224,10 @@
         <v>10</v>
       </c>
       <c r="E82" s="53" t="n">
-        <v>333.25</v>
+        <v>316.81</v>
       </c>
       <c r="F82" s="53" t="n">
-        <v>3332.5</v>
+        <v>3168.11</v>
       </c>
       <c r="G82" s="51" t="inlineStr">
         <is>
@@ -7320,10 +7235,10 @@
         </is>
       </c>
       <c r="H82" s="52" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="I82" s="52" t="n">
-        <v>20.14</v>
+        <v>18.84</v>
       </c>
       <c r="J82" s="42">
         <f>Index!$C$2</f>
@@ -7331,41 +7246,41 @@
       </c>
       <c r="K82" s="47" t="n"/>
       <c r="L82" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M82" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N82" s="57">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O82" s="56" t="n"/>
       <c r="P82" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R82" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S82" s="56" t="n"/>
       <c r="T82" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
         <v/>
       </c>
       <c r="U82" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V82" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W82" s="53" t="n">
@@ -7375,23 +7290,23 @@
         <v>44039</v>
       </c>
       <c r="Y82" s="46">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z82" s="58">
-        <f>(1-Index!$F$2*2)*((W51*D51)-(E51*D51))</f>
+        <f>(1-Index!$F$2*2)*((W50*D50)-(E50*D50))</f>
         <v/>
       </c>
       <c r="AA82" s="58">
-        <f>((E51*D51)+Z51)</f>
+        <f>((E50*D50)+Z50)</f>
         <v/>
       </c>
       <c r="AB82" s="59">
-        <f>D51</f>
+        <f>D50</f>
         <v/>
       </c>
       <c r="AC82" s="44">
-        <f>if(B51="DIV", F51,"")</f>
+        <f>if(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD82" s="62" t="inlineStr">
@@ -7414,11 +7329,11 @@
     </row>
     <row r="83">
       <c r="A83" s="50" t="n">
-        <v>43707</v>
+        <v>43782</v>
       </c>
       <c r="B83" s="51" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C83" s="51" t="inlineStr">
@@ -7427,13 +7342,13 @@
         </is>
       </c>
       <c r="D83" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E83" s="53" t="n">
-        <v>305.59</v>
+        <v>333.25</v>
       </c>
       <c r="F83" s="53" t="n">
-        <v>6111.8</v>
+        <v>3332.5</v>
       </c>
       <c r="G83" s="51" t="inlineStr">
         <is>
@@ -7441,10 +7356,10 @@
         </is>
       </c>
       <c r="H83" s="52" t="n">
-        <v>6.01</v>
+        <v>1.86</v>
       </c>
       <c r="I83" s="52" t="n">
-        <v>36.79</v>
+        <v>20.14</v>
       </c>
       <c r="J83" s="42">
         <f>Index!$C$2</f>
@@ -7452,67 +7367,67 @@
       </c>
       <c r="K83" s="47" t="n"/>
       <c r="L83" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M83" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N83" s="57">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O83" s="56" t="n"/>
       <c r="P83" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R83" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S83" s="56" t="n"/>
       <c r="T83" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
         <v/>
       </c>
       <c r="U83" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V83" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W83" s="53" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="X83" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="Y83" s="46">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z83" s="58">
-        <f>(1-Index!$F$2*2)*((W52*D52)-(E52*D52))</f>
+        <f>(1-Index!$F$2*2)*((W51*D51)-(E51*D51))</f>
         <v/>
       </c>
       <c r="AA83" s="58">
-        <f>((E52*D52)+Z52)</f>
+        <f>((E51*D51)+Z51)</f>
         <v/>
       </c>
       <c r="AB83" s="59">
-        <f>D52</f>
+        <f>D51</f>
         <v/>
       </c>
       <c r="AC83" s="44">
-        <f>if(B52="DIV", F52,"")</f>
+        <f>if(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD83" s="62" t="inlineStr">
@@ -7520,10 +7435,22 @@
           <t>SBI Securities</t>
         </is>
       </c>
+      <c r="AE83" s="60" t="n"/>
+      <c r="AF83" s="60" t="n"/>
+      <c r="AG83" s="60" t="n"/>
+      <c r="AH83" s="60" t="n"/>
+      <c r="AI83" s="60" t="n"/>
+      <c r="AJ83" s="60" t="n"/>
+      <c r="AK83" s="60" t="n"/>
+      <c r="AL83" s="60" t="n"/>
+      <c r="AM83" s="60" t="n"/>
+      <c r="AN83" s="60" t="n"/>
+      <c r="AO83" s="60" t="n"/>
+      <c r="AP83" s="60" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="50" t="n">
-        <v>43697</v>
+        <v>43707</v>
       </c>
       <c r="B84" s="51" t="inlineStr">
         <is>
@@ -7536,13 +7463,13 @@
         </is>
       </c>
       <c r="D84" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E84" s="53" t="n">
-        <v>303.43</v>
+        <v>305.59</v>
       </c>
       <c r="F84" s="53" t="n">
-        <v>3034.27</v>
+        <v>6111.8</v>
       </c>
       <c r="G84" s="51" t="inlineStr">
         <is>
@@ -7550,10 +7477,10 @@
         </is>
       </c>
       <c r="H84" s="52" t="n">
-        <v>2.86</v>
+        <v>6.01</v>
       </c>
       <c r="I84" s="52" t="n">
-        <v>18.41</v>
+        <v>36.79</v>
       </c>
       <c r="J84" s="42">
         <f>Index!$C$2</f>
@@ -7561,41 +7488,41 @@
       </c>
       <c r="K84" s="47" t="n"/>
       <c r="L84" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M84" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N84" s="57">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O84" s="56" t="n"/>
       <c r="P84" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R84" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S84" s="56" t="n"/>
       <c r="T84" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
         <v/>
       </c>
       <c r="U84" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V84" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W84" s="53" t="n">
@@ -7605,23 +7532,23 @@
         <v>44036</v>
       </c>
       <c r="Y84" s="46">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z84" s="58">
-        <f>(1-Index!$F$2*2)*((W53*D53)-(E53*D53))</f>
+        <f>(1-Index!$F$2*2)*((W52*D52)-(E52*D52))</f>
         <v/>
       </c>
       <c r="AA84" s="58">
-        <f>((E53*D53)+Z53)</f>
+        <f>((E52*D52)+Z52)</f>
         <v/>
       </c>
       <c r="AB84" s="59">
-        <f>D53</f>
+        <f>D52</f>
         <v/>
       </c>
       <c r="AC84" s="44">
-        <f>if(B53="DIV", F53,"")</f>
+        <f>if(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD84" s="62" t="inlineStr">
@@ -7632,7 +7559,7 @@
     </row>
     <row r="85">
       <c r="A85" s="50" t="n">
-        <v>43685</v>
+        <v>43697</v>
       </c>
       <c r="B85" s="51" t="inlineStr">
         <is>
@@ -7648,10 +7575,10 @@
         <v>10</v>
       </c>
       <c r="E85" s="53" t="n">
-        <v>309.25</v>
+        <v>303.43</v>
       </c>
       <c r="F85" s="53" t="n">
-        <v>3092.54</v>
+        <v>3034.27</v>
       </c>
       <c r="G85" s="51" t="inlineStr">
         <is>
@@ -7659,10 +7586,10 @@
         </is>
       </c>
       <c r="H85" s="52" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="I85" s="52" t="n">
-        <v>18.58</v>
+        <v>18.41</v>
       </c>
       <c r="J85" s="42">
         <f>Index!$C$2</f>
@@ -7670,41 +7597,41 @@
       </c>
       <c r="K85" s="47" t="n"/>
       <c r="L85" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M85" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N85" s="57">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O85" s="56" t="n"/>
       <c r="P85" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R85" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S85" s="56" t="n"/>
       <c r="T85" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
         <v/>
       </c>
       <c r="U85" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V85" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W85" s="53" t="n">
@@ -7714,23 +7641,23 @@
         <v>44036</v>
       </c>
       <c r="Y85" s="46">
-        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
         <v/>
       </c>
       <c r="Z85" s="58">
-        <f>(1-Index!$F$2*2)*((W54*D54)-(E54*D54))</f>
+        <f>(1-Index!$F$2*2)*((W53*D53)-(E53*D53))</f>
         <v/>
       </c>
       <c r="AA85" s="58">
-        <f>((E54*D54)+Z54)</f>
+        <f>((E53*D53)+Z53)</f>
         <v/>
       </c>
       <c r="AB85" s="59">
-        <f>D54</f>
+        <f>D53</f>
         <v/>
       </c>
       <c r="AC85" s="44">
-        <f>if(B54="DIV", F54,"")</f>
+        <f>if(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD85" s="62" t="inlineStr">
@@ -7741,7 +7668,7 @@
     </row>
     <row r="86">
       <c r="A86" s="50" t="n">
-        <v>43682</v>
+        <v>43685</v>
       </c>
       <c r="B86" s="51" t="inlineStr">
         <is>
@@ -7757,10 +7684,10 @@
         <v>10</v>
       </c>
       <c r="E86" s="53" t="n">
-        <v>301.86</v>
+        <v>309.25</v>
       </c>
       <c r="F86" s="53" t="n">
-        <v>3018.58</v>
+        <v>3092.54</v>
       </c>
       <c r="G86" s="51" t="inlineStr">
         <is>
@@ -7768,10 +7695,10 @@
         </is>
       </c>
       <c r="H86" s="52" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="I86" s="52" t="n">
-        <v>18.09</v>
+        <v>18.58</v>
       </c>
       <c r="J86" s="42">
         <f>Index!$C$2</f>
@@ -7779,41 +7706,41 @@
       </c>
       <c r="K86" s="47" t="n"/>
       <c r="L86" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M86" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N86" s="57">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O86" s="56" t="n"/>
       <c r="P86" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R86" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S86" s="56" t="n"/>
       <c r="T86" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
         <v/>
       </c>
       <c r="U86" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V86" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W86" s="53" t="n">
@@ -7823,23 +7750,23 @@
         <v>44036</v>
       </c>
       <c r="Y86" s="46">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
         <v/>
       </c>
       <c r="Z86" s="58">
-        <f>(1-Index!$F$2*2)*((W55*D55)-(E55*D55))</f>
+        <f>(1-Index!$F$2*2)*((W54*D54)-(E54*D54))</f>
         <v/>
       </c>
       <c r="AA86" s="58">
-        <f>((E55*D55)+Z55)</f>
+        <f>((E54*D54)+Z54)</f>
         <v/>
       </c>
       <c r="AB86" s="59">
-        <f>D55</f>
+        <f>D54</f>
         <v/>
       </c>
       <c r="AC86" s="44">
-        <f>if(B55="DIV", F55,"")</f>
+        <f>if(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD86" s="62" t="inlineStr">
@@ -7850,7 +7777,7 @@
     </row>
     <row r="87">
       <c r="A87" s="50" t="n">
-        <v>43678</v>
+        <v>43682</v>
       </c>
       <c r="B87" s="51" t="inlineStr">
         <is>
@@ -7863,13 +7790,13 @@
         </is>
       </c>
       <c r="D87" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E87" s="53" t="n">
-        <v>300.3</v>
+        <v>301.86</v>
       </c>
       <c r="F87" s="53" t="n">
-        <v>6005.97</v>
+        <v>3018.58</v>
       </c>
       <c r="G87" s="51" t="inlineStr">
         <is>
@@ -7877,10 +7804,10 @@
         </is>
       </c>
       <c r="H87" s="52" t="n">
-        <v>6.02</v>
+        <v>2.99</v>
       </c>
       <c r="I87" s="52" t="n">
-        <v>35.95</v>
+        <v>18.09</v>
       </c>
       <c r="J87" s="42">
         <f>Index!$C$2</f>
@@ -7888,67 +7815,67 @@
       </c>
       <c r="K87" s="47" t="n"/>
       <c r="L87" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="M87" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
         <v/>
       </c>
       <c r="N87" s="57">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
         <v/>
       </c>
       <c r="O87" s="56" t="n"/>
       <c r="P87" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
         <v/>
       </c>
       <c r="R87" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="S87" s="56" t="n"/>
       <c r="T87" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
         <v/>
       </c>
       <c r="U87" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
         <v/>
       </c>
       <c r="V87" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="W87" s="53" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="X87" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="Y87" s="46">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/sum(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
         <v/>
       </c>
       <c r="Z87" s="58">
-        <f>(1-Index!$F$2*2)*((W56*D56)-(E56*D56))</f>
+        <f>(1-Index!$F$2*2)*((W55*D55)-(E55*D55))</f>
         <v/>
       </c>
       <c r="AA87" s="58">
-        <f>((E56*D56)+Z56)</f>
+        <f>((E55*D55)+Z55)</f>
         <v/>
       </c>
       <c r="AB87" s="59">
-        <f>D56</f>
+        <f>D55</f>
         <v/>
       </c>
       <c r="AC87" s="44">
-        <f>if(B56="DIV", F56,"")</f>
+        <f>if(B55="DIV", F55,"")</f>
         <v/>
       </c>
       <c r="AD87" s="62" t="inlineStr">
@@ -7959,7 +7886,7 @@
     </row>
     <row r="88">
       <c r="A88" s="50" t="n">
-        <v>43670</v>
+        <v>43678</v>
       </c>
       <c r="B88" s="51" t="inlineStr">
         <is>
@@ -7972,13 +7899,13 @@
         </is>
       </c>
       <c r="D88" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E88" s="53" t="n">
-        <v>317.82</v>
+        <v>300.3</v>
       </c>
       <c r="F88" s="53" t="n">
-        <v>3178.2</v>
+        <v>6005.97</v>
       </c>
       <c r="G88" s="51" t="inlineStr">
         <is>
@@ -7986,10 +7913,10 @@
         </is>
       </c>
       <c r="H88" s="52" t="n">
-        <v>3.13</v>
+        <v>6.02</v>
       </c>
       <c r="I88" s="52" t="n">
-        <v>19.07</v>
+        <v>35.95</v>
       </c>
       <c r="J88" s="42">
         <f>Index!$C$2</f>
@@ -7997,41 +7924,41 @@
       </c>
       <c r="K88" s="47" t="n"/>
       <c r="L88" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M88" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N88" s="57">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O88" s="56" t="n"/>
       <c r="P88" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R88" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S88" s="56" t="n"/>
       <c r="T88" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U88" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V88" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W88" s="53" t="n">
@@ -8041,23 +7968,23 @@
         <v>44025</v>
       </c>
       <c r="Y88" s="46">
-        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/sum(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/sum(F56:I56), "")</f>
         <v/>
       </c>
       <c r="Z88" s="58">
-        <f>(1-Index!$F$2*2)*((W57*D57)-(E57*D57))</f>
+        <f>(1-Index!$F$2*2)*((W56*D56)-(E56*D56))</f>
         <v/>
       </c>
       <c r="AA88" s="58">
-        <f>((E57*D57)+Z57)</f>
+        <f>((E56*D56)+Z56)</f>
         <v/>
       </c>
       <c r="AB88" s="59">
-        <f>D57</f>
+        <f>D56</f>
         <v/>
       </c>
       <c r="AC88" s="44">
-        <f>if(B57="DIV", F57,"")</f>
+        <f>if(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD88" s="62" t="inlineStr">
@@ -8068,7 +7995,7 @@
     </row>
     <row r="89">
       <c r="A89" s="50" t="n">
-        <v>43668</v>
+        <v>43670</v>
       </c>
       <c r="B89" s="51" t="inlineStr">
         <is>
@@ -8084,10 +8011,10 @@
         <v>10</v>
       </c>
       <c r="E89" s="53" t="n">
-        <v>318.1</v>
+        <v>317.82</v>
       </c>
       <c r="F89" s="53" t="n">
-        <v>3180.98</v>
+        <v>3178.2</v>
       </c>
       <c r="G89" s="51" t="inlineStr">
         <is>
@@ -8095,10 +8022,10 @@
         </is>
       </c>
       <c r="H89" s="52" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="I89" s="52" t="n">
-        <v>19.11</v>
+        <v>19.07</v>
       </c>
       <c r="J89" s="42">
         <f>Index!$C$2</f>
@@ -8106,41 +8033,41 @@
       </c>
       <c r="K89" s="47" t="n"/>
       <c r="L89" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M89" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N89" s="57">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O89" s="56" t="n"/>
       <c r="P89" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R89" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S89" s="56" t="n"/>
       <c r="T89" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
         <v/>
       </c>
       <c r="U89" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V89" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="W89" s="53" t="n">
@@ -8150,23 +8077,23 @@
         <v>44025</v>
       </c>
       <c r="Y89" s="46">
-        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/sum(F57:I57), "")</f>
         <v/>
       </c>
       <c r="Z89" s="58">
-        <f>(1-Index!$F$2*2)*((W58*D58)-(E58*D58))</f>
+        <f>(1-Index!$F$2*2)*((W57*D57)-(E57*D57))</f>
         <v/>
       </c>
       <c r="AA89" s="58">
-        <f>((E58*D58)+Z58)</f>
+        <f>((E57*D57)+Z57)</f>
         <v/>
       </c>
       <c r="AB89" s="59">
-        <f>D58</f>
+        <f>D57</f>
         <v/>
       </c>
       <c r="AC89" s="44">
-        <f>if(B58="DIV", F58,"")</f>
+        <f>if(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD89" s="62" t="inlineStr">
@@ -8177,7 +8104,7 @@
     </row>
     <row r="90">
       <c r="A90" s="50" t="n">
-        <v>43665</v>
+        <v>43668</v>
       </c>
       <c r="B90" s="51" t="inlineStr">
         <is>
@@ -8193,10 +8120,10 @@
         <v>10</v>
       </c>
       <c r="E90" s="53" t="n">
-        <v>324.56</v>
+        <v>318.1</v>
       </c>
       <c r="F90" s="53" t="n">
-        <v>3245.64</v>
+        <v>3180.98</v>
       </c>
       <c r="G90" s="51" t="inlineStr">
         <is>
@@ -8204,10 +8131,10 @@
         </is>
       </c>
       <c r="H90" s="52" t="n">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
       <c r="I90" s="52" t="n">
-        <v>19.42</v>
+        <v>19.11</v>
       </c>
       <c r="J90" s="42">
         <f>Index!$C$2</f>
@@ -8215,41 +8142,41 @@
       </c>
       <c r="K90" s="47" t="n"/>
       <c r="L90" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M90" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N90" s="57">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O90" s="56" t="n"/>
       <c r="P90" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R90" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S90" s="56" t="n"/>
       <c r="T90" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
         <v/>
       </c>
       <c r="U90" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V90" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="W90" s="53" t="n">
@@ -8259,46 +8186,139 @@
         <v>44025</v>
       </c>
       <c r="Y90" s="46">
+        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
+        <v/>
+      </c>
+      <c r="Z90" s="58">
+        <f>(1-Index!$F$2*2)*((W58*D58)-(E58*D58))</f>
+        <v/>
+      </c>
+      <c r="AA90" s="58">
+        <f>((E58*D58)+Z58)</f>
+        <v/>
+      </c>
+      <c r="AB90" s="59">
+        <f>D58</f>
+        <v/>
+      </c>
+      <c r="AC90" s="44">
+        <f>if(B58="DIV", F58,"")</f>
+        <v/>
+      </c>
+      <c r="AD90" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="50" t="n">
+        <v>43665</v>
+      </c>
+      <c r="B91" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C91" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D91" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" s="53" t="n">
+        <v>324.56</v>
+      </c>
+      <c r="F91" s="53" t="n">
+        <v>3245.64</v>
+      </c>
+      <c r="G91" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H91" s="52" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I91" s="52" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="J91" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K91" s="47" t="n"/>
+      <c r="L91" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="M91" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <v/>
+      </c>
+      <c r="N91" s="57">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <v/>
+      </c>
+      <c r="O91" s="56" t="n"/>
+      <c r="P91" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="Q91" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <v/>
+      </c>
+      <c r="R91" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="S91" s="56" t="n"/>
+      <c r="T91" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <v/>
+      </c>
+      <c r="U91" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <v/>
+      </c>
+      <c r="V91" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="W91" s="53" t="n">
+        <v>437.94</v>
+      </c>
+      <c r="X91" s="50" t="n">
+        <v>44025</v>
+      </c>
+      <c r="Y91" s="46">
         <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/sum(F59:I59), "")</f>
         <v/>
       </c>
-      <c r="Z90" s="58">
+      <c r="Z91" s="58">
         <f>(1-Index!$F$2*2)*((W59*D59)-(E59*D59))</f>
         <v/>
       </c>
-      <c r="AA90" s="58">
+      <c r="AA91" s="58">
         <f>((E59*D59)+Z59)</f>
         <v/>
       </c>
-      <c r="AB90" s="59">
+      <c r="AB91" s="59">
         <f>D59</f>
         <v/>
       </c>
-      <c r="AC90" s="44">
+      <c r="AC91" s="44">
         <f>if(B59="DIV", F59,"")</f>
         <v/>
       </c>
-      <c r="AD90" s="62" t="inlineStr">
+      <c r="AD91" s="62" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
       </c>
-    </row>
-    <row r="91">
-      <c r="E91" s="63" t="n"/>
-      <c r="F91" s="63" t="n"/>
-      <c r="G91" s="64" t="n"/>
-      <c r="J91" s="63" t="n"/>
-      <c r="K91" s="63" t="n"/>
-      <c r="L91" s="63" t="n"/>
-      <c r="M91" s="66" t="n"/>
-      <c r="W91" s="63" t="n"/>
-      <c r="X91" s="63" t="n"/>
-      <c r="Y91" s="63" t="n"/>
-      <c r="Z91" s="63" t="n"/>
-      <c r="AA91" s="63" t="n"/>
-      <c r="AB91" s="63" t="n"/>
-      <c r="AC91" s="63" t="n"/>
     </row>
     <row r="92">
       <c r="E92" s="63" t="n"/>
@@ -23267,6 +23287,7 @@
       <c r="J1027" s="63" t="n"/>
       <c r="K1027" s="63" t="n"/>
       <c r="L1027" s="63" t="n"/>
+      <c r="M1027" s="66" t="n"/>
       <c r="W1027" s="63" t="n"/>
       <c r="X1027" s="63" t="n"/>
       <c r="Y1027" s="63" t="n"/>
@@ -23514,6 +23535,21 @@
       <c r="AA1043" s="63" t="n"/>
       <c r="AB1043" s="63" t="n"/>
       <c r="AC1043" s="63" t="n"/>
+    </row>
+    <row r="1044">
+      <c r="E1044" s="63" t="n"/>
+      <c r="F1044" s="63" t="n"/>
+      <c r="G1044" s="64" t="n"/>
+      <c r="J1044" s="63" t="n"/>
+      <c r="K1044" s="63" t="n"/>
+      <c r="L1044" s="63" t="n"/>
+      <c r="W1044" s="63" t="n"/>
+      <c r="X1044" s="63" t="n"/>
+      <c r="Y1044" s="63" t="n"/>
+      <c r="Z1044" s="63" t="n"/>
+      <c r="AA1044" s="63" t="n"/>
+      <c r="AB1044" s="63" t="n"/>
+      <c r="AC1044" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$89"/>

--- a/dumps/Stocks/Syngene International Ltd.xlsx
+++ b/dumps/Stocks/Syngene International Ltd.xlsx
@@ -783,7 +783,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1044"/>
+  <dimension ref="A1:AP1045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="5">
       <c r="A5" s="99" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1146,21 +1146,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>669.9</v>
+        <v>656.5</v>
       </c>
       <c r="F5" t="n">
-        <v>3366.25</v>
+        <v>6597.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16.75</v>
+        <v>32.8</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="6">
       <c r="A6" s="99" t="n">
-        <v>45957</v>
+        <v>45974</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1185,18 +1185,18 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>661.54</v>
+        <v>669.9</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3324.25</v>
+        <v>3366.25</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>16.55</v>
+        <v>16.75</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="7">
       <c r="A7" s="99" t="n">
-        <v>46062</v>
+        <v>45957</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1221,21 +1221,18 @@
         <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>449.8</v>
+        <v>661.54</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2264.94</v>
+        <v>3324.25</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>2.25</v>
+          <t>CN#252607382790</t>
+        </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>13.69</v>
+        <v>16.55</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1243,8 +1240,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="98" t="n">
-        <v>46057</v>
+      <c r="A8" s="99" t="n">
+        <v>46062</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1257,29 +1254,33 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>471.15</v>
+        <v>449.8</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4744.94</v>
+        <v>2264.94</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>4.72</v>
+        <v>2.25</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>28.72</v>
+        <v>13.69</v>
+      </c>
+      <c r="J8" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="98" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1292,13 +1293,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>505.2</v>
+        <v>471.15</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>508.8</v>
+        <v>4744.94</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1306,10 +1307,10 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.51</v>
+        <v>4.72</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3.09</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="10">
@@ -1327,13 +1328,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>505.2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>4579.07</v>
+        <v>508.8</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1341,15 +1342,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>4.55</v>
+        <v>0.51</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>27.72</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="98" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1362,13 +1363,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>600.85</v>
+        <v>505.2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3025.53</v>
+        <v>4579.07</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1376,15 +1377,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.01</v>
+        <v>4.55</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>18.27</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>46034</v>
+        <v>46044</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1400,10 +1401,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>626.75</v>
+        <v>600.85</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3155.95</v>
+        <v>3025.53</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1411,19 +1412,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>19.06</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="98" t="n">
-        <v>46015</v>
+        <v>46034</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1435,10 +1436,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>656.3</v>
+        <v>626.75</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3304.76</v>
+        <v>3155.95</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1446,15 +1447,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>20</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="98" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1470,10 +1471,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>659.35</v>
+        <v>656.3</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3320.14</v>
+        <v>3304.76</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1481,15 +1482,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>45993</v>
+        <v>46014</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1502,13 +1503,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>638.9</v>
+        <v>659.35</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>643.4299999999999</v>
+        <v>3320.14</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1516,10 +1517,10 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.64</v>
+        <v>3.29</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>3.89</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="16">
@@ -1537,13 +1538,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>638.95</v>
+        <v>638.9</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2573.92</v>
+        <v>643.4299999999999</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1551,15 +1552,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>2.57</v>
+        <v>0.64</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>15.55</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1572,13 +1573,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>646.8</v>
+        <v>638.95</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3256.92</v>
+        <v>2573.92</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1586,19 +1587,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.22</v>
+        <v>2.57</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>19.7</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="98" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1610,10 +1611,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>638.5</v>
+        <v>646.8</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3215.11</v>
+        <v>3256.92</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1621,15 +1622,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.19</v>
+        <v>3.22</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>19.42</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="98" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1645,10 +1646,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>634.35</v>
+        <v>638.5</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3194.23</v>
+        <v>3215.11</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1656,15 +1657,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.15</v>
+        <v>3.19</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>19.33</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="98" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1677,13 +1678,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>656.5</v>
+        <v>634.35</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4628.06</v>
+        <v>3194.23</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1691,10 +1692,10 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>4.62</v>
+        <v>3.15</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>27.94</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="21">
@@ -1712,13 +1713,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>656.5</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1322.29</v>
+        <v>4628.06</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1726,10 +1727,10 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1.31</v>
+        <v>4.62</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>7.98</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="22">
@@ -1747,13 +1748,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>656.5</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>661.16</v>
+        <v>1322.29</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1761,15 +1762,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.66</v>
+        <v>1.31</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>4</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="98" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1782,13 +1783,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>669.9</v>
+        <v>656.5</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2023.94</v>
+        <v>661.16</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1796,10 +1797,10 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>12.24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1817,13 +1818,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>669.9</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>674.64</v>
+        <v>2023.94</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1831,10 +1832,10 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>4.07</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="25">
@@ -1874,11 +1875,11 @@
     </row>
     <row r="26">
       <c r="A26" s="98" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1887,13 +1888,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>616.05</v>
+        <v>669.9</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3102.12</v>
+        <v>674.64</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1901,19 +1902,19 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>3.08</v>
+        <v>0.67</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>18.79</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="98" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1925,10 +1926,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>656</v>
+        <v>616.05</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3303.23</v>
+        <v>3102.12</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1936,15 +1937,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>19.96</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="98" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1960,10 +1961,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3313.29</v>
+        <v>3303.23</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1971,15 +1972,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>20.01</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1992,13 +1993,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>661.6</v>
+        <v>658</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>666.29</v>
+        <v>3313.29</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2006,10 +2007,10 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.66</v>
+        <v>3.28</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>4.03</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="30">
@@ -2027,13 +2028,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>661.5</v>
+        <v>661.6</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1998.58</v>
+        <v>666.29</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2041,10 +2042,10 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1.99</v>
+        <v>0.66</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>12.09</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="31">
@@ -2062,13 +2063,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>661.6</v>
+        <v>661.5</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>666.29</v>
+        <v>1998.58</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2076,19 +2077,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.66</v>
+        <v>1.99</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>4.03</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2097,13 +2098,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>661.9</v>
+        <v>661.6</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>3332.98</v>
+        <v>666.29</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2111,19 +2112,19 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>3.31</v>
+        <v>0.66</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>20.17</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="98" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -2135,10 +2136,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>652.7</v>
+        <v>661.9</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>3286.6</v>
+        <v>3332.98</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2146,15 +2147,15 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>19.85</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="98" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -2167,13 +2168,13 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>644</v>
+        <v>652.7</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>6485.66</v>
+        <v>3286.6</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2181,15 +2182,15 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>6.43</v>
+        <v>3.25</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>39.23</v>
+        <v>19.85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="98" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
@@ -2205,10 +2206,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>6405.08</v>
+        <v>6485.66</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -2216,148 +2217,85 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>6.37</v>
+        <v>6.43</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>38.71</v>
+        <v>39.23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="98" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>636</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>6405.08</v>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="98" t="n">
         <v>45897</v>
       </c>
-      <c r="B36" s="0" t="inlineStr">
+      <c r="B37" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C36" s="0" t="inlineStr">
+      <c r="C37" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D37" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E37" s="0" t="n">
         <v>641.2</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F37" s="0" t="n">
         <v>3228.8</v>
       </c>
-      <c r="G36" s="0" t="inlineStr">
+      <c r="G37" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H37" s="0" t="n">
         <v>3.21</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I37" s="0" t="n">
         <v>19.59</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B37" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C37" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D37" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E37" s="41" t="n">
-        <v>648.5700000000001</v>
-      </c>
-      <c r="F37" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G37" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H37" s="40" t="n"/>
-      <c r="I37" s="40" t="n"/>
-      <c r="J37" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K37" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N37" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O37" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R37" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S37" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T37" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U37" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V37" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W37" s="47" t="n"/>
-      <c r="X37" s="47" t="n"/>
-      <c r="Y37" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z37" s="47" t="n"/>
-      <c r="AA37" s="47" t="n"/>
-      <c r="AB37" s="48" t="n"/>
-      <c r="AC37" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
@@ -2373,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>640.51</v>
+        <v>648.5700000000001</v>
       </c>
       <c r="F38" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G38" s="39" t="inlineStr">
@@ -2391,71 +2329,71 @@
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="38" t="n">
-        <v>45897</v>
+        <v>45947</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
@@ -2468,95 +2406,92 @@
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>645.76</v>
-      </c>
-      <c r="F39" s="41" t="n">
-        <v>3228.8</v>
+        <v>640.51</v>
+      </c>
+      <c r="F39" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H39" s="40" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="I39" s="40" t="n">
-        <v>19.59</v>
-      </c>
+      <c r="H39" s="40" t="n"/>
+      <c r="I39" s="40" t="n"/>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="38" t="n">
-        <v>45855</v>
+        <v>45897</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
@@ -2572,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="E40" s="41" t="n">
-        <v>680</v>
+        <v>645.76</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>3399.98</v>
+        <v>3228.8</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
@@ -2583,85 +2518,85 @@
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>20.6</v>
+        <v>19.59</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45835</v>
+        <v>45855</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C41" s="39" t="inlineStr">
@@ -2670,189 +2605,189 @@
         </is>
       </c>
       <c r="D41" s="40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>1.25</v>
+        <v>680</v>
       </c>
       <c r="F41" s="41" t="n">
-        <v>12.5</v>
+        <v>3399.98</v>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H41" s="40" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="I41" s="40" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="50" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B42" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C42" s="51" t="inlineStr">
+      <c r="A42" s="38" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B42" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C42" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D42" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="F42" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="G42" s="51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H42" s="52" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I42" s="52" t="n">
-        <v>4.14</v>
+      <c r="D42" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" s="41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F42" s="41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G42" s="39" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+        </is>
+      </c>
+      <c r="H42" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="40" t="n">
+        <v>0</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD42" s="49" t="n"/>
@@ -2872,13 +2807,13 @@
         </is>
       </c>
       <c r="D43" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="53" t="n">
         <v>683.97</v>
       </c>
       <c r="F43" s="53" t="n">
-        <v>1367.94</v>
+        <v>683.97</v>
       </c>
       <c r="G43" s="51" t="inlineStr">
         <is>
@@ -2886,81 +2821,81 @@
         </is>
       </c>
       <c r="H43" s="52" t="n">
-        <v>1.37</v>
+        <v>0.68</v>
       </c>
       <c r="I43" s="52" t="n">
-        <v>8.27</v>
+        <v>4.14</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W43" s="47" t="n"/>
       <c r="X43" s="47" t="n"/>
       <c r="Y43" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z43" s="47" t="n"/>
       <c r="AA43" s="47" t="n"/>
       <c r="AB43" s="48" t="n"/>
       <c r="AC43" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD43" s="49" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="50" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B44" s="51" t="inlineStr">
         <is>
@@ -2973,13 +2908,13 @@
         </is>
       </c>
       <c r="D44" s="52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E44" s="53" t="n">
-        <v>664.02</v>
+        <v>683.97</v>
       </c>
       <c r="F44" s="53" t="n">
-        <v>3320.12</v>
+        <v>1367.94</v>
       </c>
       <c r="G44" s="51" t="inlineStr">
         <is>
@@ -2987,81 +2922,81 @@
         </is>
       </c>
       <c r="H44" s="52" t="n">
-        <v>3.29</v>
+        <v>1.37</v>
       </c>
       <c r="I44" s="52" t="n">
-        <v>20.08</v>
+        <v>8.27</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W44" s="47" t="n"/>
       <c r="X44" s="47" t="n"/>
       <c r="Y44" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z44" s="47" t="n"/>
       <c r="AA44" s="47" t="n"/>
       <c r="AB44" s="48" t="n"/>
       <c r="AC44" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD44" s="49" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="50" t="n">
-        <v>45694</v>
+        <v>45716</v>
       </c>
       <c r="B45" s="51" t="inlineStr">
         <is>
@@ -3074,13 +3009,13 @@
         </is>
       </c>
       <c r="D45" s="52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E45" s="53" t="n">
-        <v>751.83</v>
+        <v>664.02</v>
       </c>
       <c r="F45" s="53" t="n">
-        <v>1503.66</v>
+        <v>3320.12</v>
       </c>
       <c r="G45" s="51" t="inlineStr">
         <is>
@@ -3088,81 +3023,81 @@
         </is>
       </c>
       <c r="H45" s="52" t="n">
-        <v>1.49</v>
+        <v>3.29</v>
       </c>
       <c r="I45" s="52" t="n">
-        <v>9.07</v>
+        <v>20.08</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W45" s="47" t="n"/>
       <c r="X45" s="47" t="n"/>
       <c r="Y45" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z45" s="47" t="n"/>
       <c r="AA45" s="47" t="n"/>
       <c r="AB45" s="48" t="n"/>
       <c r="AC45" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD45" s="49" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="50" t="n">
-        <v>44084</v>
+        <v>45694</v>
       </c>
       <c r="B46" s="51" t="inlineStr">
         <is>
@@ -3171,17 +3106,17 @@
       </c>
       <c r="C46" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D46" s="52" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E46" s="53" t="n">
-        <v>481.64</v>
+        <v>751.83</v>
       </c>
       <c r="F46" s="53" t="n">
-        <v>24081.77</v>
+        <v>1503.66</v>
       </c>
       <c r="G46" s="51" t="inlineStr">
         <is>
@@ -3189,81 +3124,81 @@
         </is>
       </c>
       <c r="H46" s="52" t="n">
-        <v>22.15</v>
+        <v>1.49</v>
       </c>
       <c r="I46" s="52" t="n">
-        <v>146.08</v>
+        <v>9.07</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W46" s="47" t="n"/>
       <c r="X46" s="47" t="n"/>
       <c r="Y46" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z46" s="47" t="n"/>
       <c r="AA46" s="47" t="n"/>
       <c r="AB46" s="48" t="n"/>
       <c r="AC46" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD46" s="49" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="50" t="n">
-        <v>44075</v>
+        <v>44084</v>
       </c>
       <c r="B47" s="51" t="inlineStr">
         <is>
@@ -3276,13 +3211,13 @@
         </is>
       </c>
       <c r="D47" s="52" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E47" s="53" t="n">
-        <v>476.52</v>
+        <v>481.64</v>
       </c>
       <c r="F47" s="53" t="n">
-        <v>28591.3</v>
+        <v>24081.77</v>
       </c>
       <c r="G47" s="51" t="inlineStr">
         <is>
@@ -3290,81 +3225,81 @@
         </is>
       </c>
       <c r="H47" s="52" t="n">
-        <v>29</v>
+        <v>22.15</v>
       </c>
       <c r="I47" s="52" t="n">
-        <v>170.7</v>
+        <v>146.08</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W47" s="47" t="n"/>
       <c r="X47" s="47" t="n"/>
       <c r="Y47" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z47" s="47" t="n"/>
       <c r="AA47" s="47" t="n"/>
       <c r="AB47" s="48" t="n"/>
       <c r="AC47" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD47" s="49" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="50" t="n">
-        <v>44060</v>
+        <v>44075</v>
       </c>
       <c r="B48" s="51" t="inlineStr">
         <is>
@@ -3377,13 +3312,13 @@
         </is>
       </c>
       <c r="D48" s="52" t="n">
-        <v>50</v>
-      </c>
-      <c r="E48" s="54" t="n">
-        <v>484.77</v>
+        <v>60</v>
+      </c>
+      <c r="E48" s="53" t="n">
+        <v>476.52</v>
       </c>
       <c r="F48" s="53" t="n">
-        <v>24238.46</v>
+        <v>28591.3</v>
       </c>
       <c r="G48" s="51" t="inlineStr">
         <is>
@@ -3391,81 +3326,81 @@
         </is>
       </c>
       <c r="H48" s="52" t="n">
-        <v>22.16</v>
+        <v>29</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>146.28</v>
+        <v>170.7</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W48" s="47" t="n"/>
       <c r="X48" s="47" t="n"/>
       <c r="Y48" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z48" s="47" t="n"/>
       <c r="AA48" s="47" t="n"/>
       <c r="AB48" s="48" t="n"/>
       <c r="AC48" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD48" s="49" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="50" t="n">
-        <v>44055</v>
+        <v>44060</v>
       </c>
       <c r="B49" s="51" t="inlineStr">
         <is>
@@ -3481,10 +3416,10 @@
         <v>50</v>
       </c>
       <c r="E49" s="54" t="n">
-        <v>489.63</v>
+        <v>484.77</v>
       </c>
       <c r="F49" s="53" t="n">
-        <v>24481.54</v>
+        <v>24238.46</v>
       </c>
       <c r="G49" s="51" t="inlineStr">
         <is>
@@ -3492,81 +3427,81 @@
         </is>
       </c>
       <c r="H49" s="52" t="n">
-        <v>24.74</v>
+        <v>22.16</v>
       </c>
       <c r="I49" s="52" t="n">
-        <v>148.72</v>
+        <v>146.28</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W49" s="47" t="n"/>
       <c r="X49" s="47" t="n"/>
       <c r="Y49" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z49" s="47" t="n"/>
       <c r="AA49" s="47" t="n"/>
       <c r="AB49" s="48" t="n"/>
       <c r="AC49" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD49" s="49" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B50" s="51" t="inlineStr">
         <is>
@@ -3582,10 +3517,10 @@
         <v>50</v>
       </c>
       <c r="E50" s="54" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="F50" s="53" t="n">
-        <v>23504.1</v>
+        <v>24481.54</v>
       </c>
       <c r="G50" s="51" t="inlineStr">
         <is>
@@ -3593,81 +3528,81 @@
         </is>
       </c>
       <c r="H50" s="52" t="n">
-        <v>23.54</v>
+        <v>24.74</v>
       </c>
       <c r="I50" s="52" t="n">
-        <v>142.36</v>
+        <v>148.72</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W50" s="47" t="n"/>
       <c r="X50" s="47" t="n"/>
       <c r="Y50" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z50" s="47" t="n"/>
       <c r="AA50" s="47" t="n"/>
       <c r="AB50" s="48" t="n"/>
       <c r="AC50" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD50" s="49" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B51" s="51" t="inlineStr">
         <is>
@@ -3683,10 +3618,10 @@
         <v>50</v>
       </c>
       <c r="E51" s="54" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="F51" s="53" t="n">
-        <v>23367.41</v>
+        <v>23504.1</v>
       </c>
       <c r="G51" s="51" t="inlineStr">
         <is>
@@ -3694,81 +3629,81 @@
         </is>
       </c>
       <c r="H51" s="52" t="n">
-        <v>23.55</v>
+        <v>23.54</v>
       </c>
       <c r="I51" s="52" t="n">
-        <v>141.54</v>
+        <v>142.36</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W51" s="47" t="n"/>
       <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z51" s="47" t="n"/>
       <c r="AA51" s="47" t="n"/>
       <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD51" s="49" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="B52" s="51" t="inlineStr">
         <is>
@@ -3780,14 +3715,14 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="D52" s="55" t="n">
+      <c r="D52" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E52" s="54" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="F52" s="53" t="n">
-        <v>23201.97</v>
+        <v>23367.41</v>
       </c>
       <c r="G52" s="51" t="inlineStr">
         <is>
@@ -3795,81 +3730,81 @@
         </is>
       </c>
       <c r="H52" s="52" t="n">
-        <v>23.34</v>
+        <v>23.55</v>
       </c>
       <c r="I52" s="52" t="n">
-        <v>139.69</v>
+        <v>141.54</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W52" s="47" t="n"/>
       <c r="X52" s="47" t="n"/>
       <c r="Y52" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z52" s="47" t="n"/>
       <c r="AA52" s="47" t="n"/>
       <c r="AB52" s="48" t="n"/>
       <c r="AC52" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD52" s="49" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="B53" s="51" t="inlineStr">
         <is>
@@ -3885,10 +3820,10 @@
         <v>50</v>
       </c>
       <c r="E53" s="54" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="F53" s="53" t="n">
-        <v>23785.87</v>
+        <v>23201.97</v>
       </c>
       <c r="G53" s="51" t="inlineStr">
         <is>
@@ -3896,81 +3831,81 @@
         </is>
       </c>
       <c r="H53" s="52" t="n">
-        <v>24.24</v>
+        <v>23.34</v>
       </c>
       <c r="I53" s="52" t="n">
-        <v>142.39</v>
+        <v>139.69</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W53" s="47" t="n"/>
       <c r="X53" s="47" t="n"/>
       <c r="Y53" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z53" s="47" t="n"/>
       <c r="AA53" s="47" t="n"/>
       <c r="AB53" s="48" t="n"/>
       <c r="AC53" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD53" s="49" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B54" s="51" t="inlineStr">
         <is>
@@ -3986,10 +3921,10 @@
         <v>50</v>
       </c>
       <c r="E54" s="54" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="F54" s="53" t="n">
-        <v>23587.4</v>
+        <v>23785.87</v>
       </c>
       <c r="G54" s="51" t="inlineStr">
         <is>
@@ -3997,81 +3932,81 @@
         </is>
       </c>
       <c r="H54" s="52" t="n">
-        <v>24</v>
+        <v>24.24</v>
       </c>
       <c r="I54" s="52" t="n">
-        <v>141.1</v>
+        <v>142.39</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W54" s="47" t="n"/>
       <c r="X54" s="47" t="n"/>
       <c r="Y54" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z54" s="47" t="n"/>
       <c r="AA54" s="47" t="n"/>
       <c r="AB54" s="48" t="n"/>
       <c r="AC54" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD54" s="49" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
@@ -4087,10 +4022,10 @@
         <v>50</v>
       </c>
       <c r="E55" s="54" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="F55" s="53" t="n">
-        <v>23224.05</v>
+        <v>23587.4</v>
       </c>
       <c r="G55" s="51" t="inlineStr">
         <is>
@@ -4098,81 +4033,81 @@
         </is>
       </c>
       <c r="H55" s="52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I55" s="52" t="n">
-        <v>138.9</v>
+        <v>141.1</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L55" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M55" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N55" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P55" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R55" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S55" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T55" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U55" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V55" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W55" s="47" t="n"/>
       <c r="X55" s="47" t="n"/>
       <c r="Y55" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z55" s="47" t="n"/>
       <c r="AA55" s="47" t="n"/>
       <c r="AB55" s="48" t="n"/>
       <c r="AC55" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD55" s="49" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B56" s="51" t="inlineStr">
         <is>
@@ -4188,10 +4123,10 @@
         <v>50</v>
       </c>
       <c r="E56" s="54" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="F56" s="53" t="n">
-        <v>22369.41</v>
+        <v>23224.05</v>
       </c>
       <c r="G56" s="51" t="inlineStr">
         <is>
@@ -4199,81 +4134,81 @@
         </is>
       </c>
       <c r="H56" s="52" t="n">
-        <v>22.73</v>
+        <v>23</v>
       </c>
       <c r="I56" s="52" t="n">
-        <v>135.36</v>
+        <v>138.9</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L56" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M56" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N56" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O56" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P56" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R56" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S56" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T56" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U56" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V56" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W56" s="47" t="n"/>
       <c r="X56" s="47" t="n"/>
       <c r="Y56" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z56" s="47" t="n"/>
       <c r="AA56" s="47" t="n"/>
       <c r="AB56" s="48" t="n"/>
       <c r="AC56" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD56" s="49" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="B57" s="51" t="inlineStr">
         <is>
@@ -4289,10 +4224,10 @@
         <v>50</v>
       </c>
       <c r="E57" s="54" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="F57" s="53" t="n">
-        <v>21896.98</v>
+        <v>22369.41</v>
       </c>
       <c r="G57" s="51" t="inlineStr">
         <is>
@@ -4300,81 +4235,81 @@
         </is>
       </c>
       <c r="H57" s="52" t="n">
-        <v>21.87</v>
+        <v>22.73</v>
       </c>
       <c r="I57" s="52" t="n">
-        <v>131.15</v>
+        <v>135.36</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L57" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M57" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N57" s="45">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O57" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P57" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R57" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S57" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T57" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U57" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V57" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W57" s="47" t="n"/>
       <c r="X57" s="47" t="n"/>
       <c r="Y57" s="46">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z57" s="47" t="n"/>
       <c r="AA57" s="47" t="n"/>
       <c r="AB57" s="48" t="n"/>
       <c r="AC57" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD57" s="49" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="50" t="n">
-        <v>43881</v>
+        <v>44025</v>
       </c>
       <c r="B58" s="51" t="inlineStr">
         <is>
@@ -4383,17 +4318,17 @@
       </c>
       <c r="C58" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D58" s="52" t="n">
-        <v>10</v>
-      </c>
-      <c r="E58" s="53" t="n">
-        <v>310.47</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D58" s="55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E58" s="54" t="n">
+        <v>437.94</v>
       </c>
       <c r="F58" s="53" t="n">
-        <v>3104.69</v>
+        <v>21896.98</v>
       </c>
       <c r="G58" s="51" t="inlineStr">
         <is>
@@ -4401,97 +4336,81 @@
         </is>
       </c>
       <c r="H58" s="52" t="n">
-        <v>3.12</v>
+        <v>21.87</v>
       </c>
       <c r="I58" s="52" t="n">
-        <v>18.57</v>
+        <v>131.15</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K58" s="47" t="n"/>
-      <c r="L58" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="M58" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
-        <v/>
-      </c>
-      <c r="N58" s="57">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
-        <v/>
-      </c>
-      <c r="O58" s="56" t="n"/>
-      <c r="P58" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="Q58" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
-        <v/>
-      </c>
-      <c r="R58" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="S58" s="56" t="n"/>
-      <c r="T58" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
-        <v/>
-      </c>
-      <c r="U58" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
-        <v/>
-      </c>
-      <c r="V58" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W58" s="53" t="n">
-        <v>476.52</v>
-      </c>
-      <c r="X58" s="50" t="n">
-        <v>44075</v>
-      </c>
+      <c r="K58" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L58" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N58" s="45">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O58" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P58" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R58" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S58" s="46">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T58" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U58" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V58" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="47" t="n"/>
+      <c r="X58" s="47" t="n"/>
       <c r="Y58" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="58">
-        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
-        <v/>
-      </c>
-      <c r="AA58" s="58">
-        <f>((E26*D26)+Z26)</f>
-        <v/>
-      </c>
-      <c r="AB58" s="59">
-        <f>D26</f>
-        <v/>
-      </c>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="47" t="n"/>
+      <c r="AA58" s="47" t="n"/>
+      <c r="AB58" s="48" t="n"/>
       <c r="AC58" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD58" s="49" t="n"/>
-      <c r="AE58" s="60" t="n"/>
-      <c r="AF58" s="60" t="n"/>
-      <c r="AG58" s="60" t="n"/>
-      <c r="AH58" s="60" t="n"/>
-      <c r="AI58" s="60" t="n"/>
-      <c r="AJ58" s="60" t="n"/>
-      <c r="AK58" s="60" t="n"/>
-      <c r="AL58" s="60" t="n"/>
-      <c r="AM58" s="60" t="n"/>
-      <c r="AN58" s="60" t="n"/>
-      <c r="AO58" s="60" t="n"/>
-      <c r="AP58" s="60" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="50" t="n">
-        <v>43865</v>
+        <v>43881</v>
       </c>
       <c r="B59" s="51" t="inlineStr">
         <is>
@@ -4507,10 +4426,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="53" t="n">
-        <v>315.21</v>
+        <v>310.47</v>
       </c>
       <c r="F59" s="53" t="n">
-        <v>3152.1</v>
+        <v>3104.69</v>
       </c>
       <c r="G59" s="51" t="inlineStr">
         <is>
@@ -4518,10 +4437,10 @@
         </is>
       </c>
       <c r="H59" s="52" t="n">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="I59" s="52" t="n">
-        <v>18.91</v>
+        <v>18.57</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4529,41 +4448,41 @@
       </c>
       <c r="K59" s="47" t="n"/>
       <c r="L59" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M59" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N59" s="57">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O59" s="56" t="n"/>
       <c r="P59" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R59" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S59" s="56" t="n"/>
       <c r="T59" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U59" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V59" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W59" s="53" t="n">
@@ -4573,23 +4492,23 @@
         <v>44075</v>
       </c>
       <c r="Y59" s="46">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z59" s="58">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
+        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
         <v/>
       </c>
       <c r="AA59" s="58">
-        <f>((E27*D27)+Z27)</f>
+        <f>((E26*D26)+Z26)</f>
         <v/>
       </c>
       <c r="AB59" s="59">
-        <f>D27</f>
+        <f>D26</f>
         <v/>
       </c>
       <c r="AC59" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD59" s="49" t="n"/>
@@ -4608,7 +4527,7 @@
     </row>
     <row r="60">
       <c r="A60" s="50" t="n">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B60" s="51" t="inlineStr">
         <is>
@@ -4624,10 +4543,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="53" t="n">
-        <v>318.07</v>
+        <v>315.21</v>
       </c>
       <c r="F60" s="53" t="n">
-        <v>3180.66</v>
+        <v>3152.1</v>
       </c>
       <c r="G60" s="51" t="inlineStr">
         <is>
@@ -4635,10 +4554,10 @@
         </is>
       </c>
       <c r="H60" s="52" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="I60" s="52" t="n">
-        <v>19</v>
+        <v>18.91</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -4646,41 +4565,41 @@
       </c>
       <c r="K60" s="47" t="n"/>
       <c r="L60" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M60" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N60" s="57">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O60" s="56" t="n"/>
       <c r="P60" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R60" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S60" s="56" t="n"/>
       <c r="T60" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U60" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V60" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W60" s="53" t="n">
@@ -4690,23 +4609,23 @@
         <v>44075</v>
       </c>
       <c r="Y60" s="46">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z60" s="58">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA60" s="58">
-        <f>((E28*D28)+Z28)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB60" s="59">
-        <f>D28</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC60" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD60" s="49" t="n"/>
@@ -4725,7 +4644,7 @@
     </row>
     <row r="61">
       <c r="A61" s="50" t="n">
-        <v>43860</v>
+        <v>43864</v>
       </c>
       <c r="B61" s="51" t="inlineStr">
         <is>
@@ -4741,10 +4660,10 @@
         <v>10</v>
       </c>
       <c r="E61" s="53" t="n">
-        <v>314.54</v>
+        <v>318.07</v>
       </c>
       <c r="F61" s="53" t="n">
-        <v>3145.39</v>
+        <v>3180.66</v>
       </c>
       <c r="G61" s="51" t="inlineStr">
         <is>
@@ -4752,10 +4671,10 @@
         </is>
       </c>
       <c r="H61" s="52" t="n">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="I61" s="52" t="n">
-        <v>18.81</v>
+        <v>19</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -4763,67 +4682,67 @@
       </c>
       <c r="K61" s="47" t="n"/>
       <c r="L61" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M61" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N61" s="57">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O61" s="56" t="n"/>
       <c r="P61" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R61" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S61" s="56" t="n"/>
       <c r="T61" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U61" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V61" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W61" s="53" t="n">
-        <v>489.63</v>
+        <v>476.52</v>
       </c>
       <c r="X61" s="50" t="n">
-        <v>44055</v>
+        <v>44075</v>
       </c>
       <c r="Y61" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z61" s="58">
-        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
         <v/>
       </c>
       <c r="AA61" s="58">
-        <f>((E29*D29)+Z29)</f>
+        <f>((E28*D28)+Z28)</f>
         <v/>
       </c>
       <c r="AB61" s="59">
-        <f>D29</f>
+        <f>D28</f>
         <v/>
       </c>
       <c r="AC61" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD61" s="49" t="n"/>
@@ -4842,7 +4761,7 @@
     </row>
     <row r="62">
       <c r="A62" s="50" t="n">
-        <v>43846</v>
+        <v>43860</v>
       </c>
       <c r="B62" s="51" t="inlineStr">
         <is>
@@ -4858,10 +4777,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="53" t="n">
-        <v>312.23</v>
+        <v>314.54</v>
       </c>
       <c r="F62" s="53" t="n">
-        <v>3122.32</v>
+        <v>3145.39</v>
       </c>
       <c r="G62" s="51" t="inlineStr">
         <is>
@@ -4869,10 +4788,10 @@
         </is>
       </c>
       <c r="H62" s="52" t="n">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="I62" s="52" t="n">
-        <v>18.66</v>
+        <v>18.81</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -4880,67 +4799,67 @@
       </c>
       <c r="K62" s="47" t="n"/>
       <c r="L62" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M62" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N62" s="57">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O62" s="56" t="n"/>
       <c r="P62" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R62" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S62" s="56" t="n"/>
       <c r="T62" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U62" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V62" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W62" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X62" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y62" s="46">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z62" s="58">
-        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
+        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
         <v/>
       </c>
       <c r="AA62" s="58">
-        <f>((E30*D30)+Z30)</f>
+        <f>((E29*D29)+Z29)</f>
         <v/>
       </c>
       <c r="AB62" s="59">
-        <f>D30</f>
+        <f>D29</f>
         <v/>
       </c>
       <c r="AC62" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD62" s="49" t="n"/>
@@ -4959,7 +4878,7 @@
     </row>
     <row r="63">
       <c r="A63" s="50" t="n">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="B63" s="51" t="inlineStr">
         <is>
@@ -4972,13 +4891,13 @@
         </is>
       </c>
       <c r="D63" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E63" s="53" t="n">
-        <v>311.98</v>
+        <v>312.23</v>
       </c>
       <c r="F63" s="53" t="n">
-        <v>6239.57</v>
+        <v>3122.32</v>
       </c>
       <c r="G63" s="51" t="inlineStr">
         <is>
@@ -4986,10 +4905,10 @@
         </is>
       </c>
       <c r="H63" s="52" t="n">
-        <v>6.22</v>
+        <v>3.16</v>
       </c>
       <c r="I63" s="52" t="n">
-        <v>37.35</v>
+        <v>18.66</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
@@ -4997,67 +4916,67 @@
       </c>
       <c r="K63" s="47" t="n"/>
       <c r="L63" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M63" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N63" s="57">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O63" s="56" t="n"/>
       <c r="P63" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R63" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S63" s="56" t="n"/>
       <c r="T63" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U63" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V63" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W63" s="53" t="n">
-        <v>489.63</v>
+        <v>470.08</v>
       </c>
       <c r="X63" s="50" t="n">
-        <v>44055</v>
+        <v>44050</v>
       </c>
       <c r="Y63" s="46">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z63" s="58">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
         <v/>
       </c>
       <c r="AA63" s="58">
-        <f>((E31*D31)+Z31)</f>
+        <f>((E30*D30)+Z30)</f>
         <v/>
       </c>
       <c r="AB63" s="59">
-        <f>D31</f>
+        <f>D30</f>
         <v/>
       </c>
       <c r="AC63" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD63" s="49" t="n"/>
@@ -5076,7 +4995,7 @@
     </row>
     <row r="64">
       <c r="A64" s="50" t="n">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="B64" s="51" t="inlineStr">
         <is>
@@ -5092,10 +5011,10 @@
         <v>20</v>
       </c>
       <c r="E64" s="53" t="n">
-        <v>313.54</v>
+        <v>311.98</v>
       </c>
       <c r="F64" s="53" t="n">
-        <v>6270.73</v>
+        <v>6239.57</v>
       </c>
       <c r="G64" s="51" t="inlineStr">
         <is>
@@ -5103,10 +5022,10 @@
         </is>
       </c>
       <c r="H64" s="52" t="n">
-        <v>6.19</v>
+        <v>6.22</v>
       </c>
       <c r="I64" s="52" t="n">
-        <v>37.54</v>
+        <v>37.35</v>
       </c>
       <c r="J64" s="42">
         <f>Index!$C$2</f>
@@ -5114,41 +5033,41 @@
       </c>
       <c r="K64" s="47" t="n"/>
       <c r="L64" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M64" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N64" s="57">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O64" s="56" t="n"/>
       <c r="P64" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R64" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S64" s="56" t="n"/>
       <c r="T64" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U64" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V64" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W64" s="53" t="n">
@@ -5158,23 +5077,23 @@
         <v>44055</v>
       </c>
       <c r="Y64" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z64" s="58">
-        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
         <v/>
       </c>
       <c r="AA64" s="58">
-        <f>((E32*D32)+Z32)</f>
+        <f>((E31*D31)+Z31)</f>
         <v/>
       </c>
       <c r="AB64" s="59">
-        <f>D32</f>
+        <f>D31</f>
         <v/>
       </c>
       <c r="AC64" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD64" s="49" t="n"/>
@@ -5193,7 +5112,7 @@
     </row>
     <row r="65">
       <c r="A65" s="50" t="n">
-        <v>43838</v>
+        <v>43844</v>
       </c>
       <c r="B65" s="51" t="inlineStr">
         <is>
@@ -5206,13 +5125,13 @@
         </is>
       </c>
       <c r="D65" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E65" s="53" t="n">
-        <v>312.31</v>
+        <v>313.54</v>
       </c>
       <c r="F65" s="53" t="n">
-        <v>3123.14</v>
+        <v>6270.73</v>
       </c>
       <c r="G65" s="51" t="inlineStr">
         <is>
@@ -5220,10 +5139,10 @@
         </is>
       </c>
       <c r="H65" s="52" t="n">
-        <v>2.51</v>
+        <v>6.19</v>
       </c>
       <c r="I65" s="52" t="n">
-        <v>18.63</v>
+        <v>37.54</v>
       </c>
       <c r="J65" s="42">
         <f>Index!$C$2</f>
@@ -5231,67 +5150,67 @@
       </c>
       <c r="K65" s="47" t="n"/>
       <c r="L65" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M65" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N65" s="57">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O65" s="56" t="n"/>
       <c r="P65" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R65" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S65" s="56" t="n"/>
       <c r="T65" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
         <v/>
       </c>
       <c r="U65" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V65" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W65" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X65" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y65" s="46">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z65" s="58">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
         <v/>
       </c>
       <c r="AA65" s="58">
-        <f>((E33*D33)+Z33)</f>
+        <f>((E32*D32)+Z32)</f>
         <v/>
       </c>
       <c r="AB65" s="59">
-        <f>D33</f>
+        <f>D32</f>
         <v/>
       </c>
       <c r="AC65" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD65" s="49" t="n"/>
@@ -5310,7 +5229,7 @@
     </row>
     <row r="66">
       <c r="A66" s="50" t="n">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="B66" s="51" t="inlineStr">
         <is>
@@ -5323,13 +5242,13 @@
         </is>
       </c>
       <c r="D66" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E66" s="53" t="n">
-        <v>310.55</v>
+        <v>312.31</v>
       </c>
       <c r="F66" s="53" t="n">
-        <v>6210.95</v>
+        <v>3123.14</v>
       </c>
       <c r="G66" s="51" t="inlineStr">
         <is>
@@ -5337,10 +5256,10 @@
         </is>
       </c>
       <c r="H66" s="52" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="I66" s="52" t="n">
-        <v>37</v>
+        <v>18.63</v>
       </c>
       <c r="J66" s="42">
         <f>Index!$C$2</f>
@@ -5348,41 +5267,41 @@
       </c>
       <c r="K66" s="47" t="n"/>
       <c r="L66" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M66" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N66" s="57">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O66" s="56" t="n"/>
       <c r="P66" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R66" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S66" s="56" t="n"/>
       <c r="T66" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
         <v/>
       </c>
       <c r="U66" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V66" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W66" s="53" t="n">
@@ -5392,23 +5311,23 @@
         <v>44050</v>
       </c>
       <c r="Y66" s="46">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z66" s="58">
-        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
         <v/>
       </c>
       <c r="AA66" s="58">
-        <f>((E34*D34)+Z34)</f>
+        <f>((E33*D33)+Z33)</f>
         <v/>
       </c>
       <c r="AB66" s="59">
-        <f>D34</f>
+        <f>D33</f>
         <v/>
       </c>
       <c r="AC66" s="44">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD66" s="49" t="n"/>
@@ -5427,7 +5346,7 @@
     </row>
     <row r="67">
       <c r="A67" s="50" t="n">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="B67" s="51" t="inlineStr">
         <is>
@@ -5440,13 +5359,13 @@
         </is>
       </c>
       <c r="D67" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E67" s="53" t="n">
-        <v>322.16</v>
+        <v>310.55</v>
       </c>
       <c r="F67" s="53" t="n">
-        <v>3221.56</v>
+        <v>6210.95</v>
       </c>
       <c r="G67" s="51" t="inlineStr">
         <is>
@@ -5454,10 +5373,10 @@
         </is>
       </c>
       <c r="H67" s="52" t="n">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="I67" s="52" t="n">
-        <v>19.41</v>
+        <v>37</v>
       </c>
       <c r="J67" s="42">
         <f>Index!$C$2</f>
@@ -5465,41 +5384,41 @@
       </c>
       <c r="K67" s="47" t="n"/>
       <c r="L67" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M67" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N67" s="57">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O67" s="56" t="n"/>
       <c r="P67" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R67" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S67" s="56" t="n"/>
       <c r="T67" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
         <v/>
       </c>
       <c r="U67" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V67" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W67" s="53" t="n">
@@ -5509,23 +5428,23 @@
         <v>44050</v>
       </c>
       <c r="Y67" s="46">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z67" s="58">
-        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
+        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
         <v/>
       </c>
       <c r="AA67" s="58">
-        <f>((E35*D35)+Z35)</f>
+        <f>((E34*D34)+Z34)</f>
         <v/>
       </c>
       <c r="AB67" s="59">
-        <f>D35</f>
+        <f>D34</f>
         <v/>
       </c>
       <c r="AC67" s="44">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD67" s="49" t="n"/>
@@ -5544,7 +5463,7 @@
     </row>
     <row r="68">
       <c r="A68" s="50" t="n">
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B68" s="51" t="inlineStr">
         <is>
@@ -5560,10 +5479,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="53" t="n">
-        <v>323.7</v>
+        <v>322.16</v>
       </c>
       <c r="F68" s="53" t="n">
-        <v>3237.01</v>
+        <v>3221.56</v>
       </c>
       <c r="G68" s="51" t="inlineStr">
         <is>
@@ -5571,10 +5490,10 @@
         </is>
       </c>
       <c r="H68" s="52" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="I68" s="52" t="n">
-        <v>19.34</v>
+        <v>19.41</v>
       </c>
       <c r="J68" s="42">
         <f>Index!$C$2</f>
@@ -5582,67 +5501,67 @@
       </c>
       <c r="K68" s="47" t="n"/>
       <c r="L68" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M68" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N68" s="57">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O68" s="56" t="n"/>
       <c r="P68" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R68" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S68" s="56" t="n"/>
       <c r="T68" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
         <v/>
       </c>
       <c r="U68" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V68" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W68" s="53" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="X68" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="Y68" s="46">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z68" s="58">
-        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
+        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
         <v/>
       </c>
       <c r="AA68" s="58">
-        <f>((E36*D36)+Z36)</f>
+        <f>((E35*D35)+Z35)</f>
         <v/>
       </c>
       <c r="AB68" s="59">
-        <f>D36</f>
+        <f>D35</f>
         <v/>
       </c>
       <c r="AC68" s="44">
-        <f>if(B36="DIV", F36,"")</f>
+        <f>if(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD68" s="49" t="n"/>
@@ -5661,7 +5580,7 @@
     </row>
     <row r="69">
       <c r="A69" s="50" t="n">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B69" s="51" t="inlineStr">
         <is>
@@ -5677,10 +5596,10 @@
         <v>10</v>
       </c>
       <c r="E69" s="53" t="n">
-        <v>324.56</v>
+        <v>323.7</v>
       </c>
       <c r="F69" s="53" t="n">
-        <v>3245.58</v>
+        <v>3237.01</v>
       </c>
       <c r="G69" s="51" t="inlineStr">
         <is>
@@ -5688,7 +5607,7 @@
         </is>
       </c>
       <c r="H69" s="52" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="I69" s="52" t="n">
         <v>19.34</v>
@@ -5699,41 +5618,41 @@
       </c>
       <c r="K69" s="47" t="n"/>
       <c r="L69" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M69" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N69" s="57">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O69" s="56" t="n"/>
       <c r="P69" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R69" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S69" s="56" t="n"/>
       <c r="T69" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
         <v/>
       </c>
       <c r="U69" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V69" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W69" s="53" t="n">
@@ -5743,23 +5662,23 @@
         <v>44049</v>
       </c>
       <c r="Y69" s="46">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z69" s="58">
-        <f>(1-Index!$F$2*2)*((W37*D37)-(E37*D37))</f>
+        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
         <v/>
       </c>
       <c r="AA69" s="58">
-        <f>((E37*D37)+Z37)</f>
+        <f>((E36*D36)+Z36)</f>
         <v/>
       </c>
       <c r="AB69" s="59">
-        <f>D37</f>
+        <f>D36</f>
         <v/>
       </c>
       <c r="AC69" s="44">
-        <f>if(B37="DIV", F37,"")</f>
+        <f>if(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD69" s="49" t="n"/>
@@ -5778,7 +5697,7 @@
     </row>
     <row r="70">
       <c r="A70" s="50" t="n">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B70" s="51" t="inlineStr">
         <is>
@@ -5794,10 +5713,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="53" t="n">
-        <v>325.67</v>
+        <v>324.56</v>
       </c>
       <c r="F70" s="53" t="n">
-        <v>3256.74</v>
+        <v>3245.58</v>
       </c>
       <c r="G70" s="51" t="inlineStr">
         <is>
@@ -5805,10 +5724,10 @@
         </is>
       </c>
       <c r="H70" s="52" t="n">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="I70" s="52" t="n">
-        <v>19.51</v>
+        <v>19.34</v>
       </c>
       <c r="J70" s="42">
         <f>Index!$C$2</f>
@@ -5816,41 +5735,41 @@
       </c>
       <c r="K70" s="47" t="n"/>
       <c r="L70" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M70" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N70" s="57">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O70" s="56" t="n"/>
       <c r="P70" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R70" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S70" s="56" t="n"/>
       <c r="T70" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
         <v/>
       </c>
       <c r="U70" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V70" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W70" s="53" t="n">
@@ -5860,23 +5779,23 @@
         <v>44049</v>
       </c>
       <c r="Y70" s="46">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z70" s="58">
-        <f>(1-Index!$F$2*2)*((W38*D38)-(E38*D38))</f>
+        <f>(1-Index!$F$2*2)*((W37*D37)-(E37*D37))</f>
         <v/>
       </c>
       <c r="AA70" s="58">
-        <f>((E38*D38)+Z38)</f>
+        <f>((E37*D37)+Z37)</f>
         <v/>
       </c>
       <c r="AB70" s="59">
-        <f>D38</f>
+        <f>D37</f>
         <v/>
       </c>
       <c r="AC70" s="44">
-        <f>if(B38="DIV", F38,"")</f>
+        <f>if(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD70" s="49" t="n"/>
@@ -5895,7 +5814,7 @@
     </row>
     <row r="71">
       <c r="A71" s="50" t="n">
-        <v>43823</v>
+        <v>43830</v>
       </c>
       <c r="B71" s="51" t="inlineStr">
         <is>
@@ -5911,10 +5830,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="53" t="n">
-        <v>307.15</v>
+        <v>325.67</v>
       </c>
       <c r="F71" s="53" t="n">
-        <v>3071.47</v>
+        <v>3256.74</v>
       </c>
       <c r="G71" s="51" t="inlineStr">
         <is>
@@ -5922,10 +5841,10 @@
         </is>
       </c>
       <c r="H71" s="52" t="n">
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="I71" s="52" t="n">
-        <v>18.41</v>
+        <v>19.51</v>
       </c>
       <c r="J71" s="42">
         <f>Index!$C$2</f>
@@ -5933,41 +5852,41 @@
       </c>
       <c r="K71" s="47" t="n"/>
       <c r="L71" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M71" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N71" s="57">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O71" s="56" t="n"/>
       <c r="P71" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R71" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S71" s="56" t="n"/>
       <c r="T71" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
         <v/>
       </c>
       <c r="U71" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V71" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W71" s="53" t="n">
@@ -5977,23 +5896,23 @@
         <v>44049</v>
       </c>
       <c r="Y71" s="46">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z71" s="58">
-        <f>(1-Index!$F$2*2)*((W39*D39)-(E39*D39))</f>
+        <f>(1-Index!$F$2*2)*((W38*D38)-(E38*D38))</f>
         <v/>
       </c>
       <c r="AA71" s="58">
-        <f>((E39*D39)+Z39)</f>
+        <f>((E38*D38)+Z38)</f>
         <v/>
       </c>
       <c r="AB71" s="59">
-        <f>D39</f>
+        <f>D38</f>
         <v/>
       </c>
       <c r="AC71" s="44">
-        <f>if(B39="DIV", F39,"")</f>
+        <f>if(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD71" s="49" t="n"/>
@@ -6012,7 +5931,7 @@
     </row>
     <row r="72">
       <c r="A72" s="50" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="B72" s="51" t="inlineStr">
         <is>
@@ -6028,10 +5947,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="53" t="n">
-        <v>312.13</v>
+        <v>307.15</v>
       </c>
       <c r="F72" s="53" t="n">
-        <v>3121.27</v>
+        <v>3071.47</v>
       </c>
       <c r="G72" s="51" t="inlineStr">
         <is>
@@ -6039,49 +5958,52 @@
         </is>
       </c>
       <c r="H72" s="52" t="n">
-        <v>3.12</v>
+        <v>3.06</v>
       </c>
       <c r="I72" s="52" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="J72" s="61" t="n"/>
-      <c r="K72" s="56" t="n"/>
+        <v>18.41</v>
+      </c>
+      <c r="J72" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K72" s="47" t="n"/>
       <c r="L72" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M72" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N72" s="57">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O72" s="56" t="n"/>
       <c r="P72" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R72" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S72" s="56" t="n"/>
       <c r="T72" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
         <v/>
       </c>
       <c r="U72" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V72" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W72" s="53" t="n">
@@ -6091,23 +6013,23 @@
         <v>44049</v>
       </c>
       <c r="Y72" s="46">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z72" s="58">
-        <f>(1-Index!$F$2*2)*((W40*D40)-(E40*D40))</f>
+        <f>(1-Index!$F$2*2)*((W39*D39)-(E39*D39))</f>
         <v/>
       </c>
       <c r="AA72" s="58">
-        <f>((E40*D40)+Z40)</f>
+        <f>((E39*D39)+Z39)</f>
         <v/>
       </c>
       <c r="AB72" s="59">
-        <f>D40</f>
+        <f>D39</f>
         <v/>
       </c>
       <c r="AC72" s="44">
-        <f>if(B40="DIV", F40,"")</f>
+        <f>if(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD72" s="49" t="n"/>
@@ -6126,7 +6048,7 @@
     </row>
     <row r="73">
       <c r="A73" s="50" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="B73" s="51" t="inlineStr">
         <is>
@@ -6142,10 +6064,10 @@
         <v>10</v>
       </c>
       <c r="E73" s="53" t="n">
-        <v>312.18</v>
+        <v>312.13</v>
       </c>
       <c r="F73" s="53" t="n">
-        <v>3121.82</v>
+        <v>3121.27</v>
       </c>
       <c r="G73" s="51" t="inlineStr">
         <is>
@@ -6153,75 +6075,75 @@
         </is>
       </c>
       <c r="H73" s="52" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="I73" s="52" t="n">
-        <v>18.69</v>
+        <v>18.65</v>
       </c>
       <c r="J73" s="61" t="n"/>
       <c r="K73" s="56" t="n"/>
       <c r="L73" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M73" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N73" s="57">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O73" s="56" t="n"/>
       <c r="P73" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R73" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S73" s="56" t="n"/>
       <c r="T73" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
         <v/>
       </c>
       <c r="U73" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V73" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W73" s="53" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="X73" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="Y73" s="46">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z73" s="58">
-        <f>(1-Index!$F$2*2)*((W41*D41)-(E41*D41))</f>
+        <f>(1-Index!$F$2*2)*((W40*D40)-(E40*D40))</f>
         <v/>
       </c>
       <c r="AA73" s="58">
-        <f>((E41*D41)+Z41)</f>
+        <f>((E40*D40)+Z40)</f>
         <v/>
       </c>
       <c r="AB73" s="59">
-        <f>D41</f>
+        <f>D40</f>
         <v/>
       </c>
       <c r="AC73" s="44">
-        <f>if(B41="DIV", F41,"")</f>
+        <f>if(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD73" s="49" t="n"/>
@@ -6240,7 +6162,7 @@
     </row>
     <row r="74">
       <c r="A74" s="50" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="B74" s="51" t="inlineStr">
         <is>
@@ -6253,13 +6175,13 @@
         </is>
       </c>
       <c r="D74" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E74" s="53" t="n">
-        <v>307.22</v>
+        <v>312.18</v>
       </c>
       <c r="F74" s="53" t="n">
-        <v>6144.32</v>
+        <v>3121.82</v>
       </c>
       <c r="G74" s="51" t="inlineStr">
         <is>
@@ -6267,52 +6189,49 @@
         </is>
       </c>
       <c r="H74" s="52" t="n">
-        <v>4.52</v>
+        <v>3.13</v>
       </c>
       <c r="I74" s="52" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="J74" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K74" s="47" t="n"/>
+        <v>18.69</v>
+      </c>
+      <c r="J74" s="61" t="n"/>
+      <c r="K74" s="56" t="n"/>
       <c r="L74" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M74" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N74" s="57">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O74" s="56" t="n"/>
       <c r="P74" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R74" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S74" s="56" t="n"/>
       <c r="T74" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
         <v/>
       </c>
       <c r="U74" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V74" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W74" s="53" t="n">
@@ -6322,30 +6241,26 @@
         <v>44048</v>
       </c>
       <c r="Y74" s="46">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z74" s="58">
-        <f>(1-Index!$F$2*2)*((W42*D42)-(E42*D42))</f>
+        <f>(1-Index!$F$2*2)*((W41*D41)-(E41*D41))</f>
         <v/>
       </c>
       <c r="AA74" s="58">
-        <f>((E42*D42)+Z42)</f>
+        <f>((E41*D41)+Z41)</f>
         <v/>
       </c>
       <c r="AB74" s="59">
-        <f>D42</f>
+        <f>D41</f>
         <v/>
       </c>
       <c r="AC74" s="44">
-        <f>if(B42="DIV", F42,"")</f>
-        <v/>
-      </c>
-      <c r="AD74" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B41="DIV", F41,"")</f>
+        <v/>
+      </c>
+      <c r="AD74" s="49" t="n"/>
       <c r="AE74" s="60" t="n"/>
       <c r="AF74" s="60" t="n"/>
       <c r="AG74" s="60" t="n"/>
@@ -6361,7 +6276,7 @@
     </row>
     <row r="75">
       <c r="A75" s="50" t="n">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="B75" s="51" t="inlineStr">
         <is>
@@ -6377,10 +6292,10 @@
         <v>20</v>
       </c>
       <c r="E75" s="53" t="n">
-        <v>302.14</v>
+        <v>307.22</v>
       </c>
       <c r="F75" s="53" t="n">
-        <v>6042.87</v>
+        <v>6144.32</v>
       </c>
       <c r="G75" s="51" t="inlineStr">
         <is>
@@ -6388,10 +6303,10 @@
         </is>
       </c>
       <c r="H75" s="52" t="n">
-        <v>5.78</v>
+        <v>4.52</v>
       </c>
       <c r="I75" s="52" t="n">
-        <v>36.09</v>
+        <v>36.8</v>
       </c>
       <c r="J75" s="42">
         <f>Index!$C$2</f>
@@ -6399,41 +6314,41 @@
       </c>
       <c r="K75" s="47" t="n"/>
       <c r="L75" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M75" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N75" s="57">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O75" s="56" t="n"/>
       <c r="P75" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R75" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S75" s="56" t="n"/>
       <c r="T75" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
         <v/>
       </c>
       <c r="U75" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V75" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W75" s="53" t="n">
@@ -6443,23 +6358,23 @@
         <v>44048</v>
       </c>
       <c r="Y75" s="46">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z75" s="58">
-        <f>(1-Index!$F$2*2)*((W43*D43)-(E43*D43))</f>
+        <f>(1-Index!$F$2*2)*((W42*D42)-(E42*D42))</f>
         <v/>
       </c>
       <c r="AA75" s="58">
-        <f>((E43*D43)+Z43)</f>
+        <f>((E42*D42)+Z42)</f>
         <v/>
       </c>
       <c r="AB75" s="59">
-        <f>D43</f>
+        <f>D42</f>
         <v/>
       </c>
       <c r="AC75" s="44">
-        <f>if(B43="DIV", F43,"")</f>
+        <f>if(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD75" s="62" t="inlineStr">
@@ -6482,7 +6397,7 @@
     </row>
     <row r="76">
       <c r="A76" s="50" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="B76" s="51" t="inlineStr">
         <is>
@@ -6495,13 +6410,13 @@
         </is>
       </c>
       <c r="D76" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E76" s="53" t="n">
-        <v>295.51</v>
+        <v>302.14</v>
       </c>
       <c r="F76" s="53" t="n">
-        <v>8865.290000000001</v>
+        <v>6042.87</v>
       </c>
       <c r="G76" s="51" t="inlineStr">
         <is>
@@ -6509,10 +6424,10 @@
         </is>
       </c>
       <c r="H76" s="52" t="n">
-        <v>8.859999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="I76" s="52" t="n">
-        <v>52.93</v>
+        <v>36.09</v>
       </c>
       <c r="J76" s="42">
         <f>Index!$C$2</f>
@@ -6520,67 +6435,67 @@
       </c>
       <c r="K76" s="47" t="n"/>
       <c r="L76" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M76" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N76" s="57">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O76" s="56" t="n"/>
       <c r="P76" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R76" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S76" s="56" t="n"/>
       <c r="T76" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
         <v/>
       </c>
       <c r="U76" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V76" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W76" s="53" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="X76" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="Y76" s="46">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z76" s="58">
-        <f>(1-Index!$F$2*2)*((W44*D44)-(E44*D44))</f>
+        <f>(1-Index!$F$2*2)*((W43*D43)-(E43*D43))</f>
         <v/>
       </c>
       <c r="AA76" s="58">
-        <f>((E44*D44)+Z44)</f>
+        <f>((E43*D43)+Z43)</f>
         <v/>
       </c>
       <c r="AB76" s="59">
-        <f>D44</f>
+        <f>D43</f>
         <v/>
       </c>
       <c r="AC76" s="44">
-        <f>if(B44="DIV", F44,"")</f>
+        <f>if(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD76" s="62" t="inlineStr">
@@ -6603,7 +6518,7 @@
     </row>
     <row r="77">
       <c r="A77" s="50" t="n">
-        <v>43812</v>
+        <v>43816</v>
       </c>
       <c r="B77" s="51" t="inlineStr">
         <is>
@@ -6616,13 +6531,13 @@
         </is>
       </c>
       <c r="D77" s="52" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E77" s="53" t="n">
-        <v>304.64</v>
+        <v>295.51</v>
       </c>
       <c r="F77" s="53" t="n">
-        <v>6092.9</v>
+        <v>8865.290000000001</v>
       </c>
       <c r="G77" s="51" t="inlineStr">
         <is>
@@ -6630,10 +6545,10 @@
         </is>
       </c>
       <c r="H77" s="52" t="n">
-        <v>4.6</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="I77" s="52" t="n">
-        <v>36.3</v>
+        <v>52.93</v>
       </c>
       <c r="J77" s="42">
         <f>Index!$C$2</f>
@@ -6641,41 +6556,41 @@
       </c>
       <c r="K77" s="47" t="n"/>
       <c r="L77" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M77" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N77" s="57">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O77" s="56" t="n"/>
       <c r="P77" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R77" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S77" s="56" t="n"/>
       <c r="T77" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
         <v/>
       </c>
       <c r="U77" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V77" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W77" s="53" t="n">
@@ -6685,23 +6600,23 @@
         <v>44042</v>
       </c>
       <c r="Y77" s="46">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z77" s="58">
-        <f>(1-Index!$F$2*2)*((W45*D45)-(E45*D45))</f>
+        <f>(1-Index!$F$2*2)*((W44*D44)-(E44*D44))</f>
         <v/>
       </c>
       <c r="AA77" s="58">
-        <f>((E45*D45)+Z45)</f>
+        <f>((E44*D44)+Z44)</f>
         <v/>
       </c>
       <c r="AB77" s="59">
-        <f>D45</f>
+        <f>D44</f>
         <v/>
       </c>
       <c r="AC77" s="44">
-        <f>if(B45="DIV", F45,"")</f>
+        <f>if(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD77" s="62" t="inlineStr">
@@ -6724,7 +6639,7 @@
     </row>
     <row r="78">
       <c r="A78" s="50" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="B78" s="51" t="inlineStr">
         <is>
@@ -6737,13 +6652,13 @@
         </is>
       </c>
       <c r="D78" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E78" s="53" t="n">
-        <v>303.24</v>
+        <v>304.64</v>
       </c>
       <c r="F78" s="53" t="n">
-        <v>9097.1</v>
+        <v>6092.9</v>
       </c>
       <c r="G78" s="51" t="inlineStr">
         <is>
@@ -6751,10 +6666,10 @@
         </is>
       </c>
       <c r="H78" s="52" t="n">
-        <v>6.59</v>
+        <v>4.6</v>
       </c>
       <c r="I78" s="52" t="n">
-        <v>54.51</v>
+        <v>36.3</v>
       </c>
       <c r="J78" s="42">
         <f>Index!$C$2</f>
@@ -6762,67 +6677,67 @@
       </c>
       <c r="K78" s="47" t="n"/>
       <c r="L78" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M78" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N78" s="57">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O78" s="56" t="n"/>
       <c r="P78" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R78" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S78" s="56" t="n"/>
       <c r="T78" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
         <v/>
       </c>
       <c r="U78" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V78" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W78" s="53" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="X78" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="Y78" s="46">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z78" s="58">
-        <f>(1-Index!$F$2*2)*((W46*D46)-(E46*D46))</f>
+        <f>(1-Index!$F$2*2)*((W45*D45)-(E45*D45))</f>
         <v/>
       </c>
       <c r="AA78" s="58">
-        <f>((E46*D46)+Z46)</f>
+        <f>((E45*D45)+Z45)</f>
         <v/>
       </c>
       <c r="AB78" s="59">
-        <f>D46</f>
+        <f>D45</f>
         <v/>
       </c>
       <c r="AC78" s="44">
-        <f>if(B46="DIV", F46,"")</f>
+        <f>if(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD78" s="62" t="inlineStr">
@@ -6845,7 +6760,7 @@
     </row>
     <row r="79">
       <c r="A79" s="50" t="n">
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="B79" s="51" t="inlineStr">
         <is>
@@ -6858,13 +6773,13 @@
         </is>
       </c>
       <c r="D79" s="52" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E79" s="53" t="n">
-        <v>310.97</v>
+        <v>303.24</v>
       </c>
       <c r="F79" s="53" t="n">
-        <v>3109.74</v>
+        <v>9097.1</v>
       </c>
       <c r="G79" s="51" t="inlineStr">
         <is>
@@ -6872,10 +6787,10 @@
         </is>
       </c>
       <c r="H79" s="52" t="n">
-        <v>2.73</v>
+        <v>6.59</v>
       </c>
       <c r="I79" s="52" t="n">
-        <v>18.51</v>
+        <v>54.51</v>
       </c>
       <c r="J79" s="42">
         <f>Index!$C$2</f>
@@ -6883,67 +6798,67 @@
       </c>
       <c r="K79" s="47" t="n"/>
       <c r="L79" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M79" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N79" s="57">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O79" s="56" t="n"/>
       <c r="P79" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R79" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S79" s="56" t="n"/>
       <c r="T79" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
         <v/>
       </c>
       <c r="U79" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V79" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W79" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X79" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y79" s="46">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z79" s="58">
-        <f>(1-Index!$F$2*2)*((W47*D47)-(E47*D47))</f>
+        <f>(1-Index!$F$2*2)*((W46*D46)-(E46*D46))</f>
         <v/>
       </c>
       <c r="AA79" s="58">
-        <f>((E47*D47)+Z47)</f>
+        <f>((E46*D46)+Z46)</f>
         <v/>
       </c>
       <c r="AB79" s="59">
-        <f>D47</f>
+        <f>D46</f>
         <v/>
       </c>
       <c r="AC79" s="44">
-        <f>if(B47="DIV", F47,"")</f>
+        <f>if(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD79" s="62" t="inlineStr">
@@ -6966,7 +6881,7 @@
     </row>
     <row r="80">
       <c r="A80" s="50" t="n">
-        <v>43801</v>
+        <v>43803</v>
       </c>
       <c r="B80" s="51" t="inlineStr">
         <is>
@@ -6979,13 +6894,13 @@
         </is>
       </c>
       <c r="D80" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E80" s="53" t="n">
-        <v>319.62</v>
+        <v>310.97</v>
       </c>
       <c r="F80" s="53" t="n">
-        <v>6392.34</v>
+        <v>3109.74</v>
       </c>
       <c r="G80" s="51" t="inlineStr">
         <is>
@@ -6993,10 +6908,10 @@
         </is>
       </c>
       <c r="H80" s="52" t="n">
-        <v>3.86</v>
+        <v>2.73</v>
       </c>
       <c r="I80" s="52" t="n">
-        <v>38.48</v>
+        <v>18.51</v>
       </c>
       <c r="J80" s="42">
         <f>Index!$C$2</f>
@@ -7004,67 +6919,67 @@
       </c>
       <c r="K80" s="47" t="n"/>
       <c r="L80" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M80" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N80" s="57">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O80" s="56" t="n"/>
       <c r="P80" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R80" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S80" s="56" t="n"/>
       <c r="T80" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
         <v/>
       </c>
       <c r="U80" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V80" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W80" s="53" t="n">
-        <v>471.75</v>
+        <v>464.48</v>
       </c>
       <c r="X80" s="50" t="n">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="Y80" s="46">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z80" s="58">
-        <f>(1-Index!$F$2*2)*((W48*D48)-(E48*D48))</f>
+        <f>(1-Index!$F$2*2)*((W47*D47)-(E47*D47))</f>
         <v/>
       </c>
       <c r="AA80" s="58">
-        <f>((E48*D48)+Z48)</f>
+        <f>((E47*D47)+Z47)</f>
         <v/>
       </c>
       <c r="AB80" s="59">
-        <f>D48</f>
+        <f>D47</f>
         <v/>
       </c>
       <c r="AC80" s="44">
-        <f>if(B48="DIV", F48,"")</f>
+        <f>if(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD80" s="62" t="inlineStr">
@@ -7087,7 +7002,7 @@
     </row>
     <row r="81">
       <c r="A81" s="50" t="n">
-        <v>43798</v>
+        <v>43801</v>
       </c>
       <c r="B81" s="51" t="inlineStr">
         <is>
@@ -7103,10 +7018,10 @@
         <v>20</v>
       </c>
       <c r="E81" s="53" t="n">
-        <v>321.79</v>
+        <v>319.62</v>
       </c>
       <c r="F81" s="53" t="n">
-        <v>6435.75</v>
+        <v>6392.34</v>
       </c>
       <c r="G81" s="51" t="inlineStr">
         <is>
@@ -7114,10 +7029,10 @@
         </is>
       </c>
       <c r="H81" s="52" t="n">
-        <v>4.11</v>
+        <v>3.86</v>
       </c>
       <c r="I81" s="52" t="n">
-        <v>38.64</v>
+        <v>38.48</v>
       </c>
       <c r="J81" s="42">
         <f>Index!$C$2</f>
@@ -7125,67 +7040,67 @@
       </c>
       <c r="K81" s="47" t="n"/>
       <c r="L81" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M81" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N81" s="57">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O81" s="56" t="n"/>
       <c r="P81" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R81" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S81" s="56" t="n"/>
       <c r="T81" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
         <v/>
       </c>
       <c r="U81" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V81" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W81" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X81" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y81" s="46">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z81" s="58">
-        <f>(1-Index!$F$2*2)*((W49*D49)-(E49*D49))</f>
+        <f>(1-Index!$F$2*2)*((W48*D48)-(E48*D48))</f>
         <v/>
       </c>
       <c r="AA81" s="58">
-        <f>((E49*D49)+Z49)</f>
+        <f>((E48*D48)+Z48)</f>
         <v/>
       </c>
       <c r="AB81" s="59">
-        <f>D49</f>
+        <f>D48</f>
         <v/>
       </c>
       <c r="AC81" s="44">
-        <f>if(B49="DIV", F49,"")</f>
+        <f>if(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD81" s="62" t="inlineStr">
@@ -7208,7 +7123,7 @@
     </row>
     <row r="82">
       <c r="A82" s="50" t="n">
-        <v>43796</v>
+        <v>43798</v>
       </c>
       <c r="B82" s="51" t="inlineStr">
         <is>
@@ -7221,13 +7136,13 @@
         </is>
       </c>
       <c r="D82" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E82" s="53" t="n">
-        <v>316.81</v>
+        <v>321.79</v>
       </c>
       <c r="F82" s="53" t="n">
-        <v>3168.11</v>
+        <v>6435.75</v>
       </c>
       <c r="G82" s="51" t="inlineStr">
         <is>
@@ -7235,10 +7150,10 @@
         </is>
       </c>
       <c r="H82" s="52" t="n">
-        <v>1.77</v>
+        <v>4.11</v>
       </c>
       <c r="I82" s="52" t="n">
-        <v>18.84</v>
+        <v>38.64</v>
       </c>
       <c r="J82" s="42">
         <f>Index!$C$2</f>
@@ -7246,41 +7161,41 @@
       </c>
       <c r="K82" s="47" t="n"/>
       <c r="L82" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M82" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N82" s="57">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O82" s="56" t="n"/>
       <c r="P82" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R82" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S82" s="56" t="n"/>
       <c r="T82" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
         <v/>
       </c>
       <c r="U82" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V82" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W82" s="53" t="n">
@@ -7290,23 +7205,23 @@
         <v>44039</v>
       </c>
       <c r="Y82" s="46">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z82" s="58">
-        <f>(1-Index!$F$2*2)*((W50*D50)-(E50*D50))</f>
+        <f>(1-Index!$F$2*2)*((W49*D49)-(E49*D49))</f>
         <v/>
       </c>
       <c r="AA82" s="58">
-        <f>((E50*D50)+Z50)</f>
+        <f>((E49*D49)+Z49)</f>
         <v/>
       </c>
       <c r="AB82" s="59">
-        <f>D50</f>
+        <f>D49</f>
         <v/>
       </c>
       <c r="AC82" s="44">
-        <f>if(B50="DIV", F50,"")</f>
+        <f>if(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD82" s="62" t="inlineStr">
@@ -7329,11 +7244,11 @@
     </row>
     <row r="83">
       <c r="A83" s="50" t="n">
-        <v>43782</v>
+        <v>43796</v>
       </c>
       <c r="B83" s="51" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C83" s="51" t="inlineStr">
@@ -7345,10 +7260,10 @@
         <v>10</v>
       </c>
       <c r="E83" s="53" t="n">
-        <v>333.25</v>
+        <v>316.81</v>
       </c>
       <c r="F83" s="53" t="n">
-        <v>3332.5</v>
+        <v>3168.11</v>
       </c>
       <c r="G83" s="51" t="inlineStr">
         <is>
@@ -7356,10 +7271,10 @@
         </is>
       </c>
       <c r="H83" s="52" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="I83" s="52" t="n">
-        <v>20.14</v>
+        <v>18.84</v>
       </c>
       <c r="J83" s="42">
         <f>Index!$C$2</f>
@@ -7367,41 +7282,41 @@
       </c>
       <c r="K83" s="47" t="n"/>
       <c r="L83" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M83" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N83" s="57">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O83" s="56" t="n"/>
       <c r="P83" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R83" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S83" s="56" t="n"/>
       <c r="T83" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
         <v/>
       </c>
       <c r="U83" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V83" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W83" s="53" t="n">
@@ -7411,23 +7326,23 @@
         <v>44039</v>
       </c>
       <c r="Y83" s="46">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z83" s="58">
-        <f>(1-Index!$F$2*2)*((W51*D51)-(E51*D51))</f>
+        <f>(1-Index!$F$2*2)*((W50*D50)-(E50*D50))</f>
         <v/>
       </c>
       <c r="AA83" s="58">
-        <f>((E51*D51)+Z51)</f>
+        <f>((E50*D50)+Z50)</f>
         <v/>
       </c>
       <c r="AB83" s="59">
-        <f>D51</f>
+        <f>D50</f>
         <v/>
       </c>
       <c r="AC83" s="44">
-        <f>if(B51="DIV", F51,"")</f>
+        <f>if(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD83" s="62" t="inlineStr">
@@ -7450,11 +7365,11 @@
     </row>
     <row r="84">
       <c r="A84" s="50" t="n">
-        <v>43707</v>
+        <v>43782</v>
       </c>
       <c r="B84" s="51" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C84" s="51" t="inlineStr">
@@ -7463,13 +7378,13 @@
         </is>
       </c>
       <c r="D84" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E84" s="53" t="n">
-        <v>305.59</v>
+        <v>333.25</v>
       </c>
       <c r="F84" s="53" t="n">
-        <v>6111.8</v>
+        <v>3332.5</v>
       </c>
       <c r="G84" s="51" t="inlineStr">
         <is>
@@ -7477,10 +7392,10 @@
         </is>
       </c>
       <c r="H84" s="52" t="n">
-        <v>6.01</v>
+        <v>1.86</v>
       </c>
       <c r="I84" s="52" t="n">
-        <v>36.79</v>
+        <v>20.14</v>
       </c>
       <c r="J84" s="42">
         <f>Index!$C$2</f>
@@ -7488,67 +7403,67 @@
       </c>
       <c r="K84" s="47" t="n"/>
       <c r="L84" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M84" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N84" s="57">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O84" s="56" t="n"/>
       <c r="P84" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R84" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S84" s="56" t="n"/>
       <c r="T84" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
         <v/>
       </c>
       <c r="U84" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V84" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W84" s="53" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="X84" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="Y84" s="46">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z84" s="58">
-        <f>(1-Index!$F$2*2)*((W52*D52)-(E52*D52))</f>
+        <f>(1-Index!$F$2*2)*((W51*D51)-(E51*D51))</f>
         <v/>
       </c>
       <c r="AA84" s="58">
-        <f>((E52*D52)+Z52)</f>
+        <f>((E51*D51)+Z51)</f>
         <v/>
       </c>
       <c r="AB84" s="59">
-        <f>D52</f>
+        <f>D51</f>
         <v/>
       </c>
       <c r="AC84" s="44">
-        <f>if(B52="DIV", F52,"")</f>
+        <f>if(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD84" s="62" t="inlineStr">
@@ -7556,10 +7471,22 @@
           <t>SBI Securities</t>
         </is>
       </c>
+      <c r="AE84" s="60" t="n"/>
+      <c r="AF84" s="60" t="n"/>
+      <c r="AG84" s="60" t="n"/>
+      <c r="AH84" s="60" t="n"/>
+      <c r="AI84" s="60" t="n"/>
+      <c r="AJ84" s="60" t="n"/>
+      <c r="AK84" s="60" t="n"/>
+      <c r="AL84" s="60" t="n"/>
+      <c r="AM84" s="60" t="n"/>
+      <c r="AN84" s="60" t="n"/>
+      <c r="AO84" s="60" t="n"/>
+      <c r="AP84" s="60" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="50" t="n">
-        <v>43697</v>
+        <v>43707</v>
       </c>
       <c r="B85" s="51" t="inlineStr">
         <is>
@@ -7572,13 +7499,13 @@
         </is>
       </c>
       <c r="D85" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E85" s="53" t="n">
-        <v>303.43</v>
+        <v>305.59</v>
       </c>
       <c r="F85" s="53" t="n">
-        <v>3034.27</v>
+        <v>6111.8</v>
       </c>
       <c r="G85" s="51" t="inlineStr">
         <is>
@@ -7586,10 +7513,10 @@
         </is>
       </c>
       <c r="H85" s="52" t="n">
-        <v>2.86</v>
+        <v>6.01</v>
       </c>
       <c r="I85" s="52" t="n">
-        <v>18.41</v>
+        <v>36.79</v>
       </c>
       <c r="J85" s="42">
         <f>Index!$C$2</f>
@@ -7597,41 +7524,41 @@
       </c>
       <c r="K85" s="47" t="n"/>
       <c r="L85" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M85" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N85" s="57">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O85" s="56" t="n"/>
       <c r="P85" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R85" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S85" s="56" t="n"/>
       <c r="T85" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
         <v/>
       </c>
       <c r="U85" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V85" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W85" s="53" t="n">
@@ -7641,23 +7568,23 @@
         <v>44036</v>
       </c>
       <c r="Y85" s="46">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z85" s="58">
-        <f>(1-Index!$F$2*2)*((W53*D53)-(E53*D53))</f>
+        <f>(1-Index!$F$2*2)*((W52*D52)-(E52*D52))</f>
         <v/>
       </c>
       <c r="AA85" s="58">
-        <f>((E53*D53)+Z53)</f>
+        <f>((E52*D52)+Z52)</f>
         <v/>
       </c>
       <c r="AB85" s="59">
-        <f>D53</f>
+        <f>D52</f>
         <v/>
       </c>
       <c r="AC85" s="44">
-        <f>if(B53="DIV", F53,"")</f>
+        <f>if(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD85" s="62" t="inlineStr">
@@ -7668,7 +7595,7 @@
     </row>
     <row r="86">
       <c r="A86" s="50" t="n">
-        <v>43685</v>
+        <v>43697</v>
       </c>
       <c r="B86" s="51" t="inlineStr">
         <is>
@@ -7684,10 +7611,10 @@
         <v>10</v>
       </c>
       <c r="E86" s="53" t="n">
-        <v>309.25</v>
+        <v>303.43</v>
       </c>
       <c r="F86" s="53" t="n">
-        <v>3092.54</v>
+        <v>3034.27</v>
       </c>
       <c r="G86" s="51" t="inlineStr">
         <is>
@@ -7695,10 +7622,10 @@
         </is>
       </c>
       <c r="H86" s="52" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="I86" s="52" t="n">
-        <v>18.58</v>
+        <v>18.41</v>
       </c>
       <c r="J86" s="42">
         <f>Index!$C$2</f>
@@ -7706,41 +7633,41 @@
       </c>
       <c r="K86" s="47" t="n"/>
       <c r="L86" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M86" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N86" s="57">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O86" s="56" t="n"/>
       <c r="P86" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R86" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S86" s="56" t="n"/>
       <c r="T86" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
         <v/>
       </c>
       <c r="U86" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V86" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W86" s="53" t="n">
@@ -7750,23 +7677,23 @@
         <v>44036</v>
       </c>
       <c r="Y86" s="46">
-        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
         <v/>
       </c>
       <c r="Z86" s="58">
-        <f>(1-Index!$F$2*2)*((W54*D54)-(E54*D54))</f>
+        <f>(1-Index!$F$2*2)*((W53*D53)-(E53*D53))</f>
         <v/>
       </c>
       <c r="AA86" s="58">
-        <f>((E54*D54)+Z54)</f>
+        <f>((E53*D53)+Z53)</f>
         <v/>
       </c>
       <c r="AB86" s="59">
-        <f>D54</f>
+        <f>D53</f>
         <v/>
       </c>
       <c r="AC86" s="44">
-        <f>if(B54="DIV", F54,"")</f>
+        <f>if(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD86" s="62" t="inlineStr">
@@ -7777,7 +7704,7 @@
     </row>
     <row r="87">
       <c r="A87" s="50" t="n">
-        <v>43682</v>
+        <v>43685</v>
       </c>
       <c r="B87" s="51" t="inlineStr">
         <is>
@@ -7793,10 +7720,10 @@
         <v>10</v>
       </c>
       <c r="E87" s="53" t="n">
-        <v>301.86</v>
+        <v>309.25</v>
       </c>
       <c r="F87" s="53" t="n">
-        <v>3018.58</v>
+        <v>3092.54</v>
       </c>
       <c r="G87" s="51" t="inlineStr">
         <is>
@@ -7804,10 +7731,10 @@
         </is>
       </c>
       <c r="H87" s="52" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="I87" s="52" t="n">
-        <v>18.09</v>
+        <v>18.58</v>
       </c>
       <c r="J87" s="42">
         <f>Index!$C$2</f>
@@ -7815,41 +7742,41 @@
       </c>
       <c r="K87" s="47" t="n"/>
       <c r="L87" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M87" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N87" s="57">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O87" s="56" t="n"/>
       <c r="P87" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R87" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S87" s="56" t="n"/>
       <c r="T87" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
         <v/>
       </c>
       <c r="U87" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V87" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W87" s="53" t="n">
@@ -7859,23 +7786,23 @@
         <v>44036</v>
       </c>
       <c r="Y87" s="46">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
         <v/>
       </c>
       <c r="Z87" s="58">
-        <f>(1-Index!$F$2*2)*((W55*D55)-(E55*D55))</f>
+        <f>(1-Index!$F$2*2)*((W54*D54)-(E54*D54))</f>
         <v/>
       </c>
       <c r="AA87" s="58">
-        <f>((E55*D55)+Z55)</f>
+        <f>((E54*D54)+Z54)</f>
         <v/>
       </c>
       <c r="AB87" s="59">
-        <f>D55</f>
+        <f>D54</f>
         <v/>
       </c>
       <c r="AC87" s="44">
-        <f>if(B55="DIV", F55,"")</f>
+        <f>if(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD87" s="62" t="inlineStr">
@@ -7886,7 +7813,7 @@
     </row>
     <row r="88">
       <c r="A88" s="50" t="n">
-        <v>43678</v>
+        <v>43682</v>
       </c>
       <c r="B88" s="51" t="inlineStr">
         <is>
@@ -7899,13 +7826,13 @@
         </is>
       </c>
       <c r="D88" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E88" s="53" t="n">
-        <v>300.3</v>
+        <v>301.86</v>
       </c>
       <c r="F88" s="53" t="n">
-        <v>6005.97</v>
+        <v>3018.58</v>
       </c>
       <c r="G88" s="51" t="inlineStr">
         <is>
@@ -7913,10 +7840,10 @@
         </is>
       </c>
       <c r="H88" s="52" t="n">
-        <v>6.02</v>
+        <v>2.99</v>
       </c>
       <c r="I88" s="52" t="n">
-        <v>35.95</v>
+        <v>18.09</v>
       </c>
       <c r="J88" s="42">
         <f>Index!$C$2</f>
@@ -7924,67 +7851,67 @@
       </c>
       <c r="K88" s="47" t="n"/>
       <c r="L88" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="M88" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
         <v/>
       </c>
       <c r="N88" s="57">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
         <v/>
       </c>
       <c r="O88" s="56" t="n"/>
       <c r="P88" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
         <v/>
       </c>
       <c r="R88" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="S88" s="56" t="n"/>
       <c r="T88" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
         <v/>
       </c>
       <c r="U88" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
         <v/>
       </c>
       <c r="V88" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="W88" s="53" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="X88" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="Y88" s="46">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/sum(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
         <v/>
       </c>
       <c r="Z88" s="58">
-        <f>(1-Index!$F$2*2)*((W56*D56)-(E56*D56))</f>
+        <f>(1-Index!$F$2*2)*((W55*D55)-(E55*D55))</f>
         <v/>
       </c>
       <c r="AA88" s="58">
-        <f>((E56*D56)+Z56)</f>
+        <f>((E55*D55)+Z55)</f>
         <v/>
       </c>
       <c r="AB88" s="59">
-        <f>D56</f>
+        <f>D55</f>
         <v/>
       </c>
       <c r="AC88" s="44">
-        <f>if(B56="DIV", F56,"")</f>
+        <f>if(B55="DIV", F55,"")</f>
         <v/>
       </c>
       <c r="AD88" s="62" t="inlineStr">
@@ -7995,7 +7922,7 @@
     </row>
     <row r="89">
       <c r="A89" s="50" t="n">
-        <v>43670</v>
+        <v>43678</v>
       </c>
       <c r="B89" s="51" t="inlineStr">
         <is>
@@ -8008,13 +7935,13 @@
         </is>
       </c>
       <c r="D89" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E89" s="53" t="n">
-        <v>317.82</v>
+        <v>300.3</v>
       </c>
       <c r="F89" s="53" t="n">
-        <v>3178.2</v>
+        <v>6005.97</v>
       </c>
       <c r="G89" s="51" t="inlineStr">
         <is>
@@ -8022,10 +7949,10 @@
         </is>
       </c>
       <c r="H89" s="52" t="n">
-        <v>3.13</v>
+        <v>6.02</v>
       </c>
       <c r="I89" s="52" t="n">
-        <v>19.07</v>
+        <v>35.95</v>
       </c>
       <c r="J89" s="42">
         <f>Index!$C$2</f>
@@ -8033,41 +7960,41 @@
       </c>
       <c r="K89" s="47" t="n"/>
       <c r="L89" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M89" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N89" s="57">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O89" s="56" t="n"/>
       <c r="P89" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R89" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S89" s="56" t="n"/>
       <c r="T89" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U89" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V89" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W89" s="53" t="n">
@@ -8077,23 +8004,23 @@
         <v>44025</v>
       </c>
       <c r="Y89" s="46">
-        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/sum(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/sum(F56:I56), "")</f>
         <v/>
       </c>
       <c r="Z89" s="58">
-        <f>(1-Index!$F$2*2)*((W57*D57)-(E57*D57))</f>
+        <f>(1-Index!$F$2*2)*((W56*D56)-(E56*D56))</f>
         <v/>
       </c>
       <c r="AA89" s="58">
-        <f>((E57*D57)+Z57)</f>
+        <f>((E56*D56)+Z56)</f>
         <v/>
       </c>
       <c r="AB89" s="59">
-        <f>D57</f>
+        <f>D56</f>
         <v/>
       </c>
       <c r="AC89" s="44">
-        <f>if(B57="DIV", F57,"")</f>
+        <f>if(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD89" s="62" t="inlineStr">
@@ -8104,7 +8031,7 @@
     </row>
     <row r="90">
       <c r="A90" s="50" t="n">
-        <v>43668</v>
+        <v>43670</v>
       </c>
       <c r="B90" s="51" t="inlineStr">
         <is>
@@ -8120,10 +8047,10 @@
         <v>10</v>
       </c>
       <c r="E90" s="53" t="n">
-        <v>318.1</v>
+        <v>317.82</v>
       </c>
       <c r="F90" s="53" t="n">
-        <v>3180.98</v>
+        <v>3178.2</v>
       </c>
       <c r="G90" s="51" t="inlineStr">
         <is>
@@ -8131,10 +8058,10 @@
         </is>
       </c>
       <c r="H90" s="52" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="I90" s="52" t="n">
-        <v>19.11</v>
+        <v>19.07</v>
       </c>
       <c r="J90" s="42">
         <f>Index!$C$2</f>
@@ -8142,41 +8069,41 @@
       </c>
       <c r="K90" s="47" t="n"/>
       <c r="L90" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M90" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N90" s="57">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O90" s="56" t="n"/>
       <c r="P90" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R90" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S90" s="56" t="n"/>
       <c r="T90" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
         <v/>
       </c>
       <c r="U90" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V90" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="W90" s="53" t="n">
@@ -8186,23 +8113,23 @@
         <v>44025</v>
       </c>
       <c r="Y90" s="46">
-        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/sum(F57:I57), "")</f>
         <v/>
       </c>
       <c r="Z90" s="58">
-        <f>(1-Index!$F$2*2)*((W58*D58)-(E58*D58))</f>
+        <f>(1-Index!$F$2*2)*((W57*D57)-(E57*D57))</f>
         <v/>
       </c>
       <c r="AA90" s="58">
-        <f>((E58*D58)+Z58)</f>
+        <f>((E57*D57)+Z57)</f>
         <v/>
       </c>
       <c r="AB90" s="59">
-        <f>D58</f>
+        <f>D57</f>
         <v/>
       </c>
       <c r="AC90" s="44">
-        <f>if(B58="DIV", F58,"")</f>
+        <f>if(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD90" s="62" t="inlineStr">
@@ -8213,7 +8140,7 @@
     </row>
     <row r="91">
       <c r="A91" s="50" t="n">
-        <v>43665</v>
+        <v>43668</v>
       </c>
       <c r="B91" s="51" t="inlineStr">
         <is>
@@ -8229,10 +8156,10 @@
         <v>10</v>
       </c>
       <c r="E91" s="53" t="n">
-        <v>324.56</v>
+        <v>318.1</v>
       </c>
       <c r="F91" s="53" t="n">
-        <v>3245.64</v>
+        <v>3180.98</v>
       </c>
       <c r="G91" s="51" t="inlineStr">
         <is>
@@ -8240,10 +8167,10 @@
         </is>
       </c>
       <c r="H91" s="52" t="n">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
       <c r="I91" s="52" t="n">
-        <v>19.42</v>
+        <v>19.11</v>
       </c>
       <c r="J91" s="42">
         <f>Index!$C$2</f>
@@ -8251,41 +8178,41 @@
       </c>
       <c r="K91" s="47" t="n"/>
       <c r="L91" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M91" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N91" s="57">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O91" s="56" t="n"/>
       <c r="P91" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R91" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S91" s="56" t="n"/>
       <c r="T91" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
         <v/>
       </c>
       <c r="U91" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V91" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="W91" s="53" t="n">
@@ -8295,46 +8222,139 @@
         <v>44025</v>
       </c>
       <c r="Y91" s="46">
+        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
+        <v/>
+      </c>
+      <c r="Z91" s="58">
+        <f>(1-Index!$F$2*2)*((W58*D58)-(E58*D58))</f>
+        <v/>
+      </c>
+      <c r="AA91" s="58">
+        <f>((E58*D58)+Z58)</f>
+        <v/>
+      </c>
+      <c r="AB91" s="59">
+        <f>D58</f>
+        <v/>
+      </c>
+      <c r="AC91" s="44">
+        <f>if(B58="DIV", F58,"")</f>
+        <v/>
+      </c>
+      <c r="AD91" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="50" t="n">
+        <v>43665</v>
+      </c>
+      <c r="B92" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C92" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D92" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" s="53" t="n">
+        <v>324.56</v>
+      </c>
+      <c r="F92" s="53" t="n">
+        <v>3245.64</v>
+      </c>
+      <c r="G92" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H92" s="52" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I92" s="52" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="J92" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K92" s="47" t="n"/>
+      <c r="L92" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="M92" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <v/>
+      </c>
+      <c r="N92" s="57">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <v/>
+      </c>
+      <c r="O92" s="56" t="n"/>
+      <c r="P92" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="Q92" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <v/>
+      </c>
+      <c r="R92" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="S92" s="56" t="n"/>
+      <c r="T92" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <v/>
+      </c>
+      <c r="U92" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <v/>
+      </c>
+      <c r="V92" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="W92" s="53" t="n">
+        <v>437.94</v>
+      </c>
+      <c r="X92" s="50" t="n">
+        <v>44025</v>
+      </c>
+      <c r="Y92" s="46">
         <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/sum(F59:I59), "")</f>
         <v/>
       </c>
-      <c r="Z91" s="58">
+      <c r="Z92" s="58">
         <f>(1-Index!$F$2*2)*((W59*D59)-(E59*D59))</f>
         <v/>
       </c>
-      <c r="AA91" s="58">
+      <c r="AA92" s="58">
         <f>((E59*D59)+Z59)</f>
         <v/>
       </c>
-      <c r="AB91" s="59">
+      <c r="AB92" s="59">
         <f>D59</f>
         <v/>
       </c>
-      <c r="AC91" s="44">
+      <c r="AC92" s="44">
         <f>if(B59="DIV", F59,"")</f>
         <v/>
       </c>
-      <c r="AD91" s="62" t="inlineStr">
+      <c r="AD92" s="62" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="E92" s="63" t="n"/>
-      <c r="F92" s="63" t="n"/>
-      <c r="G92" s="64" t="n"/>
-      <c r="J92" s="63" t="n"/>
-      <c r="K92" s="63" t="n"/>
-      <c r="L92" s="63" t="n"/>
-      <c r="M92" s="66" t="n"/>
-      <c r="W92" s="63" t="n"/>
-      <c r="X92" s="63" t="n"/>
-      <c r="Y92" s="63" t="n"/>
-      <c r="Z92" s="63" t="n"/>
-      <c r="AA92" s="63" t="n"/>
-      <c r="AB92" s="63" t="n"/>
-      <c r="AC92" s="63" t="n"/>
     </row>
     <row r="93">
       <c r="E93" s="63" t="n"/>
@@ -23303,6 +23323,7 @@
       <c r="J1028" s="63" t="n"/>
       <c r="K1028" s="63" t="n"/>
       <c r="L1028" s="63" t="n"/>
+      <c r="M1028" s="66" t="n"/>
       <c r="W1028" s="63" t="n"/>
       <c r="X1028" s="63" t="n"/>
       <c r="Y1028" s="63" t="n"/>
@@ -23550,6 +23571,21 @@
       <c r="AA1044" s="63" t="n"/>
       <c r="AB1044" s="63" t="n"/>
       <c r="AC1044" s="63" t="n"/>
+    </row>
+    <row r="1045">
+      <c r="E1045" s="63" t="n"/>
+      <c r="F1045" s="63" t="n"/>
+      <c r="G1045" s="64" t="n"/>
+      <c r="J1045" s="63" t="n"/>
+      <c r="K1045" s="63" t="n"/>
+      <c r="L1045" s="63" t="n"/>
+      <c r="W1045" s="63" t="n"/>
+      <c r="X1045" s="63" t="n"/>
+      <c r="Y1045" s="63" t="n"/>
+      <c r="Z1045" s="63" t="n"/>
+      <c r="AA1045" s="63" t="n"/>
+      <c r="AB1045" s="63" t="n"/>
+      <c r="AC1045" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$89"/>

--- a/dumps/Stocks/Syngene International Ltd.xlsx
+++ b/dumps/Stocks/Syngene International Ltd.xlsx
@@ -783,7 +783,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1045"/>
+  <dimension ref="A1:AP1048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="5">
       <c r="A5" s="99" t="n">
-        <v>45978</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1146,21 +1146,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>656.5</v>
+        <v>444.5</v>
       </c>
       <c r="F5" t="n">
-        <v>6597.8</v>
+        <v>2233.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>32.8</v>
+        <v>11.1</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="6">
       <c r="A6" s="99" t="n">
-        <v>45974</v>
+        <v>46049</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1182,21 +1182,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>669.9</v>
+        <v>505.2</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3366.25</v>
+        <v>5077.3</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>16.75</v>
+        <v>25.3</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1205,11 +1205,11 @@
     </row>
     <row r="7">
       <c r="A7" s="99" t="n">
-        <v>45957</v>
+        <v>45993</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1221,18 +1221,18 @@
         <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>661.54</v>
+        <v>638.9400000000001</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3324.25</v>
+        <v>3210.65</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>16.55</v>
+        <v>15.95</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="8">
       <c r="A8" s="99" t="n">
-        <v>46062</v>
+        <v>45978</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1254,24 +1254,21 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>449.8</v>
+        <v>656.5</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2264.94</v>
+        <v>6597.8</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>2.25</v>
+          <t>CN#252608260909</t>
+        </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>13.69</v>
+        <v>32.8</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1279,8 +1276,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="98" t="n">
-        <v>46057</v>
+      <c r="A9" s="99" t="n">
+        <v>45974</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1293,29 +1290,30 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>471.15</v>
+        <v>669.9</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4744.94</v>
+        <v>3366.25</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>4.72</v>
+          <t>CN#252608142538</t>
+        </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>28.72</v>
+        <v>16.75</v>
+      </c>
+      <c r="J9" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="98" t="n">
-        <v>46049</v>
+      <c r="A10" s="99" t="n">
+        <v>45957</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1328,29 +1326,30 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>505.2</v>
+        <v>661.54</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>508.8</v>
+        <v>3324.25</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0.51</v>
+          <t>CN#252607382790</t>
+        </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>3.09</v>
+        <v>16.55</v>
+      </c>
+      <c r="J10" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="98" t="n">
-        <v>46049</v>
+      <c r="A11" s="99" t="n">
+        <v>46062</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1363,29 +1362,33 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>505.2</v>
+        <v>449.8</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4579.07</v>
+        <v>2264.94</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>4.55</v>
+        <v>2.25</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>27.72</v>
+        <v>13.69</v>
+      </c>
+      <c r="J11" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="98" t="n">
-        <v>46044</v>
+        <v>46057</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1398,13 +1401,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>600.85</v>
+        <v>471.15</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3025.53</v>
+        <v>4744.94</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1412,15 +1415,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.01</v>
+        <v>4.72</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>18.27</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="98" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1433,13 +1436,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>626.75</v>
+        <v>505.2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3155.95</v>
+        <v>508.8</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1447,19 +1450,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.14</v>
+        <v>0.51</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>19.06</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="98" t="n">
-        <v>46015</v>
+        <v>46049</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1468,13 +1471,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>656.3</v>
+        <v>505.2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3304.76</v>
+        <v>4579.07</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1482,19 +1485,19 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.26</v>
+        <v>4.55</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>20</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="98" t="n">
-        <v>46014</v>
+        <v>46044</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1506,10 +1509,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>659.35</v>
+        <v>600.85</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3320.14</v>
+        <v>3025.53</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1517,19 +1520,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.29</v>
+        <v>3.01</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>20.1</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="98" t="n">
-        <v>45993</v>
+        <v>46034</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1538,13 +1541,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>638.9</v>
+        <v>626.75</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>643.4299999999999</v>
+        <v>3155.95</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1552,15 +1555,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.64</v>
+        <v>3.14</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>3.89</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="98" t="n">
-        <v>45993</v>
+        <v>46015</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1573,13 +1576,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>638.95</v>
+        <v>656.3</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2573.92</v>
+        <v>3304.76</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1587,15 +1590,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>2.57</v>
+        <v>3.26</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>15.55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="98" t="n">
-        <v>45989</v>
+        <v>46014</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1611,10 +1614,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>646.8</v>
+        <v>659.35</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3256.92</v>
+        <v>3320.14</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1622,19 +1625,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="98" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1643,13 +1646,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>638.5</v>
+        <v>638.9</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3215.11</v>
+        <v>643.4299999999999</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1657,19 +1660,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.19</v>
+        <v>0.64</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>19.42</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="98" t="n">
-        <v>45981</v>
+        <v>45993</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1678,13 +1681,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>634.35</v>
+        <v>638.95</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3194.23</v>
+        <v>2573.92</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1692,19 +1695,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>3.15</v>
+        <v>2.57</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>19.33</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="98" t="n">
-        <v>45978</v>
+        <v>45989</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1713,13 +1716,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>656.5</v>
+        <v>646.8</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4628.06</v>
+        <v>3256.92</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1727,15 +1730,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>4.62</v>
+        <v>3.22</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>27.94</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="98" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1748,13 +1751,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>656.5</v>
+        <v>638.5</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1322.29</v>
+        <v>3215.11</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1762,15 +1765,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1.31</v>
+        <v>3.19</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>7.98</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="98" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1783,13 +1786,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>656.5</v>
+        <v>634.35</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>661.16</v>
+        <v>3194.23</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1797,15 +1800,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.66</v>
+        <v>3.15</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>4</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="98" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1818,13 +1821,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>669.9</v>
+        <v>656.5</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2023.94</v>
+        <v>4628.06</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1832,15 +1835,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>2</v>
+        <v>4.62</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>12.24</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="98" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1853,13 +1856,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>669.9</v>
+        <v>656.5</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>674.64</v>
+        <v>1322.29</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1867,15 +1870,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.67</v>
+        <v>1.31</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>4.07</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="98" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1891,10 +1894,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>669.9</v>
+        <v>656.5</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>674.64</v>
+        <v>661.16</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1902,19 +1905,19 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>4.07</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="98" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1923,13 +1926,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>616.05</v>
+        <v>669.9</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3102.12</v>
+        <v>2023.94</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1937,15 +1940,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>3.08</v>
+        <v>2</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>18.79</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="98" t="n">
-        <v>45961</v>
+        <v>45974</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1958,13 +1961,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>656</v>
+        <v>669.9</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3303.23</v>
+        <v>674.64</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1972,15 +1975,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>3.27</v>
+        <v>0.67</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>19.96</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="98" t="n">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1993,13 +1996,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>658</v>
+        <v>669.9</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3313.29</v>
+        <v>674.64</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2007,19 +2010,19 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>3.28</v>
+        <v>0.67</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>20.01</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="98" t="n">
-        <v>45957</v>
+        <v>45968</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
@@ -2028,13 +2031,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>661.6</v>
+        <v>616.05</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>666.29</v>
+        <v>3102.12</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2042,15 +2045,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.66</v>
+        <v>3.08</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>4.03</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="98" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2063,13 +2066,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>661.5</v>
+        <v>656</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1998.58</v>
+        <v>3303.23</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2077,15 +2080,15 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1.99</v>
+        <v>3.27</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>12.09</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="98" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -2098,13 +2101,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>661.6</v>
+        <v>658</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>666.29</v>
+        <v>3313.29</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2112,19 +2115,19 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.66</v>
+        <v>3.28</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>4.03</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="98" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -2133,13 +2136,13 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>661.9</v>
+        <v>661.6</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>3332.98</v>
+        <v>666.29</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2147,15 +2150,15 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>3.31</v>
+        <v>0.66</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>20.17</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="98" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -2168,13 +2171,13 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>652.7</v>
+        <v>661.5</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>3286.6</v>
+        <v>1998.58</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2182,15 +2185,15 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>3.25</v>
+        <v>1.99</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>19.85</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="98" t="n">
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
@@ -2203,13 +2206,13 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>644</v>
+        <v>661.6</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>6485.66</v>
+        <v>666.29</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -2217,19 +2220,19 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>6.43</v>
+        <v>0.66</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>39.23</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="98" t="n">
-        <v>45947</v>
+        <v>45954</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
@@ -2238,13 +2241,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>636</v>
+        <v>661.9</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>6405.08</v>
+        <v>3332.98</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -2252,19 +2255,19 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>6.37</v>
+        <v>3.31</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>38.71</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="98" t="n">
-        <v>45897</v>
+        <v>45953</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
@@ -2276,323 +2279,131 @@
         <v>5</v>
       </c>
       <c r="E37" s="0" t="n">
+        <v>652.7</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>3286.6</v>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>19.85</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="98" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>644</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>6485.66</v>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>39.23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="98" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>636</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>6405.08</v>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="98" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" s="0" t="n">
         <v>641.2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F40" s="0" t="n">
         <v>3228.8</v>
       </c>
-      <c r="G37" s="0" t="inlineStr">
+      <c r="G40" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H40" s="0" t="n">
         <v>3.21</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I40" s="0" t="n">
         <v>19.59</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B38" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C38" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D38" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E38" s="41" t="n">
-        <v>648.5700000000001</v>
-      </c>
-      <c r="F38" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G38" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H38" s="40" t="n"/>
-      <c r="I38" s="40" t="n"/>
-      <c r="J38" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K38" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L38" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M38" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N38" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O38" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P38" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q38" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R38" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S38" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T38" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U38" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V38" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W38" s="47" t="n"/>
-      <c r="X38" s="47" t="n"/>
-      <c r="Y38" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z38" s="47" t="n"/>
-      <c r="AA38" s="47" t="n"/>
-      <c r="AB38" s="48" t="n"/>
-      <c r="AC38" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD38" s="49" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="38" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B39" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C39" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D39" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E39" s="41" t="n">
-        <v>640.51</v>
-      </c>
-      <c r="F39" s="41">
-        <f>D6*E6</f>
-        <v/>
-      </c>
-      <c r="G39" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H39" s="40" t="n"/>
-      <c r="I39" s="40" t="n"/>
-      <c r="J39" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K39" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L39" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M39" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N39" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O39" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P39" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q39" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R39" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S39" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T39" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U39" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V39" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W39" s="47" t="n"/>
-      <c r="X39" s="47" t="n"/>
-      <c r="Y39" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z39" s="47" t="n"/>
-      <c r="AA39" s="47" t="n"/>
-      <c r="AB39" s="48" t="n"/>
-      <c r="AC39" s="44">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD39" s="49" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="38" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B40" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C40" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D40" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="E40" s="41" t="n">
-        <v>645.76</v>
-      </c>
-      <c r="F40" s="41" t="n">
-        <v>3228.8</v>
-      </c>
-      <c r="G40" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H40" s="40" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="I40" s="40" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="J40" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K40" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L40" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M40" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N40" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O40" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P40" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q40" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R40" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S40" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T40" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U40" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V40" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W40" s="47" t="n"/>
-      <c r="X40" s="47" t="n"/>
-      <c r="Y40" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z40" s="47" t="n"/>
-      <c r="AA40" s="47" t="n"/>
-      <c r="AB40" s="48" t="n"/>
-      <c r="AC40" s="44">
-        <f>if(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="38" t="n">
-        <v>45855</v>
+        <v>45950</v>
       </c>
       <c r="B41" s="39" t="inlineStr">
         <is>
@@ -2605,99 +2416,96 @@
         </is>
       </c>
       <c r="D41" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E41" s="41" t="n">
-        <v>680</v>
-      </c>
-      <c r="F41" s="41" t="n">
-        <v>3399.98</v>
+        <v>648.5700000000001</v>
+      </c>
+      <c r="F41" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G41" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="40" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="I41" s="40" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="H41" s="40" t="n"/>
+      <c r="I41" s="40" t="n"/>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="38" t="n">
-        <v>45835</v>
+        <v>45947</v>
       </c>
       <c r="B42" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C42" s="39" t="inlineStr">
@@ -2709,395 +2517,392 @@
         <v>10</v>
       </c>
       <c r="E42" s="41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F42" s="41" t="n">
-        <v>12.5</v>
+        <v>640.51</v>
+      </c>
+      <c r="F42" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G42" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
-        </is>
-      </c>
-      <c r="H42" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="40" t="n">
-        <v>0</v>
-      </c>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H42" s="40" t="n"/>
+      <c r="I42" s="40" t="n"/>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD42" s="49" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="50" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B43" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C43" s="51" t="inlineStr">
+      <c r="A43" s="38" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B43" s="39" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C43" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D43" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="F43" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="G43" s="51" t="inlineStr">
+      <c r="D43" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" s="41" t="n">
+        <v>645.76</v>
+      </c>
+      <c r="F43" s="41" t="n">
+        <v>3228.8</v>
+      </c>
+      <c r="G43" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H43" s="52" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I43" s="52" t="n">
-        <v>4.14</v>
+      <c r="H43" s="40" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="I43" s="40" t="n">
+        <v>19.59</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W43" s="47" t="n"/>
       <c r="X43" s="47" t="n"/>
       <c r="Y43" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z43" s="47" t="n"/>
       <c r="AA43" s="47" t="n"/>
       <c r="AB43" s="48" t="n"/>
       <c r="AC43" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD43" s="49" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="50" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B44" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C44" s="51" t="inlineStr">
+      <c r="A44" s="38" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B44" s="39" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C44" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D44" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="F44" s="53" t="n">
-        <v>1367.94</v>
-      </c>
-      <c r="G44" s="51" t="inlineStr">
+      <c r="D44" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" s="41" t="n">
+        <v>680</v>
+      </c>
+      <c r="F44" s="41" t="n">
+        <v>3399.98</v>
+      </c>
+      <c r="G44" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H44" s="52" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I44" s="52" t="n">
-        <v>8.27</v>
+      <c r="H44" s="40" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="I44" s="40" t="n">
+        <v>20.6</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W44" s="47" t="n"/>
       <c r="X44" s="47" t="n"/>
       <c r="Y44" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z44" s="47" t="n"/>
       <c r="AA44" s="47" t="n"/>
       <c r="AB44" s="48" t="n"/>
       <c r="AC44" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD44" s="49" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="50" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B45" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C45" s="51" t="inlineStr">
+      <c r="A45" s="38" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B45" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C45" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D45" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="E45" s="53" t="n">
-        <v>664.02</v>
-      </c>
-      <c r="F45" s="53" t="n">
-        <v>3320.12</v>
-      </c>
-      <c r="G45" s="51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H45" s="52" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="I45" s="52" t="n">
-        <v>20.08</v>
+      <c r="D45" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" s="41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F45" s="41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G45" s="39" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+        </is>
+      </c>
+      <c r="H45" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="40" t="n">
+        <v>0</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W45" s="47" t="n"/>
       <c r="X45" s="47" t="n"/>
       <c r="Y45" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z45" s="47" t="n"/>
       <c r="AA45" s="47" t="n"/>
       <c r="AB45" s="48" t="n"/>
       <c r="AC45" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD45" s="49" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="50" t="n">
-        <v>45694</v>
+        <v>45722</v>
       </c>
       <c r="B46" s="51" t="inlineStr">
         <is>
@@ -3110,13 +2915,13 @@
         </is>
       </c>
       <c r="D46" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="53" t="n">
-        <v>751.83</v>
+        <v>683.97</v>
       </c>
       <c r="F46" s="53" t="n">
-        <v>1503.66</v>
+        <v>683.97</v>
       </c>
       <c r="G46" s="51" t="inlineStr">
         <is>
@@ -3124,81 +2929,81 @@
         </is>
       </c>
       <c r="H46" s="52" t="n">
-        <v>1.49</v>
+        <v>0.68</v>
       </c>
       <c r="I46" s="52" t="n">
-        <v>9.07</v>
+        <v>4.14</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W46" s="47" t="n"/>
       <c r="X46" s="47" t="n"/>
       <c r="Y46" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z46" s="47" t="n"/>
       <c r="AA46" s="47" t="n"/>
       <c r="AB46" s="48" t="n"/>
       <c r="AC46" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD46" s="49" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="50" t="n">
-        <v>44084</v>
+        <v>45722</v>
       </c>
       <c r="B47" s="51" t="inlineStr">
         <is>
@@ -3207,17 +3012,17 @@
       </c>
       <c r="C47" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D47" s="52" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E47" s="53" t="n">
-        <v>481.64</v>
+        <v>683.97</v>
       </c>
       <c r="F47" s="53" t="n">
-        <v>24081.77</v>
+        <v>1367.94</v>
       </c>
       <c r="G47" s="51" t="inlineStr">
         <is>
@@ -3225,81 +3030,81 @@
         </is>
       </c>
       <c r="H47" s="52" t="n">
-        <v>22.15</v>
+        <v>1.37</v>
       </c>
       <c r="I47" s="52" t="n">
-        <v>146.08</v>
+        <v>8.27</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W47" s="47" t="n"/>
       <c r="X47" s="47" t="n"/>
       <c r="Y47" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z47" s="47" t="n"/>
       <c r="AA47" s="47" t="n"/>
       <c r="AB47" s="48" t="n"/>
       <c r="AC47" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD47" s="49" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="50" t="n">
-        <v>44075</v>
+        <v>45716</v>
       </c>
       <c r="B48" s="51" t="inlineStr">
         <is>
@@ -3308,17 +3113,17 @@
       </c>
       <c r="C48" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D48" s="52" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E48" s="53" t="n">
-        <v>476.52</v>
+        <v>664.02</v>
       </c>
       <c r="F48" s="53" t="n">
-        <v>28591.3</v>
+        <v>3320.12</v>
       </c>
       <c r="G48" s="51" t="inlineStr">
         <is>
@@ -3326,81 +3131,81 @@
         </is>
       </c>
       <c r="H48" s="52" t="n">
-        <v>29</v>
+        <v>3.29</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>170.7</v>
+        <v>20.08</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W48" s="47" t="n"/>
       <c r="X48" s="47" t="n"/>
       <c r="Y48" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z48" s="47" t="n"/>
       <c r="AA48" s="47" t="n"/>
       <c r="AB48" s="48" t="n"/>
       <c r="AC48" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD48" s="49" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="50" t="n">
-        <v>44060</v>
+        <v>45694</v>
       </c>
       <c r="B49" s="51" t="inlineStr">
         <is>
@@ -3409,17 +3214,17 @@
       </c>
       <c r="C49" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D49" s="52" t="n">
-        <v>50</v>
-      </c>
-      <c r="E49" s="54" t="n">
-        <v>484.77</v>
+        <v>2</v>
+      </c>
+      <c r="E49" s="53" t="n">
+        <v>751.83</v>
       </c>
       <c r="F49" s="53" t="n">
-        <v>24238.46</v>
+        <v>1503.66</v>
       </c>
       <c r="G49" s="51" t="inlineStr">
         <is>
@@ -3427,81 +3232,81 @@
         </is>
       </c>
       <c r="H49" s="52" t="n">
-        <v>22.16</v>
+        <v>1.49</v>
       </c>
       <c r="I49" s="52" t="n">
-        <v>146.28</v>
+        <v>9.07</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W49" s="47" t="n"/>
       <c r="X49" s="47" t="n"/>
       <c r="Y49" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z49" s="47" t="n"/>
       <c r="AA49" s="47" t="n"/>
       <c r="AB49" s="48" t="n"/>
       <c r="AC49" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD49" s="49" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="50" t="n">
-        <v>44055</v>
+        <v>44084</v>
       </c>
       <c r="B50" s="51" t="inlineStr">
         <is>
@@ -3516,11 +3321,11 @@
       <c r="D50" s="52" t="n">
         <v>50</v>
       </c>
-      <c r="E50" s="54" t="n">
-        <v>489.63</v>
+      <c r="E50" s="53" t="n">
+        <v>481.64</v>
       </c>
       <c r="F50" s="53" t="n">
-        <v>24481.54</v>
+        <v>24081.77</v>
       </c>
       <c r="G50" s="51" t="inlineStr">
         <is>
@@ -3528,81 +3333,81 @@
         </is>
       </c>
       <c r="H50" s="52" t="n">
-        <v>24.74</v>
+        <v>22.15</v>
       </c>
       <c r="I50" s="52" t="n">
-        <v>148.72</v>
+        <v>146.08</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W50" s="47" t="n"/>
       <c r="X50" s="47" t="n"/>
       <c r="Y50" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z50" s="47" t="n"/>
       <c r="AA50" s="47" t="n"/>
       <c r="AB50" s="48" t="n"/>
       <c r="AC50" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD50" s="49" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="50" t="n">
-        <v>44050</v>
+        <v>44075</v>
       </c>
       <c r="B51" s="51" t="inlineStr">
         <is>
@@ -3615,13 +3420,13 @@
         </is>
       </c>
       <c r="D51" s="52" t="n">
-        <v>50</v>
-      </c>
-      <c r="E51" s="54" t="n">
-        <v>470.08</v>
+        <v>60</v>
+      </c>
+      <c r="E51" s="53" t="n">
+        <v>476.52</v>
       </c>
       <c r="F51" s="53" t="n">
-        <v>23504.1</v>
+        <v>28591.3</v>
       </c>
       <c r="G51" s="51" t="inlineStr">
         <is>
@@ -3629,81 +3434,81 @@
         </is>
       </c>
       <c r="H51" s="52" t="n">
-        <v>23.54</v>
+        <v>29</v>
       </c>
       <c r="I51" s="52" t="n">
-        <v>142.36</v>
+        <v>170.7</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W51" s="47" t="n"/>
       <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z51" s="47" t="n"/>
       <c r="AA51" s="47" t="n"/>
       <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD51" s="49" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="50" t="n">
-        <v>44049</v>
+        <v>44060</v>
       </c>
       <c r="B52" s="51" t="inlineStr">
         <is>
@@ -3719,10 +3524,10 @@
         <v>50</v>
       </c>
       <c r="E52" s="54" t="n">
-        <v>467.35</v>
+        <v>484.77</v>
       </c>
       <c r="F52" s="53" t="n">
-        <v>23367.41</v>
+        <v>24238.46</v>
       </c>
       <c r="G52" s="51" t="inlineStr">
         <is>
@@ -3730,81 +3535,81 @@
         </is>
       </c>
       <c r="H52" s="52" t="n">
-        <v>23.55</v>
+        <v>22.16</v>
       </c>
       <c r="I52" s="52" t="n">
-        <v>141.54</v>
+        <v>146.28</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W52" s="47" t="n"/>
       <c r="X52" s="47" t="n"/>
       <c r="Y52" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z52" s="47" t="n"/>
       <c r="AA52" s="47" t="n"/>
       <c r="AB52" s="48" t="n"/>
       <c r="AC52" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD52" s="49" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="50" t="n">
-        <v>44048</v>
+        <v>44055</v>
       </c>
       <c r="B53" s="51" t="inlineStr">
         <is>
@@ -3816,14 +3621,14 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="D53" s="55" t="n">
+      <c r="D53" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E53" s="54" t="n">
-        <v>464.04</v>
+        <v>489.63</v>
       </c>
       <c r="F53" s="53" t="n">
-        <v>23201.97</v>
+        <v>24481.54</v>
       </c>
       <c r="G53" s="51" t="inlineStr">
         <is>
@@ -3831,81 +3636,81 @@
         </is>
       </c>
       <c r="H53" s="52" t="n">
-        <v>23.34</v>
+        <v>24.74</v>
       </c>
       <c r="I53" s="52" t="n">
-        <v>139.69</v>
+        <v>148.72</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W53" s="47" t="n"/>
       <c r="X53" s="47" t="n"/>
       <c r="Y53" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z53" s="47" t="n"/>
       <c r="AA53" s="47" t="n"/>
       <c r="AB53" s="48" t="n"/>
       <c r="AC53" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD53" s="49" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="50" t="n">
-        <v>44042</v>
+        <v>44050</v>
       </c>
       <c r="B54" s="51" t="inlineStr">
         <is>
@@ -3917,14 +3722,14 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="D54" s="55" t="n">
+      <c r="D54" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E54" s="54" t="n">
-        <v>475.72</v>
+        <v>470.08</v>
       </c>
       <c r="F54" s="53" t="n">
-        <v>23785.87</v>
+        <v>23504.1</v>
       </c>
       <c r="G54" s="51" t="inlineStr">
         <is>
@@ -3932,81 +3737,81 @@
         </is>
       </c>
       <c r="H54" s="52" t="n">
-        <v>24.24</v>
+        <v>23.54</v>
       </c>
       <c r="I54" s="52" t="n">
-        <v>142.39</v>
+        <v>142.36</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W54" s="47" t="n"/>
       <c r="X54" s="47" t="n"/>
       <c r="Y54" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z54" s="47" t="n"/>
       <c r="AA54" s="47" t="n"/>
       <c r="AB54" s="48" t="n"/>
       <c r="AC54" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD54" s="49" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="50" t="n">
-        <v>44041</v>
+        <v>44049</v>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
@@ -4018,14 +3823,14 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="D55" s="55" t="n">
+      <c r="D55" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E55" s="54" t="n">
-        <v>471.75</v>
+        <v>467.35</v>
       </c>
       <c r="F55" s="53" t="n">
-        <v>23587.4</v>
+        <v>23367.41</v>
       </c>
       <c r="G55" s="51" t="inlineStr">
         <is>
@@ -4033,81 +3838,81 @@
         </is>
       </c>
       <c r="H55" s="52" t="n">
-        <v>24</v>
+        <v>23.55</v>
       </c>
       <c r="I55" s="52" t="n">
-        <v>141.1</v>
+        <v>141.54</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L55" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M55" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N55" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P55" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R55" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S55" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T55" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U55" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V55" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W55" s="47" t="n"/>
       <c r="X55" s="47" t="n"/>
       <c r="Y55" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z55" s="47" t="n"/>
       <c r="AA55" s="47" t="n"/>
       <c r="AB55" s="48" t="n"/>
       <c r="AC55" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD55" s="49" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="50" t="n">
-        <v>44039</v>
+        <v>44048</v>
       </c>
       <c r="B56" s="51" t="inlineStr">
         <is>
@@ -4123,10 +3928,10 @@
         <v>50</v>
       </c>
       <c r="E56" s="54" t="n">
-        <v>464.48</v>
+        <v>464.04</v>
       </c>
       <c r="F56" s="53" t="n">
-        <v>23224.05</v>
+        <v>23201.97</v>
       </c>
       <c r="G56" s="51" t="inlineStr">
         <is>
@@ -4134,81 +3939,81 @@
         </is>
       </c>
       <c r="H56" s="52" t="n">
-        <v>23</v>
+        <v>23.34</v>
       </c>
       <c r="I56" s="52" t="n">
-        <v>138.9</v>
+        <v>139.69</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L56" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M56" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N56" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O56" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P56" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R56" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S56" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T56" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U56" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V56" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W56" s="47" t="n"/>
       <c r="X56" s="47" t="n"/>
       <c r="Y56" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z56" s="47" t="n"/>
       <c r="AA56" s="47" t="n"/>
       <c r="AB56" s="48" t="n"/>
       <c r="AC56" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD56" s="49" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="50" t="n">
-        <v>44036</v>
+        <v>44042</v>
       </c>
       <c r="B57" s="51" t="inlineStr">
         <is>
@@ -4224,10 +4029,10 @@
         <v>50</v>
       </c>
       <c r="E57" s="54" t="n">
-        <v>447.39</v>
+        <v>475.72</v>
       </c>
       <c r="F57" s="53" t="n">
-        <v>22369.41</v>
+        <v>23785.87</v>
       </c>
       <c r="G57" s="51" t="inlineStr">
         <is>
@@ -4235,81 +4040,81 @@
         </is>
       </c>
       <c r="H57" s="52" t="n">
-        <v>22.73</v>
+        <v>24.24</v>
       </c>
       <c r="I57" s="52" t="n">
-        <v>135.36</v>
+        <v>142.39</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L57" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M57" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N57" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O57" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P57" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R57" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S57" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T57" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U57" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V57" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W57" s="47" t="n"/>
       <c r="X57" s="47" t="n"/>
       <c r="Y57" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z57" s="47" t="n"/>
       <c r="AA57" s="47" t="n"/>
       <c r="AB57" s="48" t="n"/>
       <c r="AC57" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD57" s="49" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="50" t="n">
-        <v>44025</v>
+        <v>44041</v>
       </c>
       <c r="B58" s="51" t="inlineStr">
         <is>
@@ -4325,10 +4130,10 @@
         <v>50</v>
       </c>
       <c r="E58" s="54" t="n">
-        <v>437.94</v>
+        <v>471.75</v>
       </c>
       <c r="F58" s="53" t="n">
-        <v>21896.98</v>
+        <v>23587.4</v>
       </c>
       <c r="G58" s="51" t="inlineStr">
         <is>
@@ -4336,81 +4141,81 @@
         </is>
       </c>
       <c r="H58" s="52" t="n">
-        <v>21.87</v>
+        <v>24</v>
       </c>
       <c r="I58" s="52" t="n">
-        <v>131.15</v>
+        <v>141.1</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K58" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L58" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M58" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N58" s="45">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O58" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P58" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R58" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S58" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T58" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U58" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V58" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W58" s="47" t="n"/>
       <c r="X58" s="47" t="n"/>
       <c r="Y58" s="46">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z58" s="47" t="n"/>
       <c r="AA58" s="47" t="n"/>
       <c r="AB58" s="48" t="n"/>
       <c r="AC58" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD58" s="49" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="50" t="n">
-        <v>43881</v>
+        <v>44039</v>
       </c>
       <c r="B59" s="51" t="inlineStr">
         <is>
@@ -4419,17 +4224,17 @@
       </c>
       <c r="C59" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D59" s="52" t="n">
-        <v>10</v>
-      </c>
-      <c r="E59" s="53" t="n">
-        <v>310.47</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D59" s="55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E59" s="54" t="n">
+        <v>464.48</v>
       </c>
       <c r="F59" s="53" t="n">
-        <v>3104.69</v>
+        <v>23224.05</v>
       </c>
       <c r="G59" s="51" t="inlineStr">
         <is>
@@ -4437,97 +4242,81 @@
         </is>
       </c>
       <c r="H59" s="52" t="n">
-        <v>3.12</v>
+        <v>23</v>
       </c>
       <c r="I59" s="52" t="n">
-        <v>18.57</v>
+        <v>138.9</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K59" s="47" t="n"/>
-      <c r="L59" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="M59" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
-        <v/>
-      </c>
-      <c r="N59" s="57">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
-        <v/>
-      </c>
-      <c r="O59" s="56" t="n"/>
-      <c r="P59" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="Q59" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
-        <v/>
-      </c>
-      <c r="R59" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="S59" s="56" t="n"/>
-      <c r="T59" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
-        <v/>
-      </c>
-      <c r="U59" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
-        <v/>
-      </c>
-      <c r="V59" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W59" s="53" t="n">
-        <v>476.52</v>
-      </c>
-      <c r="X59" s="50" t="n">
-        <v>44075</v>
-      </c>
+      <c r="K59" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="L59" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="M59" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <v/>
+      </c>
+      <c r="N59" s="45">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O59" s="43">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="P59" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="Q59" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <v/>
+      </c>
+      <c r="R59" s="44">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="S59" s="46">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="T59" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <v/>
+      </c>
+      <c r="U59" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <v/>
+      </c>
+      <c r="V59" s="47">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <v/>
+      </c>
+      <c r="W59" s="47" t="n"/>
+      <c r="X59" s="47" t="n"/>
       <c r="Y59" s="46">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z59" s="58">
-        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
-        <v/>
-      </c>
-      <c r="AA59" s="58">
-        <f>((E26*D26)+Z26)</f>
-        <v/>
-      </c>
-      <c r="AB59" s="59">
-        <f>D26</f>
-        <v/>
-      </c>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="47" t="n"/>
+      <c r="AA59" s="47" t="n"/>
+      <c r="AB59" s="48" t="n"/>
       <c r="AC59" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD59" s="49" t="n"/>
-      <c r="AE59" s="60" t="n"/>
-      <c r="AF59" s="60" t="n"/>
-      <c r="AG59" s="60" t="n"/>
-      <c r="AH59" s="60" t="n"/>
-      <c r="AI59" s="60" t="n"/>
-      <c r="AJ59" s="60" t="n"/>
-      <c r="AK59" s="60" t="n"/>
-      <c r="AL59" s="60" t="n"/>
-      <c r="AM59" s="60" t="n"/>
-      <c r="AN59" s="60" t="n"/>
-      <c r="AO59" s="60" t="n"/>
-      <c r="AP59" s="60" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="50" t="n">
-        <v>43865</v>
+        <v>44036</v>
       </c>
       <c r="B60" s="51" t="inlineStr">
         <is>
@@ -4536,17 +4325,17 @@
       </c>
       <c r="C60" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D60" s="52" t="n">
-        <v>10</v>
-      </c>
-      <c r="E60" s="53" t="n">
-        <v>315.21</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D60" s="55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E60" s="54" t="n">
+        <v>447.39</v>
       </c>
       <c r="F60" s="53" t="n">
-        <v>3152.1</v>
+        <v>22369.41</v>
       </c>
       <c r="G60" s="51" t="inlineStr">
         <is>
@@ -4554,97 +4343,81 @@
         </is>
       </c>
       <c r="H60" s="52" t="n">
-        <v>3.19</v>
+        <v>22.73</v>
       </c>
       <c r="I60" s="52" t="n">
-        <v>18.91</v>
+        <v>135.36</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K60" s="47" t="n"/>
-      <c r="L60" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
-        <v/>
-      </c>
-      <c r="M60" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
-        <v/>
-      </c>
-      <c r="N60" s="57">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
-        <v/>
-      </c>
-      <c r="O60" s="56" t="n"/>
-      <c r="P60" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
-        <v/>
-      </c>
-      <c r="Q60" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
-        <v/>
-      </c>
-      <c r="R60" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
-        <v/>
-      </c>
-      <c r="S60" s="56" t="n"/>
-      <c r="T60" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
-        <v/>
-      </c>
-      <c r="U60" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
-        <v/>
-      </c>
-      <c r="V60" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
-        <v/>
-      </c>
-      <c r="W60" s="53" t="n">
-        <v>476.52</v>
-      </c>
-      <c r="X60" s="50" t="n">
-        <v>44075</v>
-      </c>
+      <c r="K60" s="43">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="L60" s="44">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="M60" s="44">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <v/>
+      </c>
+      <c r="N60" s="45">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <v/>
+      </c>
+      <c r="O60" s="43">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="P60" s="44">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="Q60" s="44">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <v/>
+      </c>
+      <c r="R60" s="44">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="S60" s="46">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="T60" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <v/>
+      </c>
+      <c r="U60" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <v/>
+      </c>
+      <c r="V60" s="47">
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <v/>
+      </c>
+      <c r="W60" s="47" t="n"/>
+      <c r="X60" s="47" t="n"/>
       <c r="Y60" s="46">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
-        <v/>
-      </c>
-      <c r="Z60" s="58">
-        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
-        <v/>
-      </c>
-      <c r="AA60" s="58">
-        <f>((E27*D27)+Z27)</f>
-        <v/>
-      </c>
-      <c r="AB60" s="59">
-        <f>D27</f>
-        <v/>
-      </c>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <v/>
+      </c>
+      <c r="Z60" s="47" t="n"/>
+      <c r="AA60" s="47" t="n"/>
+      <c r="AB60" s="48" t="n"/>
       <c r="AC60" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD60" s="49" t="n"/>
-      <c r="AE60" s="60" t="n"/>
-      <c r="AF60" s="60" t="n"/>
-      <c r="AG60" s="60" t="n"/>
-      <c r="AH60" s="60" t="n"/>
-      <c r="AI60" s="60" t="n"/>
-      <c r="AJ60" s="60" t="n"/>
-      <c r="AK60" s="60" t="n"/>
-      <c r="AL60" s="60" t="n"/>
-      <c r="AM60" s="60" t="n"/>
-      <c r="AN60" s="60" t="n"/>
-      <c r="AO60" s="60" t="n"/>
-      <c r="AP60" s="60" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="50" t="n">
-        <v>43864</v>
+        <v>44025</v>
       </c>
       <c r="B61" s="51" t="inlineStr">
         <is>
@@ -4653,17 +4426,17 @@
       </c>
       <c r="C61" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D61" s="52" t="n">
-        <v>10</v>
-      </c>
-      <c r="E61" s="53" t="n">
-        <v>318.07</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D61" s="55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E61" s="54" t="n">
+        <v>437.94</v>
       </c>
       <c r="F61" s="53" t="n">
-        <v>3180.66</v>
+        <v>21896.98</v>
       </c>
       <c r="G61" s="51" t="inlineStr">
         <is>
@@ -4671,97 +4444,81 @@
         </is>
       </c>
       <c r="H61" s="52" t="n">
-        <v>3.16</v>
+        <v>21.87</v>
       </c>
       <c r="I61" s="52" t="n">
-        <v>19</v>
+        <v>131.15</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K61" s="47" t="n"/>
-      <c r="L61" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
-        <v/>
-      </c>
-      <c r="M61" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
-        <v/>
-      </c>
-      <c r="N61" s="57">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
-        <v/>
-      </c>
-      <c r="O61" s="56" t="n"/>
-      <c r="P61" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
-        <v/>
-      </c>
-      <c r="Q61" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
-        <v/>
-      </c>
-      <c r="R61" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
-        <v/>
-      </c>
-      <c r="S61" s="56" t="n"/>
-      <c r="T61" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
-        <v/>
-      </c>
-      <c r="U61" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
-        <v/>
-      </c>
-      <c r="V61" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
-        <v/>
-      </c>
-      <c r="W61" s="53" t="n">
-        <v>476.52</v>
-      </c>
-      <c r="X61" s="50" t="n">
-        <v>44075</v>
-      </c>
+      <c r="K61" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L61" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M61" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N61" s="45">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O61" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P61" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q61" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R61" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S61" s="46">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T61" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U61" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V61" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W61" s="47" t="n"/>
+      <c r="X61" s="47" t="n"/>
       <c r="Y61" s="46">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
-        <v/>
-      </c>
-      <c r="Z61" s="58">
-        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
-        <v/>
-      </c>
-      <c r="AA61" s="58">
-        <f>((E28*D28)+Z28)</f>
-        <v/>
-      </c>
-      <c r="AB61" s="59">
-        <f>D28</f>
-        <v/>
-      </c>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z61" s="47" t="n"/>
+      <c r="AA61" s="47" t="n"/>
+      <c r="AB61" s="48" t="n"/>
       <c r="AC61" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD61" s="49" t="n"/>
-      <c r="AE61" s="60" t="n"/>
-      <c r="AF61" s="60" t="n"/>
-      <c r="AG61" s="60" t="n"/>
-      <c r="AH61" s="60" t="n"/>
-      <c r="AI61" s="60" t="n"/>
-      <c r="AJ61" s="60" t="n"/>
-      <c r="AK61" s="60" t="n"/>
-      <c r="AL61" s="60" t="n"/>
-      <c r="AM61" s="60" t="n"/>
-      <c r="AN61" s="60" t="n"/>
-      <c r="AO61" s="60" t="n"/>
-      <c r="AP61" s="60" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="50" t="n">
-        <v>43860</v>
+        <v>43881</v>
       </c>
       <c r="B62" s="51" t="inlineStr">
         <is>
@@ -4777,10 +4534,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="53" t="n">
-        <v>314.54</v>
+        <v>310.47</v>
       </c>
       <c r="F62" s="53" t="n">
-        <v>3145.39</v>
+        <v>3104.69</v>
       </c>
       <c r="G62" s="51" t="inlineStr">
         <is>
@@ -4788,10 +4545,10 @@
         </is>
       </c>
       <c r="H62" s="52" t="n">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="I62" s="52" t="n">
-        <v>18.81</v>
+        <v>18.57</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -4799,67 +4556,67 @@
       </c>
       <c r="K62" s="47" t="n"/>
       <c r="L62" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M62" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N62" s="57">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O62" s="56" t="n"/>
       <c r="P62" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R62" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S62" s="56" t="n"/>
       <c r="T62" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U62" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V62" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W62" s="53" t="n">
-        <v>489.63</v>
+        <v>476.52</v>
       </c>
       <c r="X62" s="50" t="n">
-        <v>44055</v>
+        <v>44075</v>
       </c>
       <c r="Y62" s="46">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z62" s="58">
-        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
+        <f>(1-Index!$F$2*2)*((W26*D26)-(E26*D26))</f>
         <v/>
       </c>
       <c r="AA62" s="58">
-        <f>((E29*D29)+Z29)</f>
+        <f>((E26*D26)+Z26)</f>
         <v/>
       </c>
       <c r="AB62" s="59">
-        <f>D29</f>
+        <f>D26</f>
         <v/>
       </c>
       <c r="AC62" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD62" s="49" t="n"/>
@@ -4878,7 +4635,7 @@
     </row>
     <row r="63">
       <c r="A63" s="50" t="n">
-        <v>43846</v>
+        <v>43865</v>
       </c>
       <c r="B63" s="51" t="inlineStr">
         <is>
@@ -4894,10 +4651,10 @@
         <v>10</v>
       </c>
       <c r="E63" s="53" t="n">
-        <v>312.23</v>
+        <v>315.21</v>
       </c>
       <c r="F63" s="53" t="n">
-        <v>3122.32</v>
+        <v>3152.1</v>
       </c>
       <c r="G63" s="51" t="inlineStr">
         <is>
@@ -4905,10 +4662,10 @@
         </is>
       </c>
       <c r="H63" s="52" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="I63" s="52" t="n">
-        <v>18.66</v>
+        <v>18.91</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
@@ -4916,67 +4673,67 @@
       </c>
       <c r="K63" s="47" t="n"/>
       <c r="L63" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M63" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N63" s="57">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O63" s="56" t="n"/>
       <c r="P63" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R63" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S63" s="56" t="n"/>
       <c r="T63" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U63" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V63" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W63" s="53" t="n">
-        <v>470.08</v>
+        <v>476.52</v>
       </c>
       <c r="X63" s="50" t="n">
-        <v>44050</v>
+        <v>44075</v>
       </c>
       <c r="Y63" s="46">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z63" s="58">
-        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
+        <f>(1-Index!$F$2*2)*((W27*D27)-(E27*D27))</f>
         <v/>
       </c>
       <c r="AA63" s="58">
-        <f>((E30*D30)+Z30)</f>
+        <f>((E27*D27)+Z27)</f>
         <v/>
       </c>
       <c r="AB63" s="59">
-        <f>D30</f>
+        <f>D27</f>
         <v/>
       </c>
       <c r="AC63" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD63" s="49" t="n"/>
@@ -4995,7 +4752,7 @@
     </row>
     <row r="64">
       <c r="A64" s="50" t="n">
-        <v>43845</v>
+        <v>43864</v>
       </c>
       <c r="B64" s="51" t="inlineStr">
         <is>
@@ -5008,13 +4765,13 @@
         </is>
       </c>
       <c r="D64" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E64" s="53" t="n">
-        <v>311.98</v>
+        <v>318.07</v>
       </c>
       <c r="F64" s="53" t="n">
-        <v>6239.57</v>
+        <v>3180.66</v>
       </c>
       <c r="G64" s="51" t="inlineStr">
         <is>
@@ -5022,10 +4779,10 @@
         </is>
       </c>
       <c r="H64" s="52" t="n">
-        <v>6.22</v>
+        <v>3.16</v>
       </c>
       <c r="I64" s="52" t="n">
-        <v>37.35</v>
+        <v>19</v>
       </c>
       <c r="J64" s="42">
         <f>Index!$C$2</f>
@@ -5033,67 +4790,67 @@
       </c>
       <c r="K64" s="47" t="n"/>
       <c r="L64" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M64" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N64" s="57">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O64" s="56" t="n"/>
       <c r="P64" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R64" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S64" s="56" t="n"/>
       <c r="T64" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U64" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V64" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W64" s="53" t="n">
-        <v>489.63</v>
+        <v>476.52</v>
       </c>
       <c r="X64" s="50" t="n">
-        <v>44055</v>
+        <v>44075</v>
       </c>
       <c r="Y64" s="46">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z64" s="58">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
+        <f>(1-Index!$F$2*2)*((W28*D28)-(E28*D28))</f>
         <v/>
       </c>
       <c r="AA64" s="58">
-        <f>((E31*D31)+Z31)</f>
+        <f>((E28*D28)+Z28)</f>
         <v/>
       </c>
       <c r="AB64" s="59">
-        <f>D31</f>
+        <f>D28</f>
         <v/>
       </c>
       <c r="AC64" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD64" s="49" t="n"/>
@@ -5112,7 +4869,7 @@
     </row>
     <row r="65">
       <c r="A65" s="50" t="n">
-        <v>43844</v>
+        <v>43860</v>
       </c>
       <c r="B65" s="51" t="inlineStr">
         <is>
@@ -5125,13 +4882,13 @@
         </is>
       </c>
       <c r="D65" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E65" s="53" t="n">
-        <v>313.54</v>
+        <v>314.54</v>
       </c>
       <c r="F65" s="53" t="n">
-        <v>6270.73</v>
+        <v>3145.39</v>
       </c>
       <c r="G65" s="51" t="inlineStr">
         <is>
@@ -5139,10 +4896,10 @@
         </is>
       </c>
       <c r="H65" s="52" t="n">
-        <v>6.19</v>
+        <v>3.08</v>
       </c>
       <c r="I65" s="52" t="n">
-        <v>37.54</v>
+        <v>18.81</v>
       </c>
       <c r="J65" s="42">
         <f>Index!$C$2</f>
@@ -5150,41 +4907,41 @@
       </c>
       <c r="K65" s="47" t="n"/>
       <c r="L65" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M65" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N65" s="57">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O65" s="56" t="n"/>
       <c r="P65" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R65" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S65" s="56" t="n"/>
       <c r="T65" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U65" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V65" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W65" s="53" t="n">
@@ -5194,23 +4951,23 @@
         <v>44055</v>
       </c>
       <c r="Y65" s="46">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z65" s="58">
-        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
+        <f>(1-Index!$F$2*2)*((W29*D29)-(E29*D29))</f>
         <v/>
       </c>
       <c r="AA65" s="58">
-        <f>((E32*D32)+Z32)</f>
+        <f>((E29*D29)+Z29)</f>
         <v/>
       </c>
       <c r="AB65" s="59">
-        <f>D32</f>
+        <f>D29</f>
         <v/>
       </c>
       <c r="AC65" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD65" s="49" t="n"/>
@@ -5229,7 +4986,7 @@
     </row>
     <row r="66">
       <c r="A66" s="50" t="n">
-        <v>43838</v>
+        <v>43846</v>
       </c>
       <c r="B66" s="51" t="inlineStr">
         <is>
@@ -5245,10 +5002,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="53" t="n">
-        <v>312.31</v>
+        <v>312.23</v>
       </c>
       <c r="F66" s="53" t="n">
-        <v>3123.14</v>
+        <v>3122.32</v>
       </c>
       <c r="G66" s="51" t="inlineStr">
         <is>
@@ -5256,10 +5013,10 @@
         </is>
       </c>
       <c r="H66" s="52" t="n">
-        <v>2.51</v>
+        <v>3.16</v>
       </c>
       <c r="I66" s="52" t="n">
-        <v>18.63</v>
+        <v>18.66</v>
       </c>
       <c r="J66" s="42">
         <f>Index!$C$2</f>
@@ -5267,41 +5024,41 @@
       </c>
       <c r="K66" s="47" t="n"/>
       <c r="L66" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M66" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N66" s="57">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O66" s="56" t="n"/>
       <c r="P66" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R66" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S66" s="56" t="n"/>
       <c r="T66" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U66" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V66" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W66" s="53" t="n">
@@ -5311,23 +5068,23 @@
         <v>44050</v>
       </c>
       <c r="Y66" s="46">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z66" s="58">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <f>(1-Index!$F$2*2)*((W30*D30)-(E30*D30))</f>
         <v/>
       </c>
       <c r="AA66" s="58">
-        <f>((E33*D33)+Z33)</f>
+        <f>((E30*D30)+Z30)</f>
         <v/>
       </c>
       <c r="AB66" s="59">
-        <f>D33</f>
+        <f>D30</f>
         <v/>
       </c>
       <c r="AC66" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD66" s="49" t="n"/>
@@ -5346,7 +5103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="50" t="n">
-        <v>43837</v>
+        <v>43845</v>
       </c>
       <c r="B67" s="51" t="inlineStr">
         <is>
@@ -5362,10 +5119,10 @@
         <v>20</v>
       </c>
       <c r="E67" s="53" t="n">
-        <v>310.55</v>
+        <v>311.98</v>
       </c>
       <c r="F67" s="53" t="n">
-        <v>6210.95</v>
+        <v>6239.57</v>
       </c>
       <c r="G67" s="51" t="inlineStr">
         <is>
@@ -5373,10 +5130,10 @@
         </is>
       </c>
       <c r="H67" s="52" t="n">
-        <v>2.45</v>
+        <v>6.22</v>
       </c>
       <c r="I67" s="52" t="n">
-        <v>37</v>
+        <v>37.35</v>
       </c>
       <c r="J67" s="42">
         <f>Index!$C$2</f>
@@ -5384,67 +5141,67 @@
       </c>
       <c r="K67" s="47" t="n"/>
       <c r="L67" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M67" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N67" s="57">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O67" s="56" t="n"/>
       <c r="P67" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R67" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S67" s="56" t="n"/>
       <c r="T67" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U67" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V67" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W67" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X67" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y67" s="46">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z67" s="58">
-        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
         <v/>
       </c>
       <c r="AA67" s="58">
-        <f>((E34*D34)+Z34)</f>
+        <f>((E31*D31)+Z31)</f>
         <v/>
       </c>
       <c r="AB67" s="59">
-        <f>D34</f>
+        <f>D31</f>
         <v/>
       </c>
       <c r="AC67" s="44">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD67" s="49" t="n"/>
@@ -5463,7 +5220,7 @@
     </row>
     <row r="68">
       <c r="A68" s="50" t="n">
-        <v>43836</v>
+        <v>43844</v>
       </c>
       <c r="B68" s="51" t="inlineStr">
         <is>
@@ -5476,13 +5233,13 @@
         </is>
       </c>
       <c r="D68" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E68" s="53" t="n">
-        <v>322.16</v>
+        <v>313.54</v>
       </c>
       <c r="F68" s="53" t="n">
-        <v>3221.56</v>
+        <v>6270.73</v>
       </c>
       <c r="G68" s="51" t="inlineStr">
         <is>
@@ -5490,10 +5247,10 @@
         </is>
       </c>
       <c r="H68" s="52" t="n">
-        <v>3.15</v>
+        <v>6.19</v>
       </c>
       <c r="I68" s="52" t="n">
-        <v>19.41</v>
+        <v>37.54</v>
       </c>
       <c r="J68" s="42">
         <f>Index!$C$2</f>
@@ -5501,67 +5258,67 @@
       </c>
       <c r="K68" s="47" t="n"/>
       <c r="L68" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M68" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N68" s="57">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O68" s="56" t="n"/>
       <c r="P68" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R68" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S68" s="56" t="n"/>
       <c r="T68" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
         <v/>
       </c>
       <c r="U68" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V68" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W68" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X68" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y68" s="46">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z68" s="58">
-        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
+        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
         <v/>
       </c>
       <c r="AA68" s="58">
-        <f>((E35*D35)+Z35)</f>
+        <f>((E32*D32)+Z32)</f>
         <v/>
       </c>
       <c r="AB68" s="59">
-        <f>D35</f>
+        <f>D32</f>
         <v/>
       </c>
       <c r="AC68" s="44">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD68" s="49" t="n"/>
@@ -5580,7 +5337,7 @@
     </row>
     <row r="69">
       <c r="A69" s="50" t="n">
-        <v>43832</v>
+        <v>43838</v>
       </c>
       <c r="B69" s="51" t="inlineStr">
         <is>
@@ -5596,10 +5353,10 @@
         <v>10</v>
       </c>
       <c r="E69" s="53" t="n">
-        <v>323.7</v>
+        <v>312.31</v>
       </c>
       <c r="F69" s="53" t="n">
-        <v>3237.01</v>
+        <v>3123.14</v>
       </c>
       <c r="G69" s="51" t="inlineStr">
         <is>
@@ -5607,10 +5364,10 @@
         </is>
       </c>
       <c r="H69" s="52" t="n">
-        <v>3.17</v>
+        <v>2.51</v>
       </c>
       <c r="I69" s="52" t="n">
-        <v>19.34</v>
+        <v>18.63</v>
       </c>
       <c r="J69" s="42">
         <f>Index!$C$2</f>
@@ -5618,67 +5375,67 @@
       </c>
       <c r="K69" s="47" t="n"/>
       <c r="L69" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M69" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N69" s="57">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O69" s="56" t="n"/>
       <c r="P69" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R69" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S69" s="56" t="n"/>
       <c r="T69" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
         <v/>
       </c>
       <c r="U69" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V69" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W69" s="53" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="X69" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="Y69" s="46">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z69" s="58">
-        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
         <v/>
       </c>
       <c r="AA69" s="58">
-        <f>((E36*D36)+Z36)</f>
+        <f>((E33*D33)+Z33)</f>
         <v/>
       </c>
       <c r="AB69" s="59">
-        <f>D36</f>
+        <f>D33</f>
         <v/>
       </c>
       <c r="AC69" s="44">
-        <f>if(B36="DIV", F36,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD69" s="49" t="n"/>
@@ -5697,7 +5454,7 @@
     </row>
     <row r="70">
       <c r="A70" s="50" t="n">
-        <v>43831</v>
+        <v>43837</v>
       </c>
       <c r="B70" s="51" t="inlineStr">
         <is>
@@ -5710,13 +5467,13 @@
         </is>
       </c>
       <c r="D70" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E70" s="53" t="n">
-        <v>324.56</v>
+        <v>310.55</v>
       </c>
       <c r="F70" s="53" t="n">
-        <v>3245.58</v>
+        <v>6210.95</v>
       </c>
       <c r="G70" s="51" t="inlineStr">
         <is>
@@ -5724,10 +5481,10 @@
         </is>
       </c>
       <c r="H70" s="52" t="n">
-        <v>3.24</v>
+        <v>2.45</v>
       </c>
       <c r="I70" s="52" t="n">
-        <v>19.34</v>
+        <v>37</v>
       </c>
       <c r="J70" s="42">
         <f>Index!$C$2</f>
@@ -5735,67 +5492,67 @@
       </c>
       <c r="K70" s="47" t="n"/>
       <c r="L70" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M70" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N70" s="57">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O70" s="56" t="n"/>
       <c r="P70" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R70" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S70" s="56" t="n"/>
       <c r="T70" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
         <v/>
       </c>
       <c r="U70" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V70" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W70" s="53" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="X70" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="Y70" s="46">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z70" s="58">
-        <f>(1-Index!$F$2*2)*((W37*D37)-(E37*D37))</f>
+        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
         <v/>
       </c>
       <c r="AA70" s="58">
-        <f>((E37*D37)+Z37)</f>
+        <f>((E34*D34)+Z34)</f>
         <v/>
       </c>
       <c r="AB70" s="59">
-        <f>D37</f>
+        <f>D34</f>
         <v/>
       </c>
       <c r="AC70" s="44">
-        <f>if(B37="DIV", F37,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD70" s="49" t="n"/>
@@ -5814,7 +5571,7 @@
     </row>
     <row r="71">
       <c r="A71" s="50" t="n">
-        <v>43830</v>
+        <v>43836</v>
       </c>
       <c r="B71" s="51" t="inlineStr">
         <is>
@@ -5830,10 +5587,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="53" t="n">
-        <v>325.67</v>
+        <v>322.16</v>
       </c>
       <c r="F71" s="53" t="n">
-        <v>3256.74</v>
+        <v>3221.56</v>
       </c>
       <c r="G71" s="51" t="inlineStr">
         <is>
@@ -5841,10 +5598,10 @@
         </is>
       </c>
       <c r="H71" s="52" t="n">
-        <v>3.23</v>
+        <v>3.15</v>
       </c>
       <c r="I71" s="52" t="n">
-        <v>19.51</v>
+        <v>19.41</v>
       </c>
       <c r="J71" s="42">
         <f>Index!$C$2</f>
@@ -5852,67 +5609,67 @@
       </c>
       <c r="K71" s="47" t="n"/>
       <c r="L71" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M71" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N71" s="57">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O71" s="56" t="n"/>
       <c r="P71" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R71" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S71" s="56" t="n"/>
       <c r="T71" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
         <v/>
       </c>
       <c r="U71" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V71" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W71" s="53" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="X71" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="Y71" s="46">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z71" s="58">
-        <f>(1-Index!$F$2*2)*((W38*D38)-(E38*D38))</f>
+        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
         <v/>
       </c>
       <c r="AA71" s="58">
-        <f>((E38*D38)+Z38)</f>
+        <f>((E35*D35)+Z35)</f>
         <v/>
       </c>
       <c r="AB71" s="59">
-        <f>D38</f>
+        <f>D35</f>
         <v/>
       </c>
       <c r="AC71" s="44">
-        <f>if(B38="DIV", F38,"")</f>
+        <f>if(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD71" s="49" t="n"/>
@@ -5931,7 +5688,7 @@
     </row>
     <row r="72">
       <c r="A72" s="50" t="n">
-        <v>43823</v>
+        <v>43832</v>
       </c>
       <c r="B72" s="51" t="inlineStr">
         <is>
@@ -5947,10 +5704,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="53" t="n">
-        <v>307.15</v>
+        <v>323.7</v>
       </c>
       <c r="F72" s="53" t="n">
-        <v>3071.47</v>
+        <v>3237.01</v>
       </c>
       <c r="G72" s="51" t="inlineStr">
         <is>
@@ -5958,10 +5715,10 @@
         </is>
       </c>
       <c r="H72" s="52" t="n">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="I72" s="52" t="n">
-        <v>18.41</v>
+        <v>19.34</v>
       </c>
       <c r="J72" s="42">
         <f>Index!$C$2</f>
@@ -5969,41 +5726,41 @@
       </c>
       <c r="K72" s="47" t="n"/>
       <c r="L72" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M72" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N72" s="57">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O72" s="56" t="n"/>
       <c r="P72" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R72" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S72" s="56" t="n"/>
       <c r="T72" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
         <v/>
       </c>
       <c r="U72" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V72" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W72" s="53" t="n">
@@ -6013,23 +5770,23 @@
         <v>44049</v>
       </c>
       <c r="Y72" s="46">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z72" s="58">
-        <f>(1-Index!$F$2*2)*((W39*D39)-(E39*D39))</f>
+        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
         <v/>
       </c>
       <c r="AA72" s="58">
-        <f>((E39*D39)+Z39)</f>
+        <f>((E36*D36)+Z36)</f>
         <v/>
       </c>
       <c r="AB72" s="59">
-        <f>D39</f>
+        <f>D36</f>
         <v/>
       </c>
       <c r="AC72" s="44">
-        <f>if(B39="DIV", F39,"")</f>
+        <f>if(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD72" s="49" t="n"/>
@@ -6048,7 +5805,7 @@
     </row>
     <row r="73">
       <c r="A73" s="50" t="n">
-        <v>43822</v>
+        <v>43831</v>
       </c>
       <c r="B73" s="51" t="inlineStr">
         <is>
@@ -6064,10 +5821,10 @@
         <v>10</v>
       </c>
       <c r="E73" s="53" t="n">
-        <v>312.13</v>
+        <v>324.56</v>
       </c>
       <c r="F73" s="53" t="n">
-        <v>3121.27</v>
+        <v>3245.58</v>
       </c>
       <c r="G73" s="51" t="inlineStr">
         <is>
@@ -6075,49 +5832,52 @@
         </is>
       </c>
       <c r="H73" s="52" t="n">
-        <v>3.12</v>
+        <v>3.24</v>
       </c>
       <c r="I73" s="52" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="J73" s="61" t="n"/>
-      <c r="K73" s="56" t="n"/>
+        <v>19.34</v>
+      </c>
+      <c r="J73" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K73" s="47" t="n"/>
       <c r="L73" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M73" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N73" s="57">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O73" s="56" t="n"/>
       <c r="P73" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R73" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S73" s="56" t="n"/>
       <c r="T73" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
         <v/>
       </c>
       <c r="U73" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V73" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W73" s="53" t="n">
@@ -6127,23 +5887,23 @@
         <v>44049</v>
       </c>
       <c r="Y73" s="46">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z73" s="58">
-        <f>(1-Index!$F$2*2)*((W40*D40)-(E40*D40))</f>
+        <f>(1-Index!$F$2*2)*((W37*D37)-(E37*D37))</f>
         <v/>
       </c>
       <c r="AA73" s="58">
-        <f>((E40*D40)+Z40)</f>
+        <f>((E37*D37)+Z37)</f>
         <v/>
       </c>
       <c r="AB73" s="59">
-        <f>D40</f>
+        <f>D37</f>
         <v/>
       </c>
       <c r="AC73" s="44">
-        <f>if(B40="DIV", F40,"")</f>
+        <f>if(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD73" s="49" t="n"/>
@@ -6162,7 +5922,7 @@
     </row>
     <row r="74">
       <c r="A74" s="50" t="n">
-        <v>43819</v>
+        <v>43830</v>
       </c>
       <c r="B74" s="51" t="inlineStr">
         <is>
@@ -6178,10 +5938,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="53" t="n">
-        <v>312.18</v>
+        <v>325.67</v>
       </c>
       <c r="F74" s="53" t="n">
-        <v>3121.82</v>
+        <v>3256.74</v>
       </c>
       <c r="G74" s="51" t="inlineStr">
         <is>
@@ -6189,75 +5949,78 @@
         </is>
       </c>
       <c r="H74" s="52" t="n">
-        <v>3.13</v>
+        <v>3.23</v>
       </c>
       <c r="I74" s="52" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="J74" s="61" t="n"/>
-      <c r="K74" s="56" t="n"/>
+        <v>19.51</v>
+      </c>
+      <c r="J74" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K74" s="47" t="n"/>
       <c r="L74" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M74" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N74" s="57">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O74" s="56" t="n"/>
       <c r="P74" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R74" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S74" s="56" t="n"/>
       <c r="T74" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
         <v/>
       </c>
       <c r="U74" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V74" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W74" s="53" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="X74" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="Y74" s="46">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z74" s="58">
-        <f>(1-Index!$F$2*2)*((W41*D41)-(E41*D41))</f>
+        <f>(1-Index!$F$2*2)*((W38*D38)-(E38*D38))</f>
         <v/>
       </c>
       <c r="AA74" s="58">
-        <f>((E41*D41)+Z41)</f>
+        <f>((E38*D38)+Z38)</f>
         <v/>
       </c>
       <c r="AB74" s="59">
-        <f>D41</f>
+        <f>D38</f>
         <v/>
       </c>
       <c r="AC74" s="44">
-        <f>if(B41="DIV", F41,"")</f>
+        <f>if(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD74" s="49" t="n"/>
@@ -6276,7 +6039,7 @@
     </row>
     <row r="75">
       <c r="A75" s="50" t="n">
-        <v>43818</v>
+        <v>43823</v>
       </c>
       <c r="B75" s="51" t="inlineStr">
         <is>
@@ -6289,13 +6052,13 @@
         </is>
       </c>
       <c r="D75" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E75" s="53" t="n">
-        <v>307.22</v>
+        <v>307.15</v>
       </c>
       <c r="F75" s="53" t="n">
-        <v>6144.32</v>
+        <v>3071.47</v>
       </c>
       <c r="G75" s="51" t="inlineStr">
         <is>
@@ -6303,10 +6066,10 @@
         </is>
       </c>
       <c r="H75" s="52" t="n">
-        <v>4.52</v>
+        <v>3.06</v>
       </c>
       <c r="I75" s="52" t="n">
-        <v>36.8</v>
+        <v>18.41</v>
       </c>
       <c r="J75" s="42">
         <f>Index!$C$2</f>
@@ -6314,74 +6077,70 @@
       </c>
       <c r="K75" s="47" t="n"/>
       <c r="L75" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M75" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N75" s="57">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O75" s="56" t="n"/>
       <c r="P75" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R75" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S75" s="56" t="n"/>
       <c r="T75" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
         <v/>
       </c>
       <c r="U75" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V75" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W75" s="53" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="X75" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="Y75" s="46">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z75" s="58">
-        <f>(1-Index!$F$2*2)*((W42*D42)-(E42*D42))</f>
+        <f>(1-Index!$F$2*2)*((W39*D39)-(E39*D39))</f>
         <v/>
       </c>
       <c r="AA75" s="58">
-        <f>((E42*D42)+Z42)</f>
+        <f>((E39*D39)+Z39)</f>
         <v/>
       </c>
       <c r="AB75" s="59">
-        <f>D42</f>
+        <f>D39</f>
         <v/>
       </c>
       <c r="AC75" s="44">
-        <f>if(B42="DIV", F42,"")</f>
-        <v/>
-      </c>
-      <c r="AD75" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B39="DIV", F39,"")</f>
+        <v/>
+      </c>
+      <c r="AD75" s="49" t="n"/>
       <c r="AE75" s="60" t="n"/>
       <c r="AF75" s="60" t="n"/>
       <c r="AG75" s="60" t="n"/>
@@ -6397,7 +6156,7 @@
     </row>
     <row r="76">
       <c r="A76" s="50" t="n">
-        <v>43817</v>
+        <v>43822</v>
       </c>
       <c r="B76" s="51" t="inlineStr">
         <is>
@@ -6410,13 +6169,13 @@
         </is>
       </c>
       <c r="D76" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E76" s="53" t="n">
-        <v>302.14</v>
+        <v>312.13</v>
       </c>
       <c r="F76" s="53" t="n">
-        <v>6042.87</v>
+        <v>3121.27</v>
       </c>
       <c r="G76" s="51" t="inlineStr">
         <is>
@@ -6424,85 +6183,78 @@
         </is>
       </c>
       <c r="H76" s="52" t="n">
-        <v>5.78</v>
+        <v>3.12</v>
       </c>
       <c r="I76" s="52" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="J76" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K76" s="47" t="n"/>
+        <v>18.65</v>
+      </c>
+      <c r="J76" s="61" t="n"/>
+      <c r="K76" s="56" t="n"/>
       <c r="L76" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M76" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N76" s="57">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O76" s="56" t="n"/>
       <c r="P76" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R76" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S76" s="56" t="n"/>
       <c r="T76" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
         <v/>
       </c>
       <c r="U76" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V76" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W76" s="53" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="X76" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="Y76" s="46">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z76" s="58">
-        <f>(1-Index!$F$2*2)*((W43*D43)-(E43*D43))</f>
+        <f>(1-Index!$F$2*2)*((W40*D40)-(E40*D40))</f>
         <v/>
       </c>
       <c r="AA76" s="58">
-        <f>((E43*D43)+Z43)</f>
+        <f>((E40*D40)+Z40)</f>
         <v/>
       </c>
       <c r="AB76" s="59">
-        <f>D43</f>
+        <f>D40</f>
         <v/>
       </c>
       <c r="AC76" s="44">
-        <f>if(B43="DIV", F43,"")</f>
-        <v/>
-      </c>
-      <c r="AD76" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B40="DIV", F40,"")</f>
+        <v/>
+      </c>
+      <c r="AD76" s="49" t="n"/>
       <c r="AE76" s="60" t="n"/>
       <c r="AF76" s="60" t="n"/>
       <c r="AG76" s="60" t="n"/>
@@ -6518,7 +6270,7 @@
     </row>
     <row r="77">
       <c r="A77" s="50" t="n">
-        <v>43816</v>
+        <v>43819</v>
       </c>
       <c r="B77" s="51" t="inlineStr">
         <is>
@@ -6531,13 +6283,13 @@
         </is>
       </c>
       <c r="D77" s="52" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E77" s="53" t="n">
-        <v>295.51</v>
+        <v>312.18</v>
       </c>
       <c r="F77" s="53" t="n">
-        <v>8865.290000000001</v>
+        <v>3121.82</v>
       </c>
       <c r="G77" s="51" t="inlineStr">
         <is>
@@ -6545,85 +6297,78 @@
         </is>
       </c>
       <c r="H77" s="52" t="n">
-        <v>8.859999999999999</v>
+        <v>3.13</v>
       </c>
       <c r="I77" s="52" t="n">
-        <v>52.93</v>
-      </c>
-      <c r="J77" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K77" s="47" t="n"/>
+        <v>18.69</v>
+      </c>
+      <c r="J77" s="61" t="n"/>
+      <c r="K77" s="56" t="n"/>
       <c r="L77" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M77" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N77" s="57">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O77" s="56" t="n"/>
       <c r="P77" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R77" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S77" s="56" t="n"/>
       <c r="T77" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
         <v/>
       </c>
       <c r="U77" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V77" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W77" s="53" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="X77" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="Y77" s="46">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z77" s="58">
-        <f>(1-Index!$F$2*2)*((W44*D44)-(E44*D44))</f>
+        <f>(1-Index!$F$2*2)*((W41*D41)-(E41*D41))</f>
         <v/>
       </c>
       <c r="AA77" s="58">
-        <f>((E44*D44)+Z44)</f>
+        <f>((E41*D41)+Z41)</f>
         <v/>
       </c>
       <c r="AB77" s="59">
-        <f>D44</f>
+        <f>D41</f>
         <v/>
       </c>
       <c r="AC77" s="44">
-        <f>if(B44="DIV", F44,"")</f>
-        <v/>
-      </c>
-      <c r="AD77" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B41="DIV", F41,"")</f>
+        <v/>
+      </c>
+      <c r="AD77" s="49" t="n"/>
       <c r="AE77" s="60" t="n"/>
       <c r="AF77" s="60" t="n"/>
       <c r="AG77" s="60" t="n"/>
@@ -6639,7 +6384,7 @@
     </row>
     <row r="78">
       <c r="A78" s="50" t="n">
-        <v>43812</v>
+        <v>43818</v>
       </c>
       <c r="B78" s="51" t="inlineStr">
         <is>
@@ -6655,10 +6400,10 @@
         <v>20</v>
       </c>
       <c r="E78" s="53" t="n">
-        <v>304.64</v>
+        <v>307.22</v>
       </c>
       <c r="F78" s="53" t="n">
-        <v>6092.9</v>
+        <v>6144.32</v>
       </c>
       <c r="G78" s="51" t="inlineStr">
         <is>
@@ -6666,10 +6411,10 @@
         </is>
       </c>
       <c r="H78" s="52" t="n">
-        <v>4.6</v>
+        <v>4.52</v>
       </c>
       <c r="I78" s="52" t="n">
-        <v>36.3</v>
+        <v>36.8</v>
       </c>
       <c r="J78" s="42">
         <f>Index!$C$2</f>
@@ -6677,67 +6422,67 @@
       </c>
       <c r="K78" s="47" t="n"/>
       <c r="L78" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M78" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N78" s="57">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O78" s="56" t="n"/>
       <c r="P78" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R78" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S78" s="56" t="n"/>
       <c r="T78" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
         <v/>
       </c>
       <c r="U78" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V78" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W78" s="53" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="X78" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="Y78" s="46">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z78" s="58">
-        <f>(1-Index!$F$2*2)*((W45*D45)-(E45*D45))</f>
+        <f>(1-Index!$F$2*2)*((W42*D42)-(E42*D42))</f>
         <v/>
       </c>
       <c r="AA78" s="58">
-        <f>((E45*D45)+Z45)</f>
+        <f>((E42*D42)+Z42)</f>
         <v/>
       </c>
       <c r="AB78" s="59">
-        <f>D45</f>
+        <f>D42</f>
         <v/>
       </c>
       <c r="AC78" s="44">
-        <f>if(B45="DIV", F45,"")</f>
+        <f>if(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD78" s="62" t="inlineStr">
@@ -6760,7 +6505,7 @@
     </row>
     <row r="79">
       <c r="A79" s="50" t="n">
-        <v>43811</v>
+        <v>43817</v>
       </c>
       <c r="B79" s="51" t="inlineStr">
         <is>
@@ -6773,13 +6518,13 @@
         </is>
       </c>
       <c r="D79" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E79" s="53" t="n">
-        <v>303.24</v>
+        <v>302.14</v>
       </c>
       <c r="F79" s="53" t="n">
-        <v>9097.1</v>
+        <v>6042.87</v>
       </c>
       <c r="G79" s="51" t="inlineStr">
         <is>
@@ -6787,10 +6532,10 @@
         </is>
       </c>
       <c r="H79" s="52" t="n">
-        <v>6.59</v>
+        <v>5.78</v>
       </c>
       <c r="I79" s="52" t="n">
-        <v>54.51</v>
+        <v>36.09</v>
       </c>
       <c r="J79" s="42">
         <f>Index!$C$2</f>
@@ -6798,67 +6543,67 @@
       </c>
       <c r="K79" s="47" t="n"/>
       <c r="L79" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M79" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N79" s="57">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O79" s="56" t="n"/>
       <c r="P79" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R79" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S79" s="56" t="n"/>
       <c r="T79" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
         <v/>
       </c>
       <c r="U79" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V79" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W79" s="53" t="n">
-        <v>471.75</v>
+        <v>464.04</v>
       </c>
       <c r="X79" s="50" t="n">
-        <v>44041</v>
+        <v>44048</v>
       </c>
       <c r="Y79" s="46">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z79" s="58">
-        <f>(1-Index!$F$2*2)*((W46*D46)-(E46*D46))</f>
+        <f>(1-Index!$F$2*2)*((W43*D43)-(E43*D43))</f>
         <v/>
       </c>
       <c r="AA79" s="58">
-        <f>((E46*D46)+Z46)</f>
+        <f>((E43*D43)+Z43)</f>
         <v/>
       </c>
       <c r="AB79" s="59">
-        <f>D46</f>
+        <f>D43</f>
         <v/>
       </c>
       <c r="AC79" s="44">
-        <f>if(B46="DIV", F46,"")</f>
+        <f>if(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD79" s="62" t="inlineStr">
@@ -6881,7 +6626,7 @@
     </row>
     <row r="80">
       <c r="A80" s="50" t="n">
-        <v>43803</v>
+        <v>43816</v>
       </c>
       <c r="B80" s="51" t="inlineStr">
         <is>
@@ -6894,13 +6639,13 @@
         </is>
       </c>
       <c r="D80" s="52" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E80" s="53" t="n">
-        <v>310.97</v>
+        <v>295.51</v>
       </c>
       <c r="F80" s="53" t="n">
-        <v>3109.74</v>
+        <v>8865.290000000001</v>
       </c>
       <c r="G80" s="51" t="inlineStr">
         <is>
@@ -6908,10 +6653,10 @@
         </is>
       </c>
       <c r="H80" s="52" t="n">
-        <v>2.73</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="I80" s="52" t="n">
-        <v>18.51</v>
+        <v>52.93</v>
       </c>
       <c r="J80" s="42">
         <f>Index!$C$2</f>
@@ -6919,67 +6664,67 @@
       </c>
       <c r="K80" s="47" t="n"/>
       <c r="L80" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M80" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N80" s="57">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O80" s="56" t="n"/>
       <c r="P80" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R80" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S80" s="56" t="n"/>
       <c r="T80" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
         <v/>
       </c>
       <c r="U80" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V80" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W80" s="53" t="n">
-        <v>464.48</v>
+        <v>475.72</v>
       </c>
       <c r="X80" s="50" t="n">
-        <v>44039</v>
+        <v>44042</v>
       </c>
       <c r="Y80" s="46">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z80" s="58">
-        <f>(1-Index!$F$2*2)*((W47*D47)-(E47*D47))</f>
+        <f>(1-Index!$F$2*2)*((W44*D44)-(E44*D44))</f>
         <v/>
       </c>
       <c r="AA80" s="58">
-        <f>((E47*D47)+Z47)</f>
+        <f>((E44*D44)+Z44)</f>
         <v/>
       </c>
       <c r="AB80" s="59">
-        <f>D47</f>
+        <f>D44</f>
         <v/>
       </c>
       <c r="AC80" s="44">
-        <f>if(B47="DIV", F47,"")</f>
+        <f>if(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD80" s="62" t="inlineStr">
@@ -7002,7 +6747,7 @@
     </row>
     <row r="81">
       <c r="A81" s="50" t="n">
-        <v>43801</v>
+        <v>43812</v>
       </c>
       <c r="B81" s="51" t="inlineStr">
         <is>
@@ -7018,10 +6763,10 @@
         <v>20</v>
       </c>
       <c r="E81" s="53" t="n">
-        <v>319.62</v>
+        <v>304.64</v>
       </c>
       <c r="F81" s="53" t="n">
-        <v>6392.34</v>
+        <v>6092.9</v>
       </c>
       <c r="G81" s="51" t="inlineStr">
         <is>
@@ -7029,10 +6774,10 @@
         </is>
       </c>
       <c r="H81" s="52" t="n">
-        <v>3.86</v>
+        <v>4.6</v>
       </c>
       <c r="I81" s="52" t="n">
-        <v>38.48</v>
+        <v>36.3</v>
       </c>
       <c r="J81" s="42">
         <f>Index!$C$2</f>
@@ -7040,67 +6785,67 @@
       </c>
       <c r="K81" s="47" t="n"/>
       <c r="L81" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M81" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N81" s="57">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O81" s="56" t="n"/>
       <c r="P81" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R81" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S81" s="56" t="n"/>
       <c r="T81" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
         <v/>
       </c>
       <c r="U81" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V81" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W81" s="53" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="X81" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="Y81" s="46">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z81" s="58">
-        <f>(1-Index!$F$2*2)*((W48*D48)-(E48*D48))</f>
+        <f>(1-Index!$F$2*2)*((W45*D45)-(E45*D45))</f>
         <v/>
       </c>
       <c r="AA81" s="58">
-        <f>((E48*D48)+Z48)</f>
+        <f>((E45*D45)+Z45)</f>
         <v/>
       </c>
       <c r="AB81" s="59">
-        <f>D48</f>
+        <f>D45</f>
         <v/>
       </c>
       <c r="AC81" s="44">
-        <f>if(B48="DIV", F48,"")</f>
+        <f>if(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD81" s="62" t="inlineStr">
@@ -7123,7 +6868,7 @@
     </row>
     <row r="82">
       <c r="A82" s="50" t="n">
-        <v>43798</v>
+        <v>43811</v>
       </c>
       <c r="B82" s="51" t="inlineStr">
         <is>
@@ -7136,13 +6881,13 @@
         </is>
       </c>
       <c r="D82" s="52" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E82" s="53" t="n">
-        <v>321.79</v>
+        <v>303.24</v>
       </c>
       <c r="F82" s="53" t="n">
-        <v>6435.75</v>
+        <v>9097.1</v>
       </c>
       <c r="G82" s="51" t="inlineStr">
         <is>
@@ -7150,10 +6895,10 @@
         </is>
       </c>
       <c r="H82" s="52" t="n">
-        <v>4.11</v>
+        <v>6.59</v>
       </c>
       <c r="I82" s="52" t="n">
-        <v>38.64</v>
+        <v>54.51</v>
       </c>
       <c r="J82" s="42">
         <f>Index!$C$2</f>
@@ -7161,67 +6906,67 @@
       </c>
       <c r="K82" s="47" t="n"/>
       <c r="L82" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M82" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N82" s="57">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O82" s="56" t="n"/>
       <c r="P82" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R82" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S82" s="56" t="n"/>
       <c r="T82" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
         <v/>
       </c>
       <c r="U82" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V82" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W82" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X82" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y82" s="46">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z82" s="58">
-        <f>(1-Index!$F$2*2)*((W49*D49)-(E49*D49))</f>
+        <f>(1-Index!$F$2*2)*((W46*D46)-(E46*D46))</f>
         <v/>
       </c>
       <c r="AA82" s="58">
-        <f>((E49*D49)+Z49)</f>
+        <f>((E46*D46)+Z46)</f>
         <v/>
       </c>
       <c r="AB82" s="59">
-        <f>D49</f>
+        <f>D46</f>
         <v/>
       </c>
       <c r="AC82" s="44">
-        <f>if(B49="DIV", F49,"")</f>
+        <f>if(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD82" s="62" t="inlineStr">
@@ -7244,7 +6989,7 @@
     </row>
     <row r="83">
       <c r="A83" s="50" t="n">
-        <v>43796</v>
+        <v>43803</v>
       </c>
       <c r="B83" s="51" t="inlineStr">
         <is>
@@ -7260,10 +7005,10 @@
         <v>10</v>
       </c>
       <c r="E83" s="53" t="n">
-        <v>316.81</v>
+        <v>310.97</v>
       </c>
       <c r="F83" s="53" t="n">
-        <v>3168.11</v>
+        <v>3109.74</v>
       </c>
       <c r="G83" s="51" t="inlineStr">
         <is>
@@ -7271,10 +7016,10 @@
         </is>
       </c>
       <c r="H83" s="52" t="n">
-        <v>1.77</v>
+        <v>2.73</v>
       </c>
       <c r="I83" s="52" t="n">
-        <v>18.84</v>
+        <v>18.51</v>
       </c>
       <c r="J83" s="42">
         <f>Index!$C$2</f>
@@ -7282,41 +7027,41 @@
       </c>
       <c r="K83" s="47" t="n"/>
       <c r="L83" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M83" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N83" s="57">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O83" s="56" t="n"/>
       <c r="P83" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R83" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S83" s="56" t="n"/>
       <c r="T83" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
         <v/>
       </c>
       <c r="U83" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V83" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W83" s="53" t="n">
@@ -7326,23 +7071,23 @@
         <v>44039</v>
       </c>
       <c r="Y83" s="46">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z83" s="58">
-        <f>(1-Index!$F$2*2)*((W50*D50)-(E50*D50))</f>
+        <f>(1-Index!$F$2*2)*((W47*D47)-(E47*D47))</f>
         <v/>
       </c>
       <c r="AA83" s="58">
-        <f>((E50*D50)+Z50)</f>
+        <f>((E47*D47)+Z47)</f>
         <v/>
       </c>
       <c r="AB83" s="59">
-        <f>D50</f>
+        <f>D47</f>
         <v/>
       </c>
       <c r="AC83" s="44">
-        <f>if(B50="DIV", F50,"")</f>
+        <f>if(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD83" s="62" t="inlineStr">
@@ -7365,11 +7110,11 @@
     </row>
     <row r="84">
       <c r="A84" s="50" t="n">
-        <v>43782</v>
+        <v>43801</v>
       </c>
       <c r="B84" s="51" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C84" s="51" t="inlineStr">
@@ -7378,13 +7123,13 @@
         </is>
       </c>
       <c r="D84" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E84" s="53" t="n">
-        <v>333.25</v>
+        <v>319.62</v>
       </c>
       <c r="F84" s="53" t="n">
-        <v>3332.5</v>
+        <v>6392.34</v>
       </c>
       <c r="G84" s="51" t="inlineStr">
         <is>
@@ -7392,10 +7137,10 @@
         </is>
       </c>
       <c r="H84" s="52" t="n">
-        <v>1.86</v>
+        <v>3.86</v>
       </c>
       <c r="I84" s="52" t="n">
-        <v>20.14</v>
+        <v>38.48</v>
       </c>
       <c r="J84" s="42">
         <f>Index!$C$2</f>
@@ -7403,67 +7148,67 @@
       </c>
       <c r="K84" s="47" t="n"/>
       <c r="L84" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M84" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N84" s="57">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O84" s="56" t="n"/>
       <c r="P84" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R84" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S84" s="56" t="n"/>
       <c r="T84" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
         <v/>
       </c>
       <c r="U84" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V84" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W84" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X84" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y84" s="46">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z84" s="58">
-        <f>(1-Index!$F$2*2)*((W51*D51)-(E51*D51))</f>
+        <f>(1-Index!$F$2*2)*((W48*D48)-(E48*D48))</f>
         <v/>
       </c>
       <c r="AA84" s="58">
-        <f>((E51*D51)+Z51)</f>
+        <f>((E48*D48)+Z48)</f>
         <v/>
       </c>
       <c r="AB84" s="59">
-        <f>D51</f>
+        <f>D48</f>
         <v/>
       </c>
       <c r="AC84" s="44">
-        <f>if(B51="DIV", F51,"")</f>
+        <f>if(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD84" s="62" t="inlineStr">
@@ -7486,7 +7231,7 @@
     </row>
     <row r="85">
       <c r="A85" s="50" t="n">
-        <v>43707</v>
+        <v>43798</v>
       </c>
       <c r="B85" s="51" t="inlineStr">
         <is>
@@ -7502,10 +7247,10 @@
         <v>20</v>
       </c>
       <c r="E85" s="53" t="n">
-        <v>305.59</v>
+        <v>321.79</v>
       </c>
       <c r="F85" s="53" t="n">
-        <v>6111.8</v>
+        <v>6435.75</v>
       </c>
       <c r="G85" s="51" t="inlineStr">
         <is>
@@ -7513,10 +7258,10 @@
         </is>
       </c>
       <c r="H85" s="52" t="n">
-        <v>6.01</v>
+        <v>4.11</v>
       </c>
       <c r="I85" s="52" t="n">
-        <v>36.79</v>
+        <v>38.64</v>
       </c>
       <c r="J85" s="42">
         <f>Index!$C$2</f>
@@ -7524,67 +7269,67 @@
       </c>
       <c r="K85" s="47" t="n"/>
       <c r="L85" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M85" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N85" s="57">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O85" s="56" t="n"/>
       <c r="P85" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R85" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S85" s="56" t="n"/>
       <c r="T85" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
         <v/>
       </c>
       <c r="U85" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V85" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W85" s="53" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="X85" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="Y85" s="46">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z85" s="58">
-        <f>(1-Index!$F$2*2)*((W52*D52)-(E52*D52))</f>
+        <f>(1-Index!$F$2*2)*((W49*D49)-(E49*D49))</f>
         <v/>
       </c>
       <c r="AA85" s="58">
-        <f>((E52*D52)+Z52)</f>
+        <f>((E49*D49)+Z49)</f>
         <v/>
       </c>
       <c r="AB85" s="59">
-        <f>D52</f>
+        <f>D49</f>
         <v/>
       </c>
       <c r="AC85" s="44">
-        <f>if(B52="DIV", F52,"")</f>
+        <f>if(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD85" s="62" t="inlineStr">
@@ -7592,10 +7337,22 @@
           <t>SBI Securities</t>
         </is>
       </c>
+      <c r="AE85" s="60" t="n"/>
+      <c r="AF85" s="60" t="n"/>
+      <c r="AG85" s="60" t="n"/>
+      <c r="AH85" s="60" t="n"/>
+      <c r="AI85" s="60" t="n"/>
+      <c r="AJ85" s="60" t="n"/>
+      <c r="AK85" s="60" t="n"/>
+      <c r="AL85" s="60" t="n"/>
+      <c r="AM85" s="60" t="n"/>
+      <c r="AN85" s="60" t="n"/>
+      <c r="AO85" s="60" t="n"/>
+      <c r="AP85" s="60" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="50" t="n">
-        <v>43697</v>
+        <v>43796</v>
       </c>
       <c r="B86" s="51" t="inlineStr">
         <is>
@@ -7611,10 +7368,10 @@
         <v>10</v>
       </c>
       <c r="E86" s="53" t="n">
-        <v>303.43</v>
+        <v>316.81</v>
       </c>
       <c r="F86" s="53" t="n">
-        <v>3034.27</v>
+        <v>3168.11</v>
       </c>
       <c r="G86" s="51" t="inlineStr">
         <is>
@@ -7622,10 +7379,10 @@
         </is>
       </c>
       <c r="H86" s="52" t="n">
-        <v>2.86</v>
+        <v>1.77</v>
       </c>
       <c r="I86" s="52" t="n">
-        <v>18.41</v>
+        <v>18.84</v>
       </c>
       <c r="J86" s="42">
         <f>Index!$C$2</f>
@@ -7633,67 +7390,67 @@
       </c>
       <c r="K86" s="47" t="n"/>
       <c r="L86" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M86" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N86" s="57">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O86" s="56" t="n"/>
       <c r="P86" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R86" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S86" s="56" t="n"/>
       <c r="T86" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
         <v/>
       </c>
       <c r="U86" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V86" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W86" s="53" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="X86" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="Y86" s="46">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z86" s="58">
-        <f>(1-Index!$F$2*2)*((W53*D53)-(E53*D53))</f>
+        <f>(1-Index!$F$2*2)*((W50*D50)-(E50*D50))</f>
         <v/>
       </c>
       <c r="AA86" s="58">
-        <f>((E53*D53)+Z53)</f>
+        <f>((E50*D50)+Z50)</f>
         <v/>
       </c>
       <c r="AB86" s="59">
-        <f>D53</f>
+        <f>D50</f>
         <v/>
       </c>
       <c r="AC86" s="44">
-        <f>if(B53="DIV", F53,"")</f>
+        <f>if(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD86" s="62" t="inlineStr">
@@ -7701,14 +7458,26 @@
           <t>SBI Securities</t>
         </is>
       </c>
+      <c r="AE86" s="60" t="n"/>
+      <c r="AF86" s="60" t="n"/>
+      <c r="AG86" s="60" t="n"/>
+      <c r="AH86" s="60" t="n"/>
+      <c r="AI86" s="60" t="n"/>
+      <c r="AJ86" s="60" t="n"/>
+      <c r="AK86" s="60" t="n"/>
+      <c r="AL86" s="60" t="n"/>
+      <c r="AM86" s="60" t="n"/>
+      <c r="AN86" s="60" t="n"/>
+      <c r="AO86" s="60" t="n"/>
+      <c r="AP86" s="60" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="50" t="n">
-        <v>43685</v>
+        <v>43782</v>
       </c>
       <c r="B87" s="51" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C87" s="51" t="inlineStr">
@@ -7720,10 +7489,10 @@
         <v>10</v>
       </c>
       <c r="E87" s="53" t="n">
-        <v>309.25</v>
+        <v>333.25</v>
       </c>
       <c r="F87" s="53" t="n">
-        <v>3092.54</v>
+        <v>3332.5</v>
       </c>
       <c r="G87" s="51" t="inlineStr">
         <is>
@@ -7731,10 +7500,10 @@
         </is>
       </c>
       <c r="H87" s="52" t="n">
-        <v>2.96</v>
+        <v>1.86</v>
       </c>
       <c r="I87" s="52" t="n">
-        <v>18.58</v>
+        <v>20.14</v>
       </c>
       <c r="J87" s="42">
         <f>Index!$C$2</f>
@@ -7742,67 +7511,67 @@
       </c>
       <c r="K87" s="47" t="n"/>
       <c r="L87" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M87" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N87" s="57">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O87" s="56" t="n"/>
       <c r="P87" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R87" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S87" s="56" t="n"/>
       <c r="T87" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
         <v/>
       </c>
       <c r="U87" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V87" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W87" s="53" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="X87" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="Y87" s="46">
-        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z87" s="58">
-        <f>(1-Index!$F$2*2)*((W54*D54)-(E54*D54))</f>
+        <f>(1-Index!$F$2*2)*((W51*D51)-(E51*D51))</f>
         <v/>
       </c>
       <c r="AA87" s="58">
-        <f>((E54*D54)+Z54)</f>
+        <f>((E51*D51)+Z51)</f>
         <v/>
       </c>
       <c r="AB87" s="59">
-        <f>D54</f>
+        <f>D51</f>
         <v/>
       </c>
       <c r="AC87" s="44">
-        <f>if(B54="DIV", F54,"")</f>
+        <f>if(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD87" s="62" t="inlineStr">
@@ -7810,10 +7579,22 @@
           <t>SBI Securities</t>
         </is>
       </c>
+      <c r="AE87" s="60" t="n"/>
+      <c r="AF87" s="60" t="n"/>
+      <c r="AG87" s="60" t="n"/>
+      <c r="AH87" s="60" t="n"/>
+      <c r="AI87" s="60" t="n"/>
+      <c r="AJ87" s="60" t="n"/>
+      <c r="AK87" s="60" t="n"/>
+      <c r="AL87" s="60" t="n"/>
+      <c r="AM87" s="60" t="n"/>
+      <c r="AN87" s="60" t="n"/>
+      <c r="AO87" s="60" t="n"/>
+      <c r="AP87" s="60" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="50" t="n">
-        <v>43682</v>
+        <v>43707</v>
       </c>
       <c r="B88" s="51" t="inlineStr">
         <is>
@@ -7826,13 +7607,13 @@
         </is>
       </c>
       <c r="D88" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E88" s="53" t="n">
-        <v>301.86</v>
+        <v>305.59</v>
       </c>
       <c r="F88" s="53" t="n">
-        <v>3018.58</v>
+        <v>6111.8</v>
       </c>
       <c r="G88" s="51" t="inlineStr">
         <is>
@@ -7840,10 +7621,10 @@
         </is>
       </c>
       <c r="H88" s="52" t="n">
-        <v>2.99</v>
+        <v>6.01</v>
       </c>
       <c r="I88" s="52" t="n">
-        <v>18.09</v>
+        <v>36.79</v>
       </c>
       <c r="J88" s="42">
         <f>Index!$C$2</f>
@@ -7851,41 +7632,41 @@
       </c>
       <c r="K88" s="47" t="n"/>
       <c r="L88" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M88" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N88" s="57">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O88" s="56" t="n"/>
       <c r="P88" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R88" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S88" s="56" t="n"/>
       <c r="T88" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
         <v/>
       </c>
       <c r="U88" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V88" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W88" s="53" t="n">
@@ -7895,23 +7676,23 @@
         <v>44036</v>
       </c>
       <c r="Y88" s="46">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z88" s="58">
-        <f>(1-Index!$F$2*2)*((W55*D55)-(E55*D55))</f>
+        <f>(1-Index!$F$2*2)*((W52*D52)-(E52*D52))</f>
         <v/>
       </c>
       <c r="AA88" s="58">
-        <f>((E55*D55)+Z55)</f>
+        <f>((E52*D52)+Z52)</f>
         <v/>
       </c>
       <c r="AB88" s="59">
-        <f>D55</f>
+        <f>D52</f>
         <v/>
       </c>
       <c r="AC88" s="44">
-        <f>if(B55="DIV", F55,"")</f>
+        <f>if(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD88" s="62" t="inlineStr">
@@ -7922,7 +7703,7 @@
     </row>
     <row r="89">
       <c r="A89" s="50" t="n">
-        <v>43678</v>
+        <v>43697</v>
       </c>
       <c r="B89" s="51" t="inlineStr">
         <is>
@@ -7935,13 +7716,13 @@
         </is>
       </c>
       <c r="D89" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E89" s="53" t="n">
-        <v>300.3</v>
+        <v>303.43</v>
       </c>
       <c r="F89" s="53" t="n">
-        <v>6005.97</v>
+        <v>3034.27</v>
       </c>
       <c r="G89" s="51" t="inlineStr">
         <is>
@@ -7949,10 +7730,10 @@
         </is>
       </c>
       <c r="H89" s="52" t="n">
-        <v>6.02</v>
+        <v>2.86</v>
       </c>
       <c r="I89" s="52" t="n">
-        <v>35.95</v>
+        <v>18.41</v>
       </c>
       <c r="J89" s="42">
         <f>Index!$C$2</f>
@@ -7960,67 +7741,67 @@
       </c>
       <c r="K89" s="47" t="n"/>
       <c r="L89" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M89" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N89" s="57">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O89" s="56" t="n"/>
       <c r="P89" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R89" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S89" s="56" t="n"/>
       <c r="T89" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
         <v/>
       </c>
       <c r="U89" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V89" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W89" s="53" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="X89" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="Y89" s="46">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/sum(F56:I56), "")</f>
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
         <v/>
       </c>
       <c r="Z89" s="58">
-        <f>(1-Index!$F$2*2)*((W56*D56)-(E56*D56))</f>
+        <f>(1-Index!$F$2*2)*((W53*D53)-(E53*D53))</f>
         <v/>
       </c>
       <c r="AA89" s="58">
-        <f>((E56*D56)+Z56)</f>
+        <f>((E53*D53)+Z53)</f>
         <v/>
       </c>
       <c r="AB89" s="59">
-        <f>D56</f>
+        <f>D53</f>
         <v/>
       </c>
       <c r="AC89" s="44">
-        <f>if(B56="DIV", F56,"")</f>
+        <f>if(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD89" s="62" t="inlineStr">
@@ -8031,7 +7812,7 @@
     </row>
     <row r="90">
       <c r="A90" s="50" t="n">
-        <v>43670</v>
+        <v>43685</v>
       </c>
       <c r="B90" s="51" t="inlineStr">
         <is>
@@ -8047,10 +7828,10 @@
         <v>10</v>
       </c>
       <c r="E90" s="53" t="n">
-        <v>317.82</v>
+        <v>309.25</v>
       </c>
       <c r="F90" s="53" t="n">
-        <v>3178.2</v>
+        <v>3092.54</v>
       </c>
       <c r="G90" s="51" t="inlineStr">
         <is>
@@ -8058,10 +7839,10 @@
         </is>
       </c>
       <c r="H90" s="52" t="n">
-        <v>3.13</v>
+        <v>2.96</v>
       </c>
       <c r="I90" s="52" t="n">
-        <v>19.07</v>
+        <v>18.58</v>
       </c>
       <c r="J90" s="42">
         <f>Index!$C$2</f>
@@ -8069,67 +7850,67 @@
       </c>
       <c r="K90" s="47" t="n"/>
       <c r="L90" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M90" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N90" s="57">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O90" s="56" t="n"/>
       <c r="P90" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R90" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S90" s="56" t="n"/>
       <c r="T90" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
         <v/>
       </c>
       <c r="U90" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V90" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W90" s="53" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="X90" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="Y90" s="46">
-        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/sum(F57:I57), "")</f>
+        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
         <v/>
       </c>
       <c r="Z90" s="58">
-        <f>(1-Index!$F$2*2)*((W57*D57)-(E57*D57))</f>
+        <f>(1-Index!$F$2*2)*((W54*D54)-(E54*D54))</f>
         <v/>
       </c>
       <c r="AA90" s="58">
-        <f>((E57*D57)+Z57)</f>
+        <f>((E54*D54)+Z54)</f>
         <v/>
       </c>
       <c r="AB90" s="59">
-        <f>D57</f>
+        <f>D54</f>
         <v/>
       </c>
       <c r="AC90" s="44">
-        <f>if(B57="DIV", F57,"")</f>
+        <f>if(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD90" s="62" t="inlineStr">
@@ -8140,7 +7921,7 @@
     </row>
     <row r="91">
       <c r="A91" s="50" t="n">
-        <v>43668</v>
+        <v>43682</v>
       </c>
       <c r="B91" s="51" t="inlineStr">
         <is>
@@ -8156,10 +7937,10 @@
         <v>10</v>
       </c>
       <c r="E91" s="53" t="n">
-        <v>318.1</v>
+        <v>301.86</v>
       </c>
       <c r="F91" s="53" t="n">
-        <v>3180.98</v>
+        <v>3018.58</v>
       </c>
       <c r="G91" s="51" t="inlineStr">
         <is>
@@ -8167,10 +7948,10 @@
         </is>
       </c>
       <c r="H91" s="52" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="I91" s="52" t="n">
-        <v>19.11</v>
+        <v>18.09</v>
       </c>
       <c r="J91" s="42">
         <f>Index!$C$2</f>
@@ -8178,67 +7959,67 @@
       </c>
       <c r="K91" s="47" t="n"/>
       <c r="L91" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="M91" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
         <v/>
       </c>
       <c r="N91" s="57">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
         <v/>
       </c>
       <c r="O91" s="56" t="n"/>
       <c r="P91" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
         <v/>
       </c>
       <c r="R91" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="S91" s="56" t="n"/>
       <c r="T91" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
         <v/>
       </c>
       <c r="U91" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
         <v/>
       </c>
       <c r="V91" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="W91" s="53" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="X91" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="Y91" s="46">
-        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
         <v/>
       </c>
       <c r="Z91" s="58">
-        <f>(1-Index!$F$2*2)*((W58*D58)-(E58*D58))</f>
+        <f>(1-Index!$F$2*2)*((W55*D55)-(E55*D55))</f>
         <v/>
       </c>
       <c r="AA91" s="58">
-        <f>((E58*D58)+Z58)</f>
+        <f>((E55*D55)+Z55)</f>
         <v/>
       </c>
       <c r="AB91" s="59">
-        <f>D58</f>
+        <f>D55</f>
         <v/>
       </c>
       <c r="AC91" s="44">
-        <f>if(B58="DIV", F58,"")</f>
+        <f>if(B55="DIV", F55,"")</f>
         <v/>
       </c>
       <c r="AD91" s="62" t="inlineStr">
@@ -8249,7 +8030,7 @@
     </row>
     <row r="92">
       <c r="A92" s="50" t="n">
-        <v>43665</v>
+        <v>43678</v>
       </c>
       <c r="B92" s="51" t="inlineStr">
         <is>
@@ -8262,13 +8043,13 @@
         </is>
       </c>
       <c r="D92" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E92" s="53" t="n">
-        <v>324.56</v>
+        <v>300.3</v>
       </c>
       <c r="F92" s="53" t="n">
-        <v>3245.64</v>
+        <v>6005.97</v>
       </c>
       <c r="G92" s="51" t="inlineStr">
         <is>
@@ -8276,10 +8057,10 @@
         </is>
       </c>
       <c r="H92" s="52" t="n">
-        <v>3.22</v>
+        <v>6.02</v>
       </c>
       <c r="I92" s="52" t="n">
-        <v>19.42</v>
+        <v>35.95</v>
       </c>
       <c r="J92" s="42">
         <f>Index!$C$2</f>
@@ -8287,41 +8068,41 @@
       </c>
       <c r="K92" s="47" t="n"/>
       <c r="L92" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M92" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N92" s="57">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O92" s="56" t="n"/>
       <c r="P92" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q92" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R92" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S92" s="56" t="n"/>
       <c r="T92" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U92" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V92" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W92" s="53" t="n">
@@ -8331,78 +8112,357 @@
         <v>44025</v>
       </c>
       <c r="Y92" s="46">
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/sum(F56:I56), "")</f>
+        <v/>
+      </c>
+      <c r="Z92" s="58">
+        <f>(1-Index!$F$2*2)*((W56*D56)-(E56*D56))</f>
+        <v/>
+      </c>
+      <c r="AA92" s="58">
+        <f>((E56*D56)+Z56)</f>
+        <v/>
+      </c>
+      <c r="AB92" s="59">
+        <f>D56</f>
+        <v/>
+      </c>
+      <c r="AC92" s="44">
+        <f>if(B56="DIV", F56,"")</f>
+        <v/>
+      </c>
+      <c r="AD92" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="50" t="n">
+        <v>43670</v>
+      </c>
+      <c r="B93" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C93" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D93" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E93" s="53" t="n">
+        <v>317.82</v>
+      </c>
+      <c r="F93" s="53" t="n">
+        <v>3178.2</v>
+      </c>
+      <c r="G93" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H93" s="52" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I93" s="52" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="J93" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K93" s="47" t="n"/>
+      <c r="L93" s="47">
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <v/>
+      </c>
+      <c r="M93" s="56">
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <v/>
+      </c>
+      <c r="N93" s="57">
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <v/>
+      </c>
+      <c r="O93" s="56" t="n"/>
+      <c r="P93" s="47">
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <v/>
+      </c>
+      <c r="Q93" s="56">
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <v/>
+      </c>
+      <c r="R93" s="56">
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <v/>
+      </c>
+      <c r="S93" s="56" t="n"/>
+      <c r="T93" s="56">
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
+        <v/>
+      </c>
+      <c r="U93" s="56">
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <v/>
+      </c>
+      <c r="V93" s="56">
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <v/>
+      </c>
+      <c r="W93" s="53" t="n">
+        <v>437.94</v>
+      </c>
+      <c r="X93" s="50" t="n">
+        <v>44025</v>
+      </c>
+      <c r="Y93" s="46">
+        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/sum(F57:I57), "")</f>
+        <v/>
+      </c>
+      <c r="Z93" s="58">
+        <f>(1-Index!$F$2*2)*((W57*D57)-(E57*D57))</f>
+        <v/>
+      </c>
+      <c r="AA93" s="58">
+        <f>((E57*D57)+Z57)</f>
+        <v/>
+      </c>
+      <c r="AB93" s="59">
+        <f>D57</f>
+        <v/>
+      </c>
+      <c r="AC93" s="44">
+        <f>if(B57="DIV", F57,"")</f>
+        <v/>
+      </c>
+      <c r="AD93" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="50" t="n">
+        <v>43668</v>
+      </c>
+      <c r="B94" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C94" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D94" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" s="53" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="F94" s="53" t="n">
+        <v>3180.98</v>
+      </c>
+      <c r="G94" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H94" s="52" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I94" s="52" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="J94" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K94" s="47" t="n"/>
+      <c r="L94" s="47">
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <v/>
+      </c>
+      <c r="M94" s="56">
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <v/>
+      </c>
+      <c r="N94" s="57">
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <v/>
+      </c>
+      <c r="O94" s="56" t="n"/>
+      <c r="P94" s="47">
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <v/>
+      </c>
+      <c r="Q94" s="56">
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <v/>
+      </c>
+      <c r="R94" s="56">
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <v/>
+      </c>
+      <c r="S94" s="56" t="n"/>
+      <c r="T94" s="56">
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
+        <v/>
+      </c>
+      <c r="U94" s="56">
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <v/>
+      </c>
+      <c r="V94" s="56">
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <v/>
+      </c>
+      <c r="W94" s="53" t="n">
+        <v>437.94</v>
+      </c>
+      <c r="X94" s="50" t="n">
+        <v>44025</v>
+      </c>
+      <c r="Y94" s="46">
+        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
+        <v/>
+      </c>
+      <c r="Z94" s="58">
+        <f>(1-Index!$F$2*2)*((W58*D58)-(E58*D58))</f>
+        <v/>
+      </c>
+      <c r="AA94" s="58">
+        <f>((E58*D58)+Z58)</f>
+        <v/>
+      </c>
+      <c r="AB94" s="59">
+        <f>D58</f>
+        <v/>
+      </c>
+      <c r="AC94" s="44">
+        <f>if(B58="DIV", F58,"")</f>
+        <v/>
+      </c>
+      <c r="AD94" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="50" t="n">
+        <v>43665</v>
+      </c>
+      <c r="B95" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C95" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D95" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" s="53" t="n">
+        <v>324.56</v>
+      </c>
+      <c r="F95" s="53" t="n">
+        <v>3245.64</v>
+      </c>
+      <c r="G95" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H95" s="52" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I95" s="52" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="J95" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K95" s="47" t="n"/>
+      <c r="L95" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="M95" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <v/>
+      </c>
+      <c r="N95" s="57">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <v/>
+      </c>
+      <c r="O95" s="56" t="n"/>
+      <c r="P95" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="Q95" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <v/>
+      </c>
+      <c r="R95" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="S95" s="56" t="n"/>
+      <c r="T95" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <v/>
+      </c>
+      <c r="U95" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <v/>
+      </c>
+      <c r="V95" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="W95" s="53" t="n">
+        <v>437.94</v>
+      </c>
+      <c r="X95" s="50" t="n">
+        <v>44025</v>
+      </c>
+      <c r="Y95" s="46">
         <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/sum(F59:I59), "")</f>
         <v/>
       </c>
-      <c r="Z92" s="58">
+      <c r="Z95" s="58">
         <f>(1-Index!$F$2*2)*((W59*D59)-(E59*D59))</f>
         <v/>
       </c>
-      <c r="AA92" s="58">
+      <c r="AA95" s="58">
         <f>((E59*D59)+Z59)</f>
         <v/>
       </c>
-      <c r="AB92" s="59">
+      <c r="AB95" s="59">
         <f>D59</f>
         <v/>
       </c>
-      <c r="AC92" s="44">
+      <c r="AC95" s="44">
         <f>if(B59="DIV", F59,"")</f>
         <v/>
       </c>
-      <c r="AD92" s="62" t="inlineStr">
+      <c r="AD95" s="62" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="E93" s="63" t="n"/>
-      <c r="F93" s="63" t="n"/>
-      <c r="G93" s="64" t="n"/>
-      <c r="J93" s="63" t="n"/>
-      <c r="K93" s="63" t="n"/>
-      <c r="L93" s="63" t="n"/>
-      <c r="M93" s="66" t="n"/>
-      <c r="W93" s="63" t="n"/>
-      <c r="X93" s="63" t="n"/>
-      <c r="Y93" s="63" t="n"/>
-      <c r="Z93" s="63" t="n"/>
-      <c r="AA93" s="63" t="n"/>
-      <c r="AB93" s="63" t="n"/>
-      <c r="AC93" s="63" t="n"/>
-    </row>
-    <row r="94">
-      <c r="E94" s="63" t="n"/>
-      <c r="F94" s="63" t="n"/>
-      <c r="G94" s="64" t="n"/>
-      <c r="J94" s="63" t="n"/>
-      <c r="K94" s="63" t="n"/>
-      <c r="L94" s="63" t="n"/>
-      <c r="M94" s="66" t="n"/>
-      <c r="W94" s="63" t="n"/>
-      <c r="X94" s="63" t="n"/>
-      <c r="Y94" s="63" t="n"/>
-      <c r="Z94" s="63" t="n"/>
-      <c r="AA94" s="63" t="n"/>
-      <c r="AB94" s="63" t="n"/>
-      <c r="AC94" s="63" t="n"/>
-    </row>
-    <row r="95">
-      <c r="E95" s="63" t="n"/>
-      <c r="F95" s="63" t="n"/>
-      <c r="G95" s="64" t="n"/>
-      <c r="J95" s="63" t="n"/>
-      <c r="K95" s="63" t="n"/>
-      <c r="L95" s="63" t="n"/>
-      <c r="M95" s="66" t="n"/>
-      <c r="W95" s="63" t="n"/>
-      <c r="X95" s="63" t="n"/>
-      <c r="Y95" s="63" t="n"/>
-      <c r="Z95" s="63" t="n"/>
-      <c r="AA95" s="63" t="n"/>
-      <c r="AB95" s="63" t="n"/>
-      <c r="AC95" s="63" t="n"/>
     </row>
     <row r="96">
       <c r="E96" s="63" t="n"/>
@@ -23339,6 +23399,7 @@
       <c r="J1029" s="63" t="n"/>
       <c r="K1029" s="63" t="n"/>
       <c r="L1029" s="63" t="n"/>
+      <c r="M1029" s="66" t="n"/>
       <c r="W1029" s="63" t="n"/>
       <c r="X1029" s="63" t="n"/>
       <c r="Y1029" s="63" t="n"/>
@@ -23354,6 +23415,7 @@
       <c r="J1030" s="63" t="n"/>
       <c r="K1030" s="63" t="n"/>
       <c r="L1030" s="63" t="n"/>
+      <c r="M1030" s="66" t="n"/>
       <c r="W1030" s="63" t="n"/>
       <c r="X1030" s="63" t="n"/>
       <c r="Y1030" s="63" t="n"/>
@@ -23369,6 +23431,7 @@
       <c r="J1031" s="63" t="n"/>
       <c r="K1031" s="63" t="n"/>
       <c r="L1031" s="63" t="n"/>
+      <c r="M1031" s="66" t="n"/>
       <c r="W1031" s="63" t="n"/>
       <c r="X1031" s="63" t="n"/>
       <c r="Y1031" s="63" t="n"/>
@@ -23586,6 +23649,51 @@
       <c r="AA1045" s="63" t="n"/>
       <c r="AB1045" s="63" t="n"/>
       <c r="AC1045" s="63" t="n"/>
+    </row>
+    <row r="1046">
+      <c r="E1046" s="63" t="n"/>
+      <c r="F1046" s="63" t="n"/>
+      <c r="G1046" s="64" t="n"/>
+      <c r="J1046" s="63" t="n"/>
+      <c r="K1046" s="63" t="n"/>
+      <c r="L1046" s="63" t="n"/>
+      <c r="W1046" s="63" t="n"/>
+      <c r="X1046" s="63" t="n"/>
+      <c r="Y1046" s="63" t="n"/>
+      <c r="Z1046" s="63" t="n"/>
+      <c r="AA1046" s="63" t="n"/>
+      <c r="AB1046" s="63" t="n"/>
+      <c r="AC1046" s="63" t="n"/>
+    </row>
+    <row r="1047">
+      <c r="E1047" s="63" t="n"/>
+      <c r="F1047" s="63" t="n"/>
+      <c r="G1047" s="64" t="n"/>
+      <c r="J1047" s="63" t="n"/>
+      <c r="K1047" s="63" t="n"/>
+      <c r="L1047" s="63" t="n"/>
+      <c r="W1047" s="63" t="n"/>
+      <c r="X1047" s="63" t="n"/>
+      <c r="Y1047" s="63" t="n"/>
+      <c r="Z1047" s="63" t="n"/>
+      <c r="AA1047" s="63" t="n"/>
+      <c r="AB1047" s="63" t="n"/>
+      <c r="AC1047" s="63" t="n"/>
+    </row>
+    <row r="1048">
+      <c r="E1048" s="63" t="n"/>
+      <c r="F1048" s="63" t="n"/>
+      <c r="G1048" s="64" t="n"/>
+      <c r="J1048" s="63" t="n"/>
+      <c r="K1048" s="63" t="n"/>
+      <c r="L1048" s="63" t="n"/>
+      <c r="W1048" s="63" t="n"/>
+      <c r="X1048" s="63" t="n"/>
+      <c r="Y1048" s="63" t="n"/>
+      <c r="Z1048" s="63" t="n"/>
+      <c r="AA1048" s="63" t="n"/>
+      <c r="AB1048" s="63" t="n"/>
+      <c r="AC1048" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$89"/>

--- a/dumps/Stocks/Syngene International Ltd.xlsx
+++ b/dumps/Stocks/Syngene International Ltd.xlsx
@@ -780,7 +780,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1029"/>
+  <dimension ref="A1:AP1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="5">
       <c r="A5" s="97" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1146,18 +1146,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>444.5</v>
+        <v>449.8</v>
       </c>
       <c r="F5" t="n">
-        <v>2233.6</v>
+        <v>2260.25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11.1</v>
+        <v>11.25</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="6">
       <c r="A6" s="97" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1179,21 +1179,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>471.15</v>
+        <v>444.5</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4735.1</v>
+        <v>2233.6</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>23.6</v>
+        <v>11.1</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="7">
       <c r="A7" s="97" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1218,18 +1218,18 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>505.2</v>
+        <v>471.15</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5077.3</v>
+        <v>4735.1</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>25.3</v>
+        <v>23.6</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="8">
       <c r="A8" s="97" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1251,21 +1251,21 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>600.85</v>
+        <v>505.2</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3019.25</v>
+        <v>5077.3</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252610906344</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="9">
       <c r="A9" s="97" t="n">
-        <v>46034</v>
+        <v>46044</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1290,18 +1290,18 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>626.75</v>
+        <v>600.85</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3149.4</v>
+        <v>3019.25</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610906344</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>15.65</v>
+        <v>15</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1310,11 +1310,11 @@
     </row>
     <row r="10">
       <c r="A10" s="97" t="n">
-        <v>46015</v>
+        <v>46034</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1326,18 +1326,18 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>656.3</v>
+        <v>626.75</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3297.9</v>
+        <v>3149.4</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>16.4</v>
+        <v>15.65</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="11">
       <c r="A11" s="97" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1362,18 +1362,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>659.35</v>
+        <v>656.3</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3313.25</v>
+        <v>3297.9</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="12">
       <c r="A12" s="97" t="n">
-        <v>45993</v>
+        <v>46014</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1398,18 +1398,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>638.9400000000001</v>
+        <v>659.35</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3210.65</v>
+        <v>3313.25</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>15.95</v>
+        <v>16.5</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="13">
       <c r="A13" s="97" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1434,18 +1434,18 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>646.8</v>
+        <v>638.9400000000001</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3250.15</v>
+        <v>3210.65</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252608755594</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>16.15</v>
+        <v>15.95</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1454,11 +1454,11 @@
     </row>
     <row r="14">
       <c r="A14" s="97" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1470,18 +1470,18 @@
         <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>638.5</v>
+        <v>646.8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3208.45</v>
+        <v>3250.15</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>15.95</v>
+        <v>16.15</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="15">
       <c r="A15" s="97" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1506,18 +1506,18 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>634.35</v>
+        <v>638.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3187.6</v>
+        <v>3208.45</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>15.85</v>
+        <v>15.95</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="16">
       <c r="A16" s="97" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1539,21 +1539,21 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>656.5</v>
+        <v>634.35</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>6597.8</v>
+        <v>3187.6</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>32.8</v>
+        <v>15.85</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="17">
       <c r="A17" s="97" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1575,21 +1575,21 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>669.9</v>
+        <v>656.5</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3366.25</v>
+        <v>6597.8</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>16.75</v>
+        <v>32.8</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1598,11 +1598,11 @@
     </row>
     <row r="18">
       <c r="A18" s="97" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1614,18 +1614,18 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>616.05</v>
+        <v>669.9</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3095.65</v>
+        <v>3366.25</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>15.4</v>
+        <v>16.75</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1634,11 +1634,11 @@
     </row>
     <row r="19">
       <c r="A19" s="97" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1650,18 +1650,18 @@
         <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>656</v>
+        <v>616.05</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3296.4</v>
+        <v>3095.65</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="20">
       <c r="A20" s="97" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1686,18 +1686,18 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3306.45</v>
+        <v>3296.4</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>16.45</v>
+        <v>16.4</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="21">
       <c r="A21" s="97" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1722,18 +1722,18 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>661.54</v>
+        <v>658</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3324.25</v>
+        <v>3306.45</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>16.55</v>
+        <v>16.45</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1741,106 +1741,44 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B22" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C22" s="39" t="inlineStr">
+      <c r="A22" s="97" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D22" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" s="41" t="n">
-        <v>648.5700000000001</v>
-      </c>
-      <c r="F22" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G22" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H22" s="40" t="n"/>
-      <c r="I22" s="40" t="n"/>
-      <c r="J22" s="42">
+      <c r="D22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>661.54</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>3324.25</v>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607382790</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="J22" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K22" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N22" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O22" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R22" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S22" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T22" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U22" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V22" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W22" s="47" t="n"/>
-      <c r="X22" s="47" t="n"/>
-      <c r="Y22" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z22" s="47" t="n"/>
-      <c r="AA22" s="47" t="n"/>
-      <c r="AB22" s="48" t="n"/>
-      <c r="AC22" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD22" s="49" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B23" s="39" t="inlineStr">
         <is>
@@ -1856,10 +1794,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="41" t="n">
-        <v>640.51</v>
+        <v>648.5700000000001</v>
       </c>
       <c r="F23" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G23" s="39" t="inlineStr">
@@ -1874,71 +1812,71 @@
         <v/>
       </c>
       <c r="K23" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N23" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O23" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R23" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S23" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T23" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U23" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V23" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W23" s="47" t="n"/>
       <c r="X23" s="47" t="n"/>
       <c r="Y23" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z23" s="47" t="n"/>
       <c r="AA23" s="47" t="n"/>
       <c r="AB23" s="48" t="n"/>
       <c r="AC23" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD23" s="49" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="38" t="n">
-        <v>45897</v>
+        <v>45947</v>
       </c>
       <c r="B24" s="39" t="inlineStr">
         <is>
@@ -1951,95 +1889,92 @@
         </is>
       </c>
       <c r="D24" s="40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E24" s="41" t="n">
-        <v>645.76</v>
-      </c>
-      <c r="F24" s="41" t="n">
-        <v>3228.8</v>
+        <v>640.51</v>
+      </c>
+      <c r="F24" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G24" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H24" s="40" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="I24" s="40" t="n">
-        <v>19.59</v>
-      </c>
+      <c r="H24" s="40" t="n"/>
+      <c r="I24" s="40" t="n"/>
       <c r="J24" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD24" s="49" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="38" t="n">
-        <v>45855</v>
+        <v>45897</v>
       </c>
       <c r="B25" s="39" t="inlineStr">
         <is>
@@ -2055,10 +1990,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="41" t="n">
-        <v>680</v>
+        <v>645.76</v>
       </c>
       <c r="F25" s="41" t="n">
-        <v>3399.98</v>
+        <v>3228.8</v>
       </c>
       <c r="G25" s="39" t="inlineStr">
         <is>
@@ -2066,85 +2001,85 @@
         </is>
       </c>
       <c r="H25" s="40" t="n">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="I25" s="40" t="n">
-        <v>20.6</v>
+        <v>19.59</v>
       </c>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="38" t="n">
-        <v>45835</v>
+        <v>45855</v>
       </c>
       <c r="B26" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" s="39" t="inlineStr">
@@ -2153,189 +2088,189 @@
         </is>
       </c>
       <c r="D26" s="40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" s="41" t="n">
-        <v>1.25</v>
+        <v>680</v>
       </c>
       <c r="F26" s="41" t="n">
-        <v>12.5</v>
+        <v>3399.98</v>
       </c>
       <c r="G26" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H26" s="40" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="I26" s="40" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="50" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B27" s="51" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C27" s="51" t="inlineStr">
+      <c r="A27" s="38" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B27" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C27" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D27" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="F27" s="53" t="n">
-        <v>683.97</v>
-      </c>
-      <c r="G27" s="51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H27" s="52" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I27" s="52" t="n">
-        <v>4.14</v>
+      <c r="D27" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" s="41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F27" s="41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G27" s="39" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.1.2500/- per share on Ex-Date: 27-JUN-2025</t>
+        </is>
+      </c>
+      <c r="H27" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="40" t="n">
+        <v>0</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
@@ -2355,13 +2290,13 @@
         </is>
       </c>
       <c r="D28" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="53" t="n">
         <v>683.97</v>
       </c>
       <c r="F28" s="53" t="n">
-        <v>1367.94</v>
+        <v>683.97</v>
       </c>
       <c r="G28" s="51" t="inlineStr">
         <is>
@@ -2369,81 +2304,81 @@
         </is>
       </c>
       <c r="H28" s="52" t="n">
-        <v>1.37</v>
+        <v>0.68</v>
       </c>
       <c r="I28" s="52" t="n">
-        <v>8.27</v>
+        <v>4.14</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="50" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B29" s="51" t="inlineStr">
         <is>
@@ -2456,13 +2391,13 @@
         </is>
       </c>
       <c r="D29" s="52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" s="53" t="n">
-        <v>664.02</v>
+        <v>683.97</v>
       </c>
       <c r="F29" s="53" t="n">
-        <v>3320.12</v>
+        <v>1367.94</v>
       </c>
       <c r="G29" s="51" t="inlineStr">
         <is>
@@ -2470,81 +2405,81 @@
         </is>
       </c>
       <c r="H29" s="52" t="n">
-        <v>3.29</v>
+        <v>1.37</v>
       </c>
       <c r="I29" s="52" t="n">
-        <v>20.08</v>
+        <v>8.27</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="50" t="n">
-        <v>45694</v>
+        <v>45716</v>
       </c>
       <c r="B30" s="51" t="inlineStr">
         <is>
@@ -2557,13 +2492,13 @@
         </is>
       </c>
       <c r="D30" s="52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30" s="53" t="n">
-        <v>751.83</v>
+        <v>664.02</v>
       </c>
       <c r="F30" s="53" t="n">
-        <v>1503.66</v>
+        <v>3320.12</v>
       </c>
       <c r="G30" s="51" t="inlineStr">
         <is>
@@ -2571,81 +2506,81 @@
         </is>
       </c>
       <c r="H30" s="52" t="n">
-        <v>1.49</v>
+        <v>3.29</v>
       </c>
       <c r="I30" s="52" t="n">
-        <v>9.07</v>
+        <v>20.08</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="50" t="n">
-        <v>44084</v>
+        <v>45694</v>
       </c>
       <c r="B31" s="51" t="inlineStr">
         <is>
@@ -2654,17 +2589,17 @@
       </c>
       <c r="C31" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D31" s="52" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E31" s="53" t="n">
-        <v>481.64</v>
+        <v>751.83</v>
       </c>
       <c r="F31" s="53" t="n">
-        <v>24081.77</v>
+        <v>1503.66</v>
       </c>
       <c r="G31" s="51" t="inlineStr">
         <is>
@@ -2672,81 +2607,81 @@
         </is>
       </c>
       <c r="H31" s="52" t="n">
-        <v>22.15</v>
+        <v>1.49</v>
       </c>
       <c r="I31" s="52" t="n">
-        <v>146.08</v>
+        <v>9.07</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W31" s="47" t="n"/>
       <c r="X31" s="47" t="n"/>
       <c r="Y31" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z31" s="47" t="n"/>
       <c r="AA31" s="47" t="n"/>
       <c r="AB31" s="48" t="n"/>
       <c r="AC31" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="50" t="n">
-        <v>44075</v>
+        <v>44084</v>
       </c>
       <c r="B32" s="51" t="inlineStr">
         <is>
@@ -2759,13 +2694,13 @@
         </is>
       </c>
       <c r="D32" s="52" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E32" s="53" t="n">
-        <v>476.52</v>
+        <v>481.64</v>
       </c>
       <c r="F32" s="53" t="n">
-        <v>28591.3</v>
+        <v>24081.77</v>
       </c>
       <c r="G32" s="51" t="inlineStr">
         <is>
@@ -2773,81 +2708,81 @@
         </is>
       </c>
       <c r="H32" s="52" t="n">
-        <v>29</v>
+        <v>22.15</v>
       </c>
       <c r="I32" s="52" t="n">
-        <v>170.7</v>
+        <v>146.08</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W32" s="47" t="n"/>
       <c r="X32" s="47" t="n"/>
       <c r="Y32" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z32" s="47" t="n"/>
       <c r="AA32" s="47" t="n"/>
       <c r="AB32" s="48" t="n"/>
       <c r="AC32" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="50" t="n">
-        <v>44060</v>
+        <v>44075</v>
       </c>
       <c r="B33" s="51" t="inlineStr">
         <is>
@@ -2860,13 +2795,13 @@
         </is>
       </c>
       <c r="D33" s="52" t="n">
-        <v>50</v>
-      </c>
-      <c r="E33" s="54" t="n">
-        <v>484.77</v>
+        <v>60</v>
+      </c>
+      <c r="E33" s="53" t="n">
+        <v>476.52</v>
       </c>
       <c r="F33" s="53" t="n">
-        <v>24238.46</v>
+        <v>28591.3</v>
       </c>
       <c r="G33" s="51" t="inlineStr">
         <is>
@@ -2874,81 +2809,81 @@
         </is>
       </c>
       <c r="H33" s="52" t="n">
-        <v>22.16</v>
+        <v>29</v>
       </c>
       <c r="I33" s="52" t="n">
-        <v>146.28</v>
+        <v>170.7</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W33" s="47" t="n"/>
       <c r="X33" s="47" t="n"/>
       <c r="Y33" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z33" s="47" t="n"/>
       <c r="AA33" s="47" t="n"/>
       <c r="AB33" s="48" t="n"/>
       <c r="AC33" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD33" s="49" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="50" t="n">
-        <v>44055</v>
+        <v>44060</v>
       </c>
       <c r="B34" s="51" t="inlineStr">
         <is>
@@ -2964,10 +2899,10 @@
         <v>50</v>
       </c>
       <c r="E34" s="54" t="n">
-        <v>489.63</v>
+        <v>484.77</v>
       </c>
       <c r="F34" s="53" t="n">
-        <v>24481.54</v>
+        <v>24238.46</v>
       </c>
       <c r="G34" s="51" t="inlineStr">
         <is>
@@ -2975,81 +2910,81 @@
         </is>
       </c>
       <c r="H34" s="52" t="n">
-        <v>24.74</v>
+        <v>22.16</v>
       </c>
       <c r="I34" s="52" t="n">
-        <v>148.72</v>
+        <v>146.28</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W34" s="47" t="n"/>
       <c r="X34" s="47" t="n"/>
       <c r="Y34" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z34" s="47" t="n"/>
       <c r="AA34" s="47" t="n"/>
       <c r="AB34" s="48" t="n"/>
       <c r="AC34" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD34" s="49" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B35" s="51" t="inlineStr">
         <is>
@@ -3065,10 +3000,10 @@
         <v>50</v>
       </c>
       <c r="E35" s="54" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="F35" s="53" t="n">
-        <v>23504.1</v>
+        <v>24481.54</v>
       </c>
       <c r="G35" s="51" t="inlineStr">
         <is>
@@ -3076,81 +3011,81 @@
         </is>
       </c>
       <c r="H35" s="52" t="n">
-        <v>23.54</v>
+        <v>24.74</v>
       </c>
       <c r="I35" s="52" t="n">
-        <v>142.36</v>
+        <v>148.72</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="44">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD35" s="49" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B36" s="51" t="inlineStr">
         <is>
@@ -3166,10 +3101,10 @@
         <v>50</v>
       </c>
       <c r="E36" s="54" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="F36" s="53" t="n">
-        <v>23367.41</v>
+        <v>23504.1</v>
       </c>
       <c r="G36" s="51" t="inlineStr">
         <is>
@@ -3177,81 +3112,81 @@
         </is>
       </c>
       <c r="H36" s="52" t="n">
-        <v>23.55</v>
+        <v>23.54</v>
       </c>
       <c r="I36" s="52" t="n">
-        <v>141.54</v>
+        <v>142.36</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="B37" s="51" t="inlineStr">
         <is>
@@ -3263,14 +3198,14 @@
           <t>Sell</t>
         </is>
       </c>
-      <c r="D37" s="55" t="n">
+      <c r="D37" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E37" s="54" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="F37" s="53" t="n">
-        <v>23201.97</v>
+        <v>23367.41</v>
       </c>
       <c r="G37" s="51" t="inlineStr">
         <is>
@@ -3278,81 +3213,81 @@
         </is>
       </c>
       <c r="H37" s="52" t="n">
-        <v>23.34</v>
+        <v>23.55</v>
       </c>
       <c r="I37" s="52" t="n">
-        <v>139.69</v>
+        <v>141.54</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="B38" s="51" t="inlineStr">
         <is>
@@ -3368,10 +3303,10 @@
         <v>50</v>
       </c>
       <c r="E38" s="54" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="F38" s="53" t="n">
-        <v>23785.87</v>
+        <v>23201.97</v>
       </c>
       <c r="G38" s="51" t="inlineStr">
         <is>
@@ -3379,81 +3314,81 @@
         </is>
       </c>
       <c r="H38" s="52" t="n">
-        <v>24.24</v>
+        <v>23.34</v>
       </c>
       <c r="I38" s="52" t="n">
-        <v>142.39</v>
+        <v>139.69</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B39" s="51" t="inlineStr">
         <is>
@@ -3469,10 +3404,10 @@
         <v>50</v>
       </c>
       <c r="E39" s="54" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="F39" s="53" t="n">
-        <v>23587.4</v>
+        <v>23785.87</v>
       </c>
       <c r="G39" s="51" t="inlineStr">
         <is>
@@ -3480,81 +3415,81 @@
         </is>
       </c>
       <c r="H39" s="52" t="n">
-        <v>24</v>
+        <v>24.24</v>
       </c>
       <c r="I39" s="52" t="n">
-        <v>141.1</v>
+        <v>142.39</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B40" s="51" t="inlineStr">
         <is>
@@ -3570,10 +3505,10 @@
         <v>50</v>
       </c>
       <c r="E40" s="54" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="F40" s="53" t="n">
-        <v>23224.05</v>
+        <v>23587.4</v>
       </c>
       <c r="G40" s="51" t="inlineStr">
         <is>
@@ -3581,81 +3516,81 @@
         </is>
       </c>
       <c r="H40" s="52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" s="52" t="n">
-        <v>138.9</v>
+        <v>141.1</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B41" s="51" t="inlineStr">
         <is>
@@ -3671,10 +3606,10 @@
         <v>50</v>
       </c>
       <c r="E41" s="54" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="F41" s="53" t="n">
-        <v>22369.41</v>
+        <v>23224.05</v>
       </c>
       <c r="G41" s="51" t="inlineStr">
         <is>
@@ -3682,81 +3617,81 @@
         </is>
       </c>
       <c r="H41" s="52" t="n">
-        <v>22.73</v>
+        <v>23</v>
       </c>
       <c r="I41" s="52" t="n">
-        <v>135.36</v>
+        <v>138.9</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="B42" s="51" t="inlineStr">
         <is>
@@ -3772,10 +3707,10 @@
         <v>50</v>
       </c>
       <c r="E42" s="54" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="F42" s="53" t="n">
-        <v>21896.98</v>
+        <v>22369.41</v>
       </c>
       <c r="G42" s="51" t="inlineStr">
         <is>
@@ -3783,81 +3718,81 @@
         </is>
       </c>
       <c r="H42" s="52" t="n">
-        <v>21.87</v>
+        <v>22.73</v>
       </c>
       <c r="I42" s="52" t="n">
-        <v>131.15</v>
+        <v>135.36</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="44">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD42" s="49" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="50" t="n">
-        <v>43881</v>
+        <v>44025</v>
       </c>
       <c r="B43" s="51" t="inlineStr">
         <is>
@@ -3866,17 +3801,17 @@
       </c>
       <c r="C43" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D43" s="52" t="n">
-        <v>10</v>
-      </c>
-      <c r="E43" s="53" t="n">
-        <v>310.47</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D43" s="55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" s="54" t="n">
+        <v>437.94</v>
       </c>
       <c r="F43" s="53" t="n">
-        <v>3104.69</v>
+        <v>21896.98</v>
       </c>
       <c r="G43" s="51" t="inlineStr">
         <is>
@@ -3884,93 +3819,81 @@
         </is>
       </c>
       <c r="H43" s="52" t="n">
-        <v>3.12</v>
+        <v>21.87</v>
       </c>
       <c r="I43" s="52" t="n">
-        <v>18.57</v>
+        <v>131.15</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K43" s="47" t="n"/>
-      <c r="L43" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="M43" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
-        <v/>
-      </c>
-      <c r="N43" s="57">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
-        <v/>
-      </c>
-      <c r="O43" s="56" t="n"/>
-      <c r="P43" s="47">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
-        <v/>
-      </c>
-      <c r="Q43" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
-        <v/>
-      </c>
-      <c r="R43" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="S43" s="56" t="n"/>
-      <c r="T43" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
-        <v/>
-      </c>
-      <c r="U43" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
-        <v/>
-      </c>
-      <c r="V43" s="56">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W43" s="53" t="n">
-        <v>476.52</v>
-      </c>
-      <c r="X43" s="50" t="n">
-        <v>44075</v>
-      </c>
-      <c r="Y43" s="46" t="n">
-        <v>0.5236896986</v>
-      </c>
-      <c r="Z43" s="58" t="n">
-        <v>1637.253</v>
-      </c>
-      <c r="AA43" s="58" t="n">
-        <v>4741.953</v>
-      </c>
-      <c r="AB43" s="59" t="n">
-        <v>10</v>
-      </c>
+      <c r="K43" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="L43" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="M43" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <v/>
+      </c>
+      <c r="N43" s="45">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <v/>
+      </c>
+      <c r="O43" s="43">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="P43" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="Q43" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <v/>
+      </c>
+      <c r="R43" s="44">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="S43" s="46">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="T43" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <v/>
+      </c>
+      <c r="U43" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <v/>
+      </c>
+      <c r="V43" s="47">
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W43" s="47" t="n"/>
+      <c r="X43" s="47" t="n"/>
+      <c r="Y43" s="46">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z43" s="47" t="n"/>
+      <c r="AA43" s="47" t="n"/>
+      <c r="AB43" s="48" t="n"/>
       <c r="AC43" s="44">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD43" s="49" t="n"/>
-      <c r="AE43" s="60" t="n"/>
-      <c r="AF43" s="60" t="n"/>
-      <c r="AG43" s="60" t="n"/>
-      <c r="AH43" s="60" t="n"/>
-      <c r="AI43" s="60" t="n"/>
-      <c r="AJ43" s="60" t="n"/>
-      <c r="AK43" s="60" t="n"/>
-      <c r="AL43" s="60" t="n"/>
-      <c r="AM43" s="60" t="n"/>
-      <c r="AN43" s="60" t="n"/>
-      <c r="AO43" s="60" t="n"/>
-      <c r="AP43" s="60" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="50" t="n">
-        <v>43865</v>
+        <v>43881</v>
       </c>
       <c r="B44" s="51" t="inlineStr">
         <is>
@@ -3986,10 +3909,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="53" t="n">
-        <v>315.21</v>
+        <v>310.47</v>
       </c>
       <c r="F44" s="53" t="n">
-        <v>3152.1</v>
+        <v>3104.69</v>
       </c>
       <c r="G44" s="51" t="inlineStr">
         <is>
@@ -3997,10 +3920,10 @@
         </is>
       </c>
       <c r="H44" s="52" t="n">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="I44" s="52" t="n">
-        <v>18.91</v>
+        <v>18.57</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
@@ -4008,41 +3931,41 @@
       </c>
       <c r="K44" s="47" t="n"/>
       <c r="L44" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M44" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N44" s="57">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O44" s="56" t="n"/>
       <c r="P44" s="47">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R44" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S44" s="56" t="n"/>
       <c r="T44" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (J26*D26)-(E26*D26)-(2*sum(H26:I26)), "")</f>
         <v/>
       </c>
       <c r="U44" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V44" s="56">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W44" s="53" t="n">
@@ -4052,19 +3975,19 @@
         <v>44075</v>
       </c>
       <c r="Y44" s="46" t="n">
-        <v>0.5010763657</v>
+        <v>0.5236896986</v>
       </c>
       <c r="Z44" s="58" t="n">
-        <v>1590.5166</v>
+        <v>1637.253</v>
       </c>
       <c r="AA44" s="58" t="n">
-        <v>4742.6166</v>
+        <v>4741.953</v>
       </c>
       <c r="AB44" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC44" s="44">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD44" s="49" t="n"/>
@@ -4083,7 +4006,7 @@
     </row>
     <row r="45">
       <c r="A45" s="50" t="n">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B45" s="51" t="inlineStr">
         <is>
@@ -4099,10 +4022,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="53" t="n">
-        <v>318.07</v>
+        <v>315.21</v>
       </c>
       <c r="F45" s="53" t="n">
-        <v>3180.66</v>
+        <v>3152.1</v>
       </c>
       <c r="G45" s="51" t="inlineStr">
         <is>
@@ -4110,10 +4033,10 @@
         </is>
       </c>
       <c r="H45" s="52" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="I45" s="52" t="n">
-        <v>19</v>
+        <v>18.91</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
@@ -4121,41 +4044,41 @@
       </c>
       <c r="K45" s="47" t="n"/>
       <c r="L45" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M45" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N45" s="57">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O45" s="56" t="n"/>
       <c r="P45" s="47">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R45" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S45" s="56" t="n"/>
       <c r="T45" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (J27*D27)-(E27*D27)-(2*sum(H27:I27)), "")</f>
         <v/>
       </c>
       <c r="U45" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V45" s="56">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W45" s="53" t="n">
@@ -4165,19 +4088,19 @@
         <v>44075</v>
       </c>
       <c r="Y45" s="46" t="n">
-        <v>0.4877941939</v>
+        <v>0.5010763657</v>
       </c>
       <c r="Z45" s="58" t="n">
-        <v>1562.317</v>
+        <v>1590.5166</v>
       </c>
       <c r="AA45" s="58" t="n">
-        <v>4743.017</v>
+        <v>4742.6166</v>
       </c>
       <c r="AB45" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC45" s="44">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD45" s="49" t="n"/>
@@ -4196,7 +4119,7 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="n">
-        <v>43860</v>
+        <v>43864</v>
       </c>
       <c r="B46" s="51" t="inlineStr">
         <is>
@@ -4212,10 +4135,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="53" t="n">
-        <v>314.54</v>
+        <v>318.07</v>
       </c>
       <c r="F46" s="53" t="n">
-        <v>3145.39</v>
+        <v>3180.66</v>
       </c>
       <c r="G46" s="51" t="inlineStr">
         <is>
@@ -4223,10 +4146,10 @@
         </is>
       </c>
       <c r="H46" s="52" t="n">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="I46" s="52" t="n">
-        <v>18.81</v>
+        <v>19</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
@@ -4234,63 +4157,63 @@
       </c>
       <c r="K46" s="47" t="n"/>
       <c r="L46" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M46" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N46" s="57">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O46" s="56" t="n"/>
       <c r="P46" s="47">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R46" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S46" s="56" t="n"/>
       <c r="T46" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (J28*D28)-(E28*D28)-(2*sum(H28:I28)), "")</f>
         <v/>
       </c>
       <c r="U46" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V46" s="56">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W46" s="53" t="n">
-        <v>489.63</v>
+        <v>476.52</v>
       </c>
       <c r="X46" s="50" t="n">
-        <v>44055</v>
+        <v>44075</v>
       </c>
       <c r="Y46" s="46" t="n">
-        <v>0.5450693971</v>
+        <v>0.4877941939</v>
       </c>
       <c r="Z46" s="58" t="n">
-        <v>1726.3874</v>
+        <v>1562.317</v>
       </c>
       <c r="AA46" s="58" t="n">
-        <v>4871.7874</v>
+        <v>4743.017</v>
       </c>
       <c r="AB46" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC46" s="44">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD46" s="49" t="n"/>
@@ -4309,7 +4232,7 @@
     </row>
     <row r="47">
       <c r="A47" s="50" t="n">
-        <v>43846</v>
+        <v>43860</v>
       </c>
       <c r="B47" s="51" t="inlineStr">
         <is>
@@ -4325,10 +4248,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="53" t="n">
-        <v>312.23</v>
+        <v>314.54</v>
       </c>
       <c r="F47" s="53" t="n">
-        <v>3122.32</v>
+        <v>3145.39</v>
       </c>
       <c r="G47" s="51" t="inlineStr">
         <is>
@@ -4336,10 +4259,10 @@
         </is>
       </c>
       <c r="H47" s="52" t="n">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="I47" s="52" t="n">
-        <v>18.66</v>
+        <v>18.81</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
@@ -4347,63 +4270,63 @@
       </c>
       <c r="K47" s="47" t="n"/>
       <c r="L47" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M47" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N47" s="57">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O47" s="56" t="n"/>
       <c r="P47" s="47">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R47" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S47" s="56" t="n"/>
       <c r="T47" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (J29*D29)-(E29*D29)-(2*sum(H29:I29)), "")</f>
         <v/>
       </c>
       <c r="U47" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V47" s="56">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W47" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X47" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y47" s="46" t="n">
-        <v>0.4950164433</v>
+        <v>0.5450693971</v>
       </c>
       <c r="Z47" s="58" t="n">
-        <v>1556.401</v>
+        <v>1726.3874</v>
       </c>
       <c r="AA47" s="58" t="n">
-        <v>4678.701</v>
+        <v>4871.7874</v>
       </c>
       <c r="AB47" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC47" s="44">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD47" s="49" t="n"/>
@@ -4422,7 +4345,7 @@
     </row>
     <row r="48">
       <c r="A48" s="50" t="n">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="B48" s="51" t="inlineStr">
         <is>
@@ -4435,13 +4358,13 @@
         </is>
       </c>
       <c r="D48" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48" s="53" t="n">
-        <v>311.98</v>
+        <v>312.23</v>
       </c>
       <c r="F48" s="53" t="n">
-        <v>6239.57</v>
+        <v>3122.32</v>
       </c>
       <c r="G48" s="51" t="inlineStr">
         <is>
@@ -4449,10 +4372,10 @@
         </is>
       </c>
       <c r="H48" s="52" t="n">
-        <v>6.22</v>
+        <v>3.16</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>37.35</v>
+        <v>18.66</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
@@ -4460,63 +4383,63 @@
       </c>
       <c r="K48" s="47" t="n"/>
       <c r="L48" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M48" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N48" s="57">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O48" s="56" t="n"/>
       <c r="P48" s="47">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R48" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S48" s="56" t="n"/>
       <c r="T48" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (J30*D30)-(E30*D30)-(2*sum(H30:I30)), "")</f>
         <v/>
       </c>
       <c r="U48" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V48" s="56">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W48" s="53" t="n">
-        <v>489.63</v>
+        <v>470.08</v>
       </c>
       <c r="X48" s="50" t="n">
-        <v>44055</v>
+        <v>44050</v>
       </c>
       <c r="Y48" s="46" t="n">
-        <v>0.5575648481</v>
+        <v>0.4950164433</v>
       </c>
       <c r="Z48" s="58" t="n">
-        <v>3503.258</v>
+        <v>1556.401</v>
       </c>
       <c r="AA48" s="58" t="n">
-        <v>9742.858</v>
+        <v>4678.701</v>
       </c>
       <c r="AB48" s="59" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC48" s="44">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD48" s="49" t="n"/>
@@ -4535,7 +4458,7 @@
     </row>
     <row r="49">
       <c r="A49" s="50" t="n">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="B49" s="51" t="inlineStr">
         <is>
@@ -4551,10 +4474,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="53" t="n">
-        <v>313.54</v>
+        <v>311.98</v>
       </c>
       <c r="F49" s="53" t="n">
-        <v>6270.73</v>
+        <v>6239.57</v>
       </c>
       <c r="G49" s="51" t="inlineStr">
         <is>
@@ -4562,10 +4485,10 @@
         </is>
       </c>
       <c r="H49" s="52" t="n">
-        <v>6.19</v>
+        <v>6.22</v>
       </c>
       <c r="I49" s="52" t="n">
-        <v>37.54</v>
+        <v>37.35</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
@@ -4573,41 +4496,41 @@
       </c>
       <c r="K49" s="47" t="n"/>
       <c r="L49" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M49" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N49" s="57">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O49" s="56" t="n"/>
       <c r="P49" s="47">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R49" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S49" s="56" t="n"/>
       <c r="T49" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (J31*D31)-(E31*D31)-(2*sum(H31:I31)), "")</f>
         <v/>
       </c>
       <c r="U49" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V49" s="56">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W49" s="53" t="n">
@@ -4617,19 +4540,19 @@
         <v>44055</v>
       </c>
       <c r="Y49" s="46" t="n">
-        <v>0.5499274364</v>
+        <v>0.5575648481</v>
       </c>
       <c r="Z49" s="58" t="n">
-        <v>3472.4948</v>
+        <v>3503.258</v>
       </c>
       <c r="AA49" s="58" t="n">
-        <v>9743.2948</v>
+        <v>9742.858</v>
       </c>
       <c r="AB49" s="59" t="n">
         <v>20</v>
       </c>
       <c r="AC49" s="44">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD49" s="49" t="n"/>
@@ -4648,7 +4571,7 @@
     </row>
     <row r="50">
       <c r="A50" s="50" t="n">
-        <v>43838</v>
+        <v>43844</v>
       </c>
       <c r="B50" s="51" t="inlineStr">
         <is>
@@ -4661,13 +4584,13 @@
         </is>
       </c>
       <c r="D50" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E50" s="53" t="n">
-        <v>312.31</v>
+        <v>313.54</v>
       </c>
       <c r="F50" s="53" t="n">
-        <v>3123.14</v>
+        <v>6270.73</v>
       </c>
       <c r="G50" s="51" t="inlineStr">
         <is>
@@ -4675,10 +4598,10 @@
         </is>
       </c>
       <c r="H50" s="52" t="n">
-        <v>2.51</v>
+        <v>6.19</v>
       </c>
       <c r="I50" s="52" t="n">
-        <v>18.63</v>
+        <v>37.54</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
@@ -4686,63 +4609,63 @@
       </c>
       <c r="K50" s="47" t="n"/>
       <c r="L50" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M50" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N50" s="57">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O50" s="56" t="n"/>
       <c r="P50" s="47">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R50" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S50" s="56" t="n"/>
       <c r="T50" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (J32*D32)-(E32*D32)-(2*sum(H32:I32)), "")</f>
         <v/>
       </c>
       <c r="U50" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V50" s="56">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W50" s="53" t="n">
-        <v>470.08</v>
+        <v>489.63</v>
       </c>
       <c r="X50" s="50" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="Y50" s="46" t="n">
-        <v>0.4947435343</v>
+        <v>0.5499274364</v>
       </c>
       <c r="Z50" s="58" t="n">
-        <v>1555.6122</v>
+        <v>3472.4948</v>
       </c>
       <c r="AA50" s="58" t="n">
-        <v>4678.7122</v>
+        <v>9743.2948</v>
       </c>
       <c r="AB50" s="59" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC50" s="44">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD50" s="49" t="n"/>
@@ -4761,7 +4684,7 @@
     </row>
     <row r="51">
       <c r="A51" s="50" t="n">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="B51" s="51" t="inlineStr">
         <is>
@@ -4774,13 +4697,13 @@
         </is>
       </c>
       <c r="D51" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E51" s="53" t="n">
-        <v>310.55</v>
+        <v>312.31</v>
       </c>
       <c r="F51" s="53" t="n">
-        <v>6210.95</v>
+        <v>3123.14</v>
       </c>
       <c r="G51" s="51" t="inlineStr">
         <is>
@@ -4788,10 +4711,10 @@
         </is>
       </c>
       <c r="H51" s="52" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="I51" s="52" t="n">
-        <v>37</v>
+        <v>18.63</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
@@ -4799,41 +4722,41 @@
       </c>
       <c r="K51" s="47" t="n"/>
       <c r="L51" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M51" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N51" s="57">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O51" s="56" t="n"/>
       <c r="P51" s="47">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R51" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S51" s="56" t="n"/>
       <c r="T51" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (J33*D33)-(E33*D33)-(2*sum(H33:I33)), "")</f>
         <v/>
       </c>
       <c r="U51" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V51" s="56">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W51" s="53" t="n">
@@ -4843,19 +4766,19 @@
         <v>44050</v>
       </c>
       <c r="Y51" s="46" t="n">
-        <v>0.5033168437</v>
+        <v>0.4947435343</v>
       </c>
       <c r="Z51" s="58" t="n">
-        <v>3145.9316</v>
+        <v>1555.6122</v>
       </c>
       <c r="AA51" s="58" t="n">
-        <v>9356.9316</v>
+        <v>4678.7122</v>
       </c>
       <c r="AB51" s="59" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC51" s="44">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD51" s="49" t="n"/>
@@ -4874,7 +4797,7 @@
     </row>
     <row r="52">
       <c r="A52" s="50" t="n">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="B52" s="51" t="inlineStr">
         <is>
@@ -4887,13 +4810,13 @@
         </is>
       </c>
       <c r="D52" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E52" s="53" t="n">
-        <v>322.16</v>
+        <v>310.55</v>
       </c>
       <c r="F52" s="53" t="n">
-        <v>3221.56</v>
+        <v>6210.95</v>
       </c>
       <c r="G52" s="51" t="inlineStr">
         <is>
@@ -4901,10 +4824,10 @@
         </is>
       </c>
       <c r="H52" s="52" t="n">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="I52" s="52" t="n">
-        <v>19.41</v>
+        <v>37</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
@@ -4912,41 +4835,41 @@
       </c>
       <c r="K52" s="47" t="n"/>
       <c r="L52" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M52" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N52" s="57">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O52" s="56" t="n"/>
       <c r="P52" s="47">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R52" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S52" s="56" t="n"/>
       <c r="T52" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (J34*D34)-(E34*D34)-(2*sum(H34:I34)), "")</f>
         <v/>
       </c>
       <c r="U52" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V52" s="56">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W52" s="53" t="n">
@@ -4956,19 +4879,19 @@
         <v>44050</v>
       </c>
       <c r="Y52" s="46" t="n">
-        <v>0.4495799169</v>
+        <v>0.5033168437</v>
       </c>
       <c r="Z52" s="58" t="n">
-        <v>1458.4912</v>
+        <v>3145.9316</v>
       </c>
       <c r="AA52" s="58" t="n">
-        <v>4680.0912</v>
+        <v>9356.9316</v>
       </c>
       <c r="AB52" s="59" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC52" s="44">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD52" s="49" t="n"/>
@@ -4987,7 +4910,7 @@
     </row>
     <row r="53">
       <c r="A53" s="50" t="n">
-        <v>43832</v>
+        <v>43836</v>
       </c>
       <c r="B53" s="51" t="inlineStr">
         <is>
@@ -5003,10 +4926,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="53" t="n">
-        <v>323.7</v>
+        <v>322.16</v>
       </c>
       <c r="F53" s="53" t="n">
-        <v>3237.01</v>
+        <v>3221.56</v>
       </c>
       <c r="G53" s="51" t="inlineStr">
         <is>
@@ -5014,10 +4937,10 @@
         </is>
       </c>
       <c r="H53" s="52" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="I53" s="52" t="n">
-        <v>19.34</v>
+        <v>19.41</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
@@ -5025,63 +4948,63 @@
       </c>
       <c r="K53" s="47" t="n"/>
       <c r="L53" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M53" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N53" s="57">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O53" s="56" t="n"/>
       <c r="P53" s="47">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R53" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S53" s="56" t="n"/>
       <c r="T53" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (J35*D35)-(E35*D35)-(2*sum(H35:I35)), "")</f>
         <v/>
       </c>
       <c r="U53" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V53" s="56">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W53" s="53" t="n">
-        <v>467.35</v>
+        <v>470.08</v>
       </c>
       <c r="X53" s="50" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="Y53" s="46" t="n">
-        <v>0.4345391346</v>
+        <v>0.4495799169</v>
       </c>
       <c r="Z53" s="58" t="n">
-        <v>1416.389</v>
+        <v>1458.4912</v>
       </c>
       <c r="AA53" s="58" t="n">
-        <v>4653.389</v>
+        <v>4680.0912</v>
       </c>
       <c r="AB53" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC53" s="44">
-        <f>if(B36="DIV", F36,"")</f>
+        <f>if(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD53" s="49" t="n"/>
@@ -5100,7 +5023,7 @@
     </row>
     <row r="54">
       <c r="A54" s="50" t="n">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B54" s="51" t="inlineStr">
         <is>
@@ -5116,10 +5039,10 @@
         <v>10</v>
       </c>
       <c r="E54" s="53" t="n">
-        <v>324.56</v>
+        <v>323.7</v>
       </c>
       <c r="F54" s="53" t="n">
-        <v>3245.58</v>
+        <v>3237.01</v>
       </c>
       <c r="G54" s="51" t="inlineStr">
         <is>
@@ -5127,7 +5050,7 @@
         </is>
       </c>
       <c r="H54" s="52" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="I54" s="52" t="n">
         <v>19.34</v>
@@ -5138,41 +5061,41 @@
       </c>
       <c r="K54" s="47" t="n"/>
       <c r="L54" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M54" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N54" s="57">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O54" s="56" t="n"/>
       <c r="P54" s="47">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R54" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S54" s="56" t="n"/>
       <c r="T54" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (J36*D36)-(E36*D36)-(2*sum(H36:I36)), "")</f>
         <v/>
       </c>
       <c r="U54" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V54" s="56">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W54" s="53" t="n">
@@ -5182,19 +5105,19 @@
         <v>44049</v>
       </c>
       <c r="Y54" s="46" t="n">
-        <v>0.4307957383</v>
+        <v>0.4345391346</v>
       </c>
       <c r="Z54" s="58" t="n">
-        <v>1407.9094</v>
+        <v>1416.389</v>
       </c>
       <c r="AA54" s="58" t="n">
-        <v>4653.5094</v>
+        <v>4653.389</v>
       </c>
       <c r="AB54" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC54" s="44">
-        <f>if(B37="DIV", F37,"")</f>
+        <f>if(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD54" s="49" t="n"/>
@@ -5213,7 +5136,7 @@
     </row>
     <row r="55">
       <c r="A55" s="50" t="n">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
@@ -5229,10 +5152,10 @@
         <v>10</v>
       </c>
       <c r="E55" s="53" t="n">
-        <v>325.67</v>
+        <v>324.56</v>
       </c>
       <c r="F55" s="53" t="n">
-        <v>3256.74</v>
+        <v>3245.58</v>
       </c>
       <c r="G55" s="51" t="inlineStr">
         <is>
@@ -5240,10 +5163,10 @@
         </is>
       </c>
       <c r="H55" s="52" t="n">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="I55" s="52" t="n">
-        <v>19.51</v>
+        <v>19.34</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
@@ -5251,41 +5174,41 @@
       </c>
       <c r="K55" s="47" t="n"/>
       <c r="L55" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M55" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N55" s="57">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O55" s="56" t="n"/>
       <c r="P55" s="47">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R55" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S55" s="56" t="n"/>
       <c r="T55" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (J37*D37)-(E37*D37)-(2*sum(H37:I37)), "")</f>
         <v/>
       </c>
       <c r="U55" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V55" s="56">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W55" s="53" t="n">
@@ -5295,19 +5218,19 @@
         <v>44049</v>
       </c>
       <c r="Y55" s="46" t="n">
-        <v>0.4259714345</v>
+        <v>0.4307957383</v>
       </c>
       <c r="Z55" s="58" t="n">
-        <v>1396.9648</v>
+        <v>1407.9094</v>
       </c>
       <c r="AA55" s="58" t="n">
-        <v>4653.6648</v>
+        <v>4653.5094</v>
       </c>
       <c r="AB55" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC55" s="44">
-        <f>if(B38="DIV", F38,"")</f>
+        <f>if(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD55" s="49" t="n"/>
@@ -5326,7 +5249,7 @@
     </row>
     <row r="56">
       <c r="A56" s="50" t="n">
-        <v>43823</v>
+        <v>43830</v>
       </c>
       <c r="B56" s="51" t="inlineStr">
         <is>
@@ -5342,10 +5265,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="53" t="n">
-        <v>307.15</v>
+        <v>325.67</v>
       </c>
       <c r="F56" s="53" t="n">
-        <v>3071.47</v>
+        <v>3256.74</v>
       </c>
       <c r="G56" s="51" t="inlineStr">
         <is>
@@ -5353,10 +5276,10 @@
         </is>
       </c>
       <c r="H56" s="52" t="n">
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="I56" s="52" t="n">
-        <v>18.41</v>
+        <v>19.51</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
@@ -5364,41 +5287,41 @@
       </c>
       <c r="K56" s="47" t="n"/>
       <c r="L56" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M56" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N56" s="57">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O56" s="56" t="n"/>
       <c r="P56" s="47">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R56" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S56" s="56" t="n"/>
       <c r="T56" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (J38*D38)-(E38*D38)-(2*sum(H38:I38)), "")</f>
         <v/>
       </c>
       <c r="U56" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V56" s="56">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W56" s="53" t="n">
@@ -5408,19 +5331,19 @@
         <v>44049</v>
       </c>
       <c r="Y56" s="46" t="n">
-        <v>0.5107024385</v>
+        <v>0.4259714345</v>
       </c>
       <c r="Z56" s="58" t="n">
-        <v>1579.572</v>
+        <v>1396.9648</v>
       </c>
       <c r="AA56" s="58" t="n">
-        <v>4651.072</v>
+        <v>4653.6648</v>
       </c>
       <c r="AB56" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC56" s="44">
-        <f>if(B39="DIV", F39,"")</f>
+        <f>if(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD56" s="49" t="n"/>
@@ -5439,7 +5362,7 @@
     </row>
     <row r="57">
       <c r="A57" s="50" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="B57" s="51" t="inlineStr">
         <is>
@@ -5455,10 +5378,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="53" t="n">
-        <v>312.13</v>
+        <v>307.15</v>
       </c>
       <c r="F57" s="53" t="n">
-        <v>3121.27</v>
+        <v>3071.47</v>
       </c>
       <c r="G57" s="51" t="inlineStr">
         <is>
@@ -5466,49 +5389,52 @@
         </is>
       </c>
       <c r="H57" s="52" t="n">
-        <v>3.12</v>
+        <v>3.06</v>
       </c>
       <c r="I57" s="52" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="J57" s="61" t="n"/>
-      <c r="K57" s="56" t="n"/>
+        <v>18.41</v>
+      </c>
+      <c r="J57" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K57" s="47" t="n"/>
       <c r="L57" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M57" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N57" s="57">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O57" s="56" t="n"/>
       <c r="P57" s="47">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R57" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S57" s="56" t="n"/>
       <c r="T57" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (J39*D39)-(E39*D39)-(2*sum(H39:I39)), "")</f>
         <v/>
       </c>
       <c r="U57" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V57" s="56">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W57" s="53" t="n">
@@ -5518,19 +5444,19 @@
         <v>44049</v>
       </c>
       <c r="Y57" s="46" t="n">
-        <v>0.4869391417</v>
+        <v>0.5107024385</v>
       </c>
       <c r="Z57" s="58" t="n">
-        <v>1530.4692</v>
+        <v>1579.572</v>
       </c>
       <c r="AA57" s="58" t="n">
-        <v>4651.7692</v>
+        <v>4651.072</v>
       </c>
       <c r="AB57" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC57" s="44">
-        <f>if(B40="DIV", F40,"")</f>
+        <f>if(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD57" s="49" t="n"/>
@@ -5549,7 +5475,7 @@
     </row>
     <row r="58">
       <c r="A58" s="50" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="B58" s="51" t="inlineStr">
         <is>
@@ -5565,10 +5491,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="53" t="n">
-        <v>312.18</v>
+        <v>312.13</v>
       </c>
       <c r="F58" s="53" t="n">
-        <v>3121.82</v>
+        <v>3121.27</v>
       </c>
       <c r="G58" s="51" t="inlineStr">
         <is>
@@ -5576,71 +5502,71 @@
         </is>
       </c>
       <c r="H58" s="52" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="I58" s="52" t="n">
-        <v>18.69</v>
+        <v>18.65</v>
       </c>
       <c r="J58" s="61" t="n"/>
       <c r="K58" s="56" t="n"/>
       <c r="L58" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M58" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N58" s="57">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O58" s="56" t="n"/>
       <c r="P58" s="47">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R58" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S58" s="56" t="n"/>
       <c r="T58" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (J40*D40)-(E40*D40)-(2*sum(H40:I40)), "")</f>
         <v/>
       </c>
       <c r="U58" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V58" s="56">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W58" s="53" t="n">
-        <v>464.04</v>
+        <v>467.35</v>
       </c>
       <c r="X58" s="50" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="Y58" s="46" t="n">
-        <v>0.4763075925</v>
+        <v>0.4869391417</v>
       </c>
       <c r="Z58" s="58" t="n">
-        <v>1497.3396</v>
+        <v>1530.4692</v>
       </c>
       <c r="AA58" s="58" t="n">
-        <v>4619.1396</v>
+        <v>4651.7692</v>
       </c>
       <c r="AB58" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC58" s="44">
-        <f>if(B41="DIV", F41,"")</f>
+        <f>if(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD58" s="49" t="n"/>
@@ -5659,7 +5585,7 @@
     </row>
     <row r="59">
       <c r="A59" s="50" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="B59" s="51" t="inlineStr">
         <is>
@@ -5672,13 +5598,13 @@
         </is>
       </c>
       <c r="D59" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E59" s="53" t="n">
-        <v>307.22</v>
+        <v>312.18</v>
       </c>
       <c r="F59" s="53" t="n">
-        <v>6144.32</v>
+        <v>3121.82</v>
       </c>
       <c r="G59" s="51" t="inlineStr">
         <is>
@@ -5686,52 +5612,49 @@
         </is>
       </c>
       <c r="H59" s="52" t="n">
-        <v>4.52</v>
+        <v>3.13</v>
       </c>
       <c r="I59" s="52" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="J59" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K59" s="47" t="n"/>
+        <v>18.69</v>
+      </c>
+      <c r="J59" s="61" t="n"/>
+      <c r="K59" s="56" t="n"/>
       <c r="L59" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M59" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N59" s="57">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O59" s="56" t="n"/>
       <c r="P59" s="47">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R59" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S59" s="56" t="n"/>
       <c r="T59" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (J41*D41)-(E41*D41)-(2*sum(H41:I41)), "")</f>
         <v/>
       </c>
       <c r="U59" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V59" s="56">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W59" s="53" t="n">
@@ -5741,26 +5664,22 @@
         <v>44048</v>
       </c>
       <c r="Y59" s="46" t="n">
-        <v>0.4999467153</v>
+        <v>0.4763075925</v>
       </c>
       <c r="Z59" s="58" t="n">
-        <v>3092.4904</v>
+        <v>1497.3396</v>
       </c>
       <c r="AA59" s="58" t="n">
-        <v>9236.8904</v>
+        <v>4619.1396</v>
       </c>
       <c r="AB59" s="59" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC59" s="44">
-        <f>if(B42="DIV", F42,"")</f>
-        <v/>
-      </c>
-      <c r="AD59" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B41="DIV", F41,"")</f>
+        <v/>
+      </c>
+      <c r="AD59" s="49" t="n"/>
       <c r="AE59" s="60" t="n"/>
       <c r="AF59" s="60" t="n"/>
       <c r="AG59" s="60" t="n"/>
@@ -5776,7 +5695,7 @@
     </row>
     <row r="60">
       <c r="A60" s="50" t="n">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="B60" s="51" t="inlineStr">
         <is>
@@ -5792,10 +5711,10 @@
         <v>20</v>
       </c>
       <c r="E60" s="53" t="n">
-        <v>302.14</v>
+        <v>307.22</v>
       </c>
       <c r="F60" s="53" t="n">
-        <v>6042.87</v>
+        <v>6144.32</v>
       </c>
       <c r="G60" s="51" t="inlineStr">
         <is>
@@ -5803,10 +5722,10 @@
         </is>
       </c>
       <c r="H60" s="52" t="n">
-        <v>5.78</v>
+        <v>4.52</v>
       </c>
       <c r="I60" s="52" t="n">
-        <v>36.09</v>
+        <v>36.8</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -5814,41 +5733,41 @@
       </c>
       <c r="K60" s="47" t="n"/>
       <c r="L60" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M60" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N60" s="57">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O60" s="56" t="n"/>
       <c r="P60" s="47">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R60" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S60" s="56" t="n"/>
       <c r="T60" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (J42*D42)-(E42*D42)-(2*sum(H42:I42)), "")</f>
         <v/>
       </c>
       <c r="U60" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V60" s="56">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W60" s="53" t="n">
@@ -5858,19 +5777,19 @@
         <v>44048</v>
       </c>
       <c r="Y60" s="46" t="n">
-        <v>0.5247008089</v>
+        <v>0.4999467153</v>
       </c>
       <c r="Z60" s="58" t="n">
-        <v>3192.668</v>
+        <v>3092.4904</v>
       </c>
       <c r="AA60" s="58" t="n">
-        <v>9235.468000000001</v>
+        <v>9236.8904</v>
       </c>
       <c r="AB60" s="59" t="n">
         <v>20</v>
       </c>
       <c r="AC60" s="44">
-        <f>if(B43="DIV", F43,"")</f>
+        <f>if(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD60" s="62" t="inlineStr">
@@ -5893,7 +5812,7 @@
     </row>
     <row r="61">
       <c r="A61" s="50" t="n">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="B61" s="51" t="inlineStr">
         <is>
@@ -5906,13 +5825,13 @@
         </is>
       </c>
       <c r="D61" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E61" s="53" t="n">
-        <v>295.51</v>
+        <v>302.14</v>
       </c>
       <c r="F61" s="53" t="n">
-        <v>8865.290000000001</v>
+        <v>6042.87</v>
       </c>
       <c r="G61" s="51" t="inlineStr">
         <is>
@@ -5920,10 +5839,10 @@
         </is>
       </c>
       <c r="H61" s="52" t="n">
-        <v>8.859999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="I61" s="52" t="n">
-        <v>52.93</v>
+        <v>36.09</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -5931,63 +5850,63 @@
       </c>
       <c r="K61" s="47" t="n"/>
       <c r="L61" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M61" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N61" s="57">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O61" s="56" t="n"/>
       <c r="P61" s="47">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R61" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S61" s="56" t="n"/>
       <c r="T61" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (J43*D43)-(E43*D43)-(2*sum(H43:I43)), "")</f>
         <v/>
       </c>
       <c r="U61" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V61" s="56">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W61" s="53" t="n">
-        <v>475.72</v>
+        <v>464.04</v>
       </c>
       <c r="X61" s="50" t="n">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="Y61" s="46" t="n">
-        <v>0.5971282659</v>
+        <v>0.5247008089</v>
       </c>
       <c r="Z61" s="58" t="n">
-        <v>5330.6118</v>
+        <v>3192.668</v>
       </c>
       <c r="AA61" s="58" t="n">
-        <v>14195.9118</v>
+        <v>9235.468000000001</v>
       </c>
       <c r="AB61" s="59" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AC61" s="44">
-        <f>if(B44="DIV", F44,"")</f>
+        <f>if(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD61" s="62" t="inlineStr">
@@ -6010,7 +5929,7 @@
     </row>
     <row r="62">
       <c r="A62" s="50" t="n">
-        <v>43812</v>
+        <v>43816</v>
       </c>
       <c r="B62" s="51" t="inlineStr">
         <is>
@@ -6023,13 +5942,13 @@
         </is>
       </c>
       <c r="D62" s="52" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E62" s="53" t="n">
-        <v>304.64</v>
+        <v>295.51</v>
       </c>
       <c r="F62" s="53" t="n">
-        <v>6092.9</v>
+        <v>8865.290000000001</v>
       </c>
       <c r="G62" s="51" t="inlineStr">
         <is>
@@ -6037,10 +5956,10 @@
         </is>
       </c>
       <c r="H62" s="52" t="n">
-        <v>4.6</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="I62" s="52" t="n">
-        <v>36.3</v>
+        <v>52.93</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -6048,41 +5967,41 @@
       </c>
       <c r="K62" s="47" t="n"/>
       <c r="L62" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M62" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N62" s="57">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O62" s="56" t="n"/>
       <c r="P62" s="47">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R62" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S62" s="56" t="n"/>
       <c r="T62" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (J44*D44)-(E44*D44)-(2*sum(H44:I44)), "")</f>
         <v/>
       </c>
       <c r="U62" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V62" s="56">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W62" s="53" t="n">
@@ -6092,19 +6011,19 @@
         <v>44042</v>
       </c>
       <c r="Y62" s="46" t="n">
-        <v>0.5500175421</v>
+        <v>0.5971282659</v>
       </c>
       <c r="Z62" s="58" t="n">
-        <v>3373.6976</v>
+        <v>5330.6118</v>
       </c>
       <c r="AA62" s="58" t="n">
-        <v>9466.497600000001</v>
+        <v>14195.9118</v>
       </c>
       <c r="AB62" s="59" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC62" s="44">
-        <f>if(B45="DIV", F45,"")</f>
+        <f>if(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD62" s="62" t="inlineStr">
@@ -6127,7 +6046,7 @@
     </row>
     <row r="63">
       <c r="A63" s="50" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="B63" s="51" t="inlineStr">
         <is>
@@ -6140,13 +6059,13 @@
         </is>
       </c>
       <c r="D63" s="52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E63" s="53" t="n">
-        <v>303.24</v>
+        <v>304.64</v>
       </c>
       <c r="F63" s="53" t="n">
-        <v>9097.1</v>
+        <v>6092.9</v>
       </c>
       <c r="G63" s="51" t="inlineStr">
         <is>
@@ -6154,10 +6073,10 @@
         </is>
       </c>
       <c r="H63" s="52" t="n">
-        <v>6.59</v>
+        <v>4.6</v>
       </c>
       <c r="I63" s="52" t="n">
-        <v>54.51</v>
+        <v>36.3</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
@@ -6165,63 +6084,63 @@
       </c>
       <c r="K63" s="47" t="n"/>
       <c r="L63" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M63" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N63" s="57">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O63" s="56" t="n"/>
       <c r="P63" s="47">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R63" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S63" s="56" t="n"/>
       <c r="T63" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (J45*D45)-(E45*D45)-(2*sum(H45:I45)), "")</f>
         <v/>
       </c>
       <c r="U63" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V63" s="56">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W63" s="53" t="n">
-        <v>471.75</v>
+        <v>475.72</v>
       </c>
       <c r="X63" s="50" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="Y63" s="46" t="n">
-        <v>0.5442691577</v>
+        <v>0.5500175421</v>
       </c>
       <c r="Z63" s="58" t="n">
-        <v>4984.5258</v>
+        <v>3373.6976</v>
       </c>
       <c r="AA63" s="58" t="n">
-        <v>14081.7258</v>
+        <v>9466.497600000001</v>
       </c>
       <c r="AB63" s="59" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AC63" s="44">
-        <f>if(B46="DIV", F46,"")</f>
+        <f>if(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD63" s="62" t="inlineStr">
@@ -6244,7 +6163,7 @@
     </row>
     <row r="64">
       <c r="A64" s="50" t="n">
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="B64" s="51" t="inlineStr">
         <is>
@@ -6257,13 +6176,13 @@
         </is>
       </c>
       <c r="D64" s="52" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E64" s="53" t="n">
-        <v>310.97</v>
+        <v>303.24</v>
       </c>
       <c r="F64" s="53" t="n">
-        <v>3109.74</v>
+        <v>9097.1</v>
       </c>
       <c r="G64" s="51" t="inlineStr">
         <is>
@@ -6271,10 +6190,10 @@
         </is>
       </c>
       <c r="H64" s="52" t="n">
-        <v>2.73</v>
+        <v>6.59</v>
       </c>
       <c r="I64" s="52" t="n">
-        <v>18.51</v>
+        <v>54.51</v>
       </c>
       <c r="J64" s="42">
         <f>Index!$C$2</f>
@@ -6282,63 +6201,63 @@
       </c>
       <c r="K64" s="47" t="n"/>
       <c r="L64" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M64" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N64" s="57">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O64" s="56" t="n"/>
       <c r="P64" s="47">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R64" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S64" s="56" t="n"/>
       <c r="T64" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (J46*D46)-(E46*D46)-(2*sum(H46:I46)), "")</f>
         <v/>
       </c>
       <c r="U64" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V64" s="56">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W64" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X64" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y64" s="46" t="n">
-        <v>0.483429661</v>
+        <v>0.5442691577</v>
       </c>
       <c r="Z64" s="58" t="n">
-        <v>1513.6086</v>
+        <v>4984.5258</v>
       </c>
       <c r="AA64" s="58" t="n">
-        <v>4623.3086</v>
+        <v>14081.7258</v>
       </c>
       <c r="AB64" s="59" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC64" s="44">
-        <f>if(B47="DIV", F47,"")</f>
+        <f>if(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD64" s="62" t="inlineStr">
@@ -6361,7 +6280,7 @@
     </row>
     <row r="65">
       <c r="A65" s="50" t="n">
-        <v>43801</v>
+        <v>43803</v>
       </c>
       <c r="B65" s="51" t="inlineStr">
         <is>
@@ -6374,13 +6293,13 @@
         </is>
       </c>
       <c r="D65" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E65" s="53" t="n">
-        <v>319.62</v>
+        <v>310.97</v>
       </c>
       <c r="F65" s="53" t="n">
-        <v>6392.34</v>
+        <v>3109.74</v>
       </c>
       <c r="G65" s="51" t="inlineStr">
         <is>
@@ -6388,10 +6307,10 @@
         </is>
       </c>
       <c r="H65" s="52" t="n">
-        <v>3.86</v>
+        <v>2.73</v>
       </c>
       <c r="I65" s="52" t="n">
-        <v>38.48</v>
+        <v>18.51</v>
       </c>
       <c r="J65" s="42">
         <f>Index!$C$2</f>
@@ -6399,63 +6318,63 @@
       </c>
       <c r="K65" s="47" t="n"/>
       <c r="L65" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M65" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N65" s="57">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O65" s="56" t="n"/>
       <c r="P65" s="47">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R65" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S65" s="56" t="n"/>
       <c r="T65" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (J47*D47)-(E47*D47)-(2*sum(H47:I47)), "")</f>
         <v/>
       </c>
       <c r="U65" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V65" s="56">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W65" s="53" t="n">
-        <v>471.75</v>
+        <v>464.48</v>
       </c>
       <c r="X65" s="50" t="n">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="Y65" s="46" t="n">
-        <v>0.4662242101</v>
+        <v>0.483429661</v>
       </c>
       <c r="Z65" s="58" t="n">
-        <v>3000.0036</v>
+        <v>1513.6086</v>
       </c>
       <c r="AA65" s="58" t="n">
-        <v>9392.4036</v>
+        <v>4623.3086</v>
       </c>
       <c r="AB65" s="59" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC65" s="44">
-        <f>if(B48="DIV", F48,"")</f>
+        <f>if(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD65" s="62" t="inlineStr">
@@ -6478,7 +6397,7 @@
     </row>
     <row r="66">
       <c r="A66" s="50" t="n">
-        <v>43798</v>
+        <v>43801</v>
       </c>
       <c r="B66" s="51" t="inlineStr">
         <is>
@@ -6494,10 +6413,10 @@
         <v>20</v>
       </c>
       <c r="E66" s="53" t="n">
-        <v>321.79</v>
+        <v>319.62</v>
       </c>
       <c r="F66" s="53" t="n">
-        <v>6435.75</v>
+        <v>6392.34</v>
       </c>
       <c r="G66" s="51" t="inlineStr">
         <is>
@@ -6505,10 +6424,10 @@
         </is>
       </c>
       <c r="H66" s="52" t="n">
-        <v>4.11</v>
+        <v>3.86</v>
       </c>
       <c r="I66" s="52" t="n">
-        <v>38.64</v>
+        <v>38.48</v>
       </c>
       <c r="J66" s="42">
         <f>Index!$C$2</f>
@@ -6516,63 +6435,63 @@
       </c>
       <c r="K66" s="47" t="n"/>
       <c r="L66" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M66" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N66" s="57">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O66" s="56" t="n"/>
       <c r="P66" s="47">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R66" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S66" s="56" t="n"/>
       <c r="T66" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (J48*D48)-(E48*D48)-(2*sum(H48:I48)), "")</f>
         <v/>
       </c>
       <c r="U66" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V66" s="56">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W66" s="53" t="n">
-        <v>464.48</v>
+        <v>471.75</v>
       </c>
       <c r="X66" s="50" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="Y66" s="46" t="n">
-        <v>0.4343361581</v>
+        <v>0.4662242101</v>
       </c>
       <c r="Z66" s="58" t="n">
-        <v>2813.8468</v>
+        <v>3000.0036</v>
       </c>
       <c r="AA66" s="58" t="n">
-        <v>9249.6468</v>
+        <v>9392.4036</v>
       </c>
       <c r="AB66" s="59" t="n">
         <v>20</v>
       </c>
       <c r="AC66" s="44">
-        <f>if(B49="DIV", F49,"")</f>
+        <f>if(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD66" s="62" t="inlineStr">
@@ -6595,7 +6514,7 @@
     </row>
     <row r="67">
       <c r="A67" s="50" t="n">
-        <v>43796</v>
+        <v>43798</v>
       </c>
       <c r="B67" s="51" t="inlineStr">
         <is>
@@ -6608,13 +6527,13 @@
         </is>
       </c>
       <c r="D67" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E67" s="53" t="n">
-        <v>316.81</v>
+        <v>321.79</v>
       </c>
       <c r="F67" s="53" t="n">
-        <v>3168.11</v>
+        <v>6435.75</v>
       </c>
       <c r="G67" s="51" t="inlineStr">
         <is>
@@ -6622,10 +6541,10 @@
         </is>
       </c>
       <c r="H67" s="52" t="n">
-        <v>1.77</v>
+        <v>4.11</v>
       </c>
       <c r="I67" s="52" t="n">
-        <v>18.84</v>
+        <v>38.64</v>
       </c>
       <c r="J67" s="42">
         <f>Index!$C$2</f>
@@ -6633,41 +6552,41 @@
       </c>
       <c r="K67" s="47" t="n"/>
       <c r="L67" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M67" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N67" s="57">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O67" s="56" t="n"/>
       <c r="P67" s="47">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R67" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S67" s="56" t="n"/>
       <c r="T67" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (J49*D49)-(E49*D49)-(2*sum(H49:I49)), "")</f>
         <v/>
       </c>
       <c r="U67" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V67" s="56">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W67" s="53" t="n">
@@ -6677,19 +6596,19 @@
         <v>44039</v>
       </c>
       <c r="Y67" s="46" t="n">
-        <v>0.4566177651</v>
+        <v>0.4343361581</v>
       </c>
       <c r="Z67" s="58" t="n">
-        <v>1456.0262</v>
+        <v>2813.8468</v>
       </c>
       <c r="AA67" s="58" t="n">
-        <v>4624.1262</v>
+        <v>9249.6468</v>
       </c>
       <c r="AB67" s="59" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC67" s="44">
-        <f>if(B50="DIV", F50,"")</f>
+        <f>if(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD67" s="62" t="inlineStr">
@@ -6712,11 +6631,11 @@
     </row>
     <row r="68">
       <c r="A68" s="50" t="n">
-        <v>43782</v>
+        <v>43796</v>
       </c>
       <c r="B68" s="51" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C68" s="51" t="inlineStr">
@@ -6728,10 +6647,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="53" t="n">
-        <v>333.25</v>
+        <v>316.81</v>
       </c>
       <c r="F68" s="53" t="n">
-        <v>3332.5</v>
+        <v>3168.11</v>
       </c>
       <c r="G68" s="51" t="inlineStr">
         <is>
@@ -6739,10 +6658,10 @@
         </is>
       </c>
       <c r="H68" s="52" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="I68" s="52" t="n">
-        <v>20.14</v>
+        <v>18.84</v>
       </c>
       <c r="J68" s="42">
         <f>Index!$C$2</f>
@@ -6750,41 +6669,41 @@
       </c>
       <c r="K68" s="47" t="n"/>
       <c r="L68" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M68" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N68" s="57">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O68" s="56" t="n"/>
       <c r="P68" s="47">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R68" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S68" s="56" t="n"/>
       <c r="T68" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (J50*D50)-(E50*D50)-(2*sum(H50:I50)), "")</f>
         <v/>
       </c>
       <c r="U68" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V68" s="56">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W68" s="53" t="n">
@@ -6794,19 +6713,19 @@
         <v>44039</v>
       </c>
       <c r="Y68" s="46" t="n">
-        <v>0.3857289611</v>
+        <v>0.4566177651</v>
       </c>
       <c r="Z68" s="58" t="n">
-        <v>1293.9278</v>
+        <v>1456.0262</v>
       </c>
       <c r="AA68" s="58" t="n">
-        <v>4626.4278</v>
+        <v>4624.1262</v>
       </c>
       <c r="AB68" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC68" s="44">
-        <f>if(B51="DIV", F51,"")</f>
+        <f>if(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD68" s="62" t="inlineStr">
@@ -6829,11 +6748,11 @@
     </row>
     <row r="69">
       <c r="A69" s="50" t="n">
-        <v>43707</v>
+        <v>43782</v>
       </c>
       <c r="B69" s="51" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C69" s="51" t="inlineStr">
@@ -6842,13 +6761,13 @@
         </is>
       </c>
       <c r="D69" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E69" s="53" t="n">
-        <v>305.59</v>
+        <v>333.25</v>
       </c>
       <c r="F69" s="53" t="n">
-        <v>6111.8</v>
+        <v>3332.5</v>
       </c>
       <c r="G69" s="51" t="inlineStr">
         <is>
@@ -6856,10 +6775,10 @@
         </is>
       </c>
       <c r="H69" s="52" t="n">
-        <v>6.01</v>
+        <v>1.86</v>
       </c>
       <c r="I69" s="52" t="n">
-        <v>36.79</v>
+        <v>20.14</v>
       </c>
       <c r="J69" s="42">
         <f>Index!$C$2</f>
@@ -6867,63 +6786,63 @@
       </c>
       <c r="K69" s="47" t="n"/>
       <c r="L69" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M69" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N69" s="57">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O69" s="56" t="n"/>
       <c r="P69" s="47">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R69" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S69" s="56" t="n"/>
       <c r="T69" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (J51*D51)-(E51*D51)-(2*sum(H51:I51)), "")</f>
         <v/>
       </c>
       <c r="U69" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V69" s="56">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W69" s="53" t="n">
-        <v>447.39</v>
+        <v>464.48</v>
       </c>
       <c r="X69" s="50" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="Y69" s="46" t="n">
-        <v>0.4543424431</v>
+        <v>0.3857289611</v>
       </c>
       <c r="Z69" s="58" t="n">
-        <v>2796.296</v>
+        <v>1293.9278</v>
       </c>
       <c r="AA69" s="58" t="n">
-        <v>8908.096</v>
+        <v>4626.4278</v>
       </c>
       <c r="AB69" s="59" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC69" s="44">
-        <f>if(B52="DIV", F52,"")</f>
+        <f>if(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD69" s="62" t="inlineStr">
@@ -6931,10 +6850,22 @@
           <t>SBI Securities</t>
         </is>
       </c>
+      <c r="AE69" s="60" t="n"/>
+      <c r="AF69" s="60" t="n"/>
+      <c r="AG69" s="60" t="n"/>
+      <c r="AH69" s="60" t="n"/>
+      <c r="AI69" s="60" t="n"/>
+      <c r="AJ69" s="60" t="n"/>
+      <c r="AK69" s="60" t="n"/>
+      <c r="AL69" s="60" t="n"/>
+      <c r="AM69" s="60" t="n"/>
+      <c r="AN69" s="60" t="n"/>
+      <c r="AO69" s="60" t="n"/>
+      <c r="AP69" s="60" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="50" t="n">
-        <v>43697</v>
+        <v>43707</v>
       </c>
       <c r="B70" s="51" t="inlineStr">
         <is>
@@ -6947,13 +6878,13 @@
         </is>
       </c>
       <c r="D70" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E70" s="53" t="n">
-        <v>303.43</v>
+        <v>305.59</v>
       </c>
       <c r="F70" s="53" t="n">
-        <v>3034.27</v>
+        <v>6111.8</v>
       </c>
       <c r="G70" s="51" t="inlineStr">
         <is>
@@ -6961,10 +6892,10 @@
         </is>
       </c>
       <c r="H70" s="52" t="n">
-        <v>2.86</v>
+        <v>6.01</v>
       </c>
       <c r="I70" s="52" t="n">
-        <v>18.41</v>
+        <v>36.79</v>
       </c>
       <c r="J70" s="42">
         <f>Index!$C$2</f>
@@ -6972,41 +6903,41 @@
       </c>
       <c r="K70" s="47" t="n"/>
       <c r="L70" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M70" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N70" s="57">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O70" s="56" t="n"/>
       <c r="P70" s="47">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R70" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S70" s="56" t="n"/>
       <c r="T70" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (J52*D52)-(E52*D52)-(2*sum(H52:I52)), "")</f>
         <v/>
       </c>
       <c r="U70" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V70" s="56">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W70" s="53" t="n">
@@ -7016,19 +6947,19 @@
         <v>44036</v>
       </c>
       <c r="Y70" s="46" t="n">
-        <v>0.4645481977</v>
+        <v>0.4543424431</v>
       </c>
       <c r="Z70" s="58" t="n">
-        <v>1419.4456</v>
+        <v>2796.296</v>
       </c>
       <c r="AA70" s="58" t="n">
-        <v>4453.7456</v>
+        <v>8908.096</v>
       </c>
       <c r="AB70" s="59" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC70" s="44">
-        <f>if(B53="DIV", F53,"")</f>
+        <f>if(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD70" s="62" t="inlineStr">
@@ -7039,7 +6970,7 @@
     </row>
     <row r="71">
       <c r="A71" s="50" t="n">
-        <v>43685</v>
+        <v>43697</v>
       </c>
       <c r="B71" s="51" t="inlineStr">
         <is>
@@ -7055,10 +6986,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="53" t="n">
-        <v>309.25</v>
+        <v>303.43</v>
       </c>
       <c r="F71" s="53" t="n">
-        <v>3092.54</v>
+        <v>3034.27</v>
       </c>
       <c r="G71" s="51" t="inlineStr">
         <is>
@@ -7066,10 +6997,10 @@
         </is>
       </c>
       <c r="H71" s="52" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="I71" s="52" t="n">
-        <v>18.58</v>
+        <v>18.41</v>
       </c>
       <c r="J71" s="42">
         <f>Index!$C$2</f>
@@ -7077,41 +7008,41 @@
       </c>
       <c r="K71" s="47" t="n"/>
       <c r="L71" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M71" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N71" s="57">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O71" s="56" t="n"/>
       <c r="P71" s="47">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R71" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S71" s="56" t="n"/>
       <c r="T71" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (J53*D53)-(E53*D53)-(2*sum(H53:I53)), "")</f>
         <v/>
       </c>
       <c r="U71" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V71" s="56">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W71" s="53" t="n">
@@ -7121,19 +7052,19 @@
         <v>44036</v>
       </c>
       <c r="Y71" s="46" t="n">
-        <v>0.4373877357</v>
+        <v>0.4645481977</v>
       </c>
       <c r="Z71" s="58" t="n">
-        <v>1362.0604</v>
+        <v>1419.4456</v>
       </c>
       <c r="AA71" s="58" t="n">
-        <v>4454.5604</v>
+        <v>4453.7456</v>
       </c>
       <c r="AB71" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC71" s="44">
-        <f>if(B54="DIV", F54,"")</f>
+        <f>if(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD71" s="62" t="inlineStr">
@@ -7144,7 +7075,7 @@
     </row>
     <row r="72">
       <c r="A72" s="50" t="n">
-        <v>43682</v>
+        <v>43685</v>
       </c>
       <c r="B72" s="51" t="inlineStr">
         <is>
@@ -7160,10 +7091,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="53" t="n">
-        <v>301.86</v>
+        <v>309.25</v>
       </c>
       <c r="F72" s="53" t="n">
-        <v>3018.58</v>
+        <v>3092.54</v>
       </c>
       <c r="G72" s="51" t="inlineStr">
         <is>
@@ -7171,10 +7102,10 @@
         </is>
       </c>
       <c r="H72" s="52" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="I72" s="52" t="n">
-        <v>18.09</v>
+        <v>18.58</v>
       </c>
       <c r="J72" s="42">
         <f>Index!$C$2</f>
@@ -7182,41 +7113,41 @@
       </c>
       <c r="K72" s="47" t="n"/>
       <c r="L72" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M72" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N72" s="57">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O72" s="56" t="n"/>
       <c r="P72" s="47">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R72" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S72" s="56" t="n"/>
       <c r="T72" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (J54*D54)-(E54*D54)-(2*sum(H54:I54)), "")</f>
         <v/>
       </c>
       <c r="U72" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V72" s="56">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W72" s="53" t="n">
@@ -7226,19 +7157,19 @@
         <v>44036</v>
       </c>
       <c r="Y72" s="46" t="n">
-        <v>0.4720678629</v>
+        <v>0.4373877357</v>
       </c>
       <c r="Z72" s="58" t="n">
-        <v>1434.9258</v>
+        <v>1362.0604</v>
       </c>
       <c r="AA72" s="58" t="n">
-        <v>4453.5258</v>
+        <v>4454.5604</v>
       </c>
       <c r="AB72" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC72" s="44">
-        <f>if(B55="DIV", F55,"")</f>
+        <f>if(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD72" s="62" t="inlineStr">
@@ -7249,7 +7180,7 @@
     </row>
     <row r="73">
       <c r="A73" s="50" t="n">
-        <v>43678</v>
+        <v>43682</v>
       </c>
       <c r="B73" s="51" t="inlineStr">
         <is>
@@ -7262,13 +7193,13 @@
         </is>
       </c>
       <c r="D73" s="52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E73" s="53" t="n">
-        <v>300.3</v>
+        <v>301.86</v>
       </c>
       <c r="F73" s="53" t="n">
-        <v>6005.97</v>
+        <v>3018.58</v>
       </c>
       <c r="G73" s="51" t="inlineStr">
         <is>
@@ -7276,10 +7207,10 @@
         </is>
       </c>
       <c r="H73" s="52" t="n">
-        <v>6.02</v>
+        <v>2.99</v>
       </c>
       <c r="I73" s="52" t="n">
-        <v>35.95</v>
+        <v>18.09</v>
       </c>
       <c r="J73" s="42">
         <f>Index!$C$2</f>
@@ -7287,63 +7218,63 @@
       </c>
       <c r="K73" s="47" t="n"/>
       <c r="L73" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="M73" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
         <v/>
       </c>
       <c r="N73" s="57">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
         <v/>
       </c>
       <c r="O73" s="56" t="n"/>
       <c r="P73" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
         <v/>
       </c>
       <c r="R73" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="S73" s="56" t="n"/>
       <c r="T73" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (J55*D55)-(E55*D55)-(2*sum(H55:I55)), "")</f>
         <v/>
       </c>
       <c r="U73" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
         <v/>
       </c>
       <c r="V73" s="56">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="W73" s="53" t="n">
-        <v>437.94</v>
+        <v>447.39</v>
       </c>
       <c r="X73" s="50" t="n">
-        <v>44025</v>
+        <v>44036</v>
       </c>
       <c r="Y73" s="46" t="n">
-        <v>0.4487909602</v>
+        <v>0.4720678629</v>
       </c>
       <c r="Z73" s="58" t="n">
-        <v>2714.2608</v>
+        <v>1434.9258</v>
       </c>
       <c r="AA73" s="58" t="n">
-        <v>8720.2608</v>
+        <v>4453.5258</v>
       </c>
       <c r="AB73" s="59" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC73" s="44">
-        <f>if(B56="DIV", F56,"")</f>
+        <f>if(B55="DIV", F55,"")</f>
         <v/>
       </c>
       <c r="AD73" s="62" t="inlineStr">
@@ -7354,7 +7285,7 @@
     </row>
     <row r="74">
       <c r="A74" s="50" t="n">
-        <v>43670</v>
+        <v>43678</v>
       </c>
       <c r="B74" s="51" t="inlineStr">
         <is>
@@ -7367,13 +7298,13 @@
         </is>
       </c>
       <c r="D74" s="52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E74" s="53" t="n">
-        <v>317.82</v>
+        <v>300.3</v>
       </c>
       <c r="F74" s="53" t="n">
-        <v>3178.2</v>
+        <v>6005.97</v>
       </c>
       <c r="G74" s="51" t="inlineStr">
         <is>
@@ -7381,10 +7312,10 @@
         </is>
       </c>
       <c r="H74" s="52" t="n">
-        <v>3.13</v>
+        <v>6.02</v>
       </c>
       <c r="I74" s="52" t="n">
-        <v>19.07</v>
+        <v>35.95</v>
       </c>
       <c r="J74" s="42">
         <f>Index!$C$2</f>
@@ -7392,41 +7323,41 @@
       </c>
       <c r="K74" s="47" t="n"/>
       <c r="L74" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M74" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N74" s="57">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O74" s="56" t="n"/>
       <c r="P74" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R74" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S74" s="56" t="n"/>
       <c r="T74" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U74" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V74" s="56">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W74" s="53" t="n">
@@ -7436,19 +7367,19 @@
         <v>44025</v>
       </c>
       <c r="Y74" s="46" t="n">
-        <v>0.3700734908</v>
+        <v>0.4487909602</v>
       </c>
       <c r="Z74" s="58" t="n">
-        <v>1184.3832</v>
+        <v>2714.2608</v>
       </c>
       <c r="AA74" s="58" t="n">
-        <v>4362.5832</v>
+        <v>8720.2608</v>
       </c>
       <c r="AB74" s="59" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC74" s="44">
-        <f>if(B57="DIV", F57,"")</f>
+        <f>if(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD74" s="62" t="inlineStr">
@@ -7459,7 +7390,7 @@
     </row>
     <row r="75">
       <c r="A75" s="50" t="n">
-        <v>43668</v>
+        <v>43670</v>
       </c>
       <c r="B75" s="51" t="inlineStr">
         <is>
@@ -7475,10 +7406,10 @@
         <v>10</v>
       </c>
       <c r="E75" s="53" t="n">
-        <v>318.1</v>
+        <v>317.82</v>
       </c>
       <c r="F75" s="53" t="n">
-        <v>3180.98</v>
+        <v>3178.2</v>
       </c>
       <c r="G75" s="51" t="inlineStr">
         <is>
@@ -7486,10 +7417,10 @@
         </is>
       </c>
       <c r="H75" s="52" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="I75" s="52" t="n">
-        <v>19.11</v>
+        <v>19.07</v>
       </c>
       <c r="J75" s="42">
         <f>Index!$C$2</f>
@@ -7497,41 +7428,41 @@
       </c>
       <c r="K75" s="47" t="n"/>
       <c r="L75" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M75" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N75" s="57">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O75" s="56" t="n"/>
       <c r="P75" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R75" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S75" s="56" t="n"/>
       <c r="T75" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
         <v/>
       </c>
       <c r="U75" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V75" s="56">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="W75" s="53" t="n">
@@ -7541,19 +7472,19 @@
         <v>44025</v>
       </c>
       <c r="Y75" s="46" t="n">
-        <v>0.3688927184</v>
+        <v>0.3700734908</v>
       </c>
       <c r="Z75" s="58" t="n">
-        <v>1181.6224</v>
+        <v>1184.3832</v>
       </c>
       <c r="AA75" s="58" t="n">
-        <v>4362.6224</v>
+        <v>4362.5832</v>
       </c>
       <c r="AB75" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC75" s="44">
-        <f>if(B58="DIV", F58,"")</f>
+        <f>if(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD75" s="62" t="inlineStr">
@@ -7564,7 +7495,7 @@
     </row>
     <row r="76">
       <c r="A76" s="50" t="n">
-        <v>43665</v>
+        <v>43668</v>
       </c>
       <c r="B76" s="51" t="inlineStr">
         <is>
@@ -7580,10 +7511,10 @@
         <v>10</v>
       </c>
       <c r="E76" s="53" t="n">
-        <v>324.56</v>
+        <v>318.1</v>
       </c>
       <c r="F76" s="53" t="n">
-        <v>3245.64</v>
+        <v>3180.98</v>
       </c>
       <c r="G76" s="51" t="inlineStr">
         <is>
@@ -7591,10 +7522,10 @@
         </is>
       </c>
       <c r="H76" s="52" t="n">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
       <c r="I76" s="52" t="n">
-        <v>19.42</v>
+        <v>19.11</v>
       </c>
       <c r="J76" s="42">
         <f>Index!$C$2</f>
@@ -7602,41 +7533,41 @@
       </c>
       <c r="K76" s="47" t="n"/>
       <c r="L76" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M76" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N76" s="57">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O76" s="56" t="n"/>
       <c r="P76" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R76" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S76" s="56" t="n"/>
       <c r="T76" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
         <v/>
       </c>
       <c r="U76" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V76" s="56">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="W76" s="53" t="n">
@@ -7646,42 +7577,131 @@
         <v>44025</v>
       </c>
       <c r="Y76" s="46" t="n">
-        <v>0.3420535572</v>
+        <v>0.3688927184</v>
       </c>
       <c r="Z76" s="58" t="n">
-        <v>1117.9268</v>
+        <v>1181.6224</v>
       </c>
       <c r="AA76" s="58" t="n">
-        <v>4363.5268</v>
+        <v>4362.6224</v>
       </c>
       <c r="AB76" s="59" t="n">
         <v>10</v>
       </c>
       <c r="AC76" s="44">
+        <f>if(B58="DIV", F58,"")</f>
+        <v/>
+      </c>
+      <c r="AD76" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="50" t="n">
+        <v>43665</v>
+      </c>
+      <c r="B77" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C77" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D77" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E77" s="53" t="n">
+        <v>324.56</v>
+      </c>
+      <c r="F77" s="53" t="n">
+        <v>3245.64</v>
+      </c>
+      <c r="G77" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H77" s="52" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I77" s="52" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="J77" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K77" s="47" t="n"/>
+      <c r="L77" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="M77" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <v/>
+      </c>
+      <c r="N77" s="57">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <v/>
+      </c>
+      <c r="O77" s="56" t="n"/>
+      <c r="P77" s="47">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="Q77" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <v/>
+      </c>
+      <c r="R77" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="S77" s="56" t="n"/>
+      <c r="T77" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <v/>
+      </c>
+      <c r="U77" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <v/>
+      </c>
+      <c r="V77" s="56">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="W77" s="53" t="n">
+        <v>437.94</v>
+      </c>
+      <c r="X77" s="50" t="n">
+        <v>44025</v>
+      </c>
+      <c r="Y77" s="46" t="n">
+        <v>0.3420535572</v>
+      </c>
+      <c r="Z77" s="58" t="n">
+        <v>1117.9268</v>
+      </c>
+      <c r="AA77" s="58" t="n">
+        <v>4363.5268</v>
+      </c>
+      <c r="AB77" s="59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC77" s="44">
         <f>if(B59="DIV", F59,"")</f>
         <v/>
       </c>
-      <c r="AD76" s="62" t="inlineStr">
+      <c r="AD77" s="62" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
       </c>
-    </row>
-    <row r="77">
-      <c r="E77" s="63" t="n"/>
-      <c r="F77" s="63" t="n"/>
-      <c r="G77" s="64" t="n"/>
-      <c r="J77" s="63" t="n"/>
-      <c r="K77" s="63" t="n"/>
-      <c r="L77" s="63" t="n"/>
-      <c r="M77" s="66" t="n"/>
-      <c r="W77" s="63" t="n"/>
-      <c r="X77" s="63" t="n"/>
-      <c r="Y77" s="63" t="n"/>
-      <c r="Z77" s="63" t="n"/>
-      <c r="AA77" s="63" t="n"/>
-      <c r="AB77" s="63" t="n"/>
-      <c r="AC77" s="63" t="n"/>
     </row>
     <row r="78">
       <c r="E78" s="63" t="n"/>
@@ -22650,6 +22670,7 @@
       <c r="J1013" s="63" t="n"/>
       <c r="K1013" s="63" t="n"/>
       <c r="L1013" s="63" t="n"/>
+      <c r="M1013" s="66" t="n"/>
       <c r="W1013" s="63" t="n"/>
       <c r="X1013" s="63" t="n"/>
       <c r="Y1013" s="63" t="n"/>
@@ -22897,6 +22918,21 @@
       <c r="AA1029" s="63" t="n"/>
       <c r="AB1029" s="63" t="n"/>
       <c r="AC1029" s="63" t="n"/>
+    </row>
+    <row r="1030">
+      <c r="E1030" s="63" t="n"/>
+      <c r="F1030" s="63" t="n"/>
+      <c r="G1030" s="64" t="n"/>
+      <c r="J1030" s="63" t="n"/>
+      <c r="K1030" s="63" t="n"/>
+      <c r="L1030" s="63" t="n"/>
+      <c r="W1030" s="63" t="n"/>
+      <c r="X1030" s="63" t="n"/>
+      <c r="Y1030" s="63" t="n"/>
+      <c r="Z1030" s="63" t="n"/>
+      <c r="AA1030" s="63" t="n"/>
+      <c r="AB1030" s="63" t="n"/>
+      <c r="AC1030" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$89"/>
